--- a/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
+++ b/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E7935F-2E53-4084-A999-D65105253760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A423A4E-4F7A-4ED5-A412-5016DB38F594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="nợ" sheetId="8" r:id="rId5"/>
     <sheet name="Tổng" sheetId="5" r:id="rId6"/>
     <sheet name="báo cáo" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$39</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -316,20 +317,103 @@
   </si>
   <si>
     <t>Daleston 75</t>
+  </si>
+  <si>
+    <t>Montiget</t>
+  </si>
+  <si>
+    <t>Sterimar baby</t>
+  </si>
+  <si>
+    <t>Klavunamox</t>
+  </si>
+  <si>
+    <t>Thanh toán mã ngày 21/05/2020</t>
+  </si>
+  <si>
+    <t>cốc giấy</t>
+  </si>
+  <si>
+    <t>Giấy A5</t>
+  </si>
+  <si>
+    <t>Quy ra công</t>
+  </si>
+  <si>
+    <t>Năm:</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Ốm đau</t>
+  </si>
+  <si>
+    <t>Nghỉ không lương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nửa ngày công </t>
+  </si>
+  <si>
+    <t>Ngày công thực tế</t>
+  </si>
+  <si>
+    <t>Ngày nghỉ có lương</t>
+  </si>
+  <si>
+    <t>Nửa công</t>
+  </si>
+  <si>
+    <t>Nghỉ có lương</t>
+  </si>
+  <si>
+    <t>Ngày công</t>
+  </si>
+  <si>
+    <t>Nghỉ ốm</t>
+  </si>
+  <si>
+    <t>MINH</t>
+  </si>
+  <si>
+    <t>Bảng chấm công</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>P.Hương</t>
+  </si>
+  <si>
+    <t>T.Hương</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="166" formatCode="[$-101042A]d\ mmm\ yy;@"/>
     <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="170" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
+    <numFmt numFmtId="171" formatCode="dd"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +530,48 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -931,20 +1057,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -957,6 +1084,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,6 +1097,27 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,32 +1174,116 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1387,7 +1622,7 @@
   </sheetPr>
   <dimension ref="A2:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
@@ -1436,121 +1671,121 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="132" t="s">
+      <c r="A4" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="160" t="s">
+      <c r="D4" s="138"/>
+      <c r="E4" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="131" t="s">
+      <c r="F4" s="148"/>
+      <c r="G4" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="165" t="s">
+      <c r="H4" s="138"/>
+      <c r="I4" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="131" t="s">
+      <c r="J4" s="143"/>
+      <c r="K4" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="131"/>
-      <c r="M4" s="165" t="s">
+      <c r="L4" s="138"/>
+      <c r="M4" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="165"/>
-      <c r="O4" s="137" t="s">
+      <c r="N4" s="143"/>
+      <c r="O4" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="131" t="s">
+      <c r="P4" s="139"/>
+      <c r="Q4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131" t="s">
+      <c r="R4" s="138"/>
+      <c r="S4" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131" t="s">
+      <c r="T4" s="138"/>
+      <c r="U4" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131" t="s">
+      <c r="V4" s="138"/>
+      <c r="W4" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="138" t="s">
+      <c r="X4" s="138"/>
+      <c r="Y4" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="129" t="s">
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="139" t="s">
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="136" t="s">
+      <c r="AD4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="131" t="s">
+      <c r="AE4" s="138" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="162" t="s">
+      <c r="F5" s="130" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="50" t="s">
@@ -1559,10 +1794,10 @@
       <c r="H5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="162" t="s">
+      <c r="I5" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="162" t="s">
+      <c r="J5" s="130" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="121" t="s">
@@ -1571,10 +1806,10 @@
       <c r="L5" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="162" t="s">
+      <c r="M5" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="162" t="s">
+      <c r="N5" s="130" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="54" t="s">
@@ -1619,9 +1854,9 @@
       <c r="AB5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="131"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="138"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -1652,10 +1887,10 @@
         <f>PRODUCT(C6,200000)</f>
         <v>800000</v>
       </c>
-      <c r="E6" s="163">
-        <v>0</v>
-      </c>
-      <c r="F6" s="163">
+      <c r="E6" s="131">
+        <v>0</v>
+      </c>
+      <c r="F6" s="131">
         <f>PRODUCT(E6,100000)</f>
         <v>0</v>
       </c>
@@ -1666,10 +1901,10 @@
         <f>PRODUCT(G6,300000)</f>
         <v>1200000</v>
       </c>
-      <c r="I6" s="166">
-        <v>0</v>
-      </c>
-      <c r="J6" s="166">
+      <c r="I6" s="133">
+        <v>0</v>
+      </c>
+      <c r="J6" s="133">
         <f>PRODUCT(I6,150000)</f>
         <v>0</v>
       </c>
@@ -1680,10 +1915,10 @@
         <f>PRODUCT(K6,300000)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="166">
-        <v>0</v>
-      </c>
-      <c r="N6" s="166">
+      <c r="M6" s="133">
+        <v>0</v>
+      </c>
+      <c r="N6" s="133">
         <f>PRODUCT(M7,150000)</f>
         <v>0</v>
       </c>
@@ -1760,10 +1995,10 @@
         <f t="shared" ref="D7:D36" si="0">PRODUCT(C7,200000)</f>
         <v>1000000</v>
       </c>
-      <c r="E7" s="163">
-        <v>0</v>
-      </c>
-      <c r="F7" s="163">
+      <c r="E7" s="131">
+        <v>0</v>
+      </c>
+      <c r="F7" s="131">
         <f t="shared" ref="F7:F36" si="1">PRODUCT(E7,100000)</f>
         <v>0</v>
       </c>
@@ -1774,10 +2009,10 @@
         <f t="shared" ref="H7:H36" si="2">PRODUCT(G7,300000)</f>
         <v>1200000</v>
       </c>
-      <c r="I7" s="166">
-        <v>0</v>
-      </c>
-      <c r="J7" s="166">
+      <c r="I7" s="133">
+        <v>0</v>
+      </c>
+      <c r="J7" s="133">
         <f t="shared" ref="J7:J36" si="3">PRODUCT(I7,150000)</f>
         <v>0</v>
       </c>
@@ -1788,10 +2023,10 @@
         <f t="shared" ref="L7:L36" si="4">PRODUCT(K7,300000)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="166">
-        <v>0</v>
-      </c>
-      <c r="N7" s="166">
+      <c r="M7" s="133">
+        <v>0</v>
+      </c>
+      <c r="N7" s="133">
         <f t="shared" ref="N7:N36" si="5">PRODUCT(M8,150000)</f>
         <v>0</v>
       </c>
@@ -1868,10 +2103,10 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E8" s="163">
-        <v>0</v>
-      </c>
-      <c r="F8" s="163">
+      <c r="E8" s="131">
+        <v>0</v>
+      </c>
+      <c r="F8" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1882,10 +2117,10 @@
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I8" s="166">
-        <v>0</v>
-      </c>
-      <c r="J8" s="166">
+      <c r="I8" s="133">
+        <v>0</v>
+      </c>
+      <c r="J8" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1896,10 +2131,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="166">
-        <v>0</v>
-      </c>
-      <c r="N8" s="166">
+      <c r="M8" s="133">
+        <v>0</v>
+      </c>
+      <c r="N8" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1989,10 +2224,10 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E9" s="163">
-        <v>0</v>
-      </c>
-      <c r="F9" s="163">
+      <c r="E9" s="131">
+        <v>0</v>
+      </c>
+      <c r="F9" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2003,10 +2238,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="166">
-        <v>0</v>
-      </c>
-      <c r="J9" s="166">
+      <c r="I9" s="133">
+        <v>0</v>
+      </c>
+      <c r="J9" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2017,10 +2252,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="166">
-        <v>0</v>
-      </c>
-      <c r="N9" s="166">
+      <c r="M9" s="133">
+        <v>0</v>
+      </c>
+      <c r="N9" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2097,10 +2332,10 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E10" s="163">
-        <v>0</v>
-      </c>
-      <c r="F10" s="163">
+      <c r="E10" s="131">
+        <v>0</v>
+      </c>
+      <c r="F10" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2111,10 +2346,10 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I10" s="166">
-        <v>0</v>
-      </c>
-      <c r="J10" s="166">
+      <c r="I10" s="133">
+        <v>0</v>
+      </c>
+      <c r="J10" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2125,10 +2360,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="166">
-        <v>0</v>
-      </c>
-      <c r="N10" s="166">
+      <c r="M10" s="133">
+        <v>0</v>
+      </c>
+      <c r="N10" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2205,10 +2440,10 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E11" s="163">
-        <v>0</v>
-      </c>
-      <c r="F11" s="163">
+      <c r="E11" s="131">
+        <v>0</v>
+      </c>
+      <c r="F11" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2219,10 +2454,10 @@
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I11" s="166">
-        <v>0</v>
-      </c>
-      <c r="J11" s="166">
+      <c r="I11" s="133">
+        <v>0</v>
+      </c>
+      <c r="J11" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2233,10 +2468,10 @@
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M11" s="166">
-        <v>0</v>
-      </c>
-      <c r="N11" s="166">
+      <c r="M11" s="133">
+        <v>0</v>
+      </c>
+      <c r="N11" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2313,10 +2548,10 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E12" s="163">
-        <v>0</v>
-      </c>
-      <c r="F12" s="163">
+      <c r="E12" s="131">
+        <v>0</v>
+      </c>
+      <c r="F12" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2327,10 +2562,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="166">
-        <v>0</v>
-      </c>
-      <c r="J12" s="166">
+      <c r="I12" s="133">
+        <v>0</v>
+      </c>
+      <c r="J12" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2341,10 +2576,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="166">
-        <v>0</v>
-      </c>
-      <c r="N12" s="166">
+      <c r="M12" s="133">
+        <v>0</v>
+      </c>
+      <c r="N12" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2421,10 +2656,10 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E13" s="163">
-        <v>0</v>
-      </c>
-      <c r="F13" s="163">
+      <c r="E13" s="131">
+        <v>0</v>
+      </c>
+      <c r="F13" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2435,10 +2670,10 @@
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I13" s="166">
-        <v>0</v>
-      </c>
-      <c r="J13" s="166">
+      <c r="I13" s="133">
+        <v>0</v>
+      </c>
+      <c r="J13" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2449,10 +2684,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="166">
-        <v>0</v>
-      </c>
-      <c r="N13" s="166">
+      <c r="M13" s="133">
+        <v>0</v>
+      </c>
+      <c r="N13" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2529,10 +2764,10 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E14" s="163">
-        <v>0</v>
-      </c>
-      <c r="F14" s="163">
+      <c r="E14" s="131">
+        <v>0</v>
+      </c>
+      <c r="F14" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2543,10 +2778,10 @@
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I14" s="166">
-        <v>0</v>
-      </c>
-      <c r="J14" s="166">
+      <c r="I14" s="133">
+        <v>0</v>
+      </c>
+      <c r="J14" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2557,10 +2792,10 @@
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M14" s="166">
-        <v>0</v>
-      </c>
-      <c r="N14" s="166">
+      <c r="M14" s="133">
+        <v>0</v>
+      </c>
+      <c r="N14" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2639,10 +2874,10 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E15" s="163">
-        <v>0</v>
-      </c>
-      <c r="F15" s="163">
+      <c r="E15" s="131">
+        <v>0</v>
+      </c>
+      <c r="F15" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2653,10 +2888,10 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I15" s="166">
-        <v>0</v>
-      </c>
-      <c r="J15" s="166">
+      <c r="I15" s="133">
+        <v>0</v>
+      </c>
+      <c r="J15" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2667,10 +2902,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="166">
-        <v>0</v>
-      </c>
-      <c r="N15" s="166">
+      <c r="M15" s="133">
+        <v>0</v>
+      </c>
+      <c r="N15" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2749,10 +2984,10 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E16" s="163">
-        <v>0</v>
-      </c>
-      <c r="F16" s="163">
+      <c r="E16" s="131">
+        <v>0</v>
+      </c>
+      <c r="F16" s="131">
         <f>PRODUCT(E17,100000)</f>
         <v>0</v>
       </c>
@@ -2763,10 +2998,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="166">
-        <v>0</v>
-      </c>
-      <c r="J16" s="166">
+      <c r="I16" s="133">
+        <v>0</v>
+      </c>
+      <c r="J16" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2777,10 +3012,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="166">
-        <v>0</v>
-      </c>
-      <c r="N16" s="166">
+      <c r="M16" s="133">
+        <v>0</v>
+      </c>
+      <c r="N16" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2859,10 +3094,10 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E17" s="163">
-        <v>0</v>
-      </c>
-      <c r="F17" s="163">
+      <c r="E17" s="131">
+        <v>0</v>
+      </c>
+      <c r="F17" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2873,10 +3108,10 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I17" s="166">
-        <v>0</v>
-      </c>
-      <c r="J17" s="166">
+      <c r="I17" s="133">
+        <v>0</v>
+      </c>
+      <c r="J17" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2887,10 +3122,10 @@
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M17" s="166">
-        <v>0</v>
-      </c>
-      <c r="N17" s="166">
+      <c r="M17" s="133">
+        <v>0</v>
+      </c>
+      <c r="N17" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2969,10 +3204,10 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E18" s="163">
-        <v>0</v>
-      </c>
-      <c r="F18" s="163">
+      <c r="E18" s="131">
+        <v>0</v>
+      </c>
+      <c r="F18" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2983,10 +3218,10 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I18" s="166">
-        <v>0</v>
-      </c>
-      <c r="J18" s="166">
+      <c r="I18" s="133">
+        <v>0</v>
+      </c>
+      <c r="J18" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2997,10 +3232,10 @@
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M18" s="166">
-        <v>0</v>
-      </c>
-      <c r="N18" s="166">
+      <c r="M18" s="133">
+        <v>0</v>
+      </c>
+      <c r="N18" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3079,10 +3314,10 @@
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
-      <c r="E19" s="163">
-        <v>0</v>
-      </c>
-      <c r="F19" s="163">
+      <c r="E19" s="131">
+        <v>0</v>
+      </c>
+      <c r="F19" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3093,10 +3328,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="166">
-        <v>0</v>
-      </c>
-      <c r="J19" s="166">
+      <c r="I19" s="133">
+        <v>0</v>
+      </c>
+      <c r="J19" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3107,10 +3342,10 @@
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M19" s="166">
-        <v>0</v>
-      </c>
-      <c r="N19" s="166">
+      <c r="M19" s="133">
+        <v>0</v>
+      </c>
+      <c r="N19" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3189,10 +3424,10 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E20" s="163">
-        <v>0</v>
-      </c>
-      <c r="F20" s="163">
+      <c r="E20" s="131">
+        <v>0</v>
+      </c>
+      <c r="F20" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3203,10 +3438,10 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I20" s="166">
-        <v>0</v>
-      </c>
-      <c r="J20" s="166">
+      <c r="I20" s="133">
+        <v>0</v>
+      </c>
+      <c r="J20" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3217,10 +3452,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="166">
-        <v>0</v>
-      </c>
-      <c r="N20" s="166">
+      <c r="M20" s="133">
+        <v>0</v>
+      </c>
+      <c r="N20" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3299,10 +3534,10 @@
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E21" s="163">
-        <v>0</v>
-      </c>
-      <c r="F21" s="163">
+      <c r="E21" s="131">
+        <v>0</v>
+      </c>
+      <c r="F21" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3313,10 +3548,10 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I21" s="166">
-        <v>0</v>
-      </c>
-      <c r="J21" s="166">
+      <c r="I21" s="133">
+        <v>0</v>
+      </c>
+      <c r="J21" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3327,10 +3562,10 @@
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M21" s="166">
-        <v>0</v>
-      </c>
-      <c r="N21" s="166">
+      <c r="M21" s="133">
+        <v>0</v>
+      </c>
+      <c r="N21" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3409,10 +3644,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="163">
-        <v>0</v>
-      </c>
-      <c r="F22" s="163">
+      <c r="E22" s="131">
+        <v>0</v>
+      </c>
+      <c r="F22" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3423,10 +3658,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I22" s="166">
-        <v>0</v>
-      </c>
-      <c r="J22" s="166">
+      <c r="I22" s="133">
+        <v>0</v>
+      </c>
+      <c r="J22" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3437,10 +3672,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="166">
-        <v>0</v>
-      </c>
-      <c r="N22" s="166">
+      <c r="M22" s="133">
+        <v>0</v>
+      </c>
+      <c r="N22" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3519,10 +3754,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="163">
-        <v>0</v>
-      </c>
-      <c r="F23" s="163">
+      <c r="E23" s="131">
+        <v>0</v>
+      </c>
+      <c r="F23" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3533,10 +3768,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="166">
-        <v>0</v>
-      </c>
-      <c r="J23" s="166">
+      <c r="I23" s="133">
+        <v>0</v>
+      </c>
+      <c r="J23" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3547,10 +3782,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="166">
-        <v>0</v>
-      </c>
-      <c r="N23" s="166">
+      <c r="M23" s="133">
+        <v>0</v>
+      </c>
+      <c r="N23" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3629,10 +3864,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="163">
-        <v>0</v>
-      </c>
-      <c r="F24" s="163">
+      <c r="E24" s="131">
+        <v>0</v>
+      </c>
+      <c r="F24" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3643,10 +3878,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I24" s="166">
-        <v>0</v>
-      </c>
-      <c r="J24" s="166">
+      <c r="I24" s="133">
+        <v>0</v>
+      </c>
+      <c r="J24" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3657,10 +3892,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M24" s="166">
-        <v>0</v>
-      </c>
-      <c r="N24" s="166">
+      <c r="M24" s="133">
+        <v>0</v>
+      </c>
+      <c r="N24" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3739,10 +3974,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="163">
-        <v>0</v>
-      </c>
-      <c r="F25" s="163">
+      <c r="E25" s="131">
+        <v>0</v>
+      </c>
+      <c r="F25" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3753,10 +3988,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I25" s="166">
-        <v>0</v>
-      </c>
-      <c r="J25" s="166">
+      <c r="I25" s="133">
+        <v>0</v>
+      </c>
+      <c r="J25" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3767,10 +4002,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M25" s="166">
-        <v>0</v>
-      </c>
-      <c r="N25" s="166">
+      <c r="M25" s="133">
+        <v>0</v>
+      </c>
+      <c r="N25" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3849,10 +4084,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="163">
-        <v>0</v>
-      </c>
-      <c r="F26" s="163">
+      <c r="E26" s="131">
+        <v>0</v>
+      </c>
+      <c r="F26" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3863,10 +4098,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I26" s="166">
-        <v>0</v>
-      </c>
-      <c r="J26" s="166">
+      <c r="I26" s="133">
+        <v>0</v>
+      </c>
+      <c r="J26" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3877,10 +4112,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M26" s="166">
-        <v>0</v>
-      </c>
-      <c r="N26" s="166">
+      <c r="M26" s="133">
+        <v>0</v>
+      </c>
+      <c r="N26" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3959,10 +4194,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="163">
-        <v>0</v>
-      </c>
-      <c r="F27" s="163">
+      <c r="E27" s="131">
+        <v>0</v>
+      </c>
+      <c r="F27" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3973,10 +4208,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I27" s="166">
-        <v>0</v>
-      </c>
-      <c r="J27" s="166">
+      <c r="I27" s="133">
+        <v>0</v>
+      </c>
+      <c r="J27" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3987,10 +4222,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M27" s="166">
-        <v>0</v>
-      </c>
-      <c r="N27" s="166">
+      <c r="M27" s="133">
+        <v>0</v>
+      </c>
+      <c r="N27" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4069,10 +4304,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="163">
-        <v>0</v>
-      </c>
-      <c r="F28" s="163">
+      <c r="E28" s="131">
+        <v>0</v>
+      </c>
+      <c r="F28" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4083,10 +4318,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="166">
-        <v>0</v>
-      </c>
-      <c r="J28" s="166">
+      <c r="I28" s="133">
+        <v>0</v>
+      </c>
+      <c r="J28" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4097,10 +4332,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M28" s="166">
-        <v>0</v>
-      </c>
-      <c r="N28" s="166">
+      <c r="M28" s="133">
+        <v>0</v>
+      </c>
+      <c r="N28" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4179,10 +4414,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="163">
-        <v>0</v>
-      </c>
-      <c r="F29" s="163">
+      <c r="E29" s="131">
+        <v>0</v>
+      </c>
+      <c r="F29" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4193,10 +4428,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I29" s="166">
-        <v>0</v>
-      </c>
-      <c r="J29" s="166">
+      <c r="I29" s="133">
+        <v>0</v>
+      </c>
+      <c r="J29" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4207,10 +4442,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M29" s="166">
-        <v>0</v>
-      </c>
-      <c r="N29" s="166">
+      <c r="M29" s="133">
+        <v>0</v>
+      </c>
+      <c r="N29" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4289,10 +4524,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="163">
-        <v>0</v>
-      </c>
-      <c r="F30" s="163">
+      <c r="E30" s="131">
+        <v>0</v>
+      </c>
+      <c r="F30" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4303,10 +4538,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="166">
-        <v>0</v>
-      </c>
-      <c r="J30" s="166">
+      <c r="I30" s="133">
+        <v>0</v>
+      </c>
+      <c r="J30" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4317,10 +4552,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="166">
-        <v>0</v>
-      </c>
-      <c r="N30" s="166">
+      <c r="M30" s="133">
+        <v>0</v>
+      </c>
+      <c r="N30" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4399,10 +4634,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="163">
-        <v>0</v>
-      </c>
-      <c r="F31" s="163">
+      <c r="E31" s="131">
+        <v>0</v>
+      </c>
+      <c r="F31" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4413,10 +4648,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="166">
-        <v>0</v>
-      </c>
-      <c r="J31" s="166">
+      <c r="I31" s="133">
+        <v>0</v>
+      </c>
+      <c r="J31" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4427,10 +4662,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="166">
-        <v>0</v>
-      </c>
-      <c r="N31" s="166">
+      <c r="M31" s="133">
+        <v>0</v>
+      </c>
+      <c r="N31" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4509,10 +4744,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="163">
-        <v>0</v>
-      </c>
-      <c r="F32" s="163">
+      <c r="E32" s="131">
+        <v>0</v>
+      </c>
+      <c r="F32" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4523,10 +4758,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32" s="166">
-        <v>0</v>
-      </c>
-      <c r="J32" s="166">
+      <c r="I32" s="133">
+        <v>0</v>
+      </c>
+      <c r="J32" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4537,10 +4772,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M32" s="166">
-        <v>0</v>
-      </c>
-      <c r="N32" s="166">
+      <c r="M32" s="133">
+        <v>0</v>
+      </c>
+      <c r="N32" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4619,10 +4854,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="163">
-        <v>0</v>
-      </c>
-      <c r="F33" s="163">
+      <c r="E33" s="131">
+        <v>0</v>
+      </c>
+      <c r="F33" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4633,10 +4868,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I33" s="166">
-        <v>0</v>
-      </c>
-      <c r="J33" s="166">
+      <c r="I33" s="133">
+        <v>0</v>
+      </c>
+      <c r="J33" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4647,10 +4882,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="166">
-        <v>0</v>
-      </c>
-      <c r="N33" s="166">
+      <c r="M33" s="133">
+        <v>0</v>
+      </c>
+      <c r="N33" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4729,10 +4964,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="163">
-        <v>0</v>
-      </c>
-      <c r="F34" s="163">
+      <c r="E34" s="131">
+        <v>0</v>
+      </c>
+      <c r="F34" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4743,10 +4978,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="166">
-        <v>0</v>
-      </c>
-      <c r="J34" s="166">
+      <c r="I34" s="133">
+        <v>0</v>
+      </c>
+      <c r="J34" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4757,10 +4992,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="166">
-        <v>0</v>
-      </c>
-      <c r="N34" s="166">
+      <c r="M34" s="133">
+        <v>0</v>
+      </c>
+      <c r="N34" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4839,10 +5074,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="163">
-        <v>0</v>
-      </c>
-      <c r="F35" s="163">
+      <c r="E35" s="131">
+        <v>0</v>
+      </c>
+      <c r="F35" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4853,10 +5088,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="166">
-        <v>0</v>
-      </c>
-      <c r="J35" s="166">
+      <c r="I35" s="133">
+        <v>0</v>
+      </c>
+      <c r="J35" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4867,10 +5102,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M35" s="166">
-        <v>0</v>
-      </c>
-      <c r="N35" s="166">
+      <c r="M35" s="133">
+        <v>0</v>
+      </c>
+      <c r="N35" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4949,10 +5184,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="163">
-        <v>0</v>
-      </c>
-      <c r="F36" s="163">
+      <c r="E36" s="131">
+        <v>0</v>
+      </c>
+      <c r="F36" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4963,10 +5198,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="166">
-        <v>0</v>
-      </c>
-      <c r="J36" s="166">
+      <c r="I36" s="133">
+        <v>0</v>
+      </c>
+      <c r="J36" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4977,10 +5212,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M36" s="166">
-        <v>0</v>
-      </c>
-      <c r="N36" s="166">
+      <c r="M36" s="133">
+        <v>0</v>
+      </c>
+      <c r="N36" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5060,11 +5295,11 @@
         <f>SUM(D7:D36)</f>
         <v>13800000</v>
       </c>
-      <c r="E37" s="164">
+      <c r="E37" s="132">
         <f>SUM(E7:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="164">
+      <c r="F37" s="132">
         <f t="shared" ref="F37:Y37" si="15">SUM(F7:F36)</f>
         <v>0</v>
       </c>
@@ -5076,11 +5311,11 @@
         <f t="shared" si="15"/>
         <v>7200000</v>
       </c>
-      <c r="I37" s="164">
+      <c r="I37" s="132">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J37" s="164">
+      <c r="J37" s="132">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -5092,11 +5327,11 @@
         <f t="shared" si="16"/>
         <v>2400000</v>
       </c>
-      <c r="M37" s="164">
+      <c r="M37" s="132">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N37" s="164">
+      <c r="N37" s="132">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -5171,73 +5406,73 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="128">
-        <v>0</v>
-      </c>
-      <c r="D38" s="128"/>
+      <c r="C38" s="144">
+        <v>0</v>
+      </c>
+      <c r="D38" s="144"/>
       <c r="E38" s="91"/>
       <c r="F38" s="91"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="133"/>
-      <c r="Q38" s="133"/>
-      <c r="R38" s="133"/>
-      <c r="S38" s="133"/>
-      <c r="T38" s="133"/>
-      <c r="U38" s="133"/>
-      <c r="V38" s="133"/>
-      <c r="W38" s="133"/>
-      <c r="X38" s="133"/>
-      <c r="Y38" s="133"/>
-      <c r="Z38" s="133"/>
-      <c r="AA38" s="133"/>
-      <c r="AB38" s="133"/>
-      <c r="AC38" s="133"/>
-      <c r="AD38" s="133"/>
-      <c r="AE38" s="133"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="134"/>
+      <c r="W38" s="134"/>
+      <c r="X38" s="134"/>
+      <c r="Y38" s="134"/>
+      <c r="Z38" s="134"/>
+      <c r="AA38" s="134"/>
+      <c r="AB38" s="134"/>
+      <c r="AC38" s="134"/>
+      <c r="AD38" s="134"/>
+      <c r="AE38" s="134"/>
     </row>
     <row r="39" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="134">
-        <v>0</v>
-      </c>
-      <c r="D39" s="134"/>
+      <c r="C39" s="135">
+        <v>0</v>
+      </c>
+      <c r="D39" s="135"/>
       <c r="E39" s="92"/>
       <c r="F39" s="92"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="133"/>
-      <c r="U39" s="133"/>
-      <c r="V39" s="133"/>
-      <c r="W39" s="133"/>
-      <c r="X39" s="133"/>
-      <c r="Y39" s="133"/>
-      <c r="Z39" s="133"/>
-      <c r="AA39" s="133"/>
-      <c r="AB39" s="133"/>
-      <c r="AC39" s="133"/>
-      <c r="AD39" s="133"/>
-      <c r="AE39" s="133"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="134"/>
+      <c r="W39" s="134"/>
+      <c r="X39" s="134"/>
+      <c r="Y39" s="134"/>
+      <c r="Z39" s="134"/>
+      <c r="AA39" s="134"/>
+      <c r="AB39" s="134"/>
+      <c r="AC39" s="134"/>
+      <c r="AD39" s="134"/>
+      <c r="AE39" s="134"/>
       <c r="AH39" s="11" t="s">
         <v>9</v>
       </c>
@@ -5256,6 +5491,13 @@
   </sheetData>
   <autoFilter ref="AE4:AE39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G39:AE39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AE2"/>
@@ -5272,13 +5514,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5308,14 +5543,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -5959,10 +6194,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G41"/>
+  <dimension ref="A2:G43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5980,15 +6215,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="80" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="25"/>
@@ -6039,7 +6274,7 @@
     </row>
     <row r="7" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="126"/>
-      <c r="B7" s="143">
+      <c r="B7" s="152">
         <v>44046</v>
       </c>
       <c r="C7" s="126">
@@ -6056,7 +6291,7 @@
     </row>
     <row r="8" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="126"/>
-      <c r="B8" s="144"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="126">
         <v>2</v>
       </c>
@@ -6071,7 +6306,7 @@
     </row>
     <row r="9" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="126"/>
-      <c r="B9" s="144"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="126">
         <v>3</v>
       </c>
@@ -6086,7 +6321,7 @@
     </row>
     <row r="10" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="126"/>
-      <c r="B10" s="144"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="126">
         <v>4</v>
       </c>
@@ -6101,7 +6336,7 @@
     </row>
     <row r="11" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="126"/>
-      <c r="B11" s="144"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="126">
         <v>5</v>
       </c>
@@ -6114,7 +6349,7 @@
       <c r="F11" s="110"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="126"/>
       <c r="B12" s="125">
         <v>44047</v>
@@ -6125,7 +6360,7 @@
       <c r="F12" s="110"/>
       <c r="G12" s="126"/>
     </row>
-    <row r="13" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="126"/>
       <c r="B13" s="125">
         <v>44048</v>
@@ -6136,7 +6371,7 @@
       <c r="F13" s="110"/>
       <c r="G13" s="126"/>
     </row>
-    <row r="14" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="126"/>
       <c r="B14" s="125">
         <v>44049</v>
@@ -6147,32 +6382,42 @@
       <c r="F14" s="110"/>
       <c r="G14" s="126"/>
     </row>
-    <row r="15" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="126"/>
-      <c r="B15" s="125">
+      <c r="B15" s="152">
         <v>44050</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="126">
+        <v>1</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="110">
+        <v>530000</v>
+      </c>
       <c r="F15" s="110"/>
       <c r="G15" s="126"/>
     </row>
-    <row r="16" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="126"/>
-      <c r="B16" s="125">
-        <v>44051</v>
-      </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="110"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="126">
+        <v>2</v>
+      </c>
+      <c r="D16" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="110">
+        <v>772000</v>
+      </c>
       <c r="F16" s="110"/>
       <c r="G16" s="126"/>
     </row>
-    <row r="17" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="89" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="126"/>
       <c r="B17" s="125">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="C17" s="126"/>
       <c r="D17" s="126"/>
@@ -6180,10 +6425,10 @@
       <c r="F17" s="110"/>
       <c r="G17" s="126"/>
     </row>
-    <row r="18" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="126"/>
       <c r="B18" s="125">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="C18" s="126"/>
       <c r="D18" s="126"/>
@@ -6191,10 +6436,10 @@
       <c r="F18" s="110"/>
       <c r="G18" s="126"/>
     </row>
-    <row r="19" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="126"/>
       <c r="B19" s="125">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="C19" s="126"/>
       <c r="D19" s="126"/>
@@ -6202,10 +6447,10 @@
       <c r="F19" s="110"/>
       <c r="G19" s="126"/>
     </row>
-    <row r="20" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="126"/>
       <c r="B20" s="125">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="C20" s="126"/>
       <c r="D20" s="126"/>
@@ -6213,10 +6458,10 @@
       <c r="F20" s="110"/>
       <c r="G20" s="126"/>
     </row>
-    <row r="21" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="104" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="126"/>
       <c r="B21" s="125">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="C21" s="126"/>
       <c r="D21" s="126"/>
@@ -6224,10 +6469,10 @@
       <c r="F21" s="110"/>
       <c r="G21" s="126"/>
     </row>
-    <row r="22" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="126"/>
       <c r="B22" s="125">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="C22" s="126"/>
       <c r="D22" s="126"/>
@@ -6235,10 +6480,10 @@
       <c r="F22" s="110"/>
       <c r="G22" s="126"/>
     </row>
-    <row r="23" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="87" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="126"/>
       <c r="B23" s="125">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="C23" s="126"/>
       <c r="D23" s="126"/>
@@ -6246,10 +6491,10 @@
       <c r="F23" s="110"/>
       <c r="G23" s="126"/>
     </row>
-    <row r="24" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="104" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="126"/>
       <c r="B24" s="125">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="C24" s="126"/>
       <c r="D24" s="126"/>
@@ -6257,10 +6502,10 @@
       <c r="F24" s="110"/>
       <c r="G24" s="126"/>
     </row>
-    <row r="25" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="104" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="126"/>
       <c r="B25" s="125">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="C25" s="126"/>
       <c r="D25" s="126"/>
@@ -6270,30 +6515,42 @@
     </row>
     <row r="26" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="126"/>
-      <c r="B26" s="125">
-        <v>44061</v>
-      </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="110"/>
+      <c r="B26" s="152">
+        <v>44060</v>
+      </c>
+      <c r="C26" s="126">
+        <v>1</v>
+      </c>
+      <c r="D26" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="110">
+        <v>5825000</v>
+      </c>
       <c r="F26" s="110"/>
-      <c r="G26" s="126"/>
-    </row>
-    <row r="27" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="126" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="126"/>
-      <c r="B27" s="125">
-        <v>44062</v>
-      </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="110"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="126">
+        <v>2</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="110">
+        <v>5825000</v>
+      </c>
       <c r="F27" s="110"/>
       <c r="G27" s="126"/>
     </row>
     <row r="28" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="126"/>
       <c r="B28" s="125">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="C28" s="126"/>
       <c r="D28" s="126"/>
@@ -6301,10 +6558,10 @@
       <c r="F28" s="110"/>
       <c r="G28" s="126"/>
     </row>
-    <row r="29" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="126"/>
       <c r="B29" s="125">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="C29" s="126"/>
       <c r="D29" s="126"/>
@@ -6315,7 +6572,7 @@
     <row r="30" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="126"/>
       <c r="B30" s="125">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="C30" s="126"/>
       <c r="D30" s="126"/>
@@ -6323,10 +6580,10 @@
       <c r="F30" s="110"/>
       <c r="G30" s="126"/>
     </row>
-    <row r="31" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="126"/>
       <c r="B31" s="125">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="C31" s="126"/>
       <c r="D31" s="126"/>
@@ -6337,7 +6594,7 @@
     <row r="32" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="126"/>
       <c r="B32" s="125">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="C32" s="126"/>
       <c r="D32" s="126"/>
@@ -6345,10 +6602,10 @@
       <c r="F32" s="110"/>
       <c r="G32" s="126"/>
     </row>
-    <row r="33" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="126"/>
       <c r="B33" s="125">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="C33" s="126"/>
       <c r="D33" s="126"/>
@@ -6359,7 +6616,7 @@
     <row r="34" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="126"/>
       <c r="B34" s="125">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="C34" s="126"/>
       <c r="D34" s="126"/>
@@ -6367,10 +6624,10 @@
       <c r="F34" s="110"/>
       <c r="G34" s="126"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="126"/>
       <c r="B35" s="125">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="C35" s="126"/>
       <c r="D35" s="126"/>
@@ -6381,7 +6638,7 @@
     <row r="36" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="126"/>
       <c r="B36" s="125">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="C36" s="126"/>
       <c r="D36" s="126"/>
@@ -6389,10 +6646,10 @@
       <c r="F36" s="110"/>
       <c r="G36" s="126"/>
     </row>
-    <row r="37" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="126"/>
       <c r="B37" s="125">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="C37" s="126"/>
       <c r="D37" s="126"/>
@@ -6403,7 +6660,7 @@
     <row r="38" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="126"/>
       <c r="B38" s="125">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="C38" s="126"/>
       <c r="D38" s="126"/>
@@ -6411,10 +6668,10 @@
       <c r="F38" s="110"/>
       <c r="G38" s="126"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="126"/>
       <c r="B39" s="125">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="C39" s="126"/>
       <c r="D39" s="126"/>
@@ -6422,38 +6679,62 @@
       <c r="F39" s="110"/>
       <c r="G39" s="126"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+    <row r="40" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="126"/>
+      <c r="B40" s="125">
+        <v>44073</v>
+      </c>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="126"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="126"/>
+      <c r="B41" s="125">
+        <v>44074</v>
+      </c>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="126"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
         <v>35</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B42" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="120"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="86">
-        <f>SUM(E5:E39)</f>
-        <v>3890000</v>
-      </c>
-      <c r="F40" s="86">
-        <f>SUM(F5:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="71"/>
-    </row>
-    <row r="41" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="70"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="86">
+        <f>SUM(E5:E41)</f>
+        <v>16842000</v>
+      </c>
+      <c r="F42" s="86">
+        <f>SUM(F5:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="71"/>
+    </row>
+    <row r="43" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="76"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6469,7 +6750,7 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6483,14 +6764,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
@@ -6543,9 +6824,15 @@
       <c r="B7" s="96">
         <v>44046</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="34">
+        <v>10</v>
+      </c>
+      <c r="E7" s="42">
+        <v>20000</v>
+      </c>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -6711,9 +6998,13 @@
       <c r="B21" s="96">
         <v>44060</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="34" t="s">
+        <v>102</v>
+      </c>
       <c r="D21" s="34"/>
-      <c r="E21" s="42"/>
+      <c r="E21" s="42">
+        <v>130000</v>
+      </c>
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,7 +7170,7 @@
       <c r="D36" s="26"/>
       <c r="E36" s="43">
         <f>SUM(E5:E35)</f>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="F36" s="26"/>
     </row>
@@ -6915,12 +7206,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -6986,11 +7277,11 @@
     </row>
     <row r="7" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
       <c r="E7" s="48">
         <f>SUM(E4:E6)</f>
         <v>8105000</v>
@@ -7204,22 +7495,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6"/>
@@ -7272,7 +7563,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E36)</f>
-        <v>4205000</v>
+        <v>-8897000</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -7290,7 +7581,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="47">
-        <f>nợ!E7+nhập!F40</f>
+        <f>nợ!E7+nhập!F42</f>
         <v>8105000</v>
       </c>
     </row>
@@ -7313,12 +7604,12 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
     </row>
     <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -7339,7 +7630,7 @@
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="163" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7353,7 +7644,7 @@
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="154"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7365,7 +7656,7 @@
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="154"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="34" t="s">
         <v>81</v>
       </c>
@@ -7377,7 +7668,7 @@
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="154"/>
+      <c r="C20" s="163"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7397,8 +7688,8 @@
         <v>17</v>
       </c>
       <c r="E21" s="49">
-        <f>nhập!E40</f>
-        <v>3890000</v>
+        <f>nhập!E42</f>
+        <v>16842000</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7413,38 +7704,38 @@
       </c>
       <c r="E22" s="43">
         <f>chi!E36</f>
-        <v>0</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="156"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>3890000</v>
+        <v>16992000</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
     </row>
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="151">
+      <c r="B27" s="160">
         <f>SUM(D11,-E23)</f>
-        <v>35965000</v>
-      </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="153"/>
+        <v>22863000</v>
+      </c>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="162"/>
       <c r="O27" s="8"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -7508,19 +7799,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="150"/>
+      <c r="B2" s="159"/>
       <c r="D2" t="s">
         <v>62</v>
       </c>
@@ -7550,8 +7841,8 @@
         <v>60</v>
       </c>
       <c r="B5" s="47">
-        <f>chi!E36+nhập!E40</f>
-        <v>3890000</v>
+        <f>chi!E36+nhập!E42</f>
+        <v>16992000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>64</v>
@@ -7567,7 +7858,7 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>4205000</v>
+        <v>-8897000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>65</v>
@@ -7578,22 +7869,22 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="158"/>
-      <c r="C9" s="157" t="s">
+      <c r="B9" s="167"/>
+      <c r="C9" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="167"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
@@ -7672,4 +7963,976 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF09C95-D193-4A28-AF37-76A74DD505F0}">
+  <dimension ref="B1:AQ27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF26" sqref="AF26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.140625" style="174" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="34" width="3.85546875" customWidth="1"/>
+    <col min="35" max="35" width="7.140625" customWidth="1"/>
+    <col min="36" max="37" width="7.140625" style="128" customWidth="1"/>
+    <col min="38" max="38" width="7.140625" customWidth="1"/>
+    <col min="39" max="39" width="7.140625" style="128" customWidth="1"/>
+    <col min="40" max="40" width="7.140625" customWidth="1"/>
+    <col min="41" max="41" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="174"/>
+    </row>
+    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B2" s="174" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="175">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="174"/>
+    </row>
+    <row r="4" spans="2:43" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="196" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="196"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
+      <c r="X4" s="196"/>
+    </row>
+    <row r="5" spans="2:43" s="128" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B5" s="194"/>
+      <c r="C5" s="193"/>
+    </row>
+    <row r="6" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="176"/>
+      <c r="C6" s="195">
+        <f>DATE($C$2,8,1)</f>
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+    </row>
+    <row r="8" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="176"/>
+      <c r="C8" s="177"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B10" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="172" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="172"/>
+      <c r="Z10" s="172"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="172"/>
+      <c r="AH10" s="172"/>
+      <c r="AI10" s="172" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ10" s="172"/>
+      <c r="AK10" s="172"/>
+      <c r="AL10" s="172"/>
+      <c r="AM10" s="172"/>
+      <c r="AN10" s="172"/>
+      <c r="AO10" s="173" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP10" s="170"/>
+      <c r="AQ10" s="170"/>
+    </row>
+    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="178">
+        <f>C6</f>
+        <v>44044</v>
+      </c>
+      <c r="E11" s="178">
+        <f>D11+1</f>
+        <v>44045</v>
+      </c>
+      <c r="F11" s="178">
+        <f t="shared" ref="F11:AE11" si="0">E11+1</f>
+        <v>44046</v>
+      </c>
+      <c r="G11" s="178">
+        <f t="shared" si="0"/>
+        <v>44047</v>
+      </c>
+      <c r="H11" s="178">
+        <f t="shared" si="0"/>
+        <v>44048</v>
+      </c>
+      <c r="I11" s="178">
+        <f t="shared" si="0"/>
+        <v>44049</v>
+      </c>
+      <c r="J11" s="178">
+        <f t="shared" si="0"/>
+        <v>44050</v>
+      </c>
+      <c r="K11" s="178">
+        <f t="shared" si="0"/>
+        <v>44051</v>
+      </c>
+      <c r="L11" s="178">
+        <f t="shared" si="0"/>
+        <v>44052</v>
+      </c>
+      <c r="M11" s="178">
+        <f t="shared" si="0"/>
+        <v>44053</v>
+      </c>
+      <c r="N11" s="178">
+        <f t="shared" si="0"/>
+        <v>44054</v>
+      </c>
+      <c r="O11" s="178">
+        <f t="shared" si="0"/>
+        <v>44055</v>
+      </c>
+      <c r="P11" s="178">
+        <f t="shared" si="0"/>
+        <v>44056</v>
+      </c>
+      <c r="Q11" s="178">
+        <f t="shared" si="0"/>
+        <v>44057</v>
+      </c>
+      <c r="R11" s="178">
+        <f t="shared" si="0"/>
+        <v>44058</v>
+      </c>
+      <c r="S11" s="178">
+        <f t="shared" si="0"/>
+        <v>44059</v>
+      </c>
+      <c r="T11" s="178">
+        <f t="shared" si="0"/>
+        <v>44060</v>
+      </c>
+      <c r="U11" s="178">
+        <f t="shared" si="0"/>
+        <v>44061</v>
+      </c>
+      <c r="V11" s="178">
+        <f t="shared" si="0"/>
+        <v>44062</v>
+      </c>
+      <c r="W11" s="178">
+        <f t="shared" si="0"/>
+        <v>44063</v>
+      </c>
+      <c r="X11" s="178">
+        <f t="shared" si="0"/>
+        <v>44064</v>
+      </c>
+      <c r="Y11" s="178">
+        <f t="shared" si="0"/>
+        <v>44065</v>
+      </c>
+      <c r="Z11" s="178">
+        <f t="shared" si="0"/>
+        <v>44066</v>
+      </c>
+      <c r="AA11" s="178">
+        <f t="shared" si="0"/>
+        <v>44067</v>
+      </c>
+      <c r="AB11" s="178">
+        <f t="shared" si="0"/>
+        <v>44068</v>
+      </c>
+      <c r="AC11" s="178">
+        <f t="shared" si="0"/>
+        <v>44069</v>
+      </c>
+      <c r="AD11" s="178">
+        <f t="shared" si="0"/>
+        <v>44070</v>
+      </c>
+      <c r="AE11" s="178">
+        <f t="shared" si="0"/>
+        <v>44071</v>
+      </c>
+      <c r="AF11" s="178">
+        <f>IF(DAY(AE11+1)=DAY(D11),””,AE11+1)</f>
+        <v>44072</v>
+      </c>
+      <c r="AG11" s="178">
+        <f>IF(AF11="","",IF(DAY(AF11+1)=DAY(D11),"",AF11+1))</f>
+        <v>44073</v>
+      </c>
+      <c r="AH11" s="178">
+        <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
+        <v>44074</v>
+      </c>
+      <c r="AI11" s="185" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ11" s="183" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK11" s="189" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL11" s="189" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM11" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN11" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO11" s="186"/>
+    </row>
+    <row r="12" spans="2:43" s="179" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="180" t="str">
+        <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
+        <v>T. bảy</v>
+      </c>
+      <c r="E12" s="180" t="str">
+        <f t="shared" ref="E12:AE12" si="1">CHOOSE(WEEKDAY(E11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
+        <v>Chủ nhật</v>
+      </c>
+      <c r="F12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. hai</v>
+      </c>
+      <c r="G12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. ba</v>
+      </c>
+      <c r="H12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. tư</v>
+      </c>
+      <c r="I12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. năm</v>
+      </c>
+      <c r="J12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. sáu</v>
+      </c>
+      <c r="K12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. bảy</v>
+      </c>
+      <c r="L12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>Chủ nhật</v>
+      </c>
+      <c r="M12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. hai</v>
+      </c>
+      <c r="N12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. ba</v>
+      </c>
+      <c r="O12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. tư</v>
+      </c>
+      <c r="P12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. năm</v>
+      </c>
+      <c r="Q12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. sáu</v>
+      </c>
+      <c r="R12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. bảy</v>
+      </c>
+      <c r="S12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>Chủ nhật</v>
+      </c>
+      <c r="T12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. hai</v>
+      </c>
+      <c r="U12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. ba</v>
+      </c>
+      <c r="V12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. tư</v>
+      </c>
+      <c r="W12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. năm</v>
+      </c>
+      <c r="X12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. sáu</v>
+      </c>
+      <c r="Y12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. bảy</v>
+      </c>
+      <c r="Z12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>Chủ nhật</v>
+      </c>
+      <c r="AA12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. hai</v>
+      </c>
+      <c r="AB12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. ba</v>
+      </c>
+      <c r="AC12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. tư</v>
+      </c>
+      <c r="AD12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. năm</v>
+      </c>
+      <c r="AE12" s="180" t="str">
+        <f t="shared" si="1"/>
+        <v>T. sáu</v>
+      </c>
+      <c r="AF12" s="180" t="str">
+        <f t="shared" ref="AF12" si="2">CHOOSE(WEEKDAY(AF11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
+        <v>T. bảy</v>
+      </c>
+      <c r="AG12" s="180" t="str">
+        <f t="shared" ref="AG12" si="3">CHOOSE(WEEKDAY(AG11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
+        <v>Chủ nhật</v>
+      </c>
+      <c r="AH12" s="180" t="str">
+        <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
+        <v>T. hai</v>
+      </c>
+      <c r="AI12" s="187"/>
+      <c r="AJ12" s="184"/>
+      <c r="AK12" s="190"/>
+      <c r="AL12" s="190"/>
+      <c r="AM12" s="187"/>
+      <c r="AN12" s="184"/>
+      <c r="AO12" s="188"/>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B13" s="129">
+        <v>1</v>
+      </c>
+      <c r="C13" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="V13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="W13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI13" s="191">
+        <f>COUNTIF(D13:AH13,D23)</f>
+        <v>22</v>
+      </c>
+      <c r="AJ13" s="191">
+        <f>COUNTIF(D13:AH13,D24)</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="191">
+        <f>COUNTIF(D13:AH13,D25)</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="191">
+        <f>COUNTIF(D13:AH13,D26)</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="191">
+        <f>COUNTIF(D13:AH13,D27)</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="192">
+        <f>AI13+AJ13*0.5+AK13+AL13+AM13</f>
+        <v>22</v>
+      </c>
+      <c r="AO13" s="23"/>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B14" s="129">
+        <v>2</v>
+      </c>
+      <c r="C14" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="U14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="V14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="W14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="X14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI14" s="129"/>
+      <c r="AJ14" s="129"/>
+      <c r="AK14" s="129"/>
+      <c r="AL14" s="129"/>
+      <c r="AM14" s="129"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="23"/>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B15" s="129">
+        <v>3</v>
+      </c>
+      <c r="C15" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="129"/>
+      <c r="AJ15" s="129"/>
+      <c r="AK15" s="129"/>
+      <c r="AL15" s="129"/>
+      <c r="AM15" s="129"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
+    </row>
+    <row r="16" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="129">
+        <v>4</v>
+      </c>
+      <c r="C16" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="129"/>
+      <c r="AJ16" s="129"/>
+      <c r="AK16" s="129"/>
+      <c r="AL16" s="129"/>
+      <c r="AM16" s="129"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+    </row>
+    <row r="17" spans="2:41" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="129">
+        <v>5</v>
+      </c>
+      <c r="C17" s="129"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="129"/>
+      <c r="AJ17" s="129"/>
+      <c r="AK17" s="129"/>
+      <c r="AL17" s="129"/>
+      <c r="AM17" s="129"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B18" s="129">
+        <v>6</v>
+      </c>
+      <c r="C18" s="129"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="129"/>
+      <c r="AJ18" s="129"/>
+      <c r="AK18" s="129"/>
+      <c r="AL18" s="129"/>
+      <c r="AM18" s="129"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="23"/>
+    </row>
+    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B19" s="129">
+        <v>7</v>
+      </c>
+      <c r="C19" s="129"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="129"/>
+      <c r="AJ19" s="129"/>
+      <c r="AK19" s="129"/>
+      <c r="AL19" s="129"/>
+      <c r="AM19" s="129"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+    </row>
+    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B20" s="129"/>
+      <c r="C20" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="129"/>
+      <c r="AJ20" s="129"/>
+      <c r="AK20" s="129"/>
+      <c r="AL20" s="129"/>
+      <c r="AM20" s="129"/>
+      <c r="AN20" s="23"/>
+      <c r="AO20" s="23"/>
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C23" s="182" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="181" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C24" s="182" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="181" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C25" s="182" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="181" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C26" s="182" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="181" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C27" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="181" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D11:AH20">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>IF(D$11="",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>IF(WEEKDAY(D$11)=7,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>IF(WEEKDAY(D$11)=1,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
+++ b/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A423A4E-4F7A-4ED5-A412-5016DB38F594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91420822-0D1D-4EAB-904D-5F4C52A2DDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,23 @@
     <sheet name="nợ" sheetId="8" r:id="rId5"/>
     <sheet name="Tổng" sheetId="5" r:id="rId6"/>
     <sheet name="báo cáo" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="Chấm công" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -410,10 +420,10 @@
     <numFmt numFmtId="166" formatCode="[$-101042A]d\ mmm\ yy;@"/>
     <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="170" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
-    <numFmt numFmtId="171" formatCode="dd"/>
+    <numFmt numFmtId="169" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
+    <numFmt numFmtId="170" formatCode="dd"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,118 +1083,8 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1196,10 +1096,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1209,30 +1109,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,11 +1118,145 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,15 +1632,15 @@
   </sheetPr>
   <dimension ref="A2:AT42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
@@ -1670,112 +1680,112 @@
     <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="136" t="s">
+    <row r="2" spans="1:46" ht="36">
+      <c r="B2" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="149" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="147" t="s">
+      <c r="D4" s="150"/>
+      <c r="E4" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="138" t="s">
+      <c r="F4" s="153"/>
+      <c r="G4" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="138"/>
-      <c r="I4" s="143" t="s">
+      <c r="H4" s="150"/>
+      <c r="I4" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="143"/>
-      <c r="K4" s="138" t="s">
+      <c r="J4" s="151"/>
+      <c r="K4" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="138"/>
-      <c r="M4" s="143" t="s">
+      <c r="L4" s="150"/>
+      <c r="M4" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="143"/>
-      <c r="O4" s="139" t="s">
+      <c r="N4" s="151"/>
+      <c r="O4" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="138" t="s">
+      <c r="P4" s="159"/>
+      <c r="Q4" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138" t="s">
+      <c r="R4" s="150"/>
+      <c r="S4" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138" t="s">
+      <c r="T4" s="150"/>
+      <c r="U4" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="138"/>
-      <c r="W4" s="138" t="s">
+      <c r="V4" s="150"/>
+      <c r="W4" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="140" t="s">
+      <c r="X4" s="150"/>
+      <c r="Y4" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="140"/>
-      <c r="AA4" s="145" t="s">
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="146"/>
-      <c r="AC4" s="141" t="s">
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="137" t="s">
+      <c r="AD4" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="138" t="s">
+      <c r="AE4" s="150" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="149"/>
+    <row r="5" spans="1:46" ht="15" customHeight="1">
+      <c r="A5" s="150"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1854,9 +1864,9 @@
       <c r="AB5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="138"/>
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="150"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -1873,7 +1883,7 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1981,7 +1991,7 @@
       </c>
       <c r="AE6" s="64"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2089,7 +2099,7 @@
       </c>
       <c r="AE7" s="77"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2210,7 +2220,7 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
     </row>
-    <row r="9" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" customFormat="1">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2318,7 +2328,7 @@
       </c>
       <c r="AE9" s="77"/>
     </row>
-    <row r="10" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" customFormat="1">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2426,7 +2436,7 @@
       </c>
       <c r="AE10" s="77"/>
     </row>
-    <row r="11" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" customFormat="1">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2534,7 +2544,7 @@
       </c>
       <c r="AE11" s="77"/>
     </row>
-    <row r="12" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" customFormat="1">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2642,7 +2652,7 @@
       </c>
       <c r="AE12" s="77"/>
     </row>
-    <row r="13" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" customFormat="1">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2750,7 +2760,7 @@
       </c>
       <c r="AE13" s="77"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -2862,7 +2872,7 @@
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="A15" s="81"/>
       <c r="B15" s="57">
         <v>44053</v>
@@ -2972,7 +2982,7 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="A16" s="81"/>
       <c r="B16" s="57">
         <v>44054</v>
@@ -3082,7 +3092,7 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="81"/>
       <c r="B17" s="57">
         <v>44055</v>
@@ -3192,7 +3202,7 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="81"/>
       <c r="B18" s="57">
         <v>44056</v>
@@ -3302,7 +3312,7 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="81"/>
       <c r="B19" s="57">
         <v>44057</v>
@@ -3412,7 +3422,7 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="81"/>
       <c r="B20" s="57">
         <v>44058</v>
@@ -3522,7 +3532,7 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="81"/>
       <c r="B21" s="57">
         <v>44059</v>
@@ -3632,17 +3642,17 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="81"/>
       <c r="B22" s="57">
         <v>44060</v>
       </c>
       <c r="C22" s="121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="E22" s="131">
         <v>0</v>
@@ -3652,11 +3662,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I22" s="133">
         <v>0</v>
@@ -3680,11 +3690,11 @@
         <v>0</v>
       </c>
       <c r="O22" s="122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Q22" s="14">
         <v>0</v>
@@ -3730,11 +3740,11 @@
       </c>
       <c r="AC22" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AD22" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1230000</v>
       </c>
       <c r="AE22" s="81"/>
       <c r="AF22" s="11"/>
@@ -3742,17 +3752,17 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="81"/>
       <c r="B23" s="57">
         <v>44061</v>
       </c>
       <c r="C23" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="E23" s="131">
         <v>0</v>
@@ -3844,7 +3854,7 @@
       </c>
       <c r="AD23" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AE23" s="81"/>
       <c r="AF23" s="11"/>
@@ -3852,17 +3862,17 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="81"/>
       <c r="B24" s="57">
         <v>44062</v>
       </c>
       <c r="C24" s="121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E24" s="131">
         <v>0</v>
@@ -3872,11 +3882,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I24" s="133">
         <v>0</v>
@@ -3886,11 +3896,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M24" s="133">
         <v>0</v>
@@ -3907,11 +3917,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="S24" s="14">
         <v>0</v>
@@ -3950,11 +3960,11 @@
       </c>
       <c r="AC24" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="AD24" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="AE24" s="81"/>
       <c r="AF24" s="11"/>
@@ -3962,17 +3972,17 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="81"/>
       <c r="B25" s="57">
         <v>44063</v>
       </c>
       <c r="C25" s="121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E25" s="131">
         <v>0</v>
@@ -3982,11 +3992,11 @@
         <v>0</v>
       </c>
       <c r="G25" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I25" s="133">
         <v>0</v>
@@ -3996,11 +4006,11 @@
         <v>0</v>
       </c>
       <c r="K25" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M25" s="133">
         <v>0</v>
@@ -4064,7 +4074,7 @@
       </c>
       <c r="AD25" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="AE25" s="81"/>
       <c r="AF25" s="11"/>
@@ -4072,7 +4082,7 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="81"/>
       <c r="B26" s="57">
         <v>44064</v>
@@ -4092,11 +4102,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I26" s="133">
         <v>0</v>
@@ -4106,11 +4116,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M26" s="133">
         <v>0</v>
@@ -4134,11 +4144,11 @@
         <v>0</v>
       </c>
       <c r="S26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U26" s="14">
         <v>0</v>
@@ -4170,11 +4180,11 @@
       </c>
       <c r="AC26" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="AD26" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="AE26" s="81"/>
       <c r="AF26" s="11"/>
@@ -4182,17 +4192,17 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="81"/>
       <c r="B27" s="57">
         <v>44065</v>
       </c>
       <c r="C27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="E27" s="131">
         <v>0</v>
@@ -4202,11 +4212,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="I27" s="133">
         <v>0</v>
@@ -4216,11 +4226,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M27" s="133">
         <v>0</v>
@@ -4237,18 +4247,18 @@
         <v>0</v>
       </c>
       <c r="Q27" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S27" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U27" s="14">
         <v>0</v>
@@ -4280,11 +4290,11 @@
       </c>
       <c r="AC27" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="AD27" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2300000</v>
       </c>
       <c r="AE27" s="117"/>
       <c r="AF27" s="11"/>
@@ -4292,17 +4302,17 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="81"/>
       <c r="B28" s="57">
         <v>44066</v>
       </c>
       <c r="C28" s="121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="E28" s="131">
         <v>0</v>
@@ -4312,11 +4322,11 @@
         <v>0</v>
       </c>
       <c r="G28" s="121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="I28" s="133">
         <v>0</v>
@@ -4347,18 +4357,18 @@
         <v>0</v>
       </c>
       <c r="Q28" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R28" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="S28" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U28" s="14">
         <v>0</v>
@@ -4390,11 +4400,11 @@
       </c>
       <c r="AC28" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AD28" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="AE28" s="81"/>
       <c r="AF28" s="11"/>
@@ -4402,7 +4412,7 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="81"/>
       <c r="B29" s="57">
         <v>44067</v>
@@ -4512,7 +4522,7 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="81"/>
       <c r="B30" s="57">
         <v>44068</v>
@@ -4622,7 +4632,7 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="81"/>
       <c r="B31" s="57">
         <v>44069</v>
@@ -4732,7 +4742,7 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="81"/>
       <c r="B32" s="57">
         <v>44070</v>
@@ -4842,7 +4852,7 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="81"/>
       <c r="B33" s="57">
         <v>44071</v>
@@ -4952,7 +4962,7 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="83"/>
       <c r="B34" s="57">
         <v>44072</v>
@@ -5062,7 +5072,7 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="83"/>
       <c r="B35" s="57">
         <v>44073</v>
@@ -5172,7 +5182,7 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="100"/>
       <c r="B36" s="57">
         <v>44074</v>
@@ -5282,18 +5292,18 @@
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="4"/>
       <c r="B37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="7">
         <f>SUM(C6:C36)</f>
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D37" s="39">
         <f>SUM(D7:D36)</f>
-        <v>13800000</v>
+        <v>17600000</v>
       </c>
       <c r="E37" s="132">
         <f>SUM(E7:E36)</f>
@@ -5305,11 +5315,11 @@
       </c>
       <c r="G37" s="39">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H37" s="39">
         <f t="shared" si="15"/>
-        <v>7200000</v>
+        <v>10800000</v>
       </c>
       <c r="I37" s="132">
         <f t="shared" si="15"/>
@@ -5321,11 +5331,11 @@
       </c>
       <c r="K37" s="39">
         <f t="shared" ref="K37:N37" si="16">SUM(K7:K36)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L37" s="39">
         <f t="shared" si="16"/>
-        <v>2400000</v>
+        <v>3600000</v>
       </c>
       <c r="M37" s="132">
         <f t="shared" si="16"/>
@@ -5337,27 +5347,27 @@
       </c>
       <c r="O37" s="39">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="39">
         <f t="shared" si="15"/>
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q37" s="39">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R37" s="39">
         <f t="shared" si="15"/>
-        <v>2700000</v>
+        <v>4500000</v>
       </c>
       <c r="S37" s="39">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T37" s="39">
         <f t="shared" si="15"/>
-        <v>6600000</v>
+        <v>8400000</v>
       </c>
       <c r="U37" s="39">
         <f t="shared" si="15"/>
@@ -5393,91 +5403,91 @@
       </c>
       <c r="AC37" s="39">
         <f t="shared" si="17"/>
-        <v>10760000</v>
+        <v>14390000</v>
       </c>
       <c r="AD37" s="39">
         <f>SUM(AD7:AD36)</f>
-        <v>34160000</v>
+        <v>46390000</v>
       </c>
       <c r="AE37" s="64"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="53"/>
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="144">
-        <v>0</v>
-      </c>
-      <c r="D38" s="144"/>
+      <c r="C38" s="163">
+        <v>0</v>
+      </c>
+      <c r="D38" s="163"/>
       <c r="E38" s="91"/>
       <c r="F38" s="91"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="134"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="134"/>
-      <c r="S38" s="134"/>
-      <c r="T38" s="134"/>
-      <c r="U38" s="134"/>
-      <c r="V38" s="134"/>
-      <c r="W38" s="134"/>
-      <c r="X38" s="134"/>
-      <c r="Y38" s="134"/>
-      <c r="Z38" s="134"/>
-      <c r="AA38" s="134"/>
-      <c r="AB38" s="134"/>
-      <c r="AC38" s="134"/>
-      <c r="AD38" s="134"/>
-      <c r="AE38" s="134"/>
-    </row>
-    <row r="39" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="155"/>
+      <c r="R38" s="155"/>
+      <c r="S38" s="155"/>
+      <c r="T38" s="155"/>
+      <c r="U38" s="155"/>
+      <c r="V38" s="155"/>
+      <c r="W38" s="155"/>
+      <c r="X38" s="155"/>
+      <c r="Y38" s="155"/>
+      <c r="Z38" s="155"/>
+      <c r="AA38" s="155"/>
+      <c r="AB38" s="155"/>
+      <c r="AC38" s="155"/>
+      <c r="AD38" s="155"/>
+      <c r="AE38" s="155"/>
+    </row>
+    <row r="39" spans="1:35" s="11" customFormat="1">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="135">
-        <v>0</v>
-      </c>
-      <c r="D39" s="135"/>
+      <c r="C39" s="156">
+        <v>0</v>
+      </c>
+      <c r="D39" s="156"/>
       <c r="E39" s="92"/>
       <c r="F39" s="92"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="134"/>
-      <c r="X39" s="134"/>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="134"/>
-      <c r="AC39" s="134"/>
-      <c r="AD39" s="134"/>
-      <c r="AE39" s="134"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="155"/>
+      <c r="R39" s="155"/>
+      <c r="S39" s="155"/>
+      <c r="T39" s="155"/>
+      <c r="U39" s="155"/>
+      <c r="V39" s="155"/>
+      <c r="W39" s="155"/>
+      <c r="X39" s="155"/>
+      <c r="Y39" s="155"/>
+      <c r="Z39" s="155"/>
+      <c r="AA39" s="155"/>
+      <c r="AB39" s="155"/>
+      <c r="AC39" s="155"/>
+      <c r="AD39" s="155"/>
+      <c r="AE39" s="155"/>
       <c r="AH39" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="52"/>
@@ -5485,19 +5495,12 @@
       <c r="M40" s="2"/>
       <c r="N40" s="52"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="AE42" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="AE4:AE39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G39:AE39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AE2"/>
@@ -5514,6 +5517,13 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5535,24 +5545,24 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:6" ht="31.5">
+      <c r="A1" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -5572,7 +5582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -5591,7 +5601,7 @@
       </c>
       <c r="F4" s="108"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -5610,7 +5620,7 @@
       </c>
       <c r="F5" s="108"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -5629,7 +5639,7 @@
       </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -5648,7 +5658,7 @@
       </c>
       <c r="F7" s="108"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -5667,7 +5677,7 @@
       </c>
       <c r="F8" s="61"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="34">
         <v>7</v>
       </c>
@@ -5686,7 +5696,7 @@
       </c>
       <c r="F9" s="61"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -5705,7 +5715,7 @@
       </c>
       <c r="F10" s="61"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -5724,7 +5734,7 @@
       </c>
       <c r="F11" s="61"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -5743,7 +5753,7 @@
       </c>
       <c r="F12" s="61"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -5762,7 +5772,7 @@
       </c>
       <c r="F13" s="61"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -5781,7 +5791,7 @@
       </c>
       <c r="F14" s="61"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -5800,7 +5810,7 @@
       </c>
       <c r="F15" s="61"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="34">
         <v>13</v>
       </c>
@@ -5819,7 +5829,7 @@
       </c>
       <c r="F16" s="61"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="34">
         <v>14</v>
       </c>
@@ -5838,7 +5848,7 @@
       </c>
       <c r="F17" s="61"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="34">
         <v>15</v>
       </c>
@@ -5857,7 +5867,7 @@
       </c>
       <c r="F18" s="61"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="34">
         <v>17</v>
       </c>
@@ -5876,7 +5886,7 @@
       </c>
       <c r="F19" s="61"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="34">
         <v>17</v>
       </c>
@@ -5895,7 +5905,7 @@
       </c>
       <c r="F20" s="61"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="34">
         <v>18</v>
       </c>
@@ -5914,7 +5924,7 @@
       </c>
       <c r="F21" s="61"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="34">
         <v>19</v>
       </c>
@@ -5933,7 +5943,7 @@
       </c>
       <c r="F22" s="61"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="34">
         <v>20</v>
       </c>
@@ -5952,7 +5962,7 @@
       </c>
       <c r="F23" s="61"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="34">
         <v>21</v>
       </c>
@@ -5971,7 +5981,7 @@
       </c>
       <c r="F24" s="61"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="34">
         <v>22</v>
       </c>
@@ -5990,7 +6000,7 @@
       </c>
       <c r="F25" s="61"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="34">
         <v>23</v>
       </c>
@@ -6009,7 +6019,7 @@
       </c>
       <c r="F26" s="107"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="34">
         <v>24</v>
       </c>
@@ -6028,7 +6038,7 @@
       </c>
       <c r="F27" s="107"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="34">
         <v>25</v>
       </c>
@@ -6046,7 +6056,7 @@
       </c>
       <c r="F28" s="107"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="34">
         <v>27</v>
       </c>
@@ -6065,7 +6075,7 @@
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="34">
         <v>27</v>
       </c>
@@ -6084,7 +6094,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="34">
         <v>28</v>
       </c>
@@ -6103,7 +6113,7 @@
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="84" customFormat="1">
       <c r="A32" s="34">
         <v>29</v>
       </c>
@@ -6122,7 +6132,7 @@
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="84" customFormat="1">
       <c r="A33" s="34">
         <v>30</v>
       </c>
@@ -6141,7 +6151,7 @@
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="116" customFormat="1">
       <c r="A34" s="34"/>
       <c r="B34" s="21">
         <v>44074</v>
@@ -6158,7 +6168,7 @@
       </c>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="34">
         <v>32</v>
       </c>
@@ -6200,7 +6210,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="76" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
@@ -6214,22 +6224,22 @@
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="80" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="151" t="s">
+    <row r="2" spans="1:7" s="80" customFormat="1" ht="31.5">
+      <c r="A2" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5">
       <c r="B3" s="25"/>
       <c r="C3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
@@ -6250,7 +6260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="66" customFormat="1">
       <c r="A5" s="126"/>
       <c r="B5" s="125">
         <v>44044</v>
@@ -6261,7 +6271,7 @@
       <c r="F5" s="110"/>
       <c r="G5" s="126"/>
     </row>
-    <row r="6" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="99" customFormat="1">
       <c r="A6" s="126"/>
       <c r="B6" s="125">
         <v>44045</v>
@@ -6272,9 +6282,9 @@
       <c r="F6" s="110"/>
       <c r="G6" s="126"/>
     </row>
-    <row r="7" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="99" customFormat="1">
       <c r="A7" s="126"/>
-      <c r="B7" s="152">
+      <c r="B7" s="168">
         <v>44046</v>
       </c>
       <c r="C7" s="126">
@@ -6289,9 +6299,9 @@
       <c r="F7" s="110"/>
       <c r="G7" s="126"/>
     </row>
-    <row r="8" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="124" customFormat="1">
       <c r="A8" s="126"/>
-      <c r="B8" s="153"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="126">
         <v>2</v>
       </c>
@@ -6304,9 +6314,9 @@
       <c r="F8" s="110"/>
       <c r="G8" s="126"/>
     </row>
-    <row r="9" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="124" customFormat="1">
       <c r="A9" s="126"/>
-      <c r="B9" s="153"/>
+      <c r="B9" s="169"/>
       <c r="C9" s="126">
         <v>3</v>
       </c>
@@ -6319,9 +6329,9 @@
       <c r="F9" s="110"/>
       <c r="G9" s="126"/>
     </row>
-    <row r="10" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="124" customFormat="1">
       <c r="A10" s="126"/>
-      <c r="B10" s="153"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="126">
         <v>4</v>
       </c>
@@ -6334,9 +6344,9 @@
       <c r="F10" s="110"/>
       <c r="G10" s="126"/>
     </row>
-    <row r="11" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="124" customFormat="1">
       <c r="A11" s="126"/>
-      <c r="B11" s="153"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="126">
         <v>5</v>
       </c>
@@ -6349,7 +6359,7 @@
       <c r="F11" s="110"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="99" customFormat="1" hidden="1">
       <c r="A12" s="126"/>
       <c r="B12" s="125">
         <v>44047</v>
@@ -6360,7 +6370,7 @@
       <c r="F12" s="110"/>
       <c r="G12" s="126"/>
     </row>
-    <row r="13" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="99" customFormat="1" hidden="1">
       <c r="A13" s="126"/>
       <c r="B13" s="125">
         <v>44048</v>
@@ -6371,7 +6381,7 @@
       <c r="F13" s="110"/>
       <c r="G13" s="126"/>
     </row>
-    <row r="14" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="99" customFormat="1" hidden="1">
       <c r="A14" s="126"/>
       <c r="B14" s="125">
         <v>44049</v>
@@ -6382,9 +6392,9 @@
       <c r="F14" s="110"/>
       <c r="G14" s="126"/>
     </row>
-    <row r="15" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="128" customFormat="1">
       <c r="A15" s="126"/>
-      <c r="B15" s="152">
+      <c r="B15" s="168">
         <v>44050</v>
       </c>
       <c r="C15" s="126">
@@ -6399,9 +6409,9 @@
       <c r="F15" s="110"/>
       <c r="G15" s="126"/>
     </row>
-    <row r="16" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="66" customFormat="1">
       <c r="A16" s="126"/>
-      <c r="B16" s="169"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="126">
         <v>2</v>
       </c>
@@ -6414,7 +6424,7 @@
       <c r="F16" s="110"/>
       <c r="G16" s="126"/>
     </row>
-    <row r="17" spans="1:7" s="89" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="89" customFormat="1" hidden="1">
       <c r="A17" s="126"/>
       <c r="B17" s="125">
         <v>44051</v>
@@ -6425,7 +6435,7 @@
       <c r="F17" s="110"/>
       <c r="G17" s="126"/>
     </row>
-    <row r="18" spans="1:7" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="69" customFormat="1" hidden="1">
       <c r="A18" s="126"/>
       <c r="B18" s="125">
         <v>44052</v>
@@ -6436,7 +6446,7 @@
       <c r="F18" s="110"/>
       <c r="G18" s="126"/>
     </row>
-    <row r="19" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="99" customFormat="1" hidden="1">
       <c r="A19" s="126"/>
       <c r="B19" s="125">
         <v>44053</v>
@@ -6447,7 +6457,7 @@
       <c r="F19" s="110"/>
       <c r="G19" s="126"/>
     </row>
-    <row r="20" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="99" customFormat="1" hidden="1">
       <c r="A20" s="126"/>
       <c r="B20" s="125">
         <v>44054</v>
@@ -6458,7 +6468,7 @@
       <c r="F20" s="110"/>
       <c r="G20" s="126"/>
     </row>
-    <row r="21" spans="1:7" s="104" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="104" customFormat="1" hidden="1">
       <c r="A21" s="126"/>
       <c r="B21" s="125">
         <v>44055</v>
@@ -6469,7 +6479,7 @@
       <c r="F21" s="110"/>
       <c r="G21" s="126"/>
     </row>
-    <row r="22" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="99" customFormat="1" hidden="1">
       <c r="A22" s="126"/>
       <c r="B22" s="125">
         <v>44056</v>
@@ -6480,7 +6490,7 @@
       <c r="F22" s="110"/>
       <c r="G22" s="126"/>
     </row>
-    <row r="23" spans="1:7" s="87" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="87" customFormat="1" hidden="1">
       <c r="A23" s="126"/>
       <c r="B23" s="125">
         <v>44057</v>
@@ -6491,7 +6501,7 @@
       <c r="F23" s="110"/>
       <c r="G23" s="126"/>
     </row>
-    <row r="24" spans="1:7" s="104" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="104" customFormat="1" hidden="1">
       <c r="A24" s="126"/>
       <c r="B24" s="125">
         <v>44058</v>
@@ -6502,7 +6512,7 @@
       <c r="F24" s="110"/>
       <c r="G24" s="126"/>
     </row>
-    <row r="25" spans="1:7" s="104" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="104" customFormat="1" hidden="1">
       <c r="A25" s="126"/>
       <c r="B25" s="125">
         <v>44059</v>
@@ -6513,9 +6523,9 @@
       <c r="F25" s="110"/>
       <c r="G25" s="126"/>
     </row>
-    <row r="26" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="104" customFormat="1">
       <c r="A26" s="126"/>
-      <c r="B26" s="152">
+      <c r="B26" s="168">
         <v>44060</v>
       </c>
       <c r="C26" s="126">
@@ -6532,9 +6542,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="128" customFormat="1">
       <c r="A27" s="126"/>
-      <c r="B27" s="169"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="126">
         <v>2</v>
       </c>
@@ -6547,7 +6557,7 @@
       <c r="F27" s="110"/>
       <c r="G27" s="126"/>
     </row>
-    <row r="28" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="104" customFormat="1">
       <c r="A28" s="126"/>
       <c r="B28" s="125">
         <v>44061</v>
@@ -6558,7 +6568,7 @@
       <c r="F28" s="110"/>
       <c r="G28" s="126"/>
     </row>
-    <row r="29" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="104" customFormat="1">
       <c r="A29" s="126"/>
       <c r="B29" s="125">
         <v>44062</v>
@@ -6569,7 +6579,7 @@
       <c r="F29" s="110"/>
       <c r="G29" s="126"/>
     </row>
-    <row r="30" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="104" customFormat="1">
       <c r="A30" s="126"/>
       <c r="B30" s="125">
         <v>44063</v>
@@ -6580,7 +6590,7 @@
       <c r="F30" s="110"/>
       <c r="G30" s="126"/>
     </row>
-    <row r="31" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="73" customFormat="1">
       <c r="A31" s="126"/>
       <c r="B31" s="125">
         <v>44064</v>
@@ -6591,7 +6601,7 @@
       <c r="F31" s="110"/>
       <c r="G31" s="126"/>
     </row>
-    <row r="32" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="104" customFormat="1">
       <c r="A32" s="126"/>
       <c r="B32" s="125">
         <v>44065</v>
@@ -6602,7 +6612,7 @@
       <c r="F32" s="110"/>
       <c r="G32" s="126"/>
     </row>
-    <row r="33" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="104" customFormat="1">
       <c r="A33" s="126"/>
       <c r="B33" s="125">
         <v>44066</v>
@@ -6613,7 +6623,7 @@
       <c r="F33" s="110"/>
       <c r="G33" s="126"/>
     </row>
-    <row r="34" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="104" customFormat="1">
       <c r="A34" s="126"/>
       <c r="B34" s="125">
         <v>44067</v>
@@ -6624,7 +6634,7 @@
       <c r="F34" s="110"/>
       <c r="G34" s="126"/>
     </row>
-    <row r="35" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="73" customFormat="1">
       <c r="A35" s="126"/>
       <c r="B35" s="125">
         <v>44068</v>
@@ -6635,7 +6645,7 @@
       <c r="F35" s="110"/>
       <c r="G35" s="126"/>
     </row>
-    <row r="36" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="104" customFormat="1">
       <c r="A36" s="126"/>
       <c r="B36" s="125">
         <v>44069</v>
@@ -6646,7 +6656,7 @@
       <c r="F36" s="110"/>
       <c r="G36" s="126"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="126"/>
       <c r="B37" s="125">
         <v>44070</v>
@@ -6657,7 +6667,7 @@
       <c r="F37" s="110"/>
       <c r="G37" s="126"/>
     </row>
-    <row r="38" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="104" customFormat="1">
       <c r="A38" s="126"/>
       <c r="B38" s="125">
         <v>44071</v>
@@ -6668,7 +6678,7 @@
       <c r="F38" s="110"/>
       <c r="G38" s="126"/>
     </row>
-    <row r="39" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="104" customFormat="1">
       <c r="A39" s="126"/>
       <c r="B39" s="125">
         <v>44072</v>
@@ -6679,7 +6689,7 @@
       <c r="F39" s="110"/>
       <c r="G39" s="126"/>
     </row>
-    <row r="40" spans="1:7" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="104" customFormat="1">
       <c r="A40" s="126"/>
       <c r="B40" s="125">
         <v>44073</v>
@@ -6690,7 +6700,7 @@
       <c r="F40" s="110"/>
       <c r="G40" s="126"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="126"/>
       <c r="B41" s="125">
         <v>44074</v>
@@ -6701,7 +6711,7 @@
       <c r="F41" s="110"/>
       <c r="G41" s="126"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="34">
         <v>35</v>
       </c>
@@ -6720,7 +6730,7 @@
       </c>
       <c r="G42" s="71"/>
     </row>
-    <row r="43" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="82" customFormat="1">
       <c r="A43" s="76"/>
       <c r="B43" s="20"/>
       <c r="C43" s="113"/>
@@ -6753,7 +6763,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="97"/>
@@ -6763,17 +6773,17 @@
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="154" t="s">
+    <row r="2" spans="1:6" ht="28.5">
+      <c r="A2" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -6793,7 +6803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -6805,7 +6815,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="34">
         <v>8</v>
       </c>
@@ -6817,7 +6827,7 @@
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="34">
         <v>9</v>
       </c>
@@ -6835,7 +6845,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="75" customFormat="1">
       <c r="A8" s="34">
         <v>10</v>
       </c>
@@ -6847,7 +6857,7 @@
       <c r="E8" s="42"/>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="34">
         <v>11</v>
       </c>
@@ -6859,7 +6869,7 @@
       <c r="E9" s="42"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="34">
         <v>12</v>
       </c>
@@ -6871,7 +6881,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="34">
         <v>13</v>
       </c>
@@ -6883,7 +6893,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="34">
         <v>14</v>
       </c>
@@ -6895,7 +6905,7 @@
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="34">
         <v>15</v>
       </c>
@@ -6907,7 +6917,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="67" customFormat="1">
       <c r="A14" s="34">
         <v>17</v>
       </c>
@@ -6919,7 +6929,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="34">
         <v>17</v>
       </c>
@@ -6931,7 +6941,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="34">
         <v>18</v>
       </c>
@@ -6943,7 +6953,7 @@
       <c r="E16" s="42"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="34">
         <v>19</v>
       </c>
@@ -6955,7 +6965,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="34">
         <v>20</v>
       </c>
@@ -6967,7 +6977,7 @@
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="34">
         <v>21</v>
       </c>
@@ -6979,7 +6989,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="34">
         <v>22</v>
       </c>
@@ -6991,7 +7001,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="34">
         <v>23</v>
       </c>
@@ -7007,7 +7017,7 @@
       </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="34">
         <v>24</v>
       </c>
@@ -7019,7 +7029,7 @@
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="82" customFormat="1">
       <c r="A23" s="34">
         <v>25</v>
       </c>
@@ -7031,7 +7041,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="82" customFormat="1">
       <c r="A24" s="34">
         <v>27</v>
       </c>
@@ -7043,7 +7053,7 @@
       <c r="E24" s="42"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="34">
         <v>27</v>
       </c>
@@ -7055,7 +7065,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="65" customFormat="1">
       <c r="A26" s="34">
         <v>28</v>
       </c>
@@ -7067,7 +7077,7 @@
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="65" customFormat="1">
       <c r="A27" s="34">
         <v>29</v>
       </c>
@@ -7079,7 +7089,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="119" customFormat="1">
       <c r="A28" s="34"/>
       <c r="B28" s="96">
         <v>44067</v>
@@ -7089,7 +7099,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="119" customFormat="1">
       <c r="A29" s="34"/>
       <c r="B29" s="96">
         <v>44068</v>
@@ -7099,7 +7109,7 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="119" customFormat="1">
       <c r="A30" s="34"/>
       <c r="B30" s="96">
         <v>44069</v>
@@ -7109,7 +7119,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="119" customFormat="1">
       <c r="A31" s="34"/>
       <c r="B31" s="96">
         <v>44070</v>
@@ -7119,7 +7129,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="119" customFormat="1">
       <c r="A32" s="34"/>
       <c r="B32" s="96">
         <v>44071</v>
@@ -7129,7 +7139,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="119" customFormat="1">
       <c r="A33" s="34"/>
       <c r="B33" s="96">
         <v>44072</v>
@@ -7139,7 +7149,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="119" customFormat="1">
       <c r="A34" s="34"/>
       <c r="B34" s="96">
         <v>44073</v>
@@ -7149,7 +7159,7 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="119" customFormat="1">
       <c r="A35" s="34"/>
       <c r="B35" s="96">
         <v>44074</v>
@@ -7159,7 +7169,7 @@
       <c r="E35" s="42"/>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="26">
         <v>32</v>
       </c>
@@ -7195,7 +7205,7 @@
       <selection activeCell="C39" sqref="C39:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
@@ -7205,15 +7215,15 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="155" t="s">
+    <row r="2" spans="1:6" ht="20.25">
+      <c r="B2" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -7230,7 +7240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="89" customFormat="1">
       <c r="A4" s="23"/>
       <c r="B4" s="90" t="s">
         <v>54</v>
@@ -7245,7 +7255,7 @@
         <v>5825000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="93" customFormat="1">
       <c r="A5" s="23"/>
       <c r="B5" s="95">
         <v>44018</v>
@@ -7260,7 +7270,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="93" customFormat="1">
       <c r="A6" s="23"/>
       <c r="B6" s="95" t="s">
         <v>82</v>
@@ -7275,86 +7285,86 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="69" customFormat="1">
       <c r="A7" s="23"/>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
       <c r="E7" s="48">
         <f>SUM(E4:E6)</f>
         <v>8105000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" s="62"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12" s="62"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22">
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
       <c r="E18" s="60"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="K19" s="62"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -7374,21 +7384,21 @@
       <c r="U20" s="60"/>
       <c r="V20" s="60"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="K21" s="62"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="K22" s="62"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -7396,20 +7406,20 @@
       <c r="F23" s="8"/>
       <c r="K23" s="62"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="K24" s="62"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -7420,7 +7430,7 @@
       <c r="R26" s="62"/>
       <c r="S26" s="62"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -7431,28 +7441,28 @@
       <c r="R27" s="62"/>
       <c r="S27" s="62"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22">
       <c r="O28" s="62"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
       <c r="S28" s="62"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22">
       <c r="O29" s="62"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
       <c r="S29" s="62"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22">
       <c r="O30" s="62"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
       <c r="S30" s="62"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22">
       <c r="O31" s="62"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="62"/>
@@ -7482,7 +7492,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -7494,29 +7504,29 @@
     <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="154" t="s">
+    <row r="2" spans="2:8" ht="28.5">
+      <c r="B2" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="158" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -7527,7 +7537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -7536,17 +7546,17 @@
       </c>
       <c r="D8" s="42">
         <f>'khám bệnh'!D37+'khám bệnh'!F37+'khám bệnh'!H37</f>
-        <v>21000000</v>
+        <v>28400000</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="47">
         <f>SUM(D8,D9)</f>
-        <v>31760000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42790000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -7555,7 +7565,7 @@
       </c>
       <c r="D9" s="42">
         <f>'khám bệnh'!AC37</f>
-        <v>10760000</v>
+        <v>14390000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
@@ -7566,7 +7576,7 @@
         <v>-8897000</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -7585,7 +7595,7 @@
         <v>8105000</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -7594,25 +7604,25 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>39855000</v>
+        <v>50885000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="159" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-    </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+    </row>
+    <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
+    <row r="16" spans="2:8">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -7626,11 +7636,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="180" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7640,11 +7650,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="163"/>
+      <c r="C18" s="180"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7652,11 +7662,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="163"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
         <v>81</v>
       </c>
@@ -7664,11 +7674,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="163"/>
+      <c r="C20" s="180"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7677,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -7692,7 +7702,7 @@
         <v>16842000</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -7707,62 +7717,62 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="164" t="s">
+      <c r="C23" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="165"/>
+      <c r="D23" s="182"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
         <v>16992000</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="158" t="s">
+    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B26" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-    </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="160">
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+    </row>
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B27" s="177">
         <f>SUM(D11,-E23)</f>
-        <v>22863000</v>
-      </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="162"/>
+        <v>33893000</v>
+      </c>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="179"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15">
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:15">
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:15">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:15">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -7789,7 +7799,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -7798,29 +7808,29 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="159"/>
+      <c r="B2" s="176"/>
       <c r="D2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="93" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="93" customFormat="1">
       <c r="A3" s="94"/>
       <c r="B3" s="94"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="23" t="s">
         <v>59</v>
       </c>
@@ -7836,7 +7846,7 @@
         <v>8095000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
         <v>60</v>
       </c>
@@ -7852,7 +7862,7 @@
         <v>5194116</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="23" t="s">
         <v>61</v>
       </c>
@@ -7868,25 +7878,25 @@
         <v>2900884</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="166" t="s">
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="166" t="s">
+      <c r="B9" s="184"/>
+      <c r="C9" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="167"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="184"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
         <v>68</v>
       </c>
@@ -7900,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
         <v>80</v>
       </c>
@@ -7914,7 +7924,7 @@
         <v>30687006</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="23"/>
       <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
@@ -7924,7 +7934,7 @@
         <v>89187956</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="23" t="s">
         <v>70</v>
       </c>
@@ -7940,16 +7950,16 @@
         <v>119874962</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="C22" s="8"/>
     </row>
   </sheetData>
@@ -7967,15 +7977,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF09C95-D193-4A28-AF37-76A74DD505F0}">
-  <dimension ref="B1:AQ27"/>
+  <dimension ref="B1:AQ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.140625" style="174" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="136" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="34" width="3.85546875" customWidth="1"/>
     <col min="35" max="35" width="7.140625" customWidth="1"/>
@@ -7983,406 +7993,406 @@
     <col min="38" max="38" width="7.140625" customWidth="1"/>
     <col min="39" max="39" width="7.140625" style="128" customWidth="1"/>
     <col min="40" max="40" width="7.140625" customWidth="1"/>
-    <col min="41" max="41" width="19" customWidth="1"/>
+    <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="174"/>
-    </row>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B2" s="174" t="s">
+    <row r="1" spans="2:43" s="128" customFormat="1">
+      <c r="B1" s="136"/>
+    </row>
+    <row r="2" spans="2:43">
+      <c r="B2" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="175">
+      <c r="C2" s="137">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="174"/>
-    </row>
-    <row r="4" spans="2:43" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="196" t="s">
+    <row r="3" spans="2:43" s="128" customFormat="1">
+      <c r="B3" s="136"/>
+    </row>
+    <row r="4" spans="2:43" ht="46.5">
+      <c r="B4" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196"/>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="196"/>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="196"/>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
-      <c r="X4" s="196"/>
-    </row>
-    <row r="5" spans="2:43" s="128" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="194"/>
-      <c r="C5" s="193"/>
-    </row>
-    <row r="6" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="176"/>
-      <c r="C6" s="195">
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="192"/>
+      <c r="Q4" s="192"/>
+      <c r="R4" s="192"/>
+      <c r="S4" s="192"/>
+      <c r="T4" s="192"/>
+      <c r="U4" s="192"/>
+      <c r="V4" s="192"/>
+      <c r="W4" s="192"/>
+      <c r="X4" s="192"/>
+    </row>
+    <row r="5" spans="2:43" s="128" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B5" s="148"/>
+      <c r="C5" s="147"/>
+    </row>
+    <row r="6" spans="2:43" ht="18.75">
+      <c r="B6" s="138"/>
+      <c r="C6" s="149">
         <f>DATE($C$2,8,1)</f>
         <v>44044</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-    </row>
-    <row r="8" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="176"/>
-      <c r="C8" s="177"/>
-    </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B10" s="171" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="171" t="s">
+    <row r="7" spans="2:43" s="128" customFormat="1">
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+    </row>
+    <row r="8" spans="2:43" s="128" customFormat="1">
+      <c r="B8" s="138"/>
+      <c r="C8" s="139"/>
+    </row>
+    <row r="10" spans="2:43">
+      <c r="B10" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="172"/>
-      <c r="AG10" s="172"/>
-      <c r="AH10" s="172"/>
-      <c r="AI10" s="172" t="s">
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="AJ10" s="172"/>
-      <c r="AK10" s="172"/>
-      <c r="AL10" s="172"/>
-      <c r="AM10" s="172"/>
-      <c r="AN10" s="172"/>
-      <c r="AO10" s="173" t="s">
+      <c r="AJ10" s="194"/>
+      <c r="AK10" s="194"/>
+      <c r="AL10" s="194"/>
+      <c r="AM10" s="194"/>
+      <c r="AN10" s="194"/>
+      <c r="AO10" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="AP10" s="170"/>
-      <c r="AQ10" s="170"/>
-    </row>
-    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="178">
+      <c r="AP10" s="134"/>
+      <c r="AQ10" s="134"/>
+    </row>
+    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="140">
         <f>C6</f>
         <v>44044</v>
       </c>
-      <c r="E11" s="178">
+      <c r="E11" s="140">
         <f>D11+1</f>
         <v>44045</v>
       </c>
-      <c r="F11" s="178">
+      <c r="F11" s="140">
         <f t="shared" ref="F11:AE11" si="0">E11+1</f>
         <v>44046</v>
       </c>
-      <c r="G11" s="178">
+      <c r="G11" s="140">
         <f t="shared" si="0"/>
         <v>44047</v>
       </c>
-      <c r="H11" s="178">
+      <c r="H11" s="140">
         <f t="shared" si="0"/>
         <v>44048</v>
       </c>
-      <c r="I11" s="178">
+      <c r="I11" s="140">
         <f t="shared" si="0"/>
         <v>44049</v>
       </c>
-      <c r="J11" s="178">
+      <c r="J11" s="140">
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="K11" s="178">
+      <c r="K11" s="140">
         <f t="shared" si="0"/>
         <v>44051</v>
       </c>
-      <c r="L11" s="178">
+      <c r="L11" s="140">
         <f t="shared" si="0"/>
         <v>44052</v>
       </c>
-      <c r="M11" s="178">
+      <c r="M11" s="140">
         <f t="shared" si="0"/>
         <v>44053</v>
       </c>
-      <c r="N11" s="178">
+      <c r="N11" s="140">
         <f t="shared" si="0"/>
         <v>44054</v>
       </c>
-      <c r="O11" s="178">
+      <c r="O11" s="140">
         <f t="shared" si="0"/>
         <v>44055</v>
       </c>
-      <c r="P11" s="178">
+      <c r="P11" s="140">
         <f t="shared" si="0"/>
         <v>44056</v>
       </c>
-      <c r="Q11" s="178">
+      <c r="Q11" s="140">
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="R11" s="178">
+      <c r="R11" s="140">
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="S11" s="178">
+      <c r="S11" s="140">
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="T11" s="178">
+      <c r="T11" s="140">
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="U11" s="178">
+      <c r="U11" s="140">
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="V11" s="178">
+      <c r="V11" s="140">
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="W11" s="178">
+      <c r="W11" s="140">
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="X11" s="178">
+      <c r="X11" s="140">
         <f t="shared" si="0"/>
         <v>44064</v>
       </c>
-      <c r="Y11" s="178">
+      <c r="Y11" s="140">
         <f t="shared" si="0"/>
         <v>44065</v>
       </c>
-      <c r="Z11" s="178">
+      <c r="Z11" s="140">
         <f t="shared" si="0"/>
         <v>44066</v>
       </c>
-      <c r="AA11" s="178">
+      <c r="AA11" s="140">
         <f t="shared" si="0"/>
         <v>44067</v>
       </c>
-      <c r="AB11" s="178">
+      <c r="AB11" s="140">
         <f t="shared" si="0"/>
         <v>44068</v>
       </c>
-      <c r="AC11" s="178">
+      <c r="AC11" s="140">
         <f t="shared" si="0"/>
         <v>44069</v>
       </c>
-      <c r="AD11" s="178">
+      <c r="AD11" s="140">
         <f t="shared" si="0"/>
         <v>44070</v>
       </c>
-      <c r="AE11" s="178">
+      <c r="AE11" s="140">
         <f t="shared" si="0"/>
         <v>44071</v>
       </c>
-      <c r="AF11" s="178">
+      <c r="AF11" s="140">
         <f>IF(DAY(AE11+1)=DAY(D11),””,AE11+1)</f>
         <v>44072</v>
       </c>
-      <c r="AG11" s="178">
+      <c r="AG11" s="140">
         <f>IF(AF11="","",IF(DAY(AF11+1)=DAY(D11),"",AF11+1))</f>
         <v>44073</v>
       </c>
-      <c r="AH11" s="178">
+      <c r="AH11" s="140">
         <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
         <v>44074</v>
       </c>
-      <c r="AI11" s="185" t="s">
+      <c r="AI11" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="AJ11" s="183" t="s">
+      <c r="AJ11" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="AK11" s="189" t="s">
+      <c r="AK11" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="AL11" s="189" t="s">
+      <c r="AL11" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="AM11" s="185" t="s">
+      <c r="AM11" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="AN11" s="183" t="s">
+      <c r="AN11" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="AO11" s="186"/>
-    </row>
-    <row r="12" spans="2:43" s="179" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="180" t="str">
+      <c r="AO11" s="190"/>
+    </row>
+    <row r="12" spans="2:43" s="141" customFormat="1" ht="50.25" customHeight="1">
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="142" t="str">
         <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. bảy</v>
       </c>
-      <c r="E12" s="180" t="str">
+      <c r="E12" s="142" t="str">
         <f t="shared" ref="E12:AE12" si="1">CHOOSE(WEEKDAY(E11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="F12" s="180" t="str">
+      <c r="F12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="G12" s="180" t="str">
+      <c r="G12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="H12" s="180" t="str">
+      <c r="H12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="I12" s="180" t="str">
+      <c r="I12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="J12" s="180" t="str">
+      <c r="J12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="K12" s="180" t="str">
+      <c r="K12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="L12" s="180" t="str">
+      <c r="L12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="M12" s="180" t="str">
+      <c r="M12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="N12" s="180" t="str">
+      <c r="N12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="O12" s="180" t="str">
+      <c r="O12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="P12" s="180" t="str">
+      <c r="P12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="Q12" s="180" t="str">
+      <c r="Q12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="R12" s="180" t="str">
+      <c r="R12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="S12" s="180" t="str">
+      <c r="S12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="T12" s="180" t="str">
+      <c r="T12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="U12" s="180" t="str">
+      <c r="U12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="V12" s="180" t="str">
+      <c r="V12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="W12" s="180" t="str">
+      <c r="W12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="X12" s="180" t="str">
+      <c r="X12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="Y12" s="180" t="str">
+      <c r="Y12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="Z12" s="180" t="str">
+      <c r="Z12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="AA12" s="180" t="str">
+      <c r="AA12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="AB12" s="180" t="str">
+      <c r="AB12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="AC12" s="180" t="str">
+      <c r="AC12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="AD12" s="180" t="str">
+      <c r="AD12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="AE12" s="180" t="str">
+      <c r="AE12" s="142" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="AF12" s="180" t="str">
+      <c r="AF12" s="142" t="str">
         <f t="shared" ref="AF12" si="2">CHOOSE(WEEKDAY(AF11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. bảy</v>
       </c>
-      <c r="AG12" s="180" t="str">
+      <c r="AG12" s="142" t="str">
         <f t="shared" ref="AG12" si="3">CHOOSE(WEEKDAY(AG11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="AH12" s="180" t="str">
+      <c r="AH12" s="142" t="str">
         <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. hai</v>
       </c>
       <c r="AI12" s="187"/>
-      <c r="AJ12" s="184"/>
-      <c r="AK12" s="190"/>
-      <c r="AL12" s="190"/>
+      <c r="AJ12" s="189"/>
+      <c r="AK12" s="196"/>
+      <c r="AL12" s="196"/>
       <c r="AM12" s="187"/>
-      <c r="AN12" s="184"/>
-      <c r="AO12" s="188"/>
-    </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AN12" s="189"/>
+      <c r="AO12" s="191"/>
+    </row>
+    <row r="13" spans="2:43">
       <c r="B13" s="129">
         <v>1</v>
       </c>
@@ -8464,33 +8474,33 @@
       <c r="AH13" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AI13" s="191">
+      <c r="AI13" s="145">
+        <f>COUNTIF(D13:AH13,D20)</f>
+        <v>22</v>
+      </c>
+      <c r="AJ13" s="145">
+        <f>COUNTIF(D13:AH13,D21)</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="145">
+        <f>COUNTIF(D13:AH13,D22)</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="145">
         <f>COUNTIF(D13:AH13,D23)</f>
-        <v>22</v>
-      </c>
-      <c r="AJ13" s="191">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="145">
         <f>COUNTIF(D13:AH13,D24)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="191">
-        <f>COUNTIF(D13:AH13,D25)</f>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="191">
-        <f>COUNTIF(D13:AH13,D26)</f>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="191">
-        <f>COUNTIF(D13:AH13,D27)</f>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="192">
+      <c r="AN13" s="146">
         <f>AI13+AJ13*0.5+AK13+AL13+AM13</f>
         <v>22</v>
       </c>
       <c r="AO13" s="23"/>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:43">
       <c r="B14" s="129">
         <v>2</v>
       </c>
@@ -8590,15 +8600,33 @@
       <c r="AH14" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AI14" s="129"/>
-      <c r="AJ14" s="129"/>
-      <c r="AK14" s="129"/>
-      <c r="AL14" s="129"/>
-      <c r="AM14" s="129"/>
-      <c r="AN14" s="23"/>
+      <c r="AI14" s="145">
+        <f>COUNTIF(D14:AH14,D20)</f>
+        <v>31</v>
+      </c>
+      <c r="AJ14" s="145">
+        <f>COUNTIF(D14:AH14,D21)</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="145">
+        <f>COUNTIF(D14:AH14,D22)</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="145">
+        <f>COUNTIF(D14:AH14,D23)</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="145">
+        <f>COUNTIF(D14:AH14,D24)</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="146">
+        <f>AI14+AJ14*0.5+AK14+AL14+AM14</f>
+        <v>31</v>
+      </c>
       <c r="AO14" s="23"/>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:43">
       <c r="B15" s="129">
         <v>3</v>
       </c>
@@ -8636,15 +8664,33 @@
       <c r="AF15" s="34"/>
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
-      <c r="AI15" s="129"/>
-      <c r="AJ15" s="129"/>
-      <c r="AK15" s="129"/>
-      <c r="AL15" s="129"/>
-      <c r="AM15" s="129"/>
-      <c r="AN15" s="23"/>
+      <c r="AI15" s="145">
+        <f>COUNTIF(D15:AH15,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="145">
+        <f>COUNTIF(D15:AH15,D21)</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="145">
+        <f>COUNTIF(D15:AH15,D22)</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="145">
+        <f>COUNTIF(D15:AH15,D23)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="145">
+        <f>COUNTIF(D15:AH15,D24)</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="146">
+        <f t="shared" ref="AN14:AN16" si="5">AI15+AJ15*0.5+AK15+AL15+AM15</f>
+        <v>0</v>
+      </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:43" s="128" customFormat="1">
       <c r="B16" s="129">
         <v>4</v>
       </c>
@@ -8682,19 +8728,37 @@
       <c r="AF16" s="34"/>
       <c r="AG16" s="34"/>
       <c r="AH16" s="34"/>
-      <c r="AI16" s="129"/>
-      <c r="AJ16" s="129"/>
-      <c r="AK16" s="129"/>
-      <c r="AL16" s="129"/>
-      <c r="AM16" s="129"/>
-      <c r="AN16" s="23"/>
+      <c r="AI16" s="145">
+        <f>COUNTIF(D16:AH16,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="145">
+        <f>COUNTIF(D16:AH16,D21)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="145">
+        <f>COUNTIF(D16:AH16,D22)</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="145">
+        <f>COUNTIF(D16:AH16,D23)</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="145">
+        <f>COUNTIF(D16:AH16,D24)</f>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="146">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AO16" s="23"/>
     </row>
-    <row r="17" spans="2:41" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="129">
-        <v>5</v>
-      </c>
-      <c r="C17" s="129"/>
+    <row r="17" spans="2:41">
+      <c r="B17" s="129"/>
+      <c r="C17" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -8734,175 +8798,43 @@
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B18" s="129">
-        <v>6</v>
-      </c>
-      <c r="C18" s="129"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="129"/>
-      <c r="AJ18" s="129"/>
-      <c r="AK18" s="129"/>
-      <c r="AL18" s="129"/>
-      <c r="AM18" s="129"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="23"/>
-    </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B19" s="129">
-        <v>7</v>
-      </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="129"/>
-      <c r="AJ19" s="129"/>
-      <c r="AK19" s="129"/>
-      <c r="AL19" s="129"/>
-      <c r="AM19" s="129"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-    </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B20" s="129"/>
-      <c r="C20" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="129"/>
-      <c r="AJ20" s="129"/>
-      <c r="AK20" s="129"/>
-      <c r="AL20" s="129"/>
-      <c r="AM20" s="129"/>
-      <c r="AN20" s="23"/>
-      <c r="AO20" s="23"/>
-    </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C23" s="182" t="s">
+    <row r="20" spans="2:41">
+      <c r="C20" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D20" s="143" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C24" s="182" t="s">
+    <row r="21" spans="2:41">
+      <c r="C21" s="144" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D21" s="143" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C25" s="182" t="s">
+    <row r="22" spans="2:41">
+      <c r="C22" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D22" s="143" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C26" s="182" t="s">
+    <row r="23" spans="2:41">
+      <c r="C23" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="181" t="s">
+      <c r="D23" s="143" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C27" s="182" t="s">
+    <row r="24" spans="2:41">
+      <c r="C24" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="181" t="s">
+      <c r="D24" s="143" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8921,7 +8853,7 @@
     <mergeCell ref="AK11:AK12"/>
     <mergeCell ref="AL11:AL12"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:AH20">
+  <conditionalFormatting sqref="D11:AH17">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>IF(D$11="",TRUE,FALSE)</formula>
     </cfRule>

--- a/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
+++ b/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91420822-0D1D-4EAB-904D-5F4C52A2DDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D627D9B4-2885-BB40-A329-89F7AF68095C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>STT</t>
   </si>
@@ -200,15 +190,6 @@
     <t>TÊN THUỐC</t>
   </si>
   <si>
-    <t>21/05/2020</t>
-  </si>
-  <si>
-    <t>klavunamox</t>
-  </si>
-  <si>
-    <t>50 hộp</t>
-  </si>
-  <si>
     <t>10 lọ</t>
   </si>
   <si>
@@ -408,6 +389,24 @@
   </si>
   <si>
     <t>T.Hương</t>
+  </si>
+  <si>
+    <t>Adcort</t>
+  </si>
+  <si>
+    <t>tebexerol</t>
+  </si>
+  <si>
+    <t>17/7/2020</t>
+  </si>
+  <si>
+    <t>sữa bột</t>
+  </si>
+  <si>
+    <t>29/7/2020</t>
+  </si>
+  <si>
+    <t>kem đa năng</t>
   </si>
 </sst>
 </file>
@@ -969,9 +968,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1121,21 +1117,7 @@
     <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,6 +1129,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,6 +1143,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1166,6 +1154,15 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1640,162 +1637,162 @@
       <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="51" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="51" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="51" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="8" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" style="3" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="1"/>
-    <col min="34" max="34" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="1"/>
-    <col min="36" max="36" width="4.7109375" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="4.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11.33203125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.5" style="2" customWidth="1"/>
+    <col min="30" max="30" width="11.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" style="3" customWidth="1"/>
+    <col min="32" max="33" width="9.1640625" style="1"/>
+    <col min="34" max="34" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.1640625" style="1"/>
+    <col min="36" max="36" width="4.6640625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="36">
-      <c r="B2" s="157" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
+    <row r="2" spans="1:46" ht="37">
+      <c r="B2" s="152" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="154" t="s">
+      <c r="A4" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="150" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="151" t="s">
+      <c r="D4" s="154"/>
+      <c r="E4" s="163" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="164"/>
+      <c r="G4" s="154" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="154"/>
+      <c r="I4" s="159" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="159"/>
+      <c r="K4" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="151"/>
-      <c r="O4" s="159" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="159" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="159"/>
+      <c r="O4" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="150" t="s">
+      <c r="P4" s="155"/>
+      <c r="Q4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150" t="s">
+      <c r="R4" s="154"/>
+      <c r="S4" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150" t="s">
+      <c r="T4" s="154"/>
+      <c r="U4" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150" t="s">
+      <c r="V4" s="154"/>
+      <c r="W4" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="160" t="s">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="164" t="s">
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="161" t="s">
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="158" t="s">
+      <c r="AD4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="150" t="s">
+      <c r="AE4" s="154" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="150"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="129" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="50" t="s">
@@ -1804,22 +1801,22 @@
       <c r="H5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="130" t="s">
+      <c r="I5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="121" t="s">
+      <c r="K5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="121" t="s">
+      <c r="L5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="130" t="s">
+      <c r="M5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="130" t="s">
+      <c r="N5" s="129" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="54" t="s">
@@ -1864,9 +1861,9 @@
       <c r="AB5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="150"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="154"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -1897,10 +1894,10 @@
         <f>PRODUCT(C6,200000)</f>
         <v>800000</v>
       </c>
-      <c r="E6" s="131">
-        <v>0</v>
-      </c>
-      <c r="F6" s="131">
+      <c r="E6" s="130">
+        <v>0</v>
+      </c>
+      <c r="F6" s="130">
         <f>PRODUCT(E6,100000)</f>
         <v>0</v>
       </c>
@@ -1911,24 +1908,24 @@
         <f>PRODUCT(G6,300000)</f>
         <v>1200000</v>
       </c>
-      <c r="I6" s="133">
-        <v>0</v>
-      </c>
-      <c r="J6" s="133">
+      <c r="I6" s="132">
+        <v>0</v>
+      </c>
+      <c r="J6" s="132">
         <f>PRODUCT(I6,150000)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="121">
+      <c r="K6" s="120">
         <v>0</v>
       </c>
       <c r="L6" s="40">
         <f>PRODUCT(K6,300000)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="133">
-        <v>0</v>
-      </c>
-      <c r="N6" s="133">
+      <c r="M6" s="132">
+        <v>0</v>
+      </c>
+      <c r="N6" s="132">
         <f>PRODUCT(M7,150000)</f>
         <v>0</v>
       </c>
@@ -1998,49 +1995,49 @@
       <c r="B7" s="57">
         <v>44045</v>
       </c>
-      <c r="C7" s="121">
+      <c r="C7" s="120">
         <v>5</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ref="D7:D36" si="0">PRODUCT(C7,200000)</f>
         <v>1000000</v>
       </c>
-      <c r="E7" s="131">
-        <v>0</v>
-      </c>
-      <c r="F7" s="131">
+      <c r="E7" s="130">
+        <v>0</v>
+      </c>
+      <c r="F7" s="130">
         <f t="shared" ref="F7:F36" si="1">PRODUCT(E7,100000)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="120">
         <v>4</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" ref="H7:H36" si="2">PRODUCT(G7,300000)</f>
         <v>1200000</v>
       </c>
-      <c r="I7" s="133">
-        <v>0</v>
-      </c>
-      <c r="J7" s="133">
+      <c r="I7" s="132">
+        <v>0</v>
+      </c>
+      <c r="J7" s="132">
         <f t="shared" ref="J7:J36" si="3">PRODUCT(I7,150000)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K7" s="120">
         <v>0</v>
       </c>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L36" si="4">PRODUCT(K7,300000)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="133">
-        <v>0</v>
-      </c>
-      <c r="N7" s="133">
+      <c r="M7" s="132">
+        <v>0</v>
+      </c>
+      <c r="N7" s="132">
         <f t="shared" ref="N7:N36" si="5">PRODUCT(M8,150000)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="122">
+      <c r="O7" s="121">
         <v>0</v>
       </c>
       <c r="P7" s="41">
@@ -2075,14 +2072,14 @@
         <f t="shared" ref="X7:X36" si="10">PRODUCT(W7,50000)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="102">
+      <c r="Y7" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="101">
         <f t="shared" ref="Z7:Z36" si="11">PRODUCT(Y7,700000)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="102">
+      <c r="AA7" s="101">
         <v>0</v>
       </c>
       <c r="AB7" s="18">
@@ -2106,49 +2103,49 @@
       <c r="B8" s="57">
         <v>44046</v>
       </c>
-      <c r="C8" s="121">
+      <c r="C8" s="120">
         <v>7</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E8" s="131">
-        <v>0</v>
-      </c>
-      <c r="F8" s="131">
+      <c r="E8" s="130">
+        <v>0</v>
+      </c>
+      <c r="F8" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="121">
+      <c r="G8" s="120">
         <v>2</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I8" s="133">
-        <v>0</v>
-      </c>
-      <c r="J8" s="133">
+      <c r="I8" s="132">
+        <v>0</v>
+      </c>
+      <c r="J8" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="121">
+      <c r="K8" s="120">
         <v>0</v>
       </c>
       <c r="L8" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="133">
-        <v>0</v>
-      </c>
-      <c r="N8" s="133">
+      <c r="M8" s="132">
+        <v>0</v>
+      </c>
+      <c r="N8" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="122">
+      <c r="O8" s="121">
         <v>0</v>
       </c>
       <c r="P8" s="41">
@@ -2183,14 +2180,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="102">
+      <c r="Y8" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="102">
+      <c r="AA8" s="101">
         <v>0</v>
       </c>
       <c r="AB8" s="18">
@@ -2227,49 +2224,49 @@
       <c r="B9" s="57">
         <v>44047</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="120">
         <v>4</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E9" s="131">
-        <v>0</v>
-      </c>
-      <c r="F9" s="131">
+      <c r="E9" s="130">
+        <v>0</v>
+      </c>
+      <c r="F9" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="121">
+      <c r="G9" s="120">
         <v>0</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="133">
-        <v>0</v>
-      </c>
-      <c r="J9" s="133">
+      <c r="I9" s="132">
+        <v>0</v>
+      </c>
+      <c r="J9" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="121">
+      <c r="K9" s="120">
         <v>0</v>
       </c>
       <c r="L9" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="133">
-        <v>0</v>
-      </c>
-      <c r="N9" s="133">
+      <c r="M9" s="132">
+        <v>0</v>
+      </c>
+      <c r="N9" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="122">
+      <c r="O9" s="121">
         <v>0</v>
       </c>
       <c r="P9" s="41">
@@ -2304,14 +2301,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="102">
+      <c r="Y9" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="102">
+      <c r="AA9" s="101">
         <v>0</v>
       </c>
       <c r="AB9" s="18">
@@ -2335,49 +2332,49 @@
       <c r="B10" s="57">
         <v>44048</v>
       </c>
-      <c r="C10" s="121">
+      <c r="C10" s="120">
         <v>1</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E10" s="131">
-        <v>0</v>
-      </c>
-      <c r="F10" s="131">
+      <c r="E10" s="130">
+        <v>0</v>
+      </c>
+      <c r="F10" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="120">
         <v>1</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I10" s="133">
-        <v>0</v>
-      </c>
-      <c r="J10" s="133">
+      <c r="I10" s="132">
+        <v>0</v>
+      </c>
+      <c r="J10" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="120">
         <v>0</v>
       </c>
       <c r="L10" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="133">
-        <v>0</v>
-      </c>
-      <c r="N10" s="133">
+      <c r="M10" s="132">
+        <v>0</v>
+      </c>
+      <c r="N10" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="122">
+      <c r="O10" s="121">
         <v>0</v>
       </c>
       <c r="P10" s="41">
@@ -2412,14 +2409,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="102">
+      <c r="Y10" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="102">
+      <c r="AA10" s="101">
         <v>0</v>
       </c>
       <c r="AB10" s="18">
@@ -2443,49 +2440,49 @@
       <c r="B11" s="57">
         <v>44049</v>
       </c>
-      <c r="C11" s="121">
+      <c r="C11" s="120">
         <v>5</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E11" s="131">
-        <v>0</v>
-      </c>
-      <c r="F11" s="131">
+      <c r="E11" s="130">
+        <v>0</v>
+      </c>
+      <c r="F11" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="121">
+      <c r="G11" s="120">
         <v>3</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I11" s="133">
-        <v>0</v>
-      </c>
-      <c r="J11" s="133">
+      <c r="I11" s="132">
+        <v>0</v>
+      </c>
+      <c r="J11" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="121">
+      <c r="K11" s="120">
         <v>1</v>
       </c>
       <c r="L11" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M11" s="133">
-        <v>0</v>
-      </c>
-      <c r="N11" s="133">
+      <c r="M11" s="132">
+        <v>0</v>
+      </c>
+      <c r="N11" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="122">
+      <c r="O11" s="121">
         <v>1</v>
       </c>
       <c r="P11" s="41">
@@ -2520,14 +2517,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="102">
+      <c r="Y11" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="102">
+      <c r="AA11" s="101">
         <v>0</v>
       </c>
       <c r="AB11" s="18">
@@ -2551,49 +2548,49 @@
       <c r="B12" s="57">
         <v>44050</v>
       </c>
-      <c r="C12" s="121">
+      <c r="C12" s="120">
         <v>3</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E12" s="131">
-        <v>0</v>
-      </c>
-      <c r="F12" s="131">
+      <c r="E12" s="130">
+        <v>0</v>
+      </c>
+      <c r="F12" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="121">
+      <c r="G12" s="120">
         <v>0</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="133">
-        <v>0</v>
-      </c>
-      <c r="J12" s="133">
+      <c r="I12" s="132">
+        <v>0</v>
+      </c>
+      <c r="J12" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="121">
+      <c r="K12" s="120">
         <v>0</v>
       </c>
       <c r="L12" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="133">
-        <v>0</v>
-      </c>
-      <c r="N12" s="133">
+      <c r="M12" s="132">
+        <v>0</v>
+      </c>
+      <c r="N12" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="122">
+      <c r="O12" s="121">
         <v>0</v>
       </c>
       <c r="P12" s="41">
@@ -2628,14 +2625,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="102">
+      <c r="Y12" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="102">
+      <c r="AA12" s="101">
         <v>0</v>
       </c>
       <c r="AB12" s="18">
@@ -2659,49 +2656,49 @@
       <c r="B13" s="57">
         <v>44051</v>
       </c>
-      <c r="C13" s="121">
+      <c r="C13" s="120">
         <v>2</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E13" s="131">
-        <v>0</v>
-      </c>
-      <c r="F13" s="131">
+      <c r="E13" s="130">
+        <v>0</v>
+      </c>
+      <c r="F13" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="121">
+      <c r="G13" s="120">
         <v>3</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I13" s="133">
-        <v>0</v>
-      </c>
-      <c r="J13" s="133">
+      <c r="I13" s="132">
+        <v>0</v>
+      </c>
+      <c r="J13" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="121">
+      <c r="K13" s="120">
         <v>0</v>
       </c>
       <c r="L13" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="133">
-        <v>0</v>
-      </c>
-      <c r="N13" s="133">
+      <c r="M13" s="132">
+        <v>0</v>
+      </c>
+      <c r="N13" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="122">
+      <c r="O13" s="121">
         <v>0</v>
       </c>
       <c r="P13" s="41">
@@ -2736,14 +2733,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="123">
+      <c r="Y13" s="122">
         <v>1</v>
       </c>
-      <c r="Z13" s="102">
+      <c r="Z13" s="101">
         <f t="shared" si="11"/>
         <v>700000</v>
       </c>
-      <c r="AA13" s="102">
+      <c r="AA13" s="101">
         <v>0</v>
       </c>
       <c r="AB13" s="18">
@@ -2767,49 +2764,49 @@
       <c r="B14" s="57">
         <v>44052</v>
       </c>
-      <c r="C14" s="121">
+      <c r="C14" s="120">
         <v>2</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E14" s="131">
-        <v>0</v>
-      </c>
-      <c r="F14" s="131">
+      <c r="E14" s="130">
+        <v>0</v>
+      </c>
+      <c r="F14" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="121">
+      <c r="G14" s="120">
         <v>3</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I14" s="133">
-        <v>0</v>
-      </c>
-      <c r="J14" s="133">
+      <c r="I14" s="132">
+        <v>0</v>
+      </c>
+      <c r="J14" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="121">
+      <c r="K14" s="120">
         <v>1</v>
       </c>
       <c r="L14" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M14" s="133">
-        <v>0</v>
-      </c>
-      <c r="N14" s="133">
+      <c r="M14" s="132">
+        <v>0</v>
+      </c>
+      <c r="N14" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="122">
+      <c r="O14" s="121">
         <v>0</v>
       </c>
       <c r="P14" s="41">
@@ -2844,14 +2841,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="102">
+      <c r="Y14" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="102">
+      <c r="AA14" s="101">
         <v>0</v>
       </c>
       <c r="AB14" s="18">
@@ -2877,49 +2874,49 @@
       <c r="B15" s="57">
         <v>44053</v>
       </c>
-      <c r="C15" s="121">
+      <c r="C15" s="120">
         <v>5</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E15" s="131">
-        <v>0</v>
-      </c>
-      <c r="F15" s="131">
+      <c r="E15" s="130">
+        <v>0</v>
+      </c>
+      <c r="F15" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="120">
         <v>1</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I15" s="133">
-        <v>0</v>
-      </c>
-      <c r="J15" s="133">
+      <c r="I15" s="132">
+        <v>0</v>
+      </c>
+      <c r="J15" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="120">
         <v>0</v>
       </c>
       <c r="L15" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="133">
-        <v>0</v>
-      </c>
-      <c r="N15" s="133">
+      <c r="M15" s="132">
+        <v>0</v>
+      </c>
+      <c r="N15" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="122">
+      <c r="O15" s="121">
         <v>0</v>
       </c>
       <c r="P15" s="41">
@@ -2954,14 +2951,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="102">
+      <c r="Y15" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="102">
+      <c r="AA15" s="101">
         <v>0</v>
       </c>
       <c r="AB15" s="18">
@@ -2987,49 +2984,49 @@
       <c r="B16" s="57">
         <v>44054</v>
       </c>
-      <c r="C16" s="121">
+      <c r="C16" s="120">
         <v>5</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E16" s="131">
-        <v>0</v>
-      </c>
-      <c r="F16" s="131">
+      <c r="E16" s="130">
+        <v>0</v>
+      </c>
+      <c r="F16" s="130">
         <f>PRODUCT(E17,100000)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="121">
+      <c r="G16" s="120">
         <v>0</v>
       </c>
       <c r="H16" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="133">
-        <v>0</v>
-      </c>
-      <c r="J16" s="133">
+      <c r="I16" s="132">
+        <v>0</v>
+      </c>
+      <c r="J16" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="121">
+      <c r="K16" s="120">
         <v>0</v>
       </c>
       <c r="L16" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="133">
-        <v>0</v>
-      </c>
-      <c r="N16" s="133">
+      <c r="M16" s="132">
+        <v>0</v>
+      </c>
+      <c r="N16" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="122">
+      <c r="O16" s="121">
         <v>0</v>
       </c>
       <c r="P16" s="41">
@@ -3064,14 +3061,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="102">
+      <c r="Y16" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="102">
+      <c r="AA16" s="101">
         <v>0</v>
       </c>
       <c r="AB16" s="18">
@@ -3097,49 +3094,49 @@
       <c r="B17" s="57">
         <v>44055</v>
       </c>
-      <c r="C17" s="121">
+      <c r="C17" s="120">
         <v>5</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E17" s="131">
-        <v>0</v>
-      </c>
-      <c r="F17" s="131">
+      <c r="E17" s="130">
+        <v>0</v>
+      </c>
+      <c r="F17" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="121">
+      <c r="G17" s="120">
         <v>1</v>
       </c>
       <c r="H17" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I17" s="133">
-        <v>0</v>
-      </c>
-      <c r="J17" s="133">
+      <c r="I17" s="132">
+        <v>0</v>
+      </c>
+      <c r="J17" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="121">
+      <c r="K17" s="120">
         <v>1</v>
       </c>
       <c r="L17" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M17" s="133">
-        <v>0</v>
-      </c>
-      <c r="N17" s="133">
+      <c r="M17" s="132">
+        <v>0</v>
+      </c>
+      <c r="N17" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O17" s="122">
+      <c r="O17" s="121">
         <v>0</v>
       </c>
       <c r="P17" s="41">
@@ -3174,14 +3171,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="102">
+      <c r="Y17" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="102">
+      <c r="AA17" s="101">
         <v>0</v>
       </c>
       <c r="AB17" s="18">
@@ -3207,49 +3204,49 @@
       <c r="B18" s="57">
         <v>44056</v>
       </c>
-      <c r="C18" s="121">
+      <c r="C18" s="120">
         <v>5</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E18" s="131">
-        <v>0</v>
-      </c>
-      <c r="F18" s="131">
+      <c r="E18" s="130">
+        <v>0</v>
+      </c>
+      <c r="F18" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="121">
+      <c r="G18" s="120">
         <v>1</v>
       </c>
       <c r="H18" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I18" s="133">
-        <v>0</v>
-      </c>
-      <c r="J18" s="133">
+      <c r="I18" s="132">
+        <v>0</v>
+      </c>
+      <c r="J18" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="121">
+      <c r="K18" s="120">
         <v>1</v>
       </c>
       <c r="L18" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M18" s="133">
-        <v>0</v>
-      </c>
-      <c r="N18" s="133">
+      <c r="M18" s="132">
+        <v>0</v>
+      </c>
+      <c r="N18" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="122">
+      <c r="O18" s="121">
         <v>0</v>
       </c>
       <c r="P18" s="41">
@@ -3284,14 +3281,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="102">
+      <c r="Y18" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="102">
+      <c r="AA18" s="101">
         <v>0</v>
       </c>
       <c r="AB18" s="18">
@@ -3317,49 +3314,49 @@
       <c r="B19" s="57">
         <v>44057</v>
       </c>
-      <c r="C19" s="121">
+      <c r="C19" s="120">
         <v>9</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
-      <c r="E19" s="131">
-        <v>0</v>
-      </c>
-      <c r="F19" s="131">
+      <c r="E19" s="130">
+        <v>0</v>
+      </c>
+      <c r="F19" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="121">
+      <c r="G19" s="120">
         <v>0</v>
       </c>
       <c r="H19" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="133">
-        <v>0</v>
-      </c>
-      <c r="J19" s="133">
+      <c r="I19" s="132">
+        <v>0</v>
+      </c>
+      <c r="J19" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="121">
+      <c r="K19" s="120">
         <v>2</v>
       </c>
       <c r="L19" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M19" s="133">
-        <v>0</v>
-      </c>
-      <c r="N19" s="133">
+      <c r="M19" s="132">
+        <v>0</v>
+      </c>
+      <c r="N19" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O19" s="122">
+      <c r="O19" s="121">
         <v>0</v>
       </c>
       <c r="P19" s="41">
@@ -3394,14 +3391,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="102">
+      <c r="Y19" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="102">
+      <c r="AA19" s="101">
         <v>0</v>
       </c>
       <c r="AB19" s="18">
@@ -3416,7 +3413,7 @@
         <f t="shared" si="14"/>
         <v>2400000</v>
       </c>
-      <c r="AE19" s="105"/>
+      <c r="AE19" s="104"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
@@ -3427,49 +3424,49 @@
       <c r="B20" s="57">
         <v>44058</v>
       </c>
-      <c r="C20" s="121">
+      <c r="C20" s="120">
         <v>4</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E20" s="131">
-        <v>0</v>
-      </c>
-      <c r="F20" s="131">
+      <c r="E20" s="130">
+        <v>0</v>
+      </c>
+      <c r="F20" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="121">
+      <c r="G20" s="120">
         <v>4</v>
       </c>
       <c r="H20" s="40">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I20" s="133">
-        <v>0</v>
-      </c>
-      <c r="J20" s="133">
+      <c r="I20" s="132">
+        <v>0</v>
+      </c>
+      <c r="J20" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="120">
         <v>0</v>
       </c>
       <c r="L20" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="133">
-        <v>0</v>
-      </c>
-      <c r="N20" s="133">
+      <c r="M20" s="132">
+        <v>0</v>
+      </c>
+      <c r="N20" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="122">
+      <c r="O20" s="121">
         <v>0</v>
       </c>
       <c r="P20" s="41">
@@ -3504,14 +3501,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="102">
+      <c r="Y20" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="102">
+      <c r="AA20" s="101">
         <v>0</v>
       </c>
       <c r="AB20" s="18">
@@ -3537,49 +3534,49 @@
       <c r="B21" s="57">
         <v>44059</v>
       </c>
-      <c r="C21" s="121">
+      <c r="C21" s="120">
         <v>7</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E21" s="131">
-        <v>0</v>
-      </c>
-      <c r="F21" s="131">
+      <c r="E21" s="130">
+        <v>0</v>
+      </c>
+      <c r="F21" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="121">
+      <c r="G21" s="120">
         <v>1</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I21" s="133">
-        <v>0</v>
-      </c>
-      <c r="J21" s="133">
+      <c r="I21" s="132">
+        <v>0</v>
+      </c>
+      <c r="J21" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="121">
+      <c r="K21" s="120">
         <v>2</v>
       </c>
       <c r="L21" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M21" s="133">
-        <v>0</v>
-      </c>
-      <c r="N21" s="133">
+      <c r="M21" s="132">
+        <v>0</v>
+      </c>
+      <c r="N21" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="122">
+      <c r="O21" s="121">
         <v>0</v>
       </c>
       <c r="P21" s="41">
@@ -3614,14 +3611,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="123">
+      <c r="Y21" s="122">
         <v>1</v>
       </c>
-      <c r="Z21" s="102">
+      <c r="Z21" s="101">
         <f t="shared" si="11"/>
         <v>700000</v>
       </c>
-      <c r="AA21" s="102">
+      <c r="AA21" s="101">
         <v>0</v>
       </c>
       <c r="AB21" s="18">
@@ -3647,49 +3644,49 @@
       <c r="B22" s="57">
         <v>44060</v>
       </c>
-      <c r="C22" s="121">
+      <c r="C22" s="120">
         <v>3</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E22" s="131">
-        <v>0</v>
-      </c>
-      <c r="F22" s="131">
+      <c r="E22" s="130">
+        <v>0</v>
+      </c>
+      <c r="F22" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="121">
+      <c r="G22" s="120">
         <v>2</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I22" s="133">
-        <v>0</v>
-      </c>
-      <c r="J22" s="133">
+      <c r="I22" s="132">
+        <v>0</v>
+      </c>
+      <c r="J22" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="121">
+      <c r="K22" s="120">
         <v>0</v>
       </c>
       <c r="L22" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="133">
-        <v>0</v>
-      </c>
-      <c r="N22" s="133">
+      <c r="M22" s="132">
+        <v>0</v>
+      </c>
+      <c r="N22" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O22" s="122">
+      <c r="O22" s="121">
         <v>1</v>
       </c>
       <c r="P22" s="41">
@@ -3724,14 +3721,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="123">
+      <c r="Y22" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="122">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="102">
+      <c r="AA22" s="101">
         <v>0</v>
       </c>
       <c r="AB22" s="18">
@@ -3757,49 +3754,49 @@
       <c r="B23" s="57">
         <v>44061</v>
       </c>
-      <c r="C23" s="121">
+      <c r="C23" s="120">
         <v>1</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E23" s="131">
-        <v>0</v>
-      </c>
-      <c r="F23" s="131">
+      <c r="E23" s="130">
+        <v>0</v>
+      </c>
+      <c r="F23" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="121">
+      <c r="G23" s="120">
         <v>0</v>
       </c>
       <c r="H23" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="133">
-        <v>0</v>
-      </c>
-      <c r="J23" s="133">
+      <c r="I23" s="132">
+        <v>0</v>
+      </c>
+      <c r="J23" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="121">
+      <c r="K23" s="120">
         <v>0</v>
       </c>
       <c r="L23" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="133">
-        <v>0</v>
-      </c>
-      <c r="N23" s="133">
+      <c r="M23" s="132">
+        <v>0</v>
+      </c>
+      <c r="N23" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="122">
+      <c r="O23" s="121">
         <v>0</v>
       </c>
       <c r="P23" s="41">
@@ -3834,14 +3831,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="123">
+      <c r="Y23" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="122">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="102">
+      <c r="AA23" s="101">
         <v>0</v>
       </c>
       <c r="AB23" s="18">
@@ -3867,49 +3864,49 @@
       <c r="B24" s="57">
         <v>44062</v>
       </c>
-      <c r="C24" s="121">
+      <c r="C24" s="120">
         <v>5</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E24" s="131">
-        <v>0</v>
-      </c>
-      <c r="F24" s="131">
+      <c r="E24" s="130">
+        <v>0</v>
+      </c>
+      <c r="F24" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="120">
         <v>1</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I24" s="133">
-        <v>0</v>
-      </c>
-      <c r="J24" s="133">
+      <c r="I24" s="132">
+        <v>0</v>
+      </c>
+      <c r="J24" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K24" s="121">
+      <c r="K24" s="120">
         <v>1</v>
       </c>
       <c r="L24" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M24" s="133">
-        <v>0</v>
-      </c>
-      <c r="N24" s="133">
+      <c r="M24" s="132">
+        <v>0</v>
+      </c>
+      <c r="N24" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O24" s="122">
+      <c r="O24" s="121">
         <v>0</v>
       </c>
       <c r="P24" s="41">
@@ -3944,14 +3941,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="102">
+      <c r="Y24" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="102">
+      <c r="AA24" s="101">
         <v>0</v>
       </c>
       <c r="AB24" s="18">
@@ -3977,49 +3974,49 @@
       <c r="B25" s="57">
         <v>44063</v>
       </c>
-      <c r="C25" s="121">
+      <c r="C25" s="120">
         <v>5</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E25" s="131">
-        <v>0</v>
-      </c>
-      <c r="F25" s="131">
+      <c r="E25" s="130">
+        <v>0</v>
+      </c>
+      <c r="F25" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="121">
+      <c r="G25" s="120">
         <v>1</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I25" s="133">
-        <v>0</v>
-      </c>
-      <c r="J25" s="133">
+      <c r="I25" s="132">
+        <v>0</v>
+      </c>
+      <c r="J25" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="121">
+      <c r="K25" s="120">
         <v>1</v>
       </c>
       <c r="L25" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M25" s="133">
-        <v>0</v>
-      </c>
-      <c r="N25" s="133">
+      <c r="M25" s="132">
+        <v>0</v>
+      </c>
+      <c r="N25" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O25" s="122">
+      <c r="O25" s="121">
         <v>0</v>
       </c>
       <c r="P25" s="41">
@@ -4054,14 +4051,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="102">
+      <c r="Y25" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="102">
+      <c r="AA25" s="101">
         <v>0</v>
       </c>
       <c r="AB25" s="18">
@@ -4087,49 +4084,49 @@
       <c r="B26" s="57">
         <v>44064</v>
       </c>
-      <c r="C26" s="121">
+      <c r="C26" s="120">
         <v>0</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="131">
-        <v>0</v>
-      </c>
-      <c r="F26" s="131">
+      <c r="E26" s="130">
+        <v>0</v>
+      </c>
+      <c r="F26" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="121">
+      <c r="G26" s="120">
         <v>1</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I26" s="133">
-        <v>0</v>
-      </c>
-      <c r="J26" s="133">
+      <c r="I26" s="132">
+        <v>0</v>
+      </c>
+      <c r="J26" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="121">
+      <c r="K26" s="120">
         <v>1</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M26" s="133">
-        <v>0</v>
-      </c>
-      <c r="N26" s="133">
+      <c r="M26" s="132">
+        <v>0</v>
+      </c>
+      <c r="N26" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="122">
+      <c r="O26" s="121">
         <v>0</v>
       </c>
       <c r="P26" s="41">
@@ -4164,14 +4161,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="102">
+      <c r="Y26" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="102">
+      <c r="AA26" s="101">
         <v>0</v>
       </c>
       <c r="AB26" s="18">
@@ -4197,49 +4194,49 @@
       <c r="B27" s="57">
         <v>44065</v>
       </c>
-      <c r="C27" s="121">
+      <c r="C27" s="120">
         <v>1</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E27" s="131">
-        <v>0</v>
-      </c>
-      <c r="F27" s="131">
+      <c r="E27" s="130">
+        <v>0</v>
+      </c>
+      <c r="F27" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="121">
+      <c r="G27" s="120">
         <v>3</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I27" s="133">
-        <v>0</v>
-      </c>
-      <c r="J27" s="133">
+      <c r="I27" s="132">
+        <v>0</v>
+      </c>
+      <c r="J27" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="121">
+      <c r="K27" s="120">
         <v>1</v>
       </c>
       <c r="L27" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M27" s="133">
-        <v>0</v>
-      </c>
-      <c r="N27" s="133">
+      <c r="M27" s="132">
+        <v>0</v>
+      </c>
+      <c r="N27" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O27" s="122">
+      <c r="O27" s="121">
         <v>0</v>
       </c>
       <c r="P27" s="41">
@@ -4274,14 +4271,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="102">
+      <c r="Y27" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="102">
+      <c r="AA27" s="101">
         <v>0</v>
       </c>
       <c r="AB27" s="18">
@@ -4296,7 +4293,7 @@
         <f t="shared" si="14"/>
         <v>2300000</v>
       </c>
-      <c r="AE27" s="117"/>
+      <c r="AE27" s="116"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
@@ -4307,49 +4304,49 @@
       <c r="B28" s="57">
         <v>44066</v>
       </c>
-      <c r="C28" s="121">
+      <c r="C28" s="120">
         <v>4</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E28" s="131">
-        <v>0</v>
-      </c>
-      <c r="F28" s="131">
+      <c r="E28" s="130">
+        <v>0</v>
+      </c>
+      <c r="F28" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="121">
+      <c r="G28" s="120">
         <v>4</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I28" s="133">
-        <v>0</v>
-      </c>
-      <c r="J28" s="133">
+      <c r="I28" s="132">
+        <v>0</v>
+      </c>
+      <c r="J28" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K28" s="121">
+      <c r="K28" s="120">
         <v>0</v>
       </c>
       <c r="L28" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M28" s="133">
-        <v>0</v>
-      </c>
-      <c r="N28" s="133">
+      <c r="M28" s="132">
+        <v>0</v>
+      </c>
+      <c r="N28" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O28" s="122">
+      <c r="O28" s="121">
         <v>0</v>
       </c>
       <c r="P28" s="41">
@@ -4384,14 +4381,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="102">
+      <c r="Y28" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="102">
+      <c r="AA28" s="101">
         <v>0</v>
       </c>
       <c r="AB28" s="18">
@@ -4417,49 +4414,49 @@
       <c r="B29" s="57">
         <v>44067</v>
       </c>
-      <c r="C29" s="121">
+      <c r="C29" s="120">
         <v>0</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="131">
-        <v>0</v>
-      </c>
-      <c r="F29" s="131">
+      <c r="E29" s="130">
+        <v>0</v>
+      </c>
+      <c r="F29" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="121">
+      <c r="G29" s="120">
         <v>0</v>
       </c>
       <c r="H29" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I29" s="133">
-        <v>0</v>
-      </c>
-      <c r="J29" s="133">
+      <c r="I29" s="132">
+        <v>0</v>
+      </c>
+      <c r="J29" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="121">
+      <c r="K29" s="120">
         <v>0</v>
       </c>
       <c r="L29" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M29" s="133">
-        <v>0</v>
-      </c>
-      <c r="N29" s="133">
+      <c r="M29" s="132">
+        <v>0</v>
+      </c>
+      <c r="N29" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O29" s="122">
+      <c r="O29" s="121">
         <v>0</v>
       </c>
       <c r="P29" s="41">
@@ -4494,14 +4491,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="102">
+      <c r="Y29" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="102">
+      <c r="AA29" s="101">
         <v>0</v>
       </c>
       <c r="AB29" s="18">
@@ -4527,49 +4524,49 @@
       <c r="B30" s="57">
         <v>44068</v>
       </c>
-      <c r="C30" s="121">
+      <c r="C30" s="120">
         <v>0</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="131">
-        <v>0</v>
-      </c>
-      <c r="F30" s="131">
+      <c r="E30" s="130">
+        <v>0</v>
+      </c>
+      <c r="F30" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="121">
+      <c r="G30" s="120">
         <v>0</v>
       </c>
       <c r="H30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="133">
-        <v>0</v>
-      </c>
-      <c r="J30" s="133">
+      <c r="I30" s="132">
+        <v>0</v>
+      </c>
+      <c r="J30" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="121">
+      <c r="K30" s="120">
         <v>0</v>
       </c>
       <c r="L30" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="133">
-        <v>0</v>
-      </c>
-      <c r="N30" s="133">
+      <c r="M30" s="132">
+        <v>0</v>
+      </c>
+      <c r="N30" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O30" s="122">
+      <c r="O30" s="121">
         <v>0</v>
       </c>
       <c r="P30" s="41">
@@ -4604,14 +4601,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="102">
+      <c r="Y30" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="102">
+      <c r="AA30" s="101">
         <v>0</v>
       </c>
       <c r="AB30" s="18">
@@ -4637,49 +4634,49 @@
       <c r="B31" s="57">
         <v>44069</v>
       </c>
-      <c r="C31" s="121">
+      <c r="C31" s="120">
         <v>0</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="131">
-        <v>0</v>
-      </c>
-      <c r="F31" s="131">
+      <c r="E31" s="130">
+        <v>0</v>
+      </c>
+      <c r="F31" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="121">
+      <c r="G31" s="120">
         <v>0</v>
       </c>
       <c r="H31" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="133">
-        <v>0</v>
-      </c>
-      <c r="J31" s="133">
+      <c r="I31" s="132">
+        <v>0</v>
+      </c>
+      <c r="J31" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="121">
+      <c r="K31" s="120">
         <v>0</v>
       </c>
       <c r="L31" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="133">
-        <v>0</v>
-      </c>
-      <c r="N31" s="133">
+      <c r="M31" s="132">
+        <v>0</v>
+      </c>
+      <c r="N31" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O31" s="122">
+      <c r="O31" s="121">
         <v>0</v>
       </c>
       <c r="P31" s="41">
@@ -4714,14 +4711,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="102">
+      <c r="Y31" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="102">
+      <c r="AA31" s="101">
         <v>0</v>
       </c>
       <c r="AB31" s="18">
@@ -4747,49 +4744,49 @@
       <c r="B32" s="57">
         <v>44070</v>
       </c>
-      <c r="C32" s="121">
+      <c r="C32" s="120">
         <v>0</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="131">
-        <v>0</v>
-      </c>
-      <c r="F32" s="131">
+      <c r="E32" s="130">
+        <v>0</v>
+      </c>
+      <c r="F32" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="121">
+      <c r="G32" s="120">
         <v>0</v>
       </c>
       <c r="H32" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32" s="133">
-        <v>0</v>
-      </c>
-      <c r="J32" s="133">
+      <c r="I32" s="132">
+        <v>0</v>
+      </c>
+      <c r="J32" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="121">
+      <c r="K32" s="120">
         <v>0</v>
       </c>
       <c r="L32" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M32" s="133">
-        <v>0</v>
-      </c>
-      <c r="N32" s="133">
+      <c r="M32" s="132">
+        <v>0</v>
+      </c>
+      <c r="N32" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="122">
+      <c r="O32" s="121">
         <v>0</v>
       </c>
       <c r="P32" s="41">
@@ -4824,14 +4821,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="102">
+      <c r="Y32" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="102">
+      <c r="AA32" s="101">
         <v>0</v>
       </c>
       <c r="AB32" s="18">
@@ -4857,49 +4854,49 @@
       <c r="B33" s="57">
         <v>44071</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C33" s="120">
         <v>0</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="131">
-        <v>0</v>
-      </c>
-      <c r="F33" s="131">
+      <c r="E33" s="130">
+        <v>0</v>
+      </c>
+      <c r="F33" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33" s="121">
+      <c r="G33" s="120">
         <v>0</v>
       </c>
       <c r="H33" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I33" s="133">
-        <v>0</v>
-      </c>
-      <c r="J33" s="133">
+      <c r="I33" s="132">
+        <v>0</v>
+      </c>
+      <c r="J33" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="121">
+      <c r="K33" s="120">
         <v>0</v>
       </c>
       <c r="L33" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="133">
-        <v>0</v>
-      </c>
-      <c r="N33" s="133">
+      <c r="M33" s="132">
+        <v>0</v>
+      </c>
+      <c r="N33" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O33" s="122">
+      <c r="O33" s="121">
         <v>0</v>
       </c>
       <c r="P33" s="41">
@@ -4934,14 +4931,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="102">
+      <c r="Y33" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="102">
+      <c r="AA33" s="101">
         <v>0</v>
       </c>
       <c r="AB33" s="18">
@@ -4967,49 +4964,49 @@
       <c r="B34" s="57">
         <v>44072</v>
       </c>
-      <c r="C34" s="121">
+      <c r="C34" s="120">
         <v>0</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="131">
-        <v>0</v>
-      </c>
-      <c r="F34" s="131">
+      <c r="E34" s="130">
+        <v>0</v>
+      </c>
+      <c r="F34" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="121">
+      <c r="G34" s="120">
         <v>0</v>
       </c>
       <c r="H34" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="133">
-        <v>0</v>
-      </c>
-      <c r="J34" s="133">
+      <c r="I34" s="132">
+        <v>0</v>
+      </c>
+      <c r="J34" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="121">
+      <c r="K34" s="120">
         <v>0</v>
       </c>
       <c r="L34" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="133">
-        <v>0</v>
-      </c>
-      <c r="N34" s="133">
+      <c r="M34" s="132">
+        <v>0</v>
+      </c>
+      <c r="N34" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O34" s="122">
+      <c r="O34" s="121">
         <v>0</v>
       </c>
       <c r="P34" s="41">
@@ -5044,14 +5041,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="102">
+      <c r="Y34" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="102">
+      <c r="AA34" s="101">
         <v>0</v>
       </c>
       <c r="AB34" s="18">
@@ -5077,49 +5074,49 @@
       <c r="B35" s="57">
         <v>44073</v>
       </c>
-      <c r="C35" s="121">
+      <c r="C35" s="120">
         <v>0</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="131">
-        <v>0</v>
-      </c>
-      <c r="F35" s="131">
+      <c r="E35" s="130">
+        <v>0</v>
+      </c>
+      <c r="F35" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="121">
+      <c r="G35" s="120">
         <v>0</v>
       </c>
       <c r="H35" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="133">
-        <v>0</v>
-      </c>
-      <c r="J35" s="133">
+      <c r="I35" s="132">
+        <v>0</v>
+      </c>
+      <c r="J35" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="121">
+      <c r="K35" s="120">
         <v>0</v>
       </c>
       <c r="L35" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M35" s="133">
-        <v>0</v>
-      </c>
-      <c r="N35" s="133">
+      <c r="M35" s="132">
+        <v>0</v>
+      </c>
+      <c r="N35" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="122">
+      <c r="O35" s="121">
         <v>0</v>
       </c>
       <c r="P35" s="41">
@@ -5154,14 +5151,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="102">
+      <c r="Y35" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="102">
+      <c r="AA35" s="101">
         <v>0</v>
       </c>
       <c r="AB35" s="18">
@@ -5183,53 +5180,53 @@
       <c r="AI35" s="11"/>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" s="100"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="57">
         <v>44074</v>
       </c>
-      <c r="C36" s="121">
+      <c r="C36" s="120">
         <v>0</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="131">
-        <v>0</v>
-      </c>
-      <c r="F36" s="131">
+      <c r="E36" s="130">
+        <v>0</v>
+      </c>
+      <c r="F36" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="121">
+      <c r="G36" s="120">
         <v>0</v>
       </c>
       <c r="H36" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="133">
-        <v>0</v>
-      </c>
-      <c r="J36" s="133">
+      <c r="I36" s="132">
+        <v>0</v>
+      </c>
+      <c r="J36" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="121">
+      <c r="K36" s="120">
         <v>0</v>
       </c>
       <c r="L36" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M36" s="133">
-        <v>0</v>
-      </c>
-      <c r="N36" s="133">
+      <c r="M36" s="132">
+        <v>0</v>
+      </c>
+      <c r="N36" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O36" s="101">
+      <c r="O36" s="100">
         <v>0</v>
       </c>
       <c r="P36" s="41">
@@ -5264,14 +5261,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="102">
+      <c r="Y36" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="102">
+      <c r="AA36" s="101">
         <v>0</v>
       </c>
       <c r="AB36" s="18">
@@ -5286,7 +5283,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="100"/>
+      <c r="AE36" s="99"/>
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
       <c r="AH36" s="11"/>
@@ -5305,11 +5302,11 @@
         <f>SUM(D7:D36)</f>
         <v>17600000</v>
       </c>
-      <c r="E37" s="132">
+      <c r="E37" s="131">
         <f>SUM(E7:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="132">
+      <c r="F37" s="131">
         <f t="shared" ref="F37:Y37" si="15">SUM(F7:F36)</f>
         <v>0</v>
       </c>
@@ -5321,11 +5318,11 @@
         <f t="shared" si="15"/>
         <v>10800000</v>
       </c>
-      <c r="I37" s="132">
+      <c r="I37" s="131">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J37" s="132">
+      <c r="J37" s="131">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -5337,11 +5334,11 @@
         <f t="shared" si="16"/>
         <v>3600000</v>
       </c>
-      <c r="M37" s="132">
+      <c r="M37" s="131">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N37" s="132">
+      <c r="N37" s="131">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -5416,73 +5413,73 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="163">
-        <v>0</v>
-      </c>
-      <c r="D38" s="163"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
-      <c r="P38" s="155"/>
-      <c r="Q38" s="155"/>
-      <c r="R38" s="155"/>
-      <c r="S38" s="155"/>
-      <c r="T38" s="155"/>
-      <c r="U38" s="155"/>
-      <c r="V38" s="155"/>
-      <c r="W38" s="155"/>
-      <c r="X38" s="155"/>
-      <c r="Y38" s="155"/>
-      <c r="Z38" s="155"/>
-      <c r="AA38" s="155"/>
-      <c r="AB38" s="155"/>
-      <c r="AC38" s="155"/>
-      <c r="AD38" s="155"/>
-      <c r="AE38" s="155"/>
+      <c r="C38" s="160">
+        <v>0</v>
+      </c>
+      <c r="D38" s="160"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
+      <c r="N38" s="150"/>
+      <c r="O38" s="150"/>
+      <c r="P38" s="150"/>
+      <c r="Q38" s="150"/>
+      <c r="R38" s="150"/>
+      <c r="S38" s="150"/>
+      <c r="T38" s="150"/>
+      <c r="U38" s="150"/>
+      <c r="V38" s="150"/>
+      <c r="W38" s="150"/>
+      <c r="X38" s="150"/>
+      <c r="Y38" s="150"/>
+      <c r="Z38" s="150"/>
+      <c r="AA38" s="150"/>
+      <c r="AB38" s="150"/>
+      <c r="AC38" s="150"/>
+      <c r="AD38" s="150"/>
+      <c r="AE38" s="150"/>
     </row>
     <row r="39" spans="1:35" s="11" customFormat="1">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="156">
-        <v>0</v>
-      </c>
-      <c r="D39" s="156"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="155"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="155"/>
-      <c r="T39" s="155"/>
-      <c r="U39" s="155"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="155"/>
-      <c r="Y39" s="155"/>
-      <c r="Z39" s="155"/>
-      <c r="AA39" s="155"/>
-      <c r="AB39" s="155"/>
-      <c r="AC39" s="155"/>
-      <c r="AD39" s="155"/>
-      <c r="AE39" s="155"/>
+      <c r="C39" s="151">
+        <v>0</v>
+      </c>
+      <c r="D39" s="151"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="150"/>
+      <c r="R39" s="150"/>
+      <c r="S39" s="150"/>
+      <c r="T39" s="150"/>
+      <c r="U39" s="150"/>
+      <c r="V39" s="150"/>
+      <c r="W39" s="150"/>
+      <c r="X39" s="150"/>
+      <c r="Y39" s="150"/>
+      <c r="Z39" s="150"/>
+      <c r="AA39" s="150"/>
+      <c r="AB39" s="150"/>
+      <c r="AC39" s="150"/>
+      <c r="AD39" s="150"/>
+      <c r="AE39" s="150"/>
       <c r="AH39" s="11" t="s">
         <v>9</v>
       </c>
@@ -5501,6 +5498,13 @@
   </sheetData>
   <autoFilter ref="AE4:AE39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G39:AE39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AE2"/>
@@ -5517,13 +5521,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5545,16 +5542,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
+    <row r="1" spans="1:6" ht="31">
       <c r="A1" s="166" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
@@ -5589,17 +5586,17 @@
       <c r="B4" s="21">
         <v>44044</v>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="108">
         <v>1453398</v>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="108">
         <v>2610000</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="105">
         <f>SUM(D4,-C4)</f>
         <v>1156602</v>
       </c>
-      <c r="F4" s="108"/>
+      <c r="F4" s="107"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="34">
@@ -5608,17 +5605,17 @@
       <c r="B5" s="21">
         <v>44045</v>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="108">
         <v>2006181</v>
       </c>
-      <c r="D5" s="109">
+      <c r="D5" s="108">
         <v>3120000</v>
       </c>
-      <c r="E5" s="106">
+      <c r="E5" s="105">
         <f t="shared" ref="E5:E34" si="0">SUM(D5,-C5)</f>
         <v>1113819</v>
       </c>
-      <c r="F5" s="108"/>
+      <c r="F5" s="107"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="34">
@@ -5627,17 +5624,17 @@
       <c r="B6" s="21">
         <v>44046</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="108">
         <v>1734537</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="108">
         <v>2365000</v>
       </c>
-      <c r="E6" s="106">
+      <c r="E6" s="105">
         <f t="shared" si="0"/>
         <v>630463</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="107"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="34">
@@ -5646,17 +5643,17 @@
       <c r="B7" s="21">
         <v>44047</v>
       </c>
-      <c r="C7" s="106">
-        <v>0</v>
-      </c>
-      <c r="D7" s="106">
-        <v>0</v>
-      </c>
-      <c r="E7" s="106">
+      <c r="C7" s="105">
+        <v>0</v>
+      </c>
+      <c r="D7" s="105">
+        <v>0</v>
+      </c>
+      <c r="E7" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="108"/>
+      <c r="F7" s="107"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="34">
@@ -5665,13 +5662,13 @@
       <c r="B8" s="21">
         <v>44048</v>
       </c>
-      <c r="C8" s="106">
-        <v>0</v>
-      </c>
-      <c r="D8" s="106">
-        <v>0</v>
-      </c>
-      <c r="E8" s="106">
+      <c r="C8" s="105">
+        <v>0</v>
+      </c>
+      <c r="D8" s="105">
+        <v>0</v>
+      </c>
+      <c r="E8" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5684,13 +5681,13 @@
       <c r="B9" s="21">
         <v>44049</v>
       </c>
-      <c r="C9" s="106">
-        <v>0</v>
-      </c>
-      <c r="D9" s="106">
-        <v>0</v>
-      </c>
-      <c r="E9" s="106">
+      <c r="C9" s="105">
+        <v>0</v>
+      </c>
+      <c r="D9" s="105">
+        <v>0</v>
+      </c>
+      <c r="E9" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5703,13 +5700,13 @@
       <c r="B10" s="21">
         <v>44050</v>
       </c>
-      <c r="C10" s="106">
-        <v>0</v>
-      </c>
-      <c r="D10" s="106">
-        <v>0</v>
-      </c>
-      <c r="E10" s="106">
+      <c r="C10" s="105">
+        <v>0</v>
+      </c>
+      <c r="D10" s="105">
+        <v>0</v>
+      </c>
+      <c r="E10" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5722,13 +5719,13 @@
       <c r="B11" s="21">
         <v>44051</v>
       </c>
-      <c r="C11" s="106">
-        <v>0</v>
-      </c>
-      <c r="D11" s="106">
-        <v>0</v>
-      </c>
-      <c r="E11" s="106">
+      <c r="C11" s="105">
+        <v>0</v>
+      </c>
+      <c r="D11" s="105">
+        <v>0</v>
+      </c>
+      <c r="E11" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5741,13 +5738,13 @@
       <c r="B12" s="21">
         <v>44052</v>
       </c>
-      <c r="C12" s="106">
-        <v>0</v>
-      </c>
-      <c r="D12" s="106">
-        <v>0</v>
-      </c>
-      <c r="E12" s="106">
+      <c r="C12" s="105">
+        <v>0</v>
+      </c>
+      <c r="D12" s="105">
+        <v>0</v>
+      </c>
+      <c r="E12" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5760,13 +5757,13 @@
       <c r="B13" s="21">
         <v>44053</v>
       </c>
-      <c r="C13" s="106">
-        <v>0</v>
-      </c>
-      <c r="D13" s="106">
-        <v>0</v>
-      </c>
-      <c r="E13" s="106">
+      <c r="C13" s="105">
+        <v>0</v>
+      </c>
+      <c r="D13" s="105">
+        <v>0</v>
+      </c>
+      <c r="E13" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5779,13 +5776,13 @@
       <c r="B14" s="21">
         <v>44054</v>
       </c>
-      <c r="C14" s="106">
-        <v>0</v>
-      </c>
-      <c r="D14" s="106">
-        <v>0</v>
-      </c>
-      <c r="E14" s="106">
+      <c r="C14" s="105">
+        <v>0</v>
+      </c>
+      <c r="D14" s="105">
+        <v>0</v>
+      </c>
+      <c r="E14" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5798,13 +5795,13 @@
       <c r="B15" s="21">
         <v>44055</v>
       </c>
-      <c r="C15" s="106">
-        <v>0</v>
-      </c>
-      <c r="D15" s="106">
-        <v>0</v>
-      </c>
-      <c r="E15" s="106">
+      <c r="C15" s="105">
+        <v>0</v>
+      </c>
+      <c r="D15" s="105">
+        <v>0</v>
+      </c>
+      <c r="E15" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5817,13 +5814,13 @@
       <c r="B16" s="21">
         <v>44056</v>
       </c>
-      <c r="C16" s="106">
-        <v>0</v>
-      </c>
-      <c r="D16" s="106">
-        <v>0</v>
-      </c>
-      <c r="E16" s="106">
+      <c r="C16" s="105">
+        <v>0</v>
+      </c>
+      <c r="D16" s="105">
+        <v>0</v>
+      </c>
+      <c r="E16" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5836,13 +5833,13 @@
       <c r="B17" s="21">
         <v>44057</v>
       </c>
-      <c r="C17" s="106">
-        <v>0</v>
-      </c>
-      <c r="D17" s="106">
-        <v>0</v>
-      </c>
-      <c r="E17" s="106">
+      <c r="C17" s="105">
+        <v>0</v>
+      </c>
+      <c r="D17" s="105">
+        <v>0</v>
+      </c>
+      <c r="E17" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5855,13 +5852,13 @@
       <c r="B18" s="21">
         <v>44058</v>
       </c>
-      <c r="C18" s="106">
-        <v>0</v>
-      </c>
-      <c r="D18" s="106">
-        <v>0</v>
-      </c>
-      <c r="E18" s="106">
+      <c r="C18" s="105">
+        <v>0</v>
+      </c>
+      <c r="D18" s="105">
+        <v>0</v>
+      </c>
+      <c r="E18" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5874,13 +5871,13 @@
       <c r="B19" s="21">
         <v>44059</v>
       </c>
-      <c r="C19" s="106">
-        <v>0</v>
-      </c>
-      <c r="D19" s="106">
-        <v>0</v>
-      </c>
-      <c r="E19" s="106">
+      <c r="C19" s="105">
+        <v>0</v>
+      </c>
+      <c r="D19" s="105">
+        <v>0</v>
+      </c>
+      <c r="E19" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5893,13 +5890,13 @@
       <c r="B20" s="21">
         <v>44060</v>
       </c>
-      <c r="C20" s="106">
-        <v>0</v>
-      </c>
-      <c r="D20" s="106">
-        <v>0</v>
-      </c>
-      <c r="E20" s="106">
+      <c r="C20" s="105">
+        <v>0</v>
+      </c>
+      <c r="D20" s="105">
+        <v>0</v>
+      </c>
+      <c r="E20" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5912,13 +5909,13 @@
       <c r="B21" s="21">
         <v>44061</v>
       </c>
-      <c r="C21" s="106">
-        <v>0</v>
-      </c>
-      <c r="D21" s="106">
-        <v>0</v>
-      </c>
-      <c r="E21" s="106">
+      <c r="C21" s="105">
+        <v>0</v>
+      </c>
+      <c r="D21" s="105">
+        <v>0</v>
+      </c>
+      <c r="E21" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5931,13 +5928,13 @@
       <c r="B22" s="21">
         <v>44062</v>
       </c>
-      <c r="C22" s="106">
-        <v>0</v>
-      </c>
-      <c r="D22" s="106">
-        <v>0</v>
-      </c>
-      <c r="E22" s="106">
+      <c r="C22" s="105">
+        <v>0</v>
+      </c>
+      <c r="D22" s="105">
+        <v>0</v>
+      </c>
+      <c r="E22" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5950,13 +5947,13 @@
       <c r="B23" s="21">
         <v>44063</v>
       </c>
-      <c r="C23" s="106">
-        <v>0</v>
-      </c>
-      <c r="D23" s="106">
-        <v>0</v>
-      </c>
-      <c r="E23" s="106">
+      <c r="C23" s="105">
+        <v>0</v>
+      </c>
+      <c r="D23" s="105">
+        <v>0</v>
+      </c>
+      <c r="E23" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5969,13 +5966,13 @@
       <c r="B24" s="21">
         <v>44064</v>
       </c>
-      <c r="C24" s="106">
-        <v>0</v>
-      </c>
-      <c r="D24" s="106">
-        <v>0</v>
-      </c>
-      <c r="E24" s="106">
+      <c r="C24" s="105">
+        <v>0</v>
+      </c>
+      <c r="D24" s="105">
+        <v>0</v>
+      </c>
+      <c r="E24" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5988,13 +5985,13 @@
       <c r="B25" s="21">
         <v>44065</v>
       </c>
-      <c r="C25" s="106">
-        <v>0</v>
-      </c>
-      <c r="D25" s="106">
-        <v>0</v>
-      </c>
-      <c r="E25" s="106">
+      <c r="C25" s="105">
+        <v>0</v>
+      </c>
+      <c r="D25" s="105">
+        <v>0</v>
+      </c>
+      <c r="E25" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6007,17 +6004,17 @@
       <c r="B26" s="21">
         <v>44066</v>
       </c>
-      <c r="C26" s="106">
-        <v>0</v>
-      </c>
-      <c r="D26" s="106">
-        <v>0</v>
-      </c>
-      <c r="E26" s="106">
+      <c r="C26" s="105">
+        <v>0</v>
+      </c>
+      <c r="D26" s="105">
+        <v>0</v>
+      </c>
+      <c r="E26" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="107"/>
+      <c r="F26" s="106"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="34">
@@ -6026,17 +6023,17 @@
       <c r="B27" s="21">
         <v>44067</v>
       </c>
-      <c r="C27" s="106">
-        <v>0</v>
-      </c>
-      <c r="D27" s="106">
-        <v>0</v>
-      </c>
-      <c r="E27" s="106">
+      <c r="C27" s="105">
+        <v>0</v>
+      </c>
+      <c r="D27" s="105">
+        <v>0</v>
+      </c>
+      <c r="E27" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="107"/>
+      <c r="F27" s="106"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="34">
@@ -6045,16 +6042,16 @@
       <c r="B28" s="21">
         <v>44068</v>
       </c>
-      <c r="C28" s="106">
-        <v>0</v>
-      </c>
-      <c r="D28" s="106">
-        <v>0</v>
-      </c>
-      <c r="E28" s="106">
-        <v>0</v>
-      </c>
-      <c r="F28" s="107"/>
+      <c r="C28" s="105">
+        <v>0</v>
+      </c>
+      <c r="D28" s="105">
+        <v>0</v>
+      </c>
+      <c r="E28" s="105">
+        <v>0</v>
+      </c>
+      <c r="F28" s="106"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="34">
@@ -6063,13 +6060,13 @@
       <c r="B29" s="21">
         <v>44069</v>
       </c>
-      <c r="C29" s="106">
-        <v>0</v>
-      </c>
-      <c r="D29" s="106">
-        <v>0</v>
-      </c>
-      <c r="E29" s="106">
+      <c r="C29" s="105">
+        <v>0</v>
+      </c>
+      <c r="D29" s="105">
+        <v>0</v>
+      </c>
+      <c r="E29" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6082,13 +6079,13 @@
       <c r="B30" s="21">
         <v>44070</v>
       </c>
-      <c r="C30" s="106">
-        <v>0</v>
-      </c>
-      <c r="D30" s="106">
-        <v>0</v>
-      </c>
-      <c r="E30" s="106">
+      <c r="C30" s="105">
+        <v>0</v>
+      </c>
+      <c r="D30" s="105">
+        <v>0</v>
+      </c>
+      <c r="E30" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6101,13 +6098,13 @@
       <c r="B31" s="21">
         <v>44071</v>
       </c>
-      <c r="C31" s="106">
-        <v>0</v>
-      </c>
-      <c r="D31" s="106">
-        <v>0</v>
-      </c>
-      <c r="E31" s="106">
+      <c r="C31" s="105">
+        <v>0</v>
+      </c>
+      <c r="D31" s="105">
+        <v>0</v>
+      </c>
+      <c r="E31" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6120,13 +6117,13 @@
       <c r="B32" s="21">
         <v>44072</v>
       </c>
-      <c r="C32" s="106">
-        <v>0</v>
-      </c>
-      <c r="D32" s="106">
-        <v>0</v>
-      </c>
-      <c r="E32" s="106">
+      <c r="C32" s="105">
+        <v>0</v>
+      </c>
+      <c r="D32" s="105">
+        <v>0</v>
+      </c>
+      <c r="E32" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6139,30 +6136,30 @@
       <c r="B33" s="21">
         <v>44073</v>
       </c>
-      <c r="C33" s="106">
-        <v>0</v>
-      </c>
-      <c r="D33" s="106">
-        <v>0</v>
-      </c>
-      <c r="E33" s="106">
+      <c r="C33" s="105">
+        <v>0</v>
+      </c>
+      <c r="D33" s="105">
+        <v>0</v>
+      </c>
+      <c r="E33" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="116" customFormat="1">
+    <row r="34" spans="1:6" s="115" customFormat="1">
       <c r="A34" s="34"/>
       <c r="B34" s="21">
         <v>44074</v>
       </c>
-      <c r="C34" s="106">
-        <v>0</v>
-      </c>
-      <c r="D34" s="106">
-        <v>0</v>
-      </c>
-      <c r="E34" s="106">
+      <c r="C34" s="105">
+        <v>0</v>
+      </c>
+      <c r="D34" s="105">
+        <v>0</v>
+      </c>
+      <c r="E34" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6210,23 +6207,23 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="76" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="113" customWidth="1"/>
-    <col min="4" max="4" width="18" style="114" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="68" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="74" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="76" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="112" customWidth="1"/>
+    <col min="4" max="4" width="18" style="113" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="68" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="74" customWidth="1"/>
     <col min="7" max="7" width="30" style="70" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="80" customFormat="1" ht="31.5">
+    <row r="2" spans="1:7" s="80" customFormat="1" ht="31">
       <c r="A2" s="167" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="167"/>
       <c r="C2" s="167"/>
@@ -6235,9 +6232,9 @@
       <c r="F2" s="167"/>
       <c r="G2" s="167"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5">
+    <row r="3" spans="1:7" ht="31">
       <c r="B3" s="25"/>
-      <c r="C3" s="112"/>
+      <c r="C3" s="111"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="63" t="s">
@@ -6246,470 +6243,470 @@
       <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="115" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="117" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="66" customFormat="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="125">
+      <c r="A5" s="125"/>
+      <c r="B5" s="124">
         <v>44044</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="126"/>
-    </row>
-    <row r="6" spans="1:7" s="99" customFormat="1">
-      <c r="A6" s="126"/>
-      <c r="B6" s="125">
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="125"/>
+    </row>
+    <row r="6" spans="1:7" s="98" customFormat="1">
+      <c r="A6" s="125"/>
+      <c r="B6" s="124">
         <v>44045</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="126"/>
-    </row>
-    <row r="7" spans="1:7" s="99" customFormat="1">
-      <c r="A7" s="126"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="125"/>
+    </row>
+    <row r="7" spans="1:7" s="98" customFormat="1">
+      <c r="A7" s="125"/>
       <c r="B7" s="168">
         <v>44046</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="125">
         <v>1</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="109">
+        <v>700000</v>
+      </c>
+      <c r="F7" s="109"/>
+      <c r="G7" s="125"/>
+    </row>
+    <row r="8" spans="1:7" s="123" customFormat="1">
+      <c r="A8" s="125"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="125">
+        <v>2</v>
+      </c>
+      <c r="D8" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="109">
+        <v>1820000</v>
+      </c>
+      <c r="F8" s="109"/>
+      <c r="G8" s="125"/>
+    </row>
+    <row r="9" spans="1:7" s="123" customFormat="1">
+      <c r="A9" s="125"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="125">
+        <v>3</v>
+      </c>
+      <c r="D9" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="109">
+        <v>870000</v>
+      </c>
+      <c r="F9" s="109"/>
+      <c r="G9" s="125"/>
+    </row>
+    <row r="10" spans="1:7" s="123" customFormat="1">
+      <c r="A10" s="125"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="125">
+        <v>4</v>
+      </c>
+      <c r="D10" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="110">
-        <v>700000</v>
-      </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="126"/>
-    </row>
-    <row r="8" spans="1:7" s="124" customFormat="1">
-      <c r="A8" s="126"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="126">
-        <v>2</v>
-      </c>
-      <c r="D8" s="126" t="s">
+      <c r="E10" s="109">
+        <v>310000</v>
+      </c>
+      <c r="F10" s="109"/>
+      <c r="G10" s="125"/>
+    </row>
+    <row r="11" spans="1:7" s="123" customFormat="1">
+      <c r="A11" s="125"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="125">
+        <v>5</v>
+      </c>
+      <c r="D11" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="110">
-        <v>1820000</v>
-      </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="126"/>
-    </row>
-    <row r="9" spans="1:7" s="124" customFormat="1">
-      <c r="A9" s="126"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="126">
-        <v>3</v>
-      </c>
-      <c r="D9" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="110">
-        <v>870000</v>
-      </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="126"/>
-    </row>
-    <row r="10" spans="1:7" s="124" customFormat="1">
-      <c r="A10" s="126"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="126">
-        <v>4</v>
-      </c>
-      <c r="D10" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="110">
-        <v>310000</v>
-      </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="126"/>
-    </row>
-    <row r="11" spans="1:7" s="124" customFormat="1">
-      <c r="A11" s="126"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="126">
-        <v>5</v>
-      </c>
-      <c r="D11" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="110">
+      <c r="E11" s="109">
         <v>190000</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="126"/>
-    </row>
-    <row r="12" spans="1:7" s="99" customFormat="1" hidden="1">
-      <c r="A12" s="126"/>
-      <c r="B12" s="125">
+      <c r="F11" s="109"/>
+      <c r="G11" s="125"/>
+    </row>
+    <row r="12" spans="1:7" s="98" customFormat="1" hidden="1">
+      <c r="A12" s="125"/>
+      <c r="B12" s="124">
         <v>44047</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="126"/>
-    </row>
-    <row r="13" spans="1:7" s="99" customFormat="1" hidden="1">
-      <c r="A13" s="126"/>
-      <c r="B13" s="125">
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="125"/>
+    </row>
+    <row r="13" spans="1:7" s="98" customFormat="1" hidden="1">
+      <c r="A13" s="125"/>
+      <c r="B13" s="124">
         <v>44048</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="126"/>
-    </row>
-    <row r="14" spans="1:7" s="99" customFormat="1" hidden="1">
-      <c r="A14" s="126"/>
-      <c r="B14" s="125">
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="125"/>
+    </row>
+    <row r="14" spans="1:7" s="98" customFormat="1" hidden="1">
+      <c r="A14" s="125"/>
+      <c r="B14" s="124">
         <v>44049</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="126"/>
-    </row>
-    <row r="15" spans="1:7" s="128" customFormat="1">
-      <c r="A15" s="126"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="125"/>
+    </row>
+    <row r="15" spans="1:7" s="127" customFormat="1">
+      <c r="A15" s="125"/>
       <c r="B15" s="168">
         <v>44050</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="125">
         <v>1</v>
       </c>
-      <c r="D15" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="110">
+      <c r="D15" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="109">
         <v>530000</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="126"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="125"/>
     </row>
     <row r="16" spans="1:7" s="66" customFormat="1">
-      <c r="A16" s="126"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="170"/>
-      <c r="C16" s="126">
+      <c r="C16" s="125">
         <v>2</v>
       </c>
-      <c r="D16" s="126" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="110">
+      <c r="D16" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="109">
         <v>772000</v>
       </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="126"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" spans="1:7" s="89" customFormat="1" hidden="1">
-      <c r="A17" s="126"/>
-      <c r="B17" s="125">
+      <c r="A17" s="125"/>
+      <c r="B17" s="124">
         <v>44051</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="126"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="125"/>
     </row>
     <row r="18" spans="1:7" s="69" customFormat="1" hidden="1">
-      <c r="A18" s="126"/>
-      <c r="B18" s="125">
+      <c r="A18" s="125"/>
+      <c r="B18" s="124">
         <v>44052</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="126"/>
-    </row>
-    <row r="19" spans="1:7" s="99" customFormat="1" hidden="1">
-      <c r="A19" s="126"/>
-      <c r="B19" s="125">
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="125"/>
+    </row>
+    <row r="19" spans="1:7" s="98" customFormat="1" hidden="1">
+      <c r="A19" s="125"/>
+      <c r="B19" s="124">
         <v>44053</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="126"/>
-    </row>
-    <row r="20" spans="1:7" s="99" customFormat="1" hidden="1">
-      <c r="A20" s="126"/>
-      <c r="B20" s="125">
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="125"/>
+    </row>
+    <row r="20" spans="1:7" s="98" customFormat="1" hidden="1">
+      <c r="A20" s="125"/>
+      <c r="B20" s="124">
         <v>44054</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="126"/>
-    </row>
-    <row r="21" spans="1:7" s="104" customFormat="1" hidden="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="125">
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="125"/>
+    </row>
+    <row r="21" spans="1:7" s="103" customFormat="1" hidden="1">
+      <c r="A21" s="125"/>
+      <c r="B21" s="124">
         <v>44055</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="126"/>
-    </row>
-    <row r="22" spans="1:7" s="99" customFormat="1" hidden="1">
-      <c r="A22" s="126"/>
-      <c r="B22" s="125">
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="125"/>
+    </row>
+    <row r="22" spans="1:7" s="98" customFormat="1" hidden="1">
+      <c r="A22" s="125"/>
+      <c r="B22" s="124">
         <v>44056</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="126"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="125"/>
     </row>
     <row r="23" spans="1:7" s="87" customFormat="1" hidden="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="125">
+      <c r="A23" s="125"/>
+      <c r="B23" s="124">
         <v>44057</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="126"/>
-    </row>
-    <row r="24" spans="1:7" s="104" customFormat="1" hidden="1">
-      <c r="A24" s="126"/>
-      <c r="B24" s="125">
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="125"/>
+    </row>
+    <row r="24" spans="1:7" s="103" customFormat="1" hidden="1">
+      <c r="A24" s="125"/>
+      <c r="B24" s="124">
         <v>44058</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="126"/>
-    </row>
-    <row r="25" spans="1:7" s="104" customFormat="1" hidden="1">
-      <c r="A25" s="126"/>
-      <c r="B25" s="125">
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="125"/>
+    </row>
+    <row r="25" spans="1:7" s="103" customFormat="1" hidden="1">
+      <c r="A25" s="125"/>
+      <c r="B25" s="124">
         <v>44059</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="126"/>
-    </row>
-    <row r="26" spans="1:7" s="104" customFormat="1">
-      <c r="A26" s="126"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="125"/>
+    </row>
+    <row r="26" spans="1:7" s="103" customFormat="1">
+      <c r="A26" s="125"/>
       <c r="B26" s="168">
         <v>44060</v>
       </c>
-      <c r="C26" s="126">
+      <c r="C26" s="125">
         <v>1</v>
       </c>
-      <c r="D26" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="110">
+      <c r="D26" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="109">
         <v>5825000</v>
       </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="126" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="128" customFormat="1">
-      <c r="A27" s="126"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="125" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="127" customFormat="1">
+      <c r="A27" s="125"/>
       <c r="B27" s="170"/>
-      <c r="C27" s="126">
+      <c r="C27" s="125">
         <v>2</v>
       </c>
-      <c r="D27" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="110">
+      <c r="D27" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="109">
         <v>5825000</v>
       </c>
-      <c r="F27" s="110"/>
-      <c r="G27" s="126"/>
-    </row>
-    <row r="28" spans="1:7" s="104" customFormat="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="125">
+      <c r="F27" s="109"/>
+      <c r="G27" s="125"/>
+    </row>
+    <row r="28" spans="1:7" s="103" customFormat="1">
+      <c r="A28" s="125"/>
+      <c r="B28" s="124">
         <v>44061</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="126"/>
-    </row>
-    <row r="29" spans="1:7" s="104" customFormat="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="125">
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="125"/>
+    </row>
+    <row r="29" spans="1:7" s="103" customFormat="1">
+      <c r="A29" s="125"/>
+      <c r="B29" s="124">
         <v>44062</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="126"/>
-    </row>
-    <row r="30" spans="1:7" s="104" customFormat="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="125">
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="125"/>
+    </row>
+    <row r="30" spans="1:7" s="103" customFormat="1">
+      <c r="A30" s="125"/>
+      <c r="B30" s="124">
         <v>44063</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="126"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="125"/>
     </row>
     <row r="31" spans="1:7" s="73" customFormat="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="125">
+      <c r="A31" s="125"/>
+      <c r="B31" s="124">
         <v>44064</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="126"/>
-    </row>
-    <row r="32" spans="1:7" s="104" customFormat="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="125">
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="125"/>
+    </row>
+    <row r="32" spans="1:7" s="103" customFormat="1">
+      <c r="A32" s="125"/>
+      <c r="B32" s="124">
         <v>44065</v>
       </c>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="126"/>
-    </row>
-    <row r="33" spans="1:7" s="104" customFormat="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="125">
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="125"/>
+    </row>
+    <row r="33" spans="1:7" s="103" customFormat="1">
+      <c r="A33" s="125"/>
+      <c r="B33" s="124">
         <v>44066</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="126"/>
-    </row>
-    <row r="34" spans="1:7" s="104" customFormat="1">
-      <c r="A34" s="126"/>
-      <c r="B34" s="125">
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="125"/>
+    </row>
+    <row r="34" spans="1:7" s="103" customFormat="1">
+      <c r="A34" s="125"/>
+      <c r="B34" s="124">
         <v>44067</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="126"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="125"/>
     </row>
     <row r="35" spans="1:7" s="73" customFormat="1">
-      <c r="A35" s="126"/>
-      <c r="B35" s="125">
+      <c r="A35" s="125"/>
+      <c r="B35" s="124">
         <v>44068</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="126"/>
-    </row>
-    <row r="36" spans="1:7" s="104" customFormat="1">
-      <c r="A36" s="126"/>
-      <c r="B36" s="125">
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="125"/>
+    </row>
+    <row r="36" spans="1:7" s="103" customFormat="1">
+      <c r="A36" s="125"/>
+      <c r="B36" s="124">
         <v>44069</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="126"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="125"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="126"/>
-      <c r="B37" s="125">
+      <c r="A37" s="125"/>
+      <c r="B37" s="124">
         <v>44070</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="126"/>
-    </row>
-    <row r="38" spans="1:7" s="104" customFormat="1">
-      <c r="A38" s="126"/>
-      <c r="B38" s="125">
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="125"/>
+    </row>
+    <row r="38" spans="1:7" s="103" customFormat="1">
+      <c r="A38" s="125"/>
+      <c r="B38" s="124">
         <v>44071</v>
       </c>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="126"/>
-    </row>
-    <row r="39" spans="1:7" s="104" customFormat="1">
-      <c r="A39" s="126"/>
-      <c r="B39" s="125">
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="125"/>
+    </row>
+    <row r="39" spans="1:7" s="103" customFormat="1">
+      <c r="A39" s="125"/>
+      <c r="B39" s="124">
         <v>44072</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="126"/>
-    </row>
-    <row r="40" spans="1:7" s="104" customFormat="1">
-      <c r="A40" s="126"/>
-      <c r="B40" s="125">
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="125"/>
+    </row>
+    <row r="40" spans="1:7" s="103" customFormat="1">
+      <c r="A40" s="125"/>
+      <c r="B40" s="124">
         <v>44073</v>
       </c>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="126"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="125"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="126"/>
-      <c r="B41" s="125">
+      <c r="A41" s="125"/>
+      <c r="B41" s="124">
         <v>44074</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="126"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="125"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="34">
@@ -6718,8 +6715,8 @@
       <c r="B42" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="127"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="126"/>
       <c r="E42" s="86">
         <f>SUM(E5:E41)</f>
         <v>16842000</v>
@@ -6733,8 +6730,8 @@
     <row r="43" spans="1:7" s="82" customFormat="1">
       <c r="A43" s="76"/>
       <c r="B43" s="20"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="114"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
       <c r="E43" s="68"/>
       <c r="F43" s="74"/>
       <c r="G43" s="70"/>
@@ -6763,19 +6760,19 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="97"/>
+    <col min="1" max="1" width="4.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="96"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5">
+    <row r="2" spans="1:6" ht="29">
       <c r="A2" s="171" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="171"/>
       <c r="C2" s="171"/>
@@ -6787,7 +6784,7 @@
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -6807,7 +6804,7 @@
       <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="96">
+      <c r="B5" s="95">
         <v>44044</v>
       </c>
       <c r="C5" s="26"/>
@@ -6819,7 +6816,7 @@
       <c r="A6" s="34">
         <v>8</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="95">
         <v>44045</v>
       </c>
       <c r="C6" s="34"/>
@@ -6831,11 +6828,11 @@
       <c r="A7" s="34">
         <v>9</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="95">
         <v>44046</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="34">
         <v>10</v>
@@ -6849,7 +6846,7 @@
       <c r="A8" s="34">
         <v>10</v>
       </c>
-      <c r="B8" s="96">
+      <c r="B8" s="95">
         <v>44047</v>
       </c>
       <c r="C8" s="34"/>
@@ -6861,7 +6858,7 @@
       <c r="A9" s="34">
         <v>11</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="95">
         <v>44048</v>
       </c>
       <c r="C9" s="34"/>
@@ -6873,7 +6870,7 @@
       <c r="A10" s="34">
         <v>12</v>
       </c>
-      <c r="B10" s="96">
+      <c r="B10" s="95">
         <v>44049</v>
       </c>
       <c r="C10" s="34"/>
@@ -6885,7 +6882,7 @@
       <c r="A11" s="34">
         <v>13</v>
       </c>
-      <c r="B11" s="96">
+      <c r="B11" s="95">
         <v>44050</v>
       </c>
       <c r="C11" s="34"/>
@@ -6897,7 +6894,7 @@
       <c r="A12" s="34">
         <v>14</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="95">
         <v>44051</v>
       </c>
       <c r="C12" s="34"/>
@@ -6909,7 +6906,7 @@
       <c r="A13" s="34">
         <v>15</v>
       </c>
-      <c r="B13" s="96">
+      <c r="B13" s="95">
         <v>44052</v>
       </c>
       <c r="C13" s="34"/>
@@ -6921,7 +6918,7 @@
       <c r="A14" s="34">
         <v>17</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="95">
         <v>44053</v>
       </c>
       <c r="C14" s="34"/>
@@ -6933,7 +6930,7 @@
       <c r="A15" s="34">
         <v>17</v>
       </c>
-      <c r="B15" s="96">
+      <c r="B15" s="95">
         <v>44054</v>
       </c>
       <c r="C15" s="34"/>
@@ -6945,7 +6942,7 @@
       <c r="A16" s="34">
         <v>18</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B16" s="95">
         <v>44055</v>
       </c>
       <c r="C16" s="34"/>
@@ -6957,7 +6954,7 @@
       <c r="A17" s="34">
         <v>19</v>
       </c>
-      <c r="B17" s="96">
+      <c r="B17" s="95">
         <v>44056</v>
       </c>
       <c r="C17" s="34"/>
@@ -6969,7 +6966,7 @@
       <c r="A18" s="34">
         <v>20</v>
       </c>
-      <c r="B18" s="96">
+      <c r="B18" s="95">
         <v>44057</v>
       </c>
       <c r="C18" s="34"/>
@@ -6981,7 +6978,7 @@
       <c r="A19" s="34">
         <v>21</v>
       </c>
-      <c r="B19" s="96">
+      <c r="B19" s="95">
         <v>44058</v>
       </c>
       <c r="C19" s="34"/>
@@ -6993,7 +6990,7 @@
       <c r="A20" s="34">
         <v>22</v>
       </c>
-      <c r="B20" s="96">
+      <c r="B20" s="95">
         <v>44059</v>
       </c>
       <c r="C20" s="34"/>
@@ -7005,11 +7002,11 @@
       <c r="A21" s="34">
         <v>23</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="95">
         <v>44060</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="42">
@@ -7021,7 +7018,7 @@
       <c r="A22" s="34">
         <v>24</v>
       </c>
-      <c r="B22" s="96">
+      <c r="B22" s="95">
         <v>44061</v>
       </c>
       <c r="C22" s="34"/>
@@ -7033,7 +7030,7 @@
       <c r="A23" s="34">
         <v>25</v>
       </c>
-      <c r="B23" s="96">
+      <c r="B23" s="95">
         <v>44062</v>
       </c>
       <c r="C23" s="34"/>
@@ -7045,7 +7042,7 @@
       <c r="A24" s="34">
         <v>27</v>
       </c>
-      <c r="B24" s="96">
+      <c r="B24" s="95">
         <v>44063</v>
       </c>
       <c r="C24" s="34"/>
@@ -7057,7 +7054,7 @@
       <c r="A25" s="34">
         <v>27</v>
       </c>
-      <c r="B25" s="96">
+      <c r="B25" s="95">
         <v>44064</v>
       </c>
       <c r="C25" s="34"/>
@@ -7069,7 +7066,7 @@
       <c r="A26" s="34">
         <v>28</v>
       </c>
-      <c r="B26" s="96">
+      <c r="B26" s="95">
         <v>44065</v>
       </c>
       <c r="C26" s="34"/>
@@ -7081,7 +7078,7 @@
       <c r="A27" s="34">
         <v>29</v>
       </c>
-      <c r="B27" s="96">
+      <c r="B27" s="95">
         <v>44066</v>
       </c>
       <c r="C27" s="34"/>
@@ -7089,9 +7086,9 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="119" customFormat="1">
+    <row r="28" spans="1:6" s="118" customFormat="1">
       <c r="A28" s="34"/>
-      <c r="B28" s="96">
+      <c r="B28" s="95">
         <v>44067</v>
       </c>
       <c r="C28" s="34"/>
@@ -7099,9 +7096,9 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="119" customFormat="1">
+    <row r="29" spans="1:6" s="118" customFormat="1">
       <c r="A29" s="34"/>
-      <c r="B29" s="96">
+      <c r="B29" s="95">
         <v>44068</v>
       </c>
       <c r="C29" s="34"/>
@@ -7109,9 +7106,9 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="119" customFormat="1">
+    <row r="30" spans="1:6" s="118" customFormat="1">
       <c r="A30" s="34"/>
-      <c r="B30" s="96">
+      <c r="B30" s="95">
         <v>44069</v>
       </c>
       <c r="C30" s="34"/>
@@ -7119,9 +7116,9 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="119" customFormat="1">
+    <row r="31" spans="1:6" s="118" customFormat="1">
       <c r="A31" s="34"/>
-      <c r="B31" s="96">
+      <c r="B31" s="95">
         <v>44070</v>
       </c>
       <c r="C31" s="34"/>
@@ -7129,9 +7126,9 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="119" customFormat="1">
+    <row r="32" spans="1:6" s="118" customFormat="1">
       <c r="A32" s="34"/>
-      <c r="B32" s="96">
+      <c r="B32" s="95">
         <v>44071</v>
       </c>
       <c r="C32" s="34"/>
@@ -7139,9 +7136,9 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="119" customFormat="1">
+    <row r="33" spans="1:6" s="118" customFormat="1">
       <c r="A33" s="34"/>
-      <c r="B33" s="96">
+      <c r="B33" s="95">
         <v>44072</v>
       </c>
       <c r="C33" s="34"/>
@@ -7149,9 +7146,9 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="119" customFormat="1">
+    <row r="34" spans="1:6" s="118" customFormat="1">
       <c r="A34" s="34"/>
-      <c r="B34" s="96">
+      <c r="B34" s="95">
         <v>44073</v>
       </c>
       <c r="C34" s="34"/>
@@ -7159,9 +7156,9 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" s="119" customFormat="1">
+    <row r="35" spans="1:6" s="118" customFormat="1">
       <c r="A35" s="34"/>
-      <c r="B35" s="96">
+      <c r="B35" s="95">
         <v>44074</v>
       </c>
       <c r="C35" s="34"/>
@@ -7173,7 +7170,7 @@
       <c r="A36" s="26">
         <v>32</v>
       </c>
-      <c r="B36" s="96"/>
+      <c r="B36" s="95"/>
       <c r="C36" s="26" t="s">
         <v>8</v>
       </c>
@@ -7199,25 +7196,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V31"/>
+  <dimension ref="A2:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:D39"/>
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25">
+    <row r="2" spans="1:6" ht="20">
       <c r="B2" s="172" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="173"/>
       <c r="D2" s="173"/>
@@ -7240,104 +7237,123 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="89" customFormat="1">
+    <row r="4" spans="1:6" s="92" customFormat="1" ht="16">
       <c r="A4" s="23"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="94">
+        <v>44018</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="86">
-        <v>5825000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="93" customFormat="1">
+      <c r="E4" s="78">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="149" customFormat="1" ht="16">
       <c r="A5" s="23"/>
-      <c r="B5" s="95">
-        <v>44018</v>
-      </c>
-      <c r="C5" s="103" t="s">
-        <v>76</v>
+      <c r="B5" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>74</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E5" s="78">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="149" customFormat="1" ht="16">
+      <c r="A6" s="23"/>
+      <c r="B6" s="94">
+        <v>43897</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="78">
+        <v>16950000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="149" customFormat="1" ht="16">
+      <c r="A7" s="23"/>
+      <c r="B7" s="94">
+        <v>43928</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="78">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="149" customFormat="1" ht="16">
+      <c r="A8" s="23"/>
+      <c r="B8" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="78">
+        <v>774000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="149" customFormat="1" ht="16">
+      <c r="A9" s="23"/>
+      <c r="B9" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="78">
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="93" customFormat="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="78">
-        <v>780000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="69" customFormat="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="174" t="s">
+    <row r="10" spans="1:6" s="69" customFormat="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="48">
-        <f>SUM(E4:E6)</f>
-        <v>8105000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" s="62"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="48">
+        <f>SUM(E4:E9)</f>
+        <v>27504000</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16"/>
@@ -7352,44 +7368,28 @@
       <c r="E17"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="62"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22"/>
@@ -7403,8 +7403,20 @@
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="62"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24"/>
@@ -7418,37 +7430,34 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
+      <c r="F26" s="8"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
     </row>
     <row r="29" spans="2:22">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
       <c r="O29" s="62"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="62"/>
@@ -7456,6 +7465,10 @@
       <c r="S29" s="62"/>
     </row>
     <row r="30" spans="2:22">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
       <c r="O30" s="62"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
@@ -7469,10 +7482,31 @@
       <c r="R31" s="62"/>
       <c r="S31" s="62"/>
     </row>
+    <row r="32" spans="2:22">
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+    </row>
+    <row r="33" spans="15:19">
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+    </row>
+    <row r="34" spans="15:19">
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7492,21 +7526,21 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5">
+    <row r="2" spans="2:8" ht="29">
       <c r="B2" s="171" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="171"/>
       <c r="D2" s="171"/>
@@ -7591,8 +7625,8 @@
         <v>49</v>
       </c>
       <c r="H10" s="47">
-        <f>nợ!E7+nhập!F42</f>
-        <v>8105000</v>
+        <f>nợ!E10+nhập!F42</f>
+        <v>27504000</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -7668,7 +7702,7 @@
       </c>
       <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
@@ -7730,7 +7764,7 @@
         <v>16992000</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+    <row r="26" spans="2:15" ht="16" thickBot="1">
       <c r="B26" s="175" t="s">
         <v>42</v>
       </c>
@@ -7799,18 +7833,18 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="185" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="185"/>
       <c r="C1" s="185"/>
@@ -7819,27 +7853,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="176" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="176"/>
       <c r="D2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="93" customFormat="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="92" customFormat="1">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="47">
         <f>E4</f>
         <v>8095000</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="47">
         <f>thuốc!D35</f>
@@ -7848,14 +7882,14 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="47">
         <f>chi!E36+nhập!E42</f>
         <v>16992000</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" s="47">
         <f>thuốc!C35</f>
@@ -7864,14 +7898,14 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
         <v>-8897000</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="47">
         <f>E4-E5</f>
@@ -7880,7 +7914,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="176" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="176"/>
       <c r="C8" s="176"/>
@@ -7888,23 +7922,23 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="183" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="184"/>
       <c r="C9" s="183" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" s="184"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="47">
         <v>22423000</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" s="47">
         <v>0</v>
@@ -7912,13 +7946,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="98">
+        <v>77</v>
+      </c>
+      <c r="B11" s="97">
         <v>94952702</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" s="47">
         <v>30687006</v>
@@ -7928,7 +7962,7 @@
       <c r="A12" s="23"/>
       <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="47">
         <v>89187956</v>
@@ -7936,14 +7970,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" s="47">
         <f>B10+B11</f>
         <v>117375702</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="47">
         <f>D12+D11</f>
@@ -7983,36 +8017,36 @@
       <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.140625" style="136" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="34" width="3.85546875" customWidth="1"/>
-    <col min="35" max="35" width="7.140625" customWidth="1"/>
-    <col min="36" max="37" width="7.140625" style="128" customWidth="1"/>
-    <col min="38" max="38" width="7.140625" customWidth="1"/>
-    <col min="39" max="39" width="7.140625" style="128" customWidth="1"/>
-    <col min="40" max="40" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="135" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="34" width="3.83203125" customWidth="1"/>
+    <col min="35" max="35" width="7.1640625" customWidth="1"/>
+    <col min="36" max="37" width="7.1640625" style="127" customWidth="1"/>
+    <col min="38" max="38" width="7.1640625" customWidth="1"/>
+    <col min="39" max="39" width="7.1640625" style="127" customWidth="1"/>
+    <col min="40" max="40" width="7.1640625" customWidth="1"/>
     <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="128" customFormat="1">
-      <c r="B1" s="136"/>
+    <row r="1" spans="2:43" s="127" customFormat="1">
+      <c r="B1" s="135"/>
     </row>
     <row r="2" spans="2:43">
-      <c r="B2" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="137">
+      <c r="B2" s="135" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="136">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="128" customFormat="1">
-      <c r="B3" s="136"/>
-    </row>
-    <row r="4" spans="2:43" ht="46.5">
+    <row r="3" spans="2:43" s="127" customFormat="1">
+      <c r="B3" s="135"/>
+    </row>
+    <row r="4" spans="2:43" ht="47">
       <c r="B4" s="192" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="192"/>
       <c r="D4" s="192"/>
@@ -8037,24 +8071,24 @@
       <c r="W4" s="192"/>
       <c r="X4" s="192"/>
     </row>
-    <row r="5" spans="2:43" s="128" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B5" s="148"/>
-      <c r="C5" s="147"/>
-    </row>
-    <row r="6" spans="2:43" ht="18.75">
-      <c r="B6" s="138"/>
-      <c r="C6" s="149">
+    <row r="5" spans="2:43" s="127" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B5" s="147"/>
+      <c r="C5" s="146"/>
+    </row>
+    <row r="6" spans="2:43" ht="19">
+      <c r="B6" s="137"/>
+      <c r="C6" s="148">
         <f>DATE($C$2,8,1)</f>
         <v>44044</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="128" customFormat="1">
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-    </row>
-    <row r="8" spans="2:43" s="128" customFormat="1">
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
+    <row r="7" spans="2:43" s="127" customFormat="1">
+      <c r="B7" s="137"/>
+      <c r="C7" s="138"/>
+    </row>
+    <row r="8" spans="2:43" s="127" customFormat="1">
+      <c r="B8" s="137"/>
+      <c r="C8" s="138"/>
     </row>
     <row r="10" spans="2:43">
       <c r="B10" s="193" t="s">
@@ -8097,290 +8131,290 @@
       <c r="AG10" s="194"/>
       <c r="AH10" s="194"/>
       <c r="AI10" s="194" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AJ10" s="194"/>
       <c r="AK10" s="194"/>
       <c r="AL10" s="194"/>
       <c r="AM10" s="194"/>
       <c r="AN10" s="194"/>
-      <c r="AO10" s="135" t="s">
+      <c r="AO10" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="AP10" s="134"/>
-      <c r="AQ10" s="134"/>
+      <c r="AP10" s="133"/>
+      <c r="AQ10" s="133"/>
     </row>
     <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="193"/>
       <c r="C11" s="193"/>
-      <c r="D11" s="140">
+      <c r="D11" s="139">
         <f>C6</f>
         <v>44044</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="139">
         <f>D11+1</f>
         <v>44045</v>
       </c>
-      <c r="F11" s="140">
+      <c r="F11" s="139">
         <f t="shared" ref="F11:AE11" si="0">E11+1</f>
         <v>44046</v>
       </c>
-      <c r="G11" s="140">
+      <c r="G11" s="139">
         <f t="shared" si="0"/>
         <v>44047</v>
       </c>
-      <c r="H11" s="140">
+      <c r="H11" s="139">
         <f t="shared" si="0"/>
         <v>44048</v>
       </c>
-      <c r="I11" s="140">
+      <c r="I11" s="139">
         <f t="shared" si="0"/>
         <v>44049</v>
       </c>
-      <c r="J11" s="140">
+      <c r="J11" s="139">
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="K11" s="140">
+      <c r="K11" s="139">
         <f t="shared" si="0"/>
         <v>44051</v>
       </c>
-      <c r="L11" s="140">
+      <c r="L11" s="139">
         <f t="shared" si="0"/>
         <v>44052</v>
       </c>
-      <c r="M11" s="140">
+      <c r="M11" s="139">
         <f t="shared" si="0"/>
         <v>44053</v>
       </c>
-      <c r="N11" s="140">
+      <c r="N11" s="139">
         <f t="shared" si="0"/>
         <v>44054</v>
       </c>
-      <c r="O11" s="140">
+      <c r="O11" s="139">
         <f t="shared" si="0"/>
         <v>44055</v>
       </c>
-      <c r="P11" s="140">
+      <c r="P11" s="139">
         <f t="shared" si="0"/>
         <v>44056</v>
       </c>
-      <c r="Q11" s="140">
+      <c r="Q11" s="139">
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="R11" s="140">
+      <c r="R11" s="139">
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="S11" s="140">
+      <c r="S11" s="139">
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="T11" s="140">
+      <c r="T11" s="139">
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="U11" s="140">
+      <c r="U11" s="139">
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="V11" s="140">
+      <c r="V11" s="139">
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="W11" s="140">
+      <c r="W11" s="139">
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="X11" s="140">
+      <c r="X11" s="139">
         <f t="shared" si="0"/>
         <v>44064</v>
       </c>
-      <c r="Y11" s="140">
+      <c r="Y11" s="139">
         <f t="shared" si="0"/>
         <v>44065</v>
       </c>
-      <c r="Z11" s="140">
+      <c r="Z11" s="139">
         <f t="shared" si="0"/>
         <v>44066</v>
       </c>
-      <c r="AA11" s="140">
+      <c r="AA11" s="139">
         <f t="shared" si="0"/>
         <v>44067</v>
       </c>
-      <c r="AB11" s="140">
+      <c r="AB11" s="139">
         <f t="shared" si="0"/>
         <v>44068</v>
       </c>
-      <c r="AC11" s="140">
+      <c r="AC11" s="139">
         <f t="shared" si="0"/>
         <v>44069</v>
       </c>
-      <c r="AD11" s="140">
+      <c r="AD11" s="139">
         <f t="shared" si="0"/>
         <v>44070</v>
       </c>
-      <c r="AE11" s="140">
+      <c r="AE11" s="139">
         <f t="shared" si="0"/>
         <v>44071</v>
       </c>
-      <c r="AF11" s="140">
+      <c r="AF11" s="139">
         <f>IF(DAY(AE11+1)=DAY(D11),””,AE11+1)</f>
         <v>44072</v>
       </c>
-      <c r="AG11" s="140">
+      <c r="AG11" s="139">
         <f>IF(AF11="","",IF(DAY(AF11+1)=DAY(D11),"",AF11+1))</f>
         <v>44073</v>
       </c>
-      <c r="AH11" s="140">
+      <c r="AH11" s="139">
         <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
         <v>44074</v>
       </c>
       <c r="AI11" s="186" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AJ11" s="188" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK11" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL11" s="195" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM11" s="186" t="s">
         <v>115</v>
-      </c>
-      <c r="AK11" s="195" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL11" s="195" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM11" s="186" t="s">
-        <v>118</v>
       </c>
       <c r="AN11" s="188" t="s">
         <v>34</v>
       </c>
       <c r="AO11" s="190"/>
     </row>
-    <row r="12" spans="2:43" s="141" customFormat="1" ht="50.25" customHeight="1">
+    <row r="12" spans="2:43" s="140" customFormat="1" ht="50.25" customHeight="1">
       <c r="B12" s="193"/>
       <c r="C12" s="193"/>
-      <c r="D12" s="142" t="str">
+      <c r="D12" s="141" t="str">
         <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. bảy</v>
       </c>
-      <c r="E12" s="142" t="str">
+      <c r="E12" s="141" t="str">
         <f t="shared" ref="E12:AE12" si="1">CHOOSE(WEEKDAY(E11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="F12" s="142" t="str">
+      <c r="F12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="G12" s="142" t="str">
+      <c r="G12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="H12" s="142" t="str">
+      <c r="H12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="I12" s="142" t="str">
+      <c r="I12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="J12" s="142" t="str">
+      <c r="J12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="K12" s="142" t="str">
+      <c r="K12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="L12" s="142" t="str">
+      <c r="L12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="M12" s="142" t="str">
+      <c r="M12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="N12" s="142" t="str">
+      <c r="N12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="O12" s="142" t="str">
+      <c r="O12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="P12" s="142" t="str">
+      <c r="P12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="Q12" s="142" t="str">
+      <c r="Q12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="R12" s="142" t="str">
+      <c r="R12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="S12" s="142" t="str">
+      <c r="S12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="T12" s="142" t="str">
+      <c r="T12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="U12" s="142" t="str">
+      <c r="U12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="V12" s="142" t="str">
+      <c r="V12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="W12" s="142" t="str">
+      <c r="W12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="X12" s="142" t="str">
+      <c r="X12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="Y12" s="142" t="str">
+      <c r="Y12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="Z12" s="142" t="str">
+      <c r="Z12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="AA12" s="142" t="str">
+      <c r="AA12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="AB12" s="142" t="str">
+      <c r="AB12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="AC12" s="142" t="str">
+      <c r="AC12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="AD12" s="142" t="str">
+      <c r="AD12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="AE12" s="142" t="str">
+      <c r="AE12" s="141" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="AF12" s="142" t="str">
+      <c r="AF12" s="141" t="str">
         <f t="shared" ref="AF12" si="2">CHOOSE(WEEKDAY(AF11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. bảy</v>
       </c>
-      <c r="AG12" s="142" t="str">
+      <c r="AG12" s="141" t="str">
         <f t="shared" ref="AG12" si="3">CHOOSE(WEEKDAY(AG11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="AH12" s="142" t="str">
+      <c r="AH12" s="141" t="str">
         <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. hai</v>
       </c>
@@ -8393,32 +8427,32 @@
       <c r="AO12" s="191"/>
     </row>
     <row r="13" spans="2:43">
-      <c r="B13" s="129">
+      <c r="B13" s="128">
         <v>1</v>
       </c>
-      <c r="C13" s="129" t="s">
-        <v>119</v>
+      <c r="C13" s="128" t="s">
+        <v>116</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
@@ -8430,208 +8464,208 @@
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Y13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Z13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AA13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AC13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AD13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AE13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AF13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG13" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AH13" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI13" s="145">
+        <v>102</v>
+      </c>
+      <c r="AI13" s="144">
         <f>COUNTIF(D13:AH13,D20)</f>
         <v>22</v>
       </c>
-      <c r="AJ13" s="145">
+      <c r="AJ13" s="144">
         <f>COUNTIF(D13:AH13,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="145">
+      <c r="AK13" s="144">
         <f>COUNTIF(D13:AH13,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="145">
+      <c r="AL13" s="144">
         <f>COUNTIF(D13:AH13,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="145">
+      <c r="AM13" s="144">
         <f>COUNTIF(D13:AH13,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="146">
+      <c r="AN13" s="145">
         <f>AI13+AJ13*0.5+AK13+AL13+AM13</f>
         <v>22</v>
       </c>
       <c r="AO13" s="23"/>
     </row>
     <row r="14" spans="2:43">
-      <c r="B14" s="129">
+      <c r="B14" s="128">
         <v>2</v>
       </c>
-      <c r="C14" s="129" t="s">
-        <v>121</v>
+      <c r="C14" s="128" t="s">
+        <v>118</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Y14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Z14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AA14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AB14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AC14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AD14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AE14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AF14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AG14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AH14" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI14" s="145">
+        <v>102</v>
+      </c>
+      <c r="AI14" s="144">
         <f>COUNTIF(D14:AH14,D20)</f>
         <v>31</v>
       </c>
-      <c r="AJ14" s="145">
+      <c r="AJ14" s="144">
         <f>COUNTIF(D14:AH14,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="145">
+      <c r="AK14" s="144">
         <f>COUNTIF(D14:AH14,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="145">
+      <c r="AL14" s="144">
         <f>COUNTIF(D14:AH14,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="145">
+      <c r="AM14" s="144">
         <f>COUNTIF(D14:AH14,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="146">
+      <c r="AN14" s="145">
         <f>AI14+AJ14*0.5+AK14+AL14+AM14</f>
         <v>31</v>
       </c>
       <c r="AO14" s="23"/>
     </row>
     <row r="15" spans="2:43">
-      <c r="B15" s="129">
+      <c r="B15" s="128">
         <v>3</v>
       </c>
-      <c r="C15" s="129" t="s">
-        <v>122</v>
+      <c r="C15" s="128" t="s">
+        <v>119</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -8664,38 +8698,38 @@
       <c r="AF15" s="34"/>
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
-      <c r="AI15" s="145">
+      <c r="AI15" s="144">
         <f>COUNTIF(D15:AH15,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="145">
+      <c r="AJ15" s="144">
         <f>COUNTIF(D15:AH15,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="145">
+      <c r="AK15" s="144">
         <f>COUNTIF(D15:AH15,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="145">
+      <c r="AL15" s="144">
         <f>COUNTIF(D15:AH15,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="145">
+      <c r="AM15" s="144">
         <f>COUNTIF(D15:AH15,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="146">
-        <f t="shared" ref="AN14:AN16" si="5">AI15+AJ15*0.5+AK15+AL15+AM15</f>
+      <c r="AN15" s="145">
+        <f t="shared" ref="AN15:AN16" si="5">AI15+AJ15*0.5+AK15+AL15+AM15</f>
         <v>0</v>
       </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="128" customFormat="1">
-      <c r="B16" s="129">
+    <row r="16" spans="2:43" s="127" customFormat="1">
+      <c r="B16" s="128">
         <v>4</v>
       </c>
-      <c r="C16" s="129" t="s">
-        <v>123</v>
+      <c r="C16" s="128" t="s">
+        <v>120</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -8728,34 +8762,34 @@
       <c r="AF16" s="34"/>
       <c r="AG16" s="34"/>
       <c r="AH16" s="34"/>
-      <c r="AI16" s="145">
+      <c r="AI16" s="144">
         <f>COUNTIF(D16:AH16,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="145">
+      <c r="AJ16" s="144">
         <f>COUNTIF(D16:AH16,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="145">
+      <c r="AK16" s="144">
         <f>COUNTIF(D16:AH16,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="145">
+      <c r="AL16" s="144">
         <f>COUNTIF(D16:AH16,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="145">
+      <c r="AM16" s="144">
         <f>COUNTIF(D16:AH16,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="146">
+      <c r="AN16" s="145">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO16" s="23"/>
     </row>
     <row r="17" spans="2:41">
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="34" t="s">
         <v>34</v>
       </c>
@@ -8790,52 +8824,52 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
       <c r="AH17" s="34"/>
-      <c r="AI17" s="129"/>
-      <c r="AJ17" s="129"/>
-      <c r="AK17" s="129"/>
-      <c r="AL17" s="129"/>
-      <c r="AM17" s="129"/>
+      <c r="AI17" s="128"/>
+      <c r="AJ17" s="128"/>
+      <c r="AK17" s="128"/>
+      <c r="AL17" s="128"/>
+      <c r="AM17" s="128"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
-    <row r="20" spans="2:41">
-      <c r="C20" s="144" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="143" t="s">
+    <row r="20" spans="2:41" ht="16">
+      <c r="C20" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:41" ht="16">
+      <c r="C21" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="142" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:41" ht="16">
+      <c r="C22" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:41" ht="16">
+      <c r="C23" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="142" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:41">
-      <c r="C21" s="144" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="143" t="s">
+    <row r="24" spans="2:41" ht="16">
+      <c r="C24" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="142" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="2:41">
-      <c r="C22" s="144" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="143" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:41">
-      <c r="C23" s="144" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="143" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="2:41">
-      <c r="C24" s="144" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="143" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
+++ b/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D627D9B4-2885-BB40-A329-89F7AF68095C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F18EF5-A875-514F-B7EA-D102A7C87ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16340" yWindow="460" windowWidth="12460" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -1118,6 +1118,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1129,9 +1144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,9 +1155,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,15 +1163,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1629,8 +1629,8 @@
   </sheetPr>
   <dimension ref="A2:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
@@ -1678,111 +1678,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="37">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="165" t="s">
+      <c r="A4" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="163" t="s">
+      <c r="D4" s="150"/>
+      <c r="E4" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="154" t="s">
+      <c r="F4" s="153"/>
+      <c r="G4" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="159" t="s">
+      <c r="H4" s="150"/>
+      <c r="I4" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="159"/>
-      <c r="K4" s="154" t="s">
+      <c r="J4" s="151"/>
+      <c r="K4" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="159" t="s">
+      <c r="L4" s="150"/>
+      <c r="M4" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="159"/>
-      <c r="O4" s="155" t="s">
+      <c r="N4" s="151"/>
+      <c r="O4" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="154" t="s">
+      <c r="P4" s="159"/>
+      <c r="Q4" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154" t="s">
+      <c r="R4" s="150"/>
+      <c r="S4" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154" t="s">
+      <c r="T4" s="150"/>
+      <c r="U4" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154" t="s">
+      <c r="V4" s="150"/>
+      <c r="W4" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="156" t="s">
+      <c r="X4" s="150"/>
+      <c r="Y4" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="161" t="s">
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="157" t="s">
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="153" t="s">
+      <c r="AD4" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="154" t="s">
+      <c r="AE4" s="150" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="165"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1861,9 +1861,9 @@
       <c r="AB5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="154"/>
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="150"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -5413,73 +5413,73 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="160">
-        <v>0</v>
-      </c>
-      <c r="D38" s="160"/>
+      <c r="C38" s="163">
+        <v>0</v>
+      </c>
+      <c r="D38" s="163"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
-      <c r="N38" s="150"/>
-      <c r="O38" s="150"/>
-      <c r="P38" s="150"/>
-      <c r="Q38" s="150"/>
-      <c r="R38" s="150"/>
-      <c r="S38" s="150"/>
-      <c r="T38" s="150"/>
-      <c r="U38" s="150"/>
-      <c r="V38" s="150"/>
-      <c r="W38" s="150"/>
-      <c r="X38" s="150"/>
-      <c r="Y38" s="150"/>
-      <c r="Z38" s="150"/>
-      <c r="AA38" s="150"/>
-      <c r="AB38" s="150"/>
-      <c r="AC38" s="150"/>
-      <c r="AD38" s="150"/>
-      <c r="AE38" s="150"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="155"/>
+      <c r="R38" s="155"/>
+      <c r="S38" s="155"/>
+      <c r="T38" s="155"/>
+      <c r="U38" s="155"/>
+      <c r="V38" s="155"/>
+      <c r="W38" s="155"/>
+      <c r="X38" s="155"/>
+      <c r="Y38" s="155"/>
+      <c r="Z38" s="155"/>
+      <c r="AA38" s="155"/>
+      <c r="AB38" s="155"/>
+      <c r="AC38" s="155"/>
+      <c r="AD38" s="155"/>
+      <c r="AE38" s="155"/>
     </row>
     <row r="39" spans="1:35" s="11" customFormat="1">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="151">
-        <v>0</v>
-      </c>
-      <c r="D39" s="151"/>
+      <c r="C39" s="156">
+        <v>0</v>
+      </c>
+      <c r="D39" s="156"/>
       <c r="E39" s="91"/>
       <c r="F39" s="91"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="150"/>
-      <c r="R39" s="150"/>
-      <c r="S39" s="150"/>
-      <c r="T39" s="150"/>
-      <c r="U39" s="150"/>
-      <c r="V39" s="150"/>
-      <c r="W39" s="150"/>
-      <c r="X39" s="150"/>
-      <c r="Y39" s="150"/>
-      <c r="Z39" s="150"/>
-      <c r="AA39" s="150"/>
-      <c r="AB39" s="150"/>
-      <c r="AC39" s="150"/>
-      <c r="AD39" s="150"/>
-      <c r="AE39" s="150"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="155"/>
+      <c r="R39" s="155"/>
+      <c r="S39" s="155"/>
+      <c r="T39" s="155"/>
+      <c r="U39" s="155"/>
+      <c r="V39" s="155"/>
+      <c r="W39" s="155"/>
+      <c r="X39" s="155"/>
+      <c r="Y39" s="155"/>
+      <c r="Z39" s="155"/>
+      <c r="AA39" s="155"/>
+      <c r="AB39" s="155"/>
+      <c r="AC39" s="155"/>
+      <c r="AD39" s="155"/>
+      <c r="AE39" s="155"/>
       <c r="AH39" s="11" t="s">
         <v>9</v>
       </c>
@@ -5498,13 +5498,6 @@
   </sheetData>
   <autoFilter ref="AE4:AE39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G39:AE39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AE2"/>
@@ -5521,6 +5514,13 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5539,7 +5539,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5644,14 +5644,14 @@
         <v>44047</v>
       </c>
       <c r="C7" s="105">
-        <v>0</v>
+        <v>966524</v>
       </c>
       <c r="D7" s="105">
-        <v>0</v>
+        <v>2649000</v>
       </c>
       <c r="E7" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1682476</v>
       </c>
       <c r="F7" s="107"/>
     </row>
@@ -5663,14 +5663,14 @@
         <v>44048</v>
       </c>
       <c r="C8" s="105">
-        <v>0</v>
+        <v>612091</v>
       </c>
       <c r="D8" s="105">
-        <v>0</v>
+        <v>1475000</v>
       </c>
       <c r="E8" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>862909</v>
       </c>
       <c r="F8" s="61"/>
     </row>
@@ -5682,14 +5682,14 @@
         <v>44049</v>
       </c>
       <c r="C9" s="105">
-        <v>0</v>
+        <v>2180782</v>
       </c>
       <c r="D9" s="105">
-        <v>0</v>
+        <v>5365000</v>
       </c>
       <c r="E9" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3184218</v>
       </c>
       <c r="F9" s="61"/>
     </row>
@@ -5701,14 +5701,14 @@
         <v>44050</v>
       </c>
       <c r="C10" s="105">
-        <v>0</v>
+        <v>552234</v>
       </c>
       <c r="D10" s="105">
-        <v>0</v>
+        <v>1175000</v>
       </c>
       <c r="E10" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>622766</v>
       </c>
       <c r="F10" s="61"/>
     </row>
@@ -5720,14 +5720,14 @@
         <v>44051</v>
       </c>
       <c r="C11" s="105">
-        <v>0</v>
+        <v>789153</v>
       </c>
       <c r="D11" s="105">
-        <v>0</v>
+        <v>2120000</v>
       </c>
       <c r="E11" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1330847</v>
       </c>
       <c r="F11" s="61"/>
     </row>
@@ -5739,14 +5739,14 @@
         <v>44052</v>
       </c>
       <c r="C12" s="105">
-        <v>0</v>
+        <v>2398171</v>
       </c>
       <c r="D12" s="105">
-        <v>0</v>
+        <v>8070000</v>
       </c>
       <c r="E12" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5671829</v>
       </c>
       <c r="F12" s="61"/>
     </row>
@@ -5758,14 +5758,14 @@
         <v>44053</v>
       </c>
       <c r="C13" s="105">
-        <v>0</v>
+        <v>1545392</v>
       </c>
       <c r="D13" s="105">
-        <v>0</v>
+        <v>4805000</v>
       </c>
       <c r="E13" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3259608</v>
       </c>
       <c r="F13" s="61"/>
     </row>
@@ -5777,14 +5777,14 @@
         <v>44054</v>
       </c>
       <c r="C14" s="105">
-        <v>0</v>
+        <v>1018647</v>
       </c>
       <c r="D14" s="105">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="E14" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1481353</v>
       </c>
       <c r="F14" s="61"/>
     </row>
@@ -5796,14 +5796,14 @@
         <v>44055</v>
       </c>
       <c r="C15" s="105">
-        <v>0</v>
+        <v>1786042</v>
       </c>
       <c r="D15" s="105">
-        <v>0</v>
+        <v>4685000</v>
       </c>
       <c r="E15" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2898958</v>
       </c>
       <c r="F15" s="61"/>
     </row>
@@ -5815,14 +5815,14 @@
         <v>44056</v>
       </c>
       <c r="C16" s="105">
-        <v>0</v>
+        <v>2663893</v>
       </c>
       <c r="D16" s="105">
-        <v>0</v>
+        <v>5685000</v>
       </c>
       <c r="E16" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3021107</v>
       </c>
       <c r="F16" s="61"/>
     </row>
@@ -5834,14 +5834,14 @@
         <v>44057</v>
       </c>
       <c r="C17" s="105">
-        <v>0</v>
+        <v>1638483</v>
       </c>
       <c r="D17" s="105">
-        <v>0</v>
+        <v>5415000</v>
       </c>
       <c r="E17" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3776517</v>
       </c>
       <c r="F17" s="61"/>
     </row>
@@ -5853,14 +5853,14 @@
         <v>44058</v>
       </c>
       <c r="C18" s="105">
-        <v>0</v>
+        <v>1695949</v>
       </c>
       <c r="D18" s="105">
-        <v>0</v>
+        <v>7645000</v>
       </c>
       <c r="E18" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5949051</v>
       </c>
       <c r="F18" s="61"/>
     </row>
@@ -5872,14 +5872,14 @@
         <v>44059</v>
       </c>
       <c r="C19" s="105">
-        <v>0</v>
+        <v>2303202</v>
       </c>
       <c r="D19" s="105">
-        <v>0</v>
+        <v>9370000</v>
       </c>
       <c r="E19" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7066798</v>
       </c>
       <c r="F19" s="61"/>
     </row>
@@ -5891,14 +5891,14 @@
         <v>44060</v>
       </c>
       <c r="C20" s="105">
-        <v>0</v>
+        <v>821729</v>
       </c>
       <c r="D20" s="105">
-        <v>0</v>
+        <v>3450000</v>
       </c>
       <c r="E20" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2628271</v>
       </c>
       <c r="F20" s="61"/>
     </row>
@@ -5910,14 +5910,14 @@
         <v>44061</v>
       </c>
       <c r="C21" s="105">
-        <v>0</v>
+        <v>388915</v>
       </c>
       <c r="D21" s="105">
-        <v>0</v>
+        <v>665000</v>
       </c>
       <c r="E21" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>276085</v>
       </c>
       <c r="F21" s="61"/>
     </row>
@@ -5929,14 +5929,14 @@
         <v>44062</v>
       </c>
       <c r="C22" s="105">
-        <v>0</v>
+        <v>1925399</v>
       </c>
       <c r="D22" s="105">
-        <v>0</v>
+        <v>5797000</v>
       </c>
       <c r="E22" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3871601</v>
       </c>
       <c r="F22" s="61"/>
     </row>
@@ -5948,14 +5948,14 @@
         <v>44063</v>
       </c>
       <c r="C23" s="105">
-        <v>0</v>
+        <v>654558</v>
       </c>
       <c r="D23" s="105">
-        <v>0</v>
+        <v>2714000</v>
       </c>
       <c r="E23" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2059442</v>
       </c>
       <c r="F23" s="61"/>
     </row>
@@ -5967,14 +5967,14 @@
         <v>44064</v>
       </c>
       <c r="C24" s="105">
-        <v>0</v>
+        <v>268800</v>
       </c>
       <c r="D24" s="105">
-        <v>0</v>
+        <v>1580000</v>
       </c>
       <c r="E24" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1311200</v>
       </c>
       <c r="F24" s="61"/>
     </row>
@@ -5986,14 +5986,14 @@
         <v>44065</v>
       </c>
       <c r="C25" s="105">
-        <v>0</v>
+        <v>1744555</v>
       </c>
       <c r="D25" s="105">
-        <v>0</v>
+        <v>3240000</v>
       </c>
       <c r="E25" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1495445</v>
       </c>
       <c r="F25" s="61"/>
     </row>
@@ -6005,14 +6005,14 @@
         <v>44066</v>
       </c>
       <c r="C26" s="105">
-        <v>0</v>
+        <v>1551863</v>
       </c>
       <c r="D26" s="105">
-        <v>0</v>
+        <v>5570000</v>
       </c>
       <c r="E26" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4018137</v>
       </c>
       <c r="F26" s="106"/>
     </row>
@@ -6024,14 +6024,14 @@
         <v>44067</v>
       </c>
       <c r="C27" s="105">
-        <v>0</v>
+        <v>1524979</v>
       </c>
       <c r="D27" s="105">
-        <v>0</v>
+        <v>4415000</v>
       </c>
       <c r="E27" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2890021</v>
       </c>
       <c r="F27" s="106"/>
     </row>
@@ -6043,13 +6043,14 @@
         <v>44068</v>
       </c>
       <c r="C28" s="105">
-        <v>0</v>
+        <v>1343806</v>
       </c>
       <c r="D28" s="105">
-        <v>0</v>
+        <v>4704000</v>
       </c>
       <c r="E28" s="105">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3360194</v>
       </c>
       <c r="F28" s="106"/>
     </row>
@@ -6061,14 +6062,14 @@
         <v>44069</v>
       </c>
       <c r="C29" s="105">
-        <v>0</v>
+        <v>947764</v>
       </c>
       <c r="D29" s="105">
-        <v>0</v>
+        <v>3135000</v>
       </c>
       <c r="E29" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2187236</v>
       </c>
       <c r="F29" s="22"/>
     </row>
@@ -6080,14 +6081,14 @@
         <v>44070</v>
       </c>
       <c r="C30" s="105">
-        <v>0</v>
+        <v>404524</v>
       </c>
       <c r="D30" s="105">
-        <v>0</v>
+        <v>3065000</v>
       </c>
       <c r="E30" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2660476</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -6099,14 +6100,14 @@
         <v>44071</v>
       </c>
       <c r="C31" s="105">
-        <v>0</v>
+        <v>1176061</v>
       </c>
       <c r="D31" s="105">
-        <v>0</v>
+        <v>3590000</v>
       </c>
       <c r="E31" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2413939</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -6118,14 +6119,14 @@
         <v>44072</v>
       </c>
       <c r="C32" s="105">
-        <v>0</v>
+        <v>1399667</v>
       </c>
       <c r="D32" s="105">
-        <v>0</v>
+        <v>6345000</v>
       </c>
       <c r="E32" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4945333</v>
       </c>
       <c r="F32" s="34"/>
     </row>
@@ -6137,14 +6138,14 @@
         <v>44073</v>
       </c>
       <c r="C33" s="105">
-        <v>0</v>
+        <v>2701903</v>
       </c>
       <c r="D33" s="105">
-        <v>0</v>
+        <v>11690000</v>
       </c>
       <c r="E33" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8988097</v>
       </c>
       <c r="F33" s="34"/>
     </row>
@@ -6154,14 +6155,14 @@
         <v>44074</v>
       </c>
       <c r="C34" s="105">
-        <v>0</v>
+        <v>1427680</v>
       </c>
       <c r="D34" s="105">
-        <v>0</v>
+        <v>6755000</v>
       </c>
       <c r="E34" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5327320</v>
       </c>
       <c r="F34" s="34"/>
     </row>
@@ -6174,15 +6175,15 @@
       </c>
       <c r="C35" s="43">
         <f>SUM(C4:C34)</f>
-        <v>5194116</v>
+        <v>43626882</v>
       </c>
       <c r="D35" s="43">
         <f>SUM(D4:D34)</f>
-        <v>8095000</v>
+        <v>135769000</v>
       </c>
       <c r="E35" s="43">
         <f>SUM(E4:E34)</f>
-        <v>2900884</v>
+        <v>92142118</v>
       </c>
       <c r="F35" s="23"/>
     </row>
@@ -6203,7 +6204,7 @@
   </sheetPr>
   <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -7198,7 +7199,7 @@
   </sheetPr>
   <dimension ref="A2:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
@@ -7607,7 +7608,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E36)</f>
-        <v>-8897000</v>
+        <v>118777000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -7619,7 +7620,7 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D35</f>
-        <v>8095000</v>
+        <v>135769000</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
@@ -7638,7 +7639,7 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>50885000</v>
+        <v>178559000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
@@ -7775,7 +7776,7 @@
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
       <c r="B27" s="177">
         <f>SUM(D11,-E23)</f>
-        <v>33893000</v>
+        <v>161567000</v>
       </c>
       <c r="C27" s="178"/>
       <c r="D27" s="178"/>
@@ -7870,14 +7871,14 @@
       </c>
       <c r="B4" s="47">
         <f>E4</f>
-        <v>8095000</v>
+        <v>135769000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="47">
         <f>thuốc!D35</f>
-        <v>8095000</v>
+        <v>135769000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7893,7 +7894,7 @@
       </c>
       <c r="E5" s="47">
         <f>thuốc!C35</f>
-        <v>5194116</v>
+        <v>43626882</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7902,14 +7903,14 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>-8897000</v>
+        <v>118777000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="47">
         <f>E4-E5</f>
-        <v>2900884</v>
+        <v>92142118</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
+++ b/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F18EF5-A875-514F-B7EA-D102A7C87ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690C823-0BFE-410F-816F-E24793A1285F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16340" yWindow="460" windowWidth="12460" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,24 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="145">
   <si>
     <t>STT</t>
   </si>
@@ -226,9 +236,6 @@
     <t>TIỀN MẶT</t>
   </si>
   <si>
-    <t>TỒN THUỐC T6</t>
-  </si>
-  <si>
     <t>TỔNG TÀI SẢN</t>
   </si>
   <si>
@@ -256,9 +263,6 @@
     <t>24 lon</t>
   </si>
   <si>
-    <t>BÁO CÁO TÀI CHÍNH T7/2020</t>
-  </si>
-  <si>
     <t>TỒN THUỐC T7</t>
   </si>
   <si>
@@ -403,10 +407,70 @@
     <t>sữa bột</t>
   </si>
   <si>
-    <t>29/7/2020</t>
-  </si>
-  <si>
     <t>kem đa năng</t>
+  </si>
+  <si>
+    <t>nemy</t>
+  </si>
+  <si>
+    <t>sing 4mg m(gói)</t>
+  </si>
+  <si>
+    <t>sing 4mg m(viên)</t>
+  </si>
+  <si>
+    <t>flixotide</t>
+  </si>
+  <si>
+    <t>tobrex</t>
+  </si>
+  <si>
+    <t>babycanyl</t>
+  </si>
+  <si>
+    <t>metrogyl</t>
+  </si>
+  <si>
+    <t>monitazon</t>
+  </si>
+  <si>
+    <t>Giấy ăn</t>
+  </si>
+  <si>
+    <t>sổ in</t>
+  </si>
+  <si>
+    <t>ship adcort</t>
+  </si>
+  <si>
+    <t>kẹo</t>
+  </si>
+  <si>
+    <t>falgankid 160mg</t>
+  </si>
+  <si>
+    <t>16/8/2020</t>
+  </si>
+  <si>
+    <t>28/8/2020</t>
+  </si>
+  <si>
+    <t>baby fresh 55ml</t>
+  </si>
+  <si>
+    <t>baby fresh 300ml</t>
+  </si>
+  <si>
+    <t>30/7/2020</t>
+  </si>
+  <si>
+    <t>TỒN THUỐC T8</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TÀI CHÍNH T8/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -531,12 +595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
@@ -584,6 +642,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF2173AD"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -761,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -987,7 +1052,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1014,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1103,21 +1167,23 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,6 +1255,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1240,7 +1312,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1259,7 +1331,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1634,165 +1736,165 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="51" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="51" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="51" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="8" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11.33203125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="10.5" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" style="3" customWidth="1"/>
-    <col min="32" max="33" width="9.1640625" style="1"/>
-    <col min="34" max="34" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.1640625" style="1"/>
-    <col min="36" max="36" width="4.6640625" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1640625" style="1"/>
+    <col min="21" max="21" width="4.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="3" customWidth="1"/>
+    <col min="32" max="33" width="9.140625" style="1"/>
+    <col min="34" max="34" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="1"/>
+    <col min="36" max="36" width="4.7109375" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="37">
-      <c r="B2" s="157" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
+    <row r="2" spans="1:46" ht="36">
+      <c r="B2" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="154" t="s">
+      <c r="A4" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="152" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="150" t="s">
+      <c r="D4" s="151"/>
+      <c r="E4" s="153" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="154"/>
+      <c r="G4" s="151" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="152"/>
+      <c r="K4" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="151" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="151"/>
-      <c r="O4" s="159" t="s">
+      <c r="L4" s="151"/>
+      <c r="M4" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="152"/>
+      <c r="O4" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="150" t="s">
+      <c r="P4" s="160"/>
+      <c r="Q4" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150" t="s">
+      <c r="R4" s="151"/>
+      <c r="S4" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150" t="s">
+      <c r="T4" s="151"/>
+      <c r="U4" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150" t="s">
+      <c r="V4" s="151"/>
+      <c r="W4" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="160" t="s">
+      <c r="X4" s="151"/>
+      <c r="Y4" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="164" t="s">
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="161" t="s">
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="158" t="s">
+      <c r="AD4" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="150" t="s">
+      <c r="AE4" s="151" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="150"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="128" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="50" t="s">
@@ -1801,22 +1903,22 @@
       <c r="H5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="129" t="s">
+      <c r="M5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="129" t="s">
+      <c r="N5" s="128" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="54" t="s">
@@ -1861,9 +1963,9 @@
       <c r="AB5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="150"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="151"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -1894,10 +1996,10 @@
         <f>PRODUCT(C6,200000)</f>
         <v>800000</v>
       </c>
-      <c r="E6" s="130">
-        <v>0</v>
-      </c>
-      <c r="F6" s="130">
+      <c r="E6" s="129">
+        <v>0</v>
+      </c>
+      <c r="F6" s="129">
         <f>PRODUCT(E6,100000)</f>
         <v>0</v>
       </c>
@@ -1908,24 +2010,24 @@
         <f>PRODUCT(G6,300000)</f>
         <v>1200000</v>
       </c>
-      <c r="I6" s="132">
-        <v>0</v>
-      </c>
-      <c r="J6" s="132">
+      <c r="I6" s="131">
+        <v>0</v>
+      </c>
+      <c r="J6" s="131">
         <f>PRODUCT(I6,150000)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="120">
+      <c r="K6" s="119">
         <v>0</v>
       </c>
       <c r="L6" s="40">
         <f>PRODUCT(K6,300000)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="132">
-        <v>0</v>
-      </c>
-      <c r="N6" s="132">
+      <c r="M6" s="131">
+        <v>0</v>
+      </c>
+      <c r="N6" s="131">
         <f>PRODUCT(M7,150000)</f>
         <v>0</v>
       </c>
@@ -1995,49 +2097,49 @@
       <c r="B7" s="57">
         <v>44045</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="119">
         <v>5</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ref="D7:D36" si="0">PRODUCT(C7,200000)</f>
         <v>1000000</v>
       </c>
-      <c r="E7" s="130">
-        <v>0</v>
-      </c>
-      <c r="F7" s="130">
+      <c r="E7" s="129">
+        <v>0</v>
+      </c>
+      <c r="F7" s="129">
         <f t="shared" ref="F7:F36" si="1">PRODUCT(E7,100000)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="119">
         <v>4</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" ref="H7:H36" si="2">PRODUCT(G7,300000)</f>
         <v>1200000</v>
       </c>
-      <c r="I7" s="132">
-        <v>0</v>
-      </c>
-      <c r="J7" s="132">
+      <c r="I7" s="131">
+        <v>0</v>
+      </c>
+      <c r="J7" s="131">
         <f t="shared" ref="J7:J36" si="3">PRODUCT(I7,150000)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="120">
+      <c r="K7" s="119">
         <v>0</v>
       </c>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L36" si="4">PRODUCT(K7,300000)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="132">
-        <v>0</v>
-      </c>
-      <c r="N7" s="132">
+      <c r="M7" s="131">
+        <v>0</v>
+      </c>
+      <c r="N7" s="131">
         <f t="shared" ref="N7:N36" si="5">PRODUCT(M8,150000)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="121">
+      <c r="O7" s="120">
         <v>0</v>
       </c>
       <c r="P7" s="41">
@@ -2072,14 +2174,14 @@
         <f t="shared" ref="X7:X36" si="10">PRODUCT(W7,50000)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="101">
+      <c r="Y7" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="100">
         <f t="shared" ref="Z7:Z36" si="11">PRODUCT(Y7,700000)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="101">
+      <c r="AA7" s="100">
         <v>0</v>
       </c>
       <c r="AB7" s="18">
@@ -2103,49 +2205,49 @@
       <c r="B8" s="57">
         <v>44046</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="119">
         <v>7</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E8" s="130">
-        <v>0</v>
-      </c>
-      <c r="F8" s="130">
+      <c r="E8" s="129">
+        <v>0</v>
+      </c>
+      <c r="F8" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="119">
         <v>2</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I8" s="132">
-        <v>0</v>
-      </c>
-      <c r="J8" s="132">
+      <c r="I8" s="131">
+        <v>0</v>
+      </c>
+      <c r="J8" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="120">
+      <c r="K8" s="119">
         <v>0</v>
       </c>
       <c r="L8" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="132">
-        <v>0</v>
-      </c>
-      <c r="N8" s="132">
+      <c r="M8" s="131">
+        <v>0</v>
+      </c>
+      <c r="N8" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="121">
+      <c r="O8" s="120">
         <v>0</v>
       </c>
       <c r="P8" s="41">
@@ -2180,14 +2282,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="101">
+      <c r="Y8" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="101">
+      <c r="AA8" s="100">
         <v>0</v>
       </c>
       <c r="AB8" s="18">
@@ -2224,49 +2326,49 @@
       <c r="B9" s="57">
         <v>44047</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="119">
         <v>4</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E9" s="130">
-        <v>0</v>
-      </c>
-      <c r="F9" s="130">
+      <c r="E9" s="129">
+        <v>0</v>
+      </c>
+      <c r="F9" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="119">
         <v>0</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="132">
-        <v>0</v>
-      </c>
-      <c r="J9" s="132">
+      <c r="I9" s="131">
+        <v>0</v>
+      </c>
+      <c r="J9" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="119">
         <v>0</v>
       </c>
       <c r="L9" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="132">
-        <v>0</v>
-      </c>
-      <c r="N9" s="132">
+      <c r="M9" s="131">
+        <v>0</v>
+      </c>
+      <c r="N9" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="121">
+      <c r="O9" s="120">
         <v>0</v>
       </c>
       <c r="P9" s="41">
@@ -2301,14 +2403,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="101">
+      <c r="Y9" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="101">
+      <c r="AA9" s="100">
         <v>0</v>
       </c>
       <c r="AB9" s="18">
@@ -2332,49 +2434,49 @@
       <c r="B10" s="57">
         <v>44048</v>
       </c>
-      <c r="C10" s="120">
+      <c r="C10" s="119">
         <v>1</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E10" s="130">
-        <v>0</v>
-      </c>
-      <c r="F10" s="130">
+      <c r="E10" s="129">
+        <v>0</v>
+      </c>
+      <c r="F10" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="120">
+      <c r="G10" s="119">
         <v>1</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I10" s="132">
-        <v>0</v>
-      </c>
-      <c r="J10" s="132">
+      <c r="I10" s="131">
+        <v>0</v>
+      </c>
+      <c r="J10" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="120">
+      <c r="K10" s="119">
         <v>0</v>
       </c>
       <c r="L10" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="132">
-        <v>0</v>
-      </c>
-      <c r="N10" s="132">
+      <c r="M10" s="131">
+        <v>0</v>
+      </c>
+      <c r="N10" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="121">
+      <c r="O10" s="120">
         <v>0</v>
       </c>
       <c r="P10" s="41">
@@ -2409,14 +2511,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="101">
+      <c r="Y10" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="101">
+      <c r="AA10" s="100">
         <v>0</v>
       </c>
       <c r="AB10" s="18">
@@ -2440,49 +2542,49 @@
       <c r="B11" s="57">
         <v>44049</v>
       </c>
-      <c r="C11" s="120">
+      <c r="C11" s="119">
         <v>5</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E11" s="130">
-        <v>0</v>
-      </c>
-      <c r="F11" s="130">
+      <c r="E11" s="129">
+        <v>0</v>
+      </c>
+      <c r="F11" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="119">
         <v>3</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I11" s="132">
-        <v>0</v>
-      </c>
-      <c r="J11" s="132">
+      <c r="I11" s="131">
+        <v>0</v>
+      </c>
+      <c r="J11" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="120">
+      <c r="K11" s="119">
         <v>1</v>
       </c>
       <c r="L11" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M11" s="132">
-        <v>0</v>
-      </c>
-      <c r="N11" s="132">
+      <c r="M11" s="131">
+        <v>0</v>
+      </c>
+      <c r="N11" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="121">
+      <c r="O11" s="120">
         <v>1</v>
       </c>
       <c r="P11" s="41">
@@ -2517,14 +2619,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="101">
+      <c r="Y11" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="101">
+      <c r="AA11" s="100">
         <v>0</v>
       </c>
       <c r="AB11" s="18">
@@ -2548,49 +2650,49 @@
       <c r="B12" s="57">
         <v>44050</v>
       </c>
-      <c r="C12" s="120">
+      <c r="C12" s="119">
         <v>3</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E12" s="130">
-        <v>0</v>
-      </c>
-      <c r="F12" s="130">
+      <c r="E12" s="129">
+        <v>0</v>
+      </c>
+      <c r="F12" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="119">
         <v>0</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="132">
-        <v>0</v>
-      </c>
-      <c r="J12" s="132">
+      <c r="I12" s="131">
+        <v>0</v>
+      </c>
+      <c r="J12" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="120">
+      <c r="K12" s="119">
         <v>0</v>
       </c>
       <c r="L12" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="132">
-        <v>0</v>
-      </c>
-      <c r="N12" s="132">
+      <c r="M12" s="131">
+        <v>0</v>
+      </c>
+      <c r="N12" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="121">
+      <c r="O12" s="120">
         <v>0</v>
       </c>
       <c r="P12" s="41">
@@ -2625,14 +2727,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="101">
+      <c r="Y12" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="101">
+      <c r="AA12" s="100">
         <v>0</v>
       </c>
       <c r="AB12" s="18">
@@ -2656,49 +2758,49 @@
       <c r="B13" s="57">
         <v>44051</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="119">
         <v>2</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E13" s="130">
-        <v>0</v>
-      </c>
-      <c r="F13" s="130">
+      <c r="E13" s="129">
+        <v>0</v>
+      </c>
+      <c r="F13" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="119">
         <v>3</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I13" s="132">
-        <v>0</v>
-      </c>
-      <c r="J13" s="132">
+      <c r="I13" s="131">
+        <v>0</v>
+      </c>
+      <c r="J13" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="120">
+      <c r="K13" s="119">
         <v>0</v>
       </c>
       <c r="L13" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="132">
-        <v>0</v>
-      </c>
-      <c r="N13" s="132">
+      <c r="M13" s="131">
+        <v>0</v>
+      </c>
+      <c r="N13" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="121">
+      <c r="O13" s="120">
         <v>0</v>
       </c>
       <c r="P13" s="41">
@@ -2733,14 +2835,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="122">
+      <c r="Y13" s="121">
         <v>1</v>
       </c>
-      <c r="Z13" s="101">
+      <c r="Z13" s="100">
         <f t="shared" si="11"/>
         <v>700000</v>
       </c>
-      <c r="AA13" s="101">
+      <c r="AA13" s="100">
         <v>0</v>
       </c>
       <c r="AB13" s="18">
@@ -2764,49 +2866,49 @@
       <c r="B14" s="57">
         <v>44052</v>
       </c>
-      <c r="C14" s="120">
+      <c r="C14" s="119">
         <v>2</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E14" s="130">
-        <v>0</v>
-      </c>
-      <c r="F14" s="130">
+      <c r="E14" s="129">
+        <v>0</v>
+      </c>
+      <c r="F14" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="120">
+      <c r="G14" s="119">
         <v>3</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I14" s="132">
-        <v>0</v>
-      </c>
-      <c r="J14" s="132">
+      <c r="I14" s="131">
+        <v>0</v>
+      </c>
+      <c r="J14" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="120">
+      <c r="K14" s="119">
         <v>1</v>
       </c>
       <c r="L14" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M14" s="132">
-        <v>0</v>
-      </c>
-      <c r="N14" s="132">
+      <c r="M14" s="131">
+        <v>0</v>
+      </c>
+      <c r="N14" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="121">
+      <c r="O14" s="120">
         <v>0</v>
       </c>
       <c r="P14" s="41">
@@ -2841,14 +2943,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="101">
+      <c r="Y14" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="101">
+      <c r="AA14" s="100">
         <v>0</v>
       </c>
       <c r="AB14" s="18">
@@ -2874,49 +2976,49 @@
       <c r="B15" s="57">
         <v>44053</v>
       </c>
-      <c r="C15" s="120">
+      <c r="C15" s="119">
         <v>5</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E15" s="130">
-        <v>0</v>
-      </c>
-      <c r="F15" s="130">
+      <c r="E15" s="129">
+        <v>0</v>
+      </c>
+      <c r="F15" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="120">
+      <c r="G15" s="119">
         <v>1</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I15" s="132">
-        <v>0</v>
-      </c>
-      <c r="J15" s="132">
+      <c r="I15" s="131">
+        <v>0</v>
+      </c>
+      <c r="J15" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="120">
+      <c r="K15" s="119">
         <v>0</v>
       </c>
       <c r="L15" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="132">
-        <v>0</v>
-      </c>
-      <c r="N15" s="132">
+      <c r="M15" s="131">
+        <v>0</v>
+      </c>
+      <c r="N15" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="121">
+      <c r="O15" s="120">
         <v>0</v>
       </c>
       <c r="P15" s="41">
@@ -2951,14 +3053,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="101">
+      <c r="Y15" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="101">
+      <c r="AA15" s="100">
         <v>0</v>
       </c>
       <c r="AB15" s="18">
@@ -2984,49 +3086,49 @@
       <c r="B16" s="57">
         <v>44054</v>
       </c>
-      <c r="C16" s="120">
+      <c r="C16" s="119">
         <v>5</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E16" s="130">
-        <v>0</v>
-      </c>
-      <c r="F16" s="130">
+      <c r="E16" s="129">
+        <v>0</v>
+      </c>
+      <c r="F16" s="129">
         <f>PRODUCT(E17,100000)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="120">
+      <c r="G16" s="119">
         <v>0</v>
       </c>
       <c r="H16" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="132">
-        <v>0</v>
-      </c>
-      <c r="J16" s="132">
+      <c r="I16" s="131">
+        <v>0</v>
+      </c>
+      <c r="J16" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="120">
+      <c r="K16" s="119">
         <v>0</v>
       </c>
       <c r="L16" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="132">
-        <v>0</v>
-      </c>
-      <c r="N16" s="132">
+      <c r="M16" s="131">
+        <v>0</v>
+      </c>
+      <c r="N16" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="121">
+      <c r="O16" s="120">
         <v>0</v>
       </c>
       <c r="P16" s="41">
@@ -3061,14 +3163,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="101">
+      <c r="Y16" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="101">
+      <c r="AA16" s="100">
         <v>0</v>
       </c>
       <c r="AB16" s="18">
@@ -3094,49 +3196,49 @@
       <c r="B17" s="57">
         <v>44055</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="119">
         <v>5</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E17" s="130">
-        <v>0</v>
-      </c>
-      <c r="F17" s="130">
+      <c r="E17" s="129">
+        <v>0</v>
+      </c>
+      <c r="F17" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="119">
         <v>1</v>
       </c>
       <c r="H17" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I17" s="132">
-        <v>0</v>
-      </c>
-      <c r="J17" s="132">
+      <c r="I17" s="131">
+        <v>0</v>
+      </c>
+      <c r="J17" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="120">
+      <c r="K17" s="119">
         <v>1</v>
       </c>
       <c r="L17" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M17" s="132">
-        <v>0</v>
-      </c>
-      <c r="N17" s="132">
+      <c r="M17" s="131">
+        <v>0</v>
+      </c>
+      <c r="N17" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O17" s="121">
+      <c r="O17" s="120">
         <v>0</v>
       </c>
       <c r="P17" s="41">
@@ -3171,14 +3273,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="101">
+      <c r="Y17" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="101">
+      <c r="AA17" s="100">
         <v>0</v>
       </c>
       <c r="AB17" s="18">
@@ -3204,49 +3306,49 @@
       <c r="B18" s="57">
         <v>44056</v>
       </c>
-      <c r="C18" s="120">
+      <c r="C18" s="119">
         <v>5</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E18" s="130">
-        <v>0</v>
-      </c>
-      <c r="F18" s="130">
+      <c r="E18" s="129">
+        <v>0</v>
+      </c>
+      <c r="F18" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="120">
+      <c r="G18" s="119">
         <v>1</v>
       </c>
       <c r="H18" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I18" s="132">
-        <v>0</v>
-      </c>
-      <c r="J18" s="132">
+      <c r="I18" s="131">
+        <v>0</v>
+      </c>
+      <c r="J18" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="120">
+      <c r="K18" s="119">
         <v>1</v>
       </c>
       <c r="L18" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M18" s="132">
-        <v>0</v>
-      </c>
-      <c r="N18" s="132">
+      <c r="M18" s="131">
+        <v>0</v>
+      </c>
+      <c r="N18" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="121">
+      <c r="O18" s="120">
         <v>0</v>
       </c>
       <c r="P18" s="41">
@@ -3281,14 +3383,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="101">
+      <c r="Y18" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="101">
+      <c r="AA18" s="100">
         <v>0</v>
       </c>
       <c r="AB18" s="18">
@@ -3314,49 +3416,49 @@
       <c r="B19" s="57">
         <v>44057</v>
       </c>
-      <c r="C19" s="120">
+      <c r="C19" s="119">
         <v>9</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
-      <c r="E19" s="130">
-        <v>0</v>
-      </c>
-      <c r="F19" s="130">
+      <c r="E19" s="129">
+        <v>0</v>
+      </c>
+      <c r="F19" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="119">
         <v>0</v>
       </c>
       <c r="H19" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="132">
-        <v>0</v>
-      </c>
-      <c r="J19" s="132">
+      <c r="I19" s="131">
+        <v>0</v>
+      </c>
+      <c r="J19" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="120">
+      <c r="K19" s="119">
         <v>2</v>
       </c>
       <c r="L19" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M19" s="132">
-        <v>0</v>
-      </c>
-      <c r="N19" s="132">
+      <c r="M19" s="131">
+        <v>0</v>
+      </c>
+      <c r="N19" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O19" s="121">
+      <c r="O19" s="120">
         <v>0</v>
       </c>
       <c r="P19" s="41">
@@ -3391,14 +3493,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="101">
+      <c r="Y19" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="101">
+      <c r="AA19" s="100">
         <v>0</v>
       </c>
       <c r="AB19" s="18">
@@ -3413,7 +3515,7 @@
         <f t="shared" si="14"/>
         <v>2400000</v>
       </c>
-      <c r="AE19" s="104"/>
+      <c r="AE19" s="103"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
@@ -3424,49 +3526,49 @@
       <c r="B20" s="57">
         <v>44058</v>
       </c>
-      <c r="C20" s="120">
+      <c r="C20" s="119">
         <v>4</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E20" s="130">
-        <v>0</v>
-      </c>
-      <c r="F20" s="130">
+      <c r="E20" s="129">
+        <v>0</v>
+      </c>
+      <c r="F20" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="120">
+      <c r="G20" s="119">
         <v>4</v>
       </c>
       <c r="H20" s="40">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I20" s="132">
-        <v>0</v>
-      </c>
-      <c r="J20" s="132">
+      <c r="I20" s="131">
+        <v>0</v>
+      </c>
+      <c r="J20" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K20" s="120">
+      <c r="K20" s="119">
         <v>0</v>
       </c>
       <c r="L20" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="132">
-        <v>0</v>
-      </c>
-      <c r="N20" s="132">
+      <c r="M20" s="131">
+        <v>0</v>
+      </c>
+      <c r="N20" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="121">
+      <c r="O20" s="120">
         <v>0</v>
       </c>
       <c r="P20" s="41">
@@ -3501,14 +3603,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="101">
+      <c r="Y20" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="101">
+      <c r="AA20" s="100">
         <v>0</v>
       </c>
       <c r="AB20" s="18">
@@ -3534,49 +3636,49 @@
       <c r="B21" s="57">
         <v>44059</v>
       </c>
-      <c r="C21" s="120">
+      <c r="C21" s="119">
         <v>7</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E21" s="130">
-        <v>0</v>
-      </c>
-      <c r="F21" s="130">
+      <c r="E21" s="129">
+        <v>0</v>
+      </c>
+      <c r="F21" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="120">
+      <c r="G21" s="119">
         <v>1</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I21" s="132">
-        <v>0</v>
-      </c>
-      <c r="J21" s="132">
+      <c r="I21" s="131">
+        <v>0</v>
+      </c>
+      <c r="J21" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="120">
+      <c r="K21" s="119">
         <v>2</v>
       </c>
       <c r="L21" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M21" s="132">
-        <v>0</v>
-      </c>
-      <c r="N21" s="132">
+      <c r="M21" s="131">
+        <v>0</v>
+      </c>
+      <c r="N21" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="121">
+      <c r="O21" s="120">
         <v>0</v>
       </c>
       <c r="P21" s="41">
@@ -3611,14 +3713,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="122">
+      <c r="Y21" s="121">
         <v>1</v>
       </c>
-      <c r="Z21" s="101">
+      <c r="Z21" s="100">
         <f t="shared" si="11"/>
         <v>700000</v>
       </c>
-      <c r="AA21" s="101">
+      <c r="AA21" s="100">
         <v>0</v>
       </c>
       <c r="AB21" s="18">
@@ -3644,49 +3746,49 @@
       <c r="B22" s="57">
         <v>44060</v>
       </c>
-      <c r="C22" s="120">
+      <c r="C22" s="119">
         <v>3</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E22" s="130">
-        <v>0</v>
-      </c>
-      <c r="F22" s="130">
+      <c r="E22" s="129">
+        <v>0</v>
+      </c>
+      <c r="F22" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="120">
+      <c r="G22" s="119">
         <v>2</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I22" s="132">
-        <v>0</v>
-      </c>
-      <c r="J22" s="132">
+      <c r="I22" s="131">
+        <v>0</v>
+      </c>
+      <c r="J22" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="120">
+      <c r="K22" s="119">
         <v>0</v>
       </c>
       <c r="L22" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="132">
-        <v>0</v>
-      </c>
-      <c r="N22" s="132">
+      <c r="M22" s="131">
+        <v>0</v>
+      </c>
+      <c r="N22" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O22" s="121">
+      <c r="O22" s="120">
         <v>1</v>
       </c>
       <c r="P22" s="41">
@@ -3721,14 +3823,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="122">
+      <c r="Y22" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="121">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="101">
+      <c r="AA22" s="100">
         <v>0</v>
       </c>
       <c r="AB22" s="18">
@@ -3754,49 +3856,49 @@
       <c r="B23" s="57">
         <v>44061</v>
       </c>
-      <c r="C23" s="120">
+      <c r="C23" s="119">
         <v>1</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E23" s="130">
-        <v>0</v>
-      </c>
-      <c r="F23" s="130">
+      <c r="E23" s="129">
+        <v>0</v>
+      </c>
+      <c r="F23" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="119">
         <v>0</v>
       </c>
       <c r="H23" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="132">
-        <v>0</v>
-      </c>
-      <c r="J23" s="132">
+      <c r="I23" s="131">
+        <v>0</v>
+      </c>
+      <c r="J23" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="120">
+      <c r="K23" s="119">
         <v>0</v>
       </c>
       <c r="L23" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="132">
-        <v>0</v>
-      </c>
-      <c r="N23" s="132">
+      <c r="M23" s="131">
+        <v>0</v>
+      </c>
+      <c r="N23" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="121">
+      <c r="O23" s="120">
         <v>0</v>
       </c>
       <c r="P23" s="41">
@@ -3831,14 +3933,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="122">
+      <c r="Y23" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="121">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="101">
+      <c r="AA23" s="100">
         <v>0</v>
       </c>
       <c r="AB23" s="18">
@@ -3864,49 +3966,49 @@
       <c r="B24" s="57">
         <v>44062</v>
       </c>
-      <c r="C24" s="120">
+      <c r="C24" s="119">
         <v>5</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E24" s="130">
-        <v>0</v>
-      </c>
-      <c r="F24" s="130">
+      <c r="E24" s="129">
+        <v>0</v>
+      </c>
+      <c r="F24" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="120">
+      <c r="G24" s="119">
         <v>1</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I24" s="132">
-        <v>0</v>
-      </c>
-      <c r="J24" s="132">
+      <c r="I24" s="131">
+        <v>0</v>
+      </c>
+      <c r="J24" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K24" s="120">
+      <c r="K24" s="119">
         <v>1</v>
       </c>
       <c r="L24" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M24" s="132">
-        <v>0</v>
-      </c>
-      <c r="N24" s="132">
+      <c r="M24" s="131">
+        <v>0</v>
+      </c>
+      <c r="N24" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O24" s="121">
+      <c r="O24" s="120">
         <v>0</v>
       </c>
       <c r="P24" s="41">
@@ -3941,14 +4043,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="101">
+      <c r="Y24" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="101">
+      <c r="AA24" s="100">
         <v>0</v>
       </c>
       <c r="AB24" s="18">
@@ -3974,49 +4076,49 @@
       <c r="B25" s="57">
         <v>44063</v>
       </c>
-      <c r="C25" s="120">
+      <c r="C25" s="119">
         <v>5</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E25" s="130">
-        <v>0</v>
-      </c>
-      <c r="F25" s="130">
+      <c r="E25" s="129">
+        <v>0</v>
+      </c>
+      <c r="F25" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="119">
         <v>1</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I25" s="132">
-        <v>0</v>
-      </c>
-      <c r="J25" s="132">
+      <c r="I25" s="131">
+        <v>0</v>
+      </c>
+      <c r="J25" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="120">
+      <c r="K25" s="119">
         <v>1</v>
       </c>
       <c r="L25" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M25" s="132">
-        <v>0</v>
-      </c>
-      <c r="N25" s="132">
+      <c r="M25" s="131">
+        <v>0</v>
+      </c>
+      <c r="N25" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O25" s="121">
+      <c r="O25" s="120">
         <v>0</v>
       </c>
       <c r="P25" s="41">
@@ -4051,14 +4153,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="101">
+      <c r="Y25" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="101">
+      <c r="AA25" s="100">
         <v>0</v>
       </c>
       <c r="AB25" s="18">
@@ -4084,49 +4186,49 @@
       <c r="B26" s="57">
         <v>44064</v>
       </c>
-      <c r="C26" s="120">
+      <c r="C26" s="119">
         <v>0</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="130">
-        <v>0</v>
-      </c>
-      <c r="F26" s="130">
+      <c r="E26" s="129">
+        <v>0</v>
+      </c>
+      <c r="F26" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="119">
         <v>1</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I26" s="132">
-        <v>0</v>
-      </c>
-      <c r="J26" s="132">
+      <c r="I26" s="131">
+        <v>0</v>
+      </c>
+      <c r="J26" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="120">
+      <c r="K26" s="119">
         <v>1</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M26" s="132">
-        <v>0</v>
-      </c>
-      <c r="N26" s="132">
+      <c r="M26" s="131">
+        <v>0</v>
+      </c>
+      <c r="N26" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="121">
+      <c r="O26" s="120">
         <v>0</v>
       </c>
       <c r="P26" s="41">
@@ -4161,14 +4263,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="101">
+      <c r="Y26" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="101">
+      <c r="AA26" s="100">
         <v>0</v>
       </c>
       <c r="AB26" s="18">
@@ -4194,49 +4296,49 @@
       <c r="B27" s="57">
         <v>44065</v>
       </c>
-      <c r="C27" s="120">
+      <c r="C27" s="119">
         <v>1</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E27" s="130">
-        <v>0</v>
-      </c>
-      <c r="F27" s="130">
+      <c r="E27" s="129">
+        <v>0</v>
+      </c>
+      <c r="F27" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="119">
         <v>3</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I27" s="132">
-        <v>0</v>
-      </c>
-      <c r="J27" s="132">
+      <c r="I27" s="131">
+        <v>0</v>
+      </c>
+      <c r="J27" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="120">
+      <c r="K27" s="119">
         <v>1</v>
       </c>
       <c r="L27" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M27" s="132">
-        <v>0</v>
-      </c>
-      <c r="N27" s="132">
+      <c r="M27" s="131">
+        <v>0</v>
+      </c>
+      <c r="N27" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O27" s="121">
+      <c r="O27" s="120">
         <v>0</v>
       </c>
       <c r="P27" s="41">
@@ -4271,14 +4373,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="101">
+      <c r="Y27" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="101">
+      <c r="AA27" s="100">
         <v>0</v>
       </c>
       <c r="AB27" s="18">
@@ -4293,7 +4395,7 @@
         <f t="shared" si="14"/>
         <v>2300000</v>
       </c>
-      <c r="AE27" s="116"/>
+      <c r="AE27" s="115"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
@@ -4304,49 +4406,49 @@
       <c r="B28" s="57">
         <v>44066</v>
       </c>
-      <c r="C28" s="120">
+      <c r="C28" s="119">
         <v>4</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E28" s="130">
-        <v>0</v>
-      </c>
-      <c r="F28" s="130">
+      <c r="E28" s="129">
+        <v>0</v>
+      </c>
+      <c r="F28" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="119">
         <v>4</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I28" s="132">
-        <v>0</v>
-      </c>
-      <c r="J28" s="132">
+      <c r="I28" s="131">
+        <v>0</v>
+      </c>
+      <c r="J28" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K28" s="120">
+      <c r="K28" s="119">
         <v>0</v>
       </c>
       <c r="L28" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M28" s="132">
-        <v>0</v>
-      </c>
-      <c r="N28" s="132">
+      <c r="M28" s="131">
+        <v>0</v>
+      </c>
+      <c r="N28" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O28" s="121">
+      <c r="O28" s="120">
         <v>0</v>
       </c>
       <c r="P28" s="41">
@@ -4381,14 +4483,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="101">
+      <c r="Y28" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="101">
+      <c r="AA28" s="100">
         <v>0</v>
       </c>
       <c r="AB28" s="18">
@@ -4414,49 +4516,49 @@
       <c r="B29" s="57">
         <v>44067</v>
       </c>
-      <c r="C29" s="120">
-        <v>0</v>
+      <c r="C29" s="119">
+        <v>5</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="130">
-        <v>0</v>
-      </c>
-      <c r="F29" s="130">
+        <v>1000000</v>
+      </c>
+      <c r="E29" s="129">
+        <v>0</v>
+      </c>
+      <c r="F29" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="120">
-        <v>0</v>
+      <c r="G29" s="119">
+        <v>1</v>
       </c>
       <c r="H29" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="132">
-        <v>0</v>
-      </c>
-      <c r="J29" s="132">
+        <v>300000</v>
+      </c>
+      <c r="I29" s="131">
+        <v>0</v>
+      </c>
+      <c r="J29" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="120">
-        <v>0</v>
+      <c r="K29" s="119">
+        <v>2</v>
       </c>
       <c r="L29" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="132">
-        <v>0</v>
-      </c>
-      <c r="N29" s="132">
+        <v>600000</v>
+      </c>
+      <c r="M29" s="131">
+        <v>0</v>
+      </c>
+      <c r="N29" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O29" s="121">
+      <c r="O29" s="120">
         <v>0</v>
       </c>
       <c r="P29" s="41">
@@ -4491,14 +4593,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="101">
+      <c r="Y29" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="101">
+      <c r="AA29" s="100">
         <v>0</v>
       </c>
       <c r="AB29" s="18">
@@ -4511,7 +4613,7 @@
       </c>
       <c r="AD29" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1900000</v>
       </c>
       <c r="AE29" s="81"/>
       <c r="AF29" s="11"/>
@@ -4524,49 +4626,49 @@
       <c r="B30" s="57">
         <v>44068</v>
       </c>
-      <c r="C30" s="120">
-        <v>0</v>
+      <c r="C30" s="119">
+        <v>4</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="130">
-        <v>0</v>
-      </c>
-      <c r="F30" s="130">
+        <v>800000</v>
+      </c>
+      <c r="E30" s="129">
+        <v>0</v>
+      </c>
+      <c r="F30" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="120">
-        <v>0</v>
+      <c r="G30" s="119">
+        <v>3</v>
       </c>
       <c r="H30" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="132">
-        <v>0</v>
-      </c>
-      <c r="J30" s="132">
+        <v>900000</v>
+      </c>
+      <c r="I30" s="131">
+        <v>0</v>
+      </c>
+      <c r="J30" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="120">
-        <v>0</v>
+      <c r="K30" s="119">
+        <v>1</v>
       </c>
       <c r="L30" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="132">
-        <v>0</v>
-      </c>
-      <c r="N30" s="132">
+        <v>300000</v>
+      </c>
+      <c r="M30" s="131">
+        <v>0</v>
+      </c>
+      <c r="N30" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O30" s="121">
+      <c r="O30" s="120">
         <v>0</v>
       </c>
       <c r="P30" s="41">
@@ -4581,11 +4683,11 @@
         <v>0</v>
       </c>
       <c r="S30" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U30" s="14">
         <v>0</v>
@@ -4601,14 +4703,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="101">
+      <c r="Y30" s="121">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="101">
+      <c r="AA30" s="100">
         <v>0</v>
       </c>
       <c r="AB30" s="18">
@@ -4617,11 +4719,11 @@
       </c>
       <c r="AC30" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="AD30" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2600000</v>
       </c>
       <c r="AE30" s="81"/>
       <c r="AF30" s="11"/>
@@ -4634,49 +4736,49 @@
       <c r="B31" s="57">
         <v>44069</v>
       </c>
-      <c r="C31" s="120">
-        <v>0</v>
+      <c r="C31" s="119">
+        <v>3</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="130">
-        <v>0</v>
-      </c>
-      <c r="F31" s="130">
+        <v>600000</v>
+      </c>
+      <c r="E31" s="129">
+        <v>0</v>
+      </c>
+      <c r="F31" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="120">
+      <c r="G31" s="119">
         <v>0</v>
       </c>
       <c r="H31" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="132">
-        <v>0</v>
-      </c>
-      <c r="J31" s="132">
+      <c r="I31" s="131">
+        <v>0</v>
+      </c>
+      <c r="J31" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="120">
-        <v>0</v>
+      <c r="K31" s="119">
+        <v>2</v>
       </c>
       <c r="L31" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="132">
-        <v>0</v>
-      </c>
-      <c r="N31" s="132">
+        <v>600000</v>
+      </c>
+      <c r="M31" s="131">
+        <v>0</v>
+      </c>
+      <c r="N31" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O31" s="121">
+      <c r="O31" s="120">
         <v>0</v>
       </c>
       <c r="P31" s="41">
@@ -4711,14 +4813,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="101">
+      <c r="Y31" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="101">
+      <c r="AA31" s="100">
         <v>0</v>
       </c>
       <c r="AB31" s="18">
@@ -4731,7 +4833,7 @@
       </c>
       <c r="AD31" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="AE31" s="81"/>
       <c r="AF31" s="11"/>
@@ -4744,49 +4846,49 @@
       <c r="B32" s="57">
         <v>44070</v>
       </c>
-      <c r="C32" s="120">
-        <v>0</v>
+      <c r="C32" s="119">
+        <v>2</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="130">
-        <v>0</v>
-      </c>
-      <c r="F32" s="130">
+        <v>400000</v>
+      </c>
+      <c r="E32" s="129">
+        <v>0</v>
+      </c>
+      <c r="F32" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="120">
-        <v>0</v>
+      <c r="G32" s="119">
+        <v>2</v>
       </c>
       <c r="H32" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="132">
-        <v>0</v>
-      </c>
-      <c r="J32" s="132">
+        <v>600000</v>
+      </c>
+      <c r="I32" s="131">
+        <v>0</v>
+      </c>
+      <c r="J32" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="120">
-        <v>0</v>
+      <c r="K32" s="119">
+        <v>1</v>
       </c>
       <c r="L32" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="132">
-        <v>0</v>
-      </c>
-      <c r="N32" s="132">
+        <v>300000</v>
+      </c>
+      <c r="M32" s="131">
+        <v>0</v>
+      </c>
+      <c r="N32" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="121">
+      <c r="O32" s="120">
         <v>0</v>
       </c>
       <c r="P32" s="41">
@@ -4801,11 +4903,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="U32" s="14">
         <v>0</v>
@@ -4821,14 +4923,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="101">
+      <c r="Y32" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="101">
+      <c r="AA32" s="100">
         <v>0</v>
       </c>
       <c r="AB32" s="18">
@@ -4837,11 +4939,11 @@
       </c>
       <c r="AC32" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="AD32" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AE32" s="81"/>
       <c r="AF32" s="11"/>
@@ -4854,49 +4956,49 @@
       <c r="B33" s="57">
         <v>44071</v>
       </c>
-      <c r="C33" s="120">
-        <v>0</v>
+      <c r="C33" s="119">
+        <v>6</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="130">
-        <v>0</v>
-      </c>
-      <c r="F33" s="130">
+        <v>1200000</v>
+      </c>
+      <c r="E33" s="129">
+        <v>0</v>
+      </c>
+      <c r="F33" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33" s="120">
-        <v>0</v>
+      <c r="G33" s="119">
+        <v>2</v>
       </c>
       <c r="H33" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="132">
-        <v>0</v>
-      </c>
-      <c r="J33" s="132">
+        <v>600000</v>
+      </c>
+      <c r="I33" s="131">
+        <v>0</v>
+      </c>
+      <c r="J33" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="120">
+      <c r="K33" s="119">
         <v>0</v>
       </c>
       <c r="L33" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="132">
-        <v>0</v>
-      </c>
-      <c r="N33" s="132">
+      <c r="M33" s="131">
+        <v>0</v>
+      </c>
+      <c r="N33" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O33" s="121">
+      <c r="O33" s="120">
         <v>0</v>
       </c>
       <c r="P33" s="41">
@@ -4931,14 +5033,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="101">
+      <c r="Y33" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="101">
+      <c r="AA33" s="100">
         <v>0</v>
       </c>
       <c r="AB33" s="18">
@@ -4951,7 +5053,7 @@
       </c>
       <c r="AD33" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="AE33" s="81"/>
       <c r="AF33" s="11"/>
@@ -4964,68 +5066,68 @@
       <c r="B34" s="57">
         <v>44072</v>
       </c>
-      <c r="C34" s="120">
-        <v>0</v>
+      <c r="C34" s="119">
+        <v>1</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="130">
-        <v>0</v>
-      </c>
-      <c r="F34" s="130">
+        <v>200000</v>
+      </c>
+      <c r="E34" s="129">
+        <v>0</v>
+      </c>
+      <c r="F34" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="120">
-        <v>0</v>
+      <c r="G34" s="119">
+        <v>3</v>
       </c>
       <c r="H34" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="132">
-        <v>0</v>
-      </c>
-      <c r="J34" s="132">
+        <v>900000</v>
+      </c>
+      <c r="I34" s="131">
+        <v>0</v>
+      </c>
+      <c r="J34" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="120">
-        <v>0</v>
+      <c r="K34" s="119">
+        <v>3</v>
       </c>
       <c r="L34" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="132">
-        <v>0</v>
-      </c>
-      <c r="N34" s="132">
+        <v>900000</v>
+      </c>
+      <c r="M34" s="131">
+        <v>0</v>
+      </c>
+      <c r="N34" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O34" s="121">
-        <v>0</v>
+      <c r="O34" s="120">
+        <v>1</v>
       </c>
       <c r="P34" s="41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Q34" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R34" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="S34" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U34" s="14">
         <v>0</v>
@@ -5041,14 +5143,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="101">
+      <c r="Y34" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="101">
+      <c r="AA34" s="100">
         <v>0</v>
       </c>
       <c r="AB34" s="18">
@@ -5057,11 +5159,11 @@
       </c>
       <c r="AC34" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1530000</v>
       </c>
       <c r="AD34" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3530000</v>
       </c>
       <c r="AE34" s="83"/>
       <c r="AF34" s="11"/>
@@ -5074,49 +5176,49 @@
       <c r="B35" s="57">
         <v>44073</v>
       </c>
-      <c r="C35" s="120">
-        <v>0</v>
+      <c r="C35" s="119">
+        <v>7</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="130">
-        <v>0</v>
-      </c>
-      <c r="F35" s="130">
+        <v>1400000</v>
+      </c>
+      <c r="E35" s="129">
+        <v>0</v>
+      </c>
+      <c r="F35" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="120">
-        <v>0</v>
+      <c r="G35" s="119">
+        <v>10</v>
       </c>
       <c r="H35" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="132">
-        <v>0</v>
-      </c>
-      <c r="J35" s="132">
+        <v>3000000</v>
+      </c>
+      <c r="I35" s="131">
+        <v>0</v>
+      </c>
+      <c r="J35" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="120">
-        <v>0</v>
+      <c r="K35" s="119">
+        <v>1</v>
       </c>
       <c r="L35" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="132">
-        <v>0</v>
-      </c>
-      <c r="N35" s="132">
+        <v>300000</v>
+      </c>
+      <c r="M35" s="131">
+        <v>0</v>
+      </c>
+      <c r="N35" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="121">
+      <c r="O35" s="120">
         <v>0</v>
       </c>
       <c r="P35" s="41">
@@ -5124,18 +5226,18 @@
         <v>0</v>
       </c>
       <c r="Q35" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R35" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="S35" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U35" s="14">
         <v>0</v>
@@ -5145,20 +5247,19 @@
         <v>0</v>
       </c>
       <c r="W35" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="101">
+        <v>40000</v>
+      </c>
+      <c r="Y35" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="101">
+      <c r="AA35" s="100">
         <v>0</v>
       </c>
       <c r="AB35" s="18">
@@ -5167,11 +5268,11 @@
       </c>
       <c r="AC35" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2440000</v>
       </c>
       <c r="AD35" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7140000</v>
       </c>
       <c r="AE35" s="83"/>
       <c r="AF35" s="11"/>
@@ -5180,53 +5281,53 @@
       <c r="AI35" s="11"/>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" s="99"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="57">
         <v>44074</v>
       </c>
-      <c r="C36" s="120">
-        <v>0</v>
+      <c r="C36" s="119">
+        <v>8</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="130">
-        <v>0</v>
-      </c>
-      <c r="F36" s="130">
+        <v>1600000</v>
+      </c>
+      <c r="E36" s="129">
+        <v>0</v>
+      </c>
+      <c r="F36" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="120">
-        <v>0</v>
+      <c r="G36" s="119">
+        <v>1</v>
       </c>
       <c r="H36" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="132">
-        <v>0</v>
-      </c>
-      <c r="J36" s="132">
+        <v>300000</v>
+      </c>
+      <c r="I36" s="131">
+        <v>0</v>
+      </c>
+      <c r="J36" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="120">
-        <v>0</v>
+      <c r="K36" s="119">
+        <v>1</v>
       </c>
       <c r="L36" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="132">
-        <v>0</v>
-      </c>
-      <c r="N36" s="132">
+        <v>300000</v>
+      </c>
+      <c r="M36" s="131">
+        <v>0</v>
+      </c>
+      <c r="N36" s="131">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O36" s="100">
+      <c r="O36" s="99">
         <v>0</v>
       </c>
       <c r="P36" s="41">
@@ -5241,11 +5342,11 @@
         <v>0</v>
       </c>
       <c r="S36" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U36" s="14">
         <v>0</v>
@@ -5261,14 +5362,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="101">
+      <c r="Y36" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="101">
+      <c r="AA36" s="100">
         <v>0</v>
       </c>
       <c r="AB36" s="18">
@@ -5277,13 +5378,13 @@
       </c>
       <c r="AC36" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="AD36" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="99"/>
+        <v>2800000</v>
+      </c>
+      <c r="AE36" s="98"/>
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
       <c r="AH36" s="11"/>
@@ -5296,75 +5397,75 @@
       </c>
       <c r="C37" s="7">
         <f>SUM(C6:C36)</f>
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="D37" s="39">
         <f>SUM(D7:D36)</f>
-        <v>17600000</v>
-      </c>
-      <c r="E37" s="131">
+        <v>24800000</v>
+      </c>
+      <c r="E37" s="130">
         <f>SUM(E7:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="131">
+      <c r="F37" s="130">
         <f t="shared" ref="F37:Y37" si="15">SUM(F7:F36)</f>
         <v>0</v>
       </c>
       <c r="G37" s="39">
         <f t="shared" si="15"/>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H37" s="39">
         <f t="shared" si="15"/>
-        <v>10800000</v>
-      </c>
-      <c r="I37" s="131">
+        <v>17400000</v>
+      </c>
+      <c r="I37" s="130">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J37" s="131">
+      <c r="J37" s="130">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K37" s="39">
         <f t="shared" ref="K37:N37" si="16">SUM(K7:K36)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L37" s="39">
         <f t="shared" si="16"/>
-        <v>3600000</v>
-      </c>
-      <c r="M37" s="131">
+        <v>6900000</v>
+      </c>
+      <c r="M37" s="130">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N37" s="131">
+      <c r="N37" s="130">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O37" s="39">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37" s="39">
         <f t="shared" si="15"/>
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="Q37" s="39">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R37" s="39">
         <f t="shared" si="15"/>
-        <v>4500000</v>
+        <v>7200000</v>
       </c>
       <c r="S37" s="39">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="T37" s="39">
         <f t="shared" si="15"/>
-        <v>8400000</v>
+        <v>12000000</v>
       </c>
       <c r="U37" s="39">
         <f t="shared" si="15"/>
@@ -5376,11 +5477,11 @@
       </c>
       <c r="W37" s="39">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="39">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="Y37" s="39">
         <f t="shared" si="15"/>
@@ -5400,11 +5501,11 @@
       </c>
       <c r="AC37" s="39">
         <f t="shared" si="17"/>
-        <v>14390000</v>
+        <v>20760000</v>
       </c>
       <c r="AD37" s="39">
         <f>SUM(AD7:AD36)</f>
-        <v>46390000</v>
+        <v>69860000</v>
       </c>
       <c r="AE37" s="64"/>
     </row>
@@ -5413,73 +5514,73 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="163">
-        <v>0</v>
-      </c>
-      <c r="D38" s="163"/>
+      <c r="C38" s="164">
+        <v>80</v>
+      </c>
+      <c r="D38" s="164"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
-      <c r="P38" s="155"/>
-      <c r="Q38" s="155"/>
-      <c r="R38" s="155"/>
-      <c r="S38" s="155"/>
-      <c r="T38" s="155"/>
-      <c r="U38" s="155"/>
-      <c r="V38" s="155"/>
-      <c r="W38" s="155"/>
-      <c r="X38" s="155"/>
-      <c r="Y38" s="155"/>
-      <c r="Z38" s="155"/>
-      <c r="AA38" s="155"/>
-      <c r="AB38" s="155"/>
-      <c r="AC38" s="155"/>
-      <c r="AD38" s="155"/>
-      <c r="AE38" s="155"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="156"/>
+      <c r="T38" s="156"/>
+      <c r="U38" s="156"/>
+      <c r="V38" s="156"/>
+      <c r="W38" s="156"/>
+      <c r="X38" s="156"/>
+      <c r="Y38" s="156"/>
+      <c r="Z38" s="156"/>
+      <c r="AA38" s="156"/>
+      <c r="AB38" s="156"/>
+      <c r="AC38" s="156"/>
+      <c r="AD38" s="156"/>
+      <c r="AE38" s="156"/>
     </row>
     <row r="39" spans="1:35" s="11" customFormat="1">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="156">
-        <v>0</v>
-      </c>
-      <c r="D39" s="156"/>
+      <c r="C39" s="157">
+        <v>179</v>
+      </c>
+      <c r="D39" s="157"/>
       <c r="E39" s="91"/>
       <c r="F39" s="91"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="155"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="155"/>
-      <c r="T39" s="155"/>
-      <c r="U39" s="155"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="155"/>
-      <c r="Y39" s="155"/>
-      <c r="Z39" s="155"/>
-      <c r="AA39" s="155"/>
-      <c r="AB39" s="155"/>
-      <c r="AC39" s="155"/>
-      <c r="AD39" s="155"/>
-      <c r="AE39" s="155"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="156"/>
+      <c r="S39" s="156"/>
+      <c r="T39" s="156"/>
+      <c r="U39" s="156"/>
+      <c r="V39" s="156"/>
+      <c r="W39" s="156"/>
+      <c r="X39" s="156"/>
+      <c r="Y39" s="156"/>
+      <c r="Z39" s="156"/>
+      <c r="AA39" s="156"/>
+      <c r="AB39" s="156"/>
+      <c r="AC39" s="156"/>
+      <c r="AD39" s="156"/>
+      <c r="AE39" s="156"/>
       <c r="AH39" s="11" t="s">
         <v>9</v>
       </c>
@@ -5524,7 +5625,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="31" max="1048575" man="1"/>
   </colBreaks>
@@ -5539,25 +5640,25 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31">
-      <c r="A1" s="166" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+    <row r="1" spans="1:6" ht="31.5">
+      <c r="A1" s="167" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
@@ -5586,17 +5687,17 @@
       <c r="B4" s="21">
         <v>44044</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="107">
         <v>1453398</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="107">
         <v>2610000</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="104">
         <f>SUM(D4,-C4)</f>
         <v>1156602</v>
       </c>
-      <c r="F4" s="107"/>
+      <c r="F4" s="106"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="34">
@@ -5605,17 +5706,17 @@
       <c r="B5" s="21">
         <v>44045</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="107">
         <v>2006181</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="107">
         <v>3120000</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="104">
         <f t="shared" ref="E5:E34" si="0">SUM(D5,-C5)</f>
         <v>1113819</v>
       </c>
-      <c r="F5" s="107"/>
+      <c r="F5" s="106"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="34">
@@ -5624,17 +5725,17 @@
       <c r="B6" s="21">
         <v>44046</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="107">
         <v>1734537</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="107">
         <v>2365000</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="104">
         <f t="shared" si="0"/>
         <v>630463</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="106"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="34">
@@ -5643,17 +5744,17 @@
       <c r="B7" s="21">
         <v>44047</v>
       </c>
-      <c r="C7" s="105">
+      <c r="C7" s="104">
         <v>966524</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="104">
         <v>2649000</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="104">
         <f t="shared" si="0"/>
         <v>1682476</v>
       </c>
-      <c r="F7" s="107"/>
+      <c r="F7" s="106"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="34">
@@ -5662,13 +5763,13 @@
       <c r="B8" s="21">
         <v>44048</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="104">
         <v>612091</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="104">
         <v>1475000</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="104">
         <f t="shared" si="0"/>
         <v>862909</v>
       </c>
@@ -5681,13 +5782,13 @@
       <c r="B9" s="21">
         <v>44049</v>
       </c>
-      <c r="C9" s="105">
+      <c r="C9" s="104">
         <v>2180782</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="104">
         <v>5365000</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="104">
         <f t="shared" si="0"/>
         <v>3184218</v>
       </c>
@@ -5700,13 +5801,13 @@
       <c r="B10" s="21">
         <v>44050</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="104">
         <v>552234</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="104">
         <v>1175000</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="104">
         <f t="shared" si="0"/>
         <v>622766</v>
       </c>
@@ -5719,13 +5820,13 @@
       <c r="B11" s="21">
         <v>44051</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="104">
         <v>789153</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="104">
         <v>2120000</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="104">
         <f t="shared" si="0"/>
         <v>1330847</v>
       </c>
@@ -5738,13 +5839,13 @@
       <c r="B12" s="21">
         <v>44052</v>
       </c>
-      <c r="C12" s="105">
+      <c r="C12" s="104">
         <v>2398171</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="104">
         <v>8070000</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="104">
         <f t="shared" si="0"/>
         <v>5671829</v>
       </c>
@@ -5757,13 +5858,13 @@
       <c r="B13" s="21">
         <v>44053</v>
       </c>
-      <c r="C13" s="105">
+      <c r="C13" s="104">
         <v>1545392</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="104">
         <v>4805000</v>
       </c>
-      <c r="E13" s="105">
+      <c r="E13" s="104">
         <f t="shared" si="0"/>
         <v>3259608</v>
       </c>
@@ -5776,13 +5877,13 @@
       <c r="B14" s="21">
         <v>44054</v>
       </c>
-      <c r="C14" s="105">
+      <c r="C14" s="104">
         <v>1018647</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="104">
         <v>2500000</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="104">
         <f t="shared" si="0"/>
         <v>1481353</v>
       </c>
@@ -5795,13 +5896,13 @@
       <c r="B15" s="21">
         <v>44055</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="104">
         <v>1786042</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="104">
         <v>4685000</v>
       </c>
-      <c r="E15" s="105">
+      <c r="E15" s="104">
         <f t="shared" si="0"/>
         <v>2898958</v>
       </c>
@@ -5814,13 +5915,13 @@
       <c r="B16" s="21">
         <v>44056</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="104">
         <v>2663893</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="104">
         <v>5685000</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="104">
         <f t="shared" si="0"/>
         <v>3021107</v>
       </c>
@@ -5833,13 +5934,13 @@
       <c r="B17" s="21">
         <v>44057</v>
       </c>
-      <c r="C17" s="105">
+      <c r="C17" s="104">
         <v>1638483</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D17" s="104">
         <v>5415000</v>
       </c>
-      <c r="E17" s="105">
+      <c r="E17" s="104">
         <f t="shared" si="0"/>
         <v>3776517</v>
       </c>
@@ -5852,13 +5953,13 @@
       <c r="B18" s="21">
         <v>44058</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="104">
         <v>1695949</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="104">
         <v>7645000</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="104">
         <f t="shared" si="0"/>
         <v>5949051</v>
       </c>
@@ -5871,13 +5972,13 @@
       <c r="B19" s="21">
         <v>44059</v>
       </c>
-      <c r="C19" s="105">
+      <c r="C19" s="104">
         <v>2303202</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D19" s="104">
         <v>9370000</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="104">
         <f t="shared" si="0"/>
         <v>7066798</v>
       </c>
@@ -5890,13 +5991,13 @@
       <c r="B20" s="21">
         <v>44060</v>
       </c>
-      <c r="C20" s="105">
+      <c r="C20" s="104">
         <v>821729</v>
       </c>
-      <c r="D20" s="105">
+      <c r="D20" s="104">
         <v>3450000</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="104">
         <f t="shared" si="0"/>
         <v>2628271</v>
       </c>
@@ -5909,13 +6010,13 @@
       <c r="B21" s="21">
         <v>44061</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="104">
         <v>388915</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="104">
         <v>665000</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="104">
         <f t="shared" si="0"/>
         <v>276085</v>
       </c>
@@ -5928,13 +6029,13 @@
       <c r="B22" s="21">
         <v>44062</v>
       </c>
-      <c r="C22" s="105">
+      <c r="C22" s="104">
         <v>1925399</v>
       </c>
-      <c r="D22" s="105">
+      <c r="D22" s="104">
         <v>5797000</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="104">
         <f t="shared" si="0"/>
         <v>3871601</v>
       </c>
@@ -5947,13 +6048,13 @@
       <c r="B23" s="21">
         <v>44063</v>
       </c>
-      <c r="C23" s="105">
+      <c r="C23" s="104">
         <v>654558</v>
       </c>
-      <c r="D23" s="105">
+      <c r="D23" s="104">
         <v>2714000</v>
       </c>
-      <c r="E23" s="105">
+      <c r="E23" s="104">
         <f t="shared" si="0"/>
         <v>2059442</v>
       </c>
@@ -5966,13 +6067,13 @@
       <c r="B24" s="21">
         <v>44064</v>
       </c>
-      <c r="C24" s="105">
+      <c r="C24" s="104">
         <v>268800</v>
       </c>
-      <c r="D24" s="105">
+      <c r="D24" s="104">
         <v>1580000</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="104">
         <f t="shared" si="0"/>
         <v>1311200</v>
       </c>
@@ -5985,13 +6086,13 @@
       <c r="B25" s="21">
         <v>44065</v>
       </c>
-      <c r="C25" s="105">
+      <c r="C25" s="104">
         <v>1744555</v>
       </c>
-      <c r="D25" s="105">
+      <c r="D25" s="104">
         <v>3240000</v>
       </c>
-      <c r="E25" s="105">
+      <c r="E25" s="104">
         <f t="shared" si="0"/>
         <v>1495445</v>
       </c>
@@ -6004,17 +6105,17 @@
       <c r="B26" s="21">
         <v>44066</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="104">
         <v>1551863</v>
       </c>
-      <c r="D26" s="105">
+      <c r="D26" s="104">
         <v>5570000</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="104">
         <f t="shared" si="0"/>
         <v>4018137</v>
       </c>
-      <c r="F26" s="106"/>
+      <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="34">
@@ -6023,17 +6124,17 @@
       <c r="B27" s="21">
         <v>44067</v>
       </c>
-      <c r="C27" s="105">
+      <c r="C27" s="104">
         <v>1524979</v>
       </c>
-      <c r="D27" s="105">
+      <c r="D27" s="104">
         <v>4415000</v>
       </c>
-      <c r="E27" s="105">
+      <c r="E27" s="104">
         <f t="shared" si="0"/>
         <v>2890021</v>
       </c>
-      <c r="F27" s="106"/>
+      <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="34">
@@ -6042,17 +6143,17 @@
       <c r="B28" s="21">
         <v>44068</v>
       </c>
-      <c r="C28" s="105">
+      <c r="C28" s="104">
         <v>1343806</v>
       </c>
-      <c r="D28" s="105">
+      <c r="D28" s="104">
         <v>4704000</v>
       </c>
-      <c r="E28" s="105">
+      <c r="E28" s="104">
         <f t="shared" si="0"/>
         <v>3360194</v>
       </c>
-      <c r="F28" s="106"/>
+      <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="34">
@@ -6061,13 +6162,13 @@
       <c r="B29" s="21">
         <v>44069</v>
       </c>
-      <c r="C29" s="105">
+      <c r="C29" s="104">
         <v>947764</v>
       </c>
-      <c r="D29" s="105">
+      <c r="D29" s="104">
         <v>3135000</v>
       </c>
-      <c r="E29" s="105">
+      <c r="E29" s="104">
         <f t="shared" si="0"/>
         <v>2187236</v>
       </c>
@@ -6080,13 +6181,13 @@
       <c r="B30" s="21">
         <v>44070</v>
       </c>
-      <c r="C30" s="105">
+      <c r="C30" s="104">
         <v>404524</v>
       </c>
-      <c r="D30" s="105">
+      <c r="D30" s="104">
         <v>3065000</v>
       </c>
-      <c r="E30" s="105">
+      <c r="E30" s="104">
         <f t="shared" si="0"/>
         <v>2660476</v>
       </c>
@@ -6099,13 +6200,13 @@
       <c r="B31" s="21">
         <v>44071</v>
       </c>
-      <c r="C31" s="105">
+      <c r="C31" s="104">
         <v>1176061</v>
       </c>
-      <c r="D31" s="105">
+      <c r="D31" s="104">
         <v>3590000</v>
       </c>
-      <c r="E31" s="105">
+      <c r="E31" s="104">
         <f t="shared" si="0"/>
         <v>2413939</v>
       </c>
@@ -6118,13 +6219,13 @@
       <c r="B32" s="21">
         <v>44072</v>
       </c>
-      <c r="C32" s="105">
+      <c r="C32" s="104">
         <v>1399667</v>
       </c>
-      <c r="D32" s="105">
+      <c r="D32" s="104">
         <v>6345000</v>
       </c>
-      <c r="E32" s="105">
+      <c r="E32" s="104">
         <f t="shared" si="0"/>
         <v>4945333</v>
       </c>
@@ -6137,30 +6238,30 @@
       <c r="B33" s="21">
         <v>44073</v>
       </c>
-      <c r="C33" s="105">
+      <c r="C33" s="104">
         <v>2701903</v>
       </c>
-      <c r="D33" s="105">
+      <c r="D33" s="104">
         <v>11690000</v>
       </c>
-      <c r="E33" s="105">
+      <c r="E33" s="104">
         <f t="shared" si="0"/>
         <v>8988097</v>
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="115" customFormat="1">
+    <row r="34" spans="1:6" s="114" customFormat="1">
       <c r="A34" s="34"/>
       <c r="B34" s="21">
         <v>44074</v>
       </c>
-      <c r="C34" s="105">
+      <c r="C34" s="104">
         <v>1427680</v>
       </c>
-      <c r="D34" s="105">
+      <c r="D34" s="104">
         <v>6755000</v>
       </c>
-      <c r="E34" s="105">
+      <c r="E34" s="104">
         <f t="shared" si="0"/>
         <v>5327320</v>
       </c>
@@ -6202,40 +6303,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:G49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="76" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="112" customWidth="1"/>
-    <col min="4" max="4" width="18" style="113" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="111" customWidth="1"/>
+    <col min="4" max="4" width="18" style="112" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="68" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="74" customWidth="1"/>
     <col min="7" max="7" width="30" style="70" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="80" customFormat="1" ht="31">
-      <c r="A2" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-    </row>
-    <row r="3" spans="1:7" ht="31">
+    <row r="2" spans="1:7" s="80" customFormat="1" ht="31.5">
+      <c r="A2" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5">
       <c r="B3" s="25"/>
-      <c r="C3" s="111"/>
+      <c r="C3" s="110"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="63" t="s">
@@ -6244,509 +6345,610 @@
       <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="114" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="116" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="66" customFormat="1">
-      <c r="A5" s="125"/>
-      <c r="B5" s="124">
+      <c r="A5" s="124"/>
+      <c r="B5" s="123">
         <v>44044</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="125"/>
-    </row>
-    <row r="6" spans="1:7" s="98" customFormat="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="124">
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="124"/>
+    </row>
+    <row r="6" spans="1:7" s="97" customFormat="1">
+      <c r="A6" s="124"/>
+      <c r="B6" s="123">
         <v>44045</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="125"/>
-    </row>
-    <row r="7" spans="1:7" s="98" customFormat="1">
-      <c r="A7" s="125"/>
-      <c r="B7" s="168">
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="124"/>
+    </row>
+    <row r="7" spans="1:7" s="97" customFormat="1">
+      <c r="A7" s="124"/>
+      <c r="B7" s="169">
         <v>44046</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="124">
         <v>1</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="108">
+        <v>700000</v>
+      </c>
+      <c r="F7" s="108"/>
+      <c r="G7" s="124"/>
+    </row>
+    <row r="8" spans="1:7" s="122" customFormat="1">
+      <c r="A8" s="124"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="124">
+        <v>2</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="108">
+        <v>1820000</v>
+      </c>
+      <c r="F8" s="108"/>
+      <c r="G8" s="124"/>
+    </row>
+    <row r="9" spans="1:7" s="122" customFormat="1">
+      <c r="A9" s="124"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="124">
+        <v>3</v>
+      </c>
+      <c r="D9" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E9" s="108">
+        <v>870000</v>
+      </c>
+      <c r="F9" s="108"/>
+      <c r="G9" s="124"/>
+    </row>
+    <row r="10" spans="1:7" s="122" customFormat="1">
+      <c r="A10" s="124"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="124">
+        <v>4</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="108">
+        <v>310000</v>
+      </c>
+      <c r="F10" s="108"/>
+      <c r="G10" s="124"/>
+    </row>
+    <row r="11" spans="1:7" s="122" customFormat="1">
+      <c r="A11" s="124"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="124">
+        <v>5</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="108">
+        <v>190000</v>
+      </c>
+      <c r="F11" s="108"/>
+      <c r="G11" s="124"/>
+    </row>
+    <row r="12" spans="1:7" s="97" customFormat="1" hidden="1">
+      <c r="A12" s="124"/>
+      <c r="B12" s="123">
+        <v>44047</v>
+      </c>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="124"/>
+    </row>
+    <row r="13" spans="1:7" s="97" customFormat="1" hidden="1">
+      <c r="A13" s="124"/>
+      <c r="B13" s="123">
+        <v>44048</v>
+      </c>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="124"/>
+    </row>
+    <row r="14" spans="1:7" s="97" customFormat="1" hidden="1">
+      <c r="A14" s="124"/>
+      <c r="B14" s="123">
+        <v>44049</v>
+      </c>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="124"/>
+    </row>
+    <row r="15" spans="1:7" s="126" customFormat="1">
+      <c r="A15" s="124"/>
+      <c r="B15" s="169">
+        <v>44050</v>
+      </c>
+      <c r="C15" s="124">
+        <v>1</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="108">
+        <v>530000</v>
+      </c>
+      <c r="F15" s="108"/>
+      <c r="G15" s="124"/>
+    </row>
+    <row r="16" spans="1:7" s="66" customFormat="1">
+      <c r="A16" s="124"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="124">
+        <v>2</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="108">
+        <v>772000</v>
+      </c>
+      <c r="F16" s="108"/>
+      <c r="G16" s="124"/>
+    </row>
+    <row r="17" spans="1:7" s="89" customFormat="1" hidden="1">
+      <c r="A17" s="124"/>
+      <c r="B17" s="123">
+        <v>44051</v>
+      </c>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="124"/>
+    </row>
+    <row r="18" spans="1:7" s="69" customFormat="1" hidden="1">
+      <c r="A18" s="124"/>
+      <c r="B18" s="123">
+        <v>44052</v>
+      </c>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="124"/>
+    </row>
+    <row r="19" spans="1:7" s="97" customFormat="1" hidden="1">
+      <c r="A19" s="124"/>
+      <c r="B19" s="123">
+        <v>44053</v>
+      </c>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="124"/>
+    </row>
+    <row r="20" spans="1:7" s="97" customFormat="1" hidden="1">
+      <c r="A20" s="124"/>
+      <c r="B20" s="123">
+        <v>44054</v>
+      </c>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="124"/>
+    </row>
+    <row r="21" spans="1:7" s="102" customFormat="1" hidden="1">
+      <c r="A21" s="124"/>
+      <c r="B21" s="123">
+        <v>44055</v>
+      </c>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="124"/>
+    </row>
+    <row r="22" spans="1:7" s="97" customFormat="1" hidden="1">
+      <c r="A22" s="124"/>
+      <c r="B22" s="123">
+        <v>44056</v>
+      </c>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="124"/>
+    </row>
+    <row r="23" spans="1:7" s="87" customFormat="1" hidden="1">
+      <c r="A23" s="124"/>
+      <c r="B23" s="123">
+        <v>44057</v>
+      </c>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="124"/>
+    </row>
+    <row r="24" spans="1:7" s="102" customFormat="1" hidden="1">
+      <c r="A24" s="124"/>
+      <c r="B24" s="123">
+        <v>44058</v>
+      </c>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="124"/>
+    </row>
+    <row r="25" spans="1:7" s="102" customFormat="1" hidden="1">
+      <c r="A25" s="124"/>
+      <c r="B25" s="123">
+        <v>44059</v>
+      </c>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="124"/>
+    </row>
+    <row r="26" spans="1:7" s="102" customFormat="1">
+      <c r="A26" s="124"/>
+      <c r="B26" s="169">
+        <v>44060</v>
+      </c>
+      <c r="C26" s="124">
+        <v>1</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="108">
+        <v>5825000</v>
+      </c>
+      <c r="F26" s="108"/>
+      <c r="G26" s="124" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="126" customFormat="1">
+      <c r="A27" s="124"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="124">
+        <v>2</v>
+      </c>
+      <c r="D27" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="108">
+        <v>5825000</v>
+      </c>
+      <c r="F27" s="108"/>
+      <c r="G27" s="124"/>
+    </row>
+    <row r="28" spans="1:7" s="102" customFormat="1" hidden="1">
+      <c r="A28" s="124"/>
+      <c r="B28" s="123">
+        <v>44061</v>
+      </c>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="124"/>
+    </row>
+    <row r="29" spans="1:7" s="149" customFormat="1">
+      <c r="A29" s="124"/>
+      <c r="B29" s="169">
+        <v>44062</v>
+      </c>
+      <c r="C29" s="124">
+        <v>1</v>
+      </c>
+      <c r="D29" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="108">
+        <v>903000</v>
+      </c>
+      <c r="F29" s="108"/>
+      <c r="G29" s="124"/>
+    </row>
+    <row r="30" spans="1:7" s="149" customFormat="1">
+      <c r="A30" s="124"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="124">
+        <v>2</v>
+      </c>
+      <c r="D30" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="108">
         <v>700000</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="125"/>
-    </row>
-    <row r="8" spans="1:7" s="123" customFormat="1">
-      <c r="A8" s="125"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="125">
-        <v>2</v>
-      </c>
-      <c r="D8" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="109">
-        <v>1820000</v>
-      </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="125"/>
-    </row>
-    <row r="9" spans="1:7" s="123" customFormat="1">
-      <c r="A9" s="125"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="125">
+      <c r="F30" s="108"/>
+      <c r="G30" s="124"/>
+    </row>
+    <row r="31" spans="1:7" s="149" customFormat="1">
+      <c r="A31" s="124"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="124">
         <v>3</v>
       </c>
-      <c r="D9" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="109">
-        <v>870000</v>
-      </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="125"/>
-    </row>
-    <row r="10" spans="1:7" s="123" customFormat="1">
-      <c r="A10" s="125"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="125">
+      <c r="D31" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="108">
+        <v>350000</v>
+      </c>
+      <c r="F31" s="108"/>
+      <c r="G31" s="124"/>
+    </row>
+    <row r="32" spans="1:7" s="149" customFormat="1">
+      <c r="A32" s="124"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="124">
         <v>4</v>
       </c>
-      <c r="D10" s="125" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="109">
-        <v>310000</v>
-      </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="125"/>
-    </row>
-    <row r="11" spans="1:7" s="123" customFormat="1">
-      <c r="A11" s="125"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="125">
+      <c r="D32" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="108">
+        <v>2100000</v>
+      </c>
+      <c r="F32" s="108"/>
+      <c r="G32" s="124"/>
+    </row>
+    <row r="33" spans="1:7" s="149" customFormat="1">
+      <c r="A33" s="124"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="124">
         <v>5</v>
       </c>
-      <c r="D11" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="109">
-        <v>190000</v>
-      </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="125"/>
-    </row>
-    <row r="12" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="124">
-        <v>44047</v>
-      </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="125"/>
-    </row>
-    <row r="13" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="124">
-        <v>44048</v>
-      </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="125"/>
-    </row>
-    <row r="14" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A14" s="125"/>
-      <c r="B14" s="124">
-        <v>44049</v>
-      </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="125"/>
-    </row>
-    <row r="15" spans="1:7" s="127" customFormat="1">
-      <c r="A15" s="125"/>
-      <c r="B15" s="168">
-        <v>44050</v>
-      </c>
-      <c r="C15" s="125">
-        <v>1</v>
-      </c>
-      <c r="D15" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="109">
-        <v>530000</v>
-      </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="125"/>
-    </row>
-    <row r="16" spans="1:7" s="66" customFormat="1">
-      <c r="A16" s="125"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="125">
-        <v>2</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="109">
-        <v>772000</v>
-      </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="125"/>
-    </row>
-    <row r="17" spans="1:7" s="89" customFormat="1" hidden="1">
-      <c r="A17" s="125"/>
-      <c r="B17" s="124">
-        <v>44051</v>
-      </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="125"/>
-    </row>
-    <row r="18" spans="1:7" s="69" customFormat="1" hidden="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="124">
-        <v>44052</v>
-      </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="125"/>
-    </row>
-    <row r="19" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="124">
-        <v>44053</v>
-      </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="125"/>
-    </row>
-    <row r="20" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="124">
-        <v>44054</v>
-      </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="125"/>
-    </row>
-    <row r="21" spans="1:7" s="103" customFormat="1" hidden="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="124">
-        <v>44055</v>
-      </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="125"/>
-    </row>
-    <row r="22" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="124">
-        <v>44056</v>
-      </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="125"/>
-    </row>
-    <row r="23" spans="1:7" s="87" customFormat="1" hidden="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="124">
-        <v>44057</v>
-      </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="125"/>
-    </row>
-    <row r="24" spans="1:7" s="103" customFormat="1" hidden="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="124">
-        <v>44058</v>
-      </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="125"/>
-    </row>
-    <row r="25" spans="1:7" s="103" customFormat="1" hidden="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="124">
-        <v>44059</v>
-      </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="125"/>
-    </row>
-    <row r="26" spans="1:7" s="103" customFormat="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="168">
-        <v>44060</v>
-      </c>
-      <c r="C26" s="125">
-        <v>1</v>
-      </c>
-      <c r="D26" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="109">
-        <v>5825000</v>
-      </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="125" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="127" customFormat="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="125">
-        <v>2</v>
-      </c>
-      <c r="D27" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="109">
-        <v>5825000</v>
-      </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="125"/>
-    </row>
-    <row r="28" spans="1:7" s="103" customFormat="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="124">
-        <v>44061</v>
-      </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="125"/>
-    </row>
-    <row r="29" spans="1:7" s="103" customFormat="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="124">
-        <v>44062</v>
-      </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="125"/>
-    </row>
-    <row r="30" spans="1:7" s="103" customFormat="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="124">
+      <c r="D33" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="108">
+        <v>410000</v>
+      </c>
+      <c r="F33" s="108"/>
+      <c r="G33" s="124"/>
+    </row>
+    <row r="34" spans="1:7" s="149" customFormat="1">
+      <c r="A34" s="124"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="124">
+        <v>6</v>
+      </c>
+      <c r="D34" s="124" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="108">
+        <v>207000</v>
+      </c>
+      <c r="F34" s="108"/>
+      <c r="G34" s="124"/>
+    </row>
+    <row r="35" spans="1:7" s="149" customFormat="1">
+      <c r="A35" s="124"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="124">
+        <v>7</v>
+      </c>
+      <c r="D35" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="108">
+        <v>560000</v>
+      </c>
+      <c r="F35" s="108"/>
+      <c r="G35" s="124"/>
+    </row>
+    <row r="36" spans="1:7" s="102" customFormat="1" hidden="1">
+      <c r="A36" s="124"/>
+      <c r="B36" s="123">
         <v>44063</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="125"/>
-    </row>
-    <row r="31" spans="1:7" s="73" customFormat="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="124">
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="124"/>
+    </row>
+    <row r="37" spans="1:7" s="73" customFormat="1" hidden="1">
+      <c r="A37" s="124"/>
+      <c r="B37" s="123">
         <v>44064</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="125"/>
-    </row>
-    <row r="32" spans="1:7" s="103" customFormat="1">
-      <c r="A32" s="125"/>
-      <c r="B32" s="124">
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="124"/>
+    </row>
+    <row r="38" spans="1:7" s="102" customFormat="1" hidden="1">
+      <c r="A38" s="124"/>
+      <c r="B38" s="123">
         <v>44065</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="125"/>
-    </row>
-    <row r="33" spans="1:7" s="103" customFormat="1">
-      <c r="A33" s="125"/>
-      <c r="B33" s="124">
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="124"/>
+    </row>
+    <row r="39" spans="1:7" s="102" customFormat="1" hidden="1">
+      <c r="A39" s="124"/>
+      <c r="B39" s="123">
         <v>44066</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="125"/>
-    </row>
-    <row r="34" spans="1:7" s="103" customFormat="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="124">
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="124"/>
+    </row>
+    <row r="40" spans="1:7" s="102" customFormat="1" hidden="1">
+      <c r="A40" s="124"/>
+      <c r="B40" s="123">
         <v>44067</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="125"/>
-    </row>
-    <row r="35" spans="1:7" s="73" customFormat="1">
-      <c r="A35" s="125"/>
-      <c r="B35" s="124">
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="124"/>
+    </row>
+    <row r="41" spans="1:7" s="73" customFormat="1" hidden="1">
+      <c r="A41" s="124"/>
+      <c r="B41" s="123">
         <v>44068</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="125"/>
-    </row>
-    <row r="36" spans="1:7" s="103" customFormat="1">
-      <c r="A36" s="125"/>
-      <c r="B36" s="124">
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="124"/>
+    </row>
+    <row r="42" spans="1:7" s="102" customFormat="1" hidden="1">
+      <c r="A42" s="124"/>
+      <c r="B42" s="123">
         <v>44069</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="125"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="125"/>
-      <c r="B37" s="124">
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="124"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1">
+      <c r="A43" s="124"/>
+      <c r="B43" s="123">
         <v>44070</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="125"/>
-    </row>
-    <row r="38" spans="1:7" s="103" customFormat="1">
-      <c r="A38" s="125"/>
-      <c r="B38" s="124">
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="124"/>
+    </row>
+    <row r="44" spans="1:7" s="102" customFormat="1">
+      <c r="A44" s="124"/>
+      <c r="B44" s="123">
         <v>44071</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="125"/>
-    </row>
-    <row r="39" spans="1:7" s="103" customFormat="1">
-      <c r="A39" s="125"/>
-      <c r="B39" s="124">
+      <c r="C44" s="124"/>
+      <c r="D44" s="124" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="108">
+        <v>2800000</v>
+      </c>
+      <c r="F44" s="108"/>
+      <c r="G44" s="124"/>
+    </row>
+    <row r="45" spans="1:7" s="102" customFormat="1">
+      <c r="A45" s="124"/>
+      <c r="B45" s="123">
         <v>44072</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="125"/>
-    </row>
-    <row r="40" spans="1:7" s="103" customFormat="1">
-      <c r="A40" s="125"/>
-      <c r="B40" s="124">
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="124"/>
+    </row>
+    <row r="46" spans="1:7" s="102" customFormat="1">
+      <c r="A46" s="124"/>
+      <c r="B46" s="123">
         <v>44073</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="125"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="125"/>
-      <c r="B41" s="124">
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="124"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="124"/>
+      <c r="B47" s="123">
         <v>44074</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="125"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="34">
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="124"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="34">
         <v>35</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B48" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="86">
-        <f>SUM(E5:E41)</f>
-        <v>16842000</v>
-      </c>
-      <c r="F42" s="86">
-        <f>SUM(F5:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="71"/>
-    </row>
-    <row r="43" spans="1:7" s="82" customFormat="1">
-      <c r="A43" s="76"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="70"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="86">
+        <f>SUM(E5:E47)</f>
+        <v>24872000</v>
+      </c>
+      <c r="F48" s="86">
+        <f>SUM(F5:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="71"/>
+    </row>
+    <row r="49" spans="1:7" s="82" customFormat="1">
+      <c r="A49" s="76"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B29:B35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6758,28 +6960,28 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="96"/>
+    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="96"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="29">
-      <c r="A2" s="171" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
+    <row r="2" spans="1:6" ht="28.5">
+      <c r="A2" s="172" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
@@ -6833,7 +7035,7 @@
         <v>44046</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="34">
         <v>10</v>
@@ -7007,7 +7209,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="42">
@@ -7046,9 +7248,13 @@
       <c r="B24" s="95">
         <v>44063</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="34" t="s">
+        <v>132</v>
+      </c>
       <c r="D24" s="34"/>
-      <c r="E24" s="42"/>
+      <c r="E24" s="42">
+        <v>100000</v>
+      </c>
       <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6">
@@ -7082,13 +7288,19 @@
       <c r="B27" s="95">
         <v>44066</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="34" t="s">
+        <v>135</v>
+      </c>
       <c r="D27" s="34"/>
-      <c r="E27" s="42"/>
+      <c r="E27" s="42">
+        <v>30000</v>
+      </c>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="118" customFormat="1">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:6" s="117" customFormat="1">
+      <c r="A28" s="34">
+        <v>30</v>
+      </c>
       <c r="B28" s="95">
         <v>44067</v>
       </c>
@@ -7097,18 +7309,26 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="118" customFormat="1">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:6" s="117" customFormat="1">
+      <c r="A29" s="34">
+        <v>31</v>
+      </c>
       <c r="B29" s="95">
         <v>44068</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="42"/>
+      <c r="E29" s="42">
+        <v>3000000</v>
+      </c>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="118" customFormat="1">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:6" s="117" customFormat="1">
+      <c r="A30" s="34">
+        <v>32</v>
+      </c>
       <c r="B30" s="95">
         <v>44069</v>
       </c>
@@ -7117,8 +7337,10 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="118" customFormat="1">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:6" s="117" customFormat="1">
+      <c r="A31" s="34">
+        <v>33</v>
+      </c>
       <c r="B31" s="95">
         <v>44070</v>
       </c>
@@ -7127,18 +7349,26 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="118" customFormat="1">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:6" s="117" customFormat="1">
+      <c r="A32" s="34">
+        <v>34</v>
+      </c>
       <c r="B32" s="95">
         <v>44071</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="34" t="s">
+        <v>134</v>
+      </c>
       <c r="D32" s="34"/>
-      <c r="E32" s="42"/>
+      <c r="E32" s="42">
+        <v>40000</v>
+      </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="118" customFormat="1">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:6" s="117" customFormat="1">
+      <c r="A33" s="34">
+        <v>35</v>
+      </c>
       <c r="B33" s="95">
         <v>44072</v>
       </c>
@@ -7147,8 +7377,10 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="118" customFormat="1">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:6" s="117" customFormat="1">
+      <c r="A34" s="34">
+        <v>36</v>
+      </c>
       <c r="B34" s="95">
         <v>44073</v>
       </c>
@@ -7157,8 +7389,10 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" s="118" customFormat="1">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:6" s="117" customFormat="1">
+      <c r="A35" s="34">
+        <v>37</v>
+      </c>
       <c r="B35" s="95">
         <v>44074</v>
       </c>
@@ -7178,7 +7412,7 @@
       <c r="D36" s="26"/>
       <c r="E36" s="43">
         <f>SUM(E5:E35)</f>
-        <v>150000</v>
+        <v>3320000</v>
       </c>
       <c r="F36" s="26"/>
     </row>
@@ -7197,31 +7431,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V34"/>
+  <dimension ref="A2:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20">
-      <c r="B2" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-    </row>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:5" ht="20.25">
+      <c r="B2" s="173" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -7238,13 +7472,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="92" customFormat="1" ht="16">
+    <row r="4" spans="1:5" s="92" customFormat="1">
       <c r="A4" s="23"/>
       <c r="B4" s="94">
         <v>44018</v>
       </c>
-      <c r="C4" s="102" t="s">
-        <v>73</v>
+      <c r="C4" s="101" t="s">
+        <v>72</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>54</v>
@@ -7253,132 +7487,160 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="5" spans="1:5" s="148" customFormat="1">
       <c r="A5" s="23"/>
       <c r="B5" s="94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="78">
         <v>780000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="6" spans="1:5" s="148" customFormat="1">
       <c r="A6" s="23"/>
       <c r="B6" s="94">
         <v>43897</v>
       </c>
-      <c r="C6" s="102" t="s">
-        <v>121</v>
+      <c r="C6" s="101" t="s">
+        <v>119</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="78">
         <v>16950000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="7" spans="1:5" s="148" customFormat="1">
       <c r="A7" s="23"/>
       <c r="B7" s="94">
         <v>43928</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>122</v>
+      <c r="C7" s="101" t="s">
+        <v>120</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="78">
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="8" spans="1:5" s="148" customFormat="1">
       <c r="A8" s="23"/>
       <c r="B8" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>122</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="78">
         <v>774000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="9" spans="1:5" s="149" customFormat="1">
       <c r="A9" s="23"/>
       <c r="B9" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>126</v>
+        <v>141</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>123</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="78">
         <v>1500000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="69" customFormat="1">
+    <row r="10" spans="1:5" s="149" customFormat="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="94">
+        <v>43838</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="78">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="149" customFormat="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="78">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="149" customFormat="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="176" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="78">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="149" customFormat="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="78">
+        <v>1375000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="69" customFormat="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="48">
-        <f>SUM(E4:E9)</f>
-        <v>27504000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" s="62"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="2:22">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="48">
+        <f>SUM(E4:E13)</f>
+        <v>31559000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+    </row>
+    <row r="17" spans="2:22" ht="12" customHeight="1">
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20"/>
@@ -7387,58 +7649,40 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="62"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="K25" s="62"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="8"/>
       <c r="K26" s="62"/>
     </row>
     <row r="27" spans="2:22">
@@ -7446,68 +7690,111 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
       <c r="K27" s="62"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" spans="2:22">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
+      <c r="K29" s="62"/>
     </row>
     <row r="30" spans="2:22">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
+      <c r="F30" s="8"/>
+      <c r="K30" s="62"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-    </row>
-    <row r="33" spans="15:19">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
       <c r="O33" s="62"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="62"/>
     </row>
-    <row r="34" spans="15:19">
+    <row r="34" spans="2:19">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
       <c r="O34" s="62"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="S34" s="62"/>
     </row>
+    <row r="35" spans="2:19">
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7524,38 +7811,38 @@
   <dimension ref="B2:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="29">
-      <c r="B2" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+    <row r="2" spans="2:8" ht="28.5">
+      <c r="B2" s="172" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
     </row>
     <row r="6" spans="2:8">
       <c r="C6"/>
@@ -7581,14 +7868,14 @@
       </c>
       <c r="D8" s="42">
         <f>'khám bệnh'!D37+'khám bệnh'!F37+'khám bệnh'!H37</f>
-        <v>28400000</v>
+        <v>42200000</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="47">
         <f>SUM(D8,D9)</f>
-        <v>42790000</v>
+        <v>62960000</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -7600,7 +7887,7 @@
       </c>
       <c r="D9" s="42">
         <f>'khám bệnh'!AC37</f>
-        <v>14390000</v>
+        <v>20760000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
@@ -7608,7 +7895,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E36)</f>
-        <v>118777000</v>
+        <v>107577000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -7626,8 +7913,8 @@
         <v>49</v>
       </c>
       <c r="H10" s="47">
-        <f>nợ!E10+nhập!F42</f>
-        <v>27504000</v>
+        <f>nợ!E14+nhập!F48</f>
+        <v>31559000</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -7639,7 +7926,7 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>178559000</v>
+        <v>198729000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
@@ -7649,12 +7936,12 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
     </row>
     <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
     <row r="16" spans="2:8">
@@ -7675,7 +7962,7 @@
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="183" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7683,13 +7970,16 @@
       </c>
       <c r="E17" s="42">
         <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="180"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7701,9 +7991,9 @@
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="180"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
@@ -7713,7 +8003,7 @@
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="180"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7733,8 +8023,8 @@
         <v>17</v>
       </c>
       <c r="E21" s="49">
-        <f>nhập!E42</f>
-        <v>16842000</v>
+        <f>nhập!E48</f>
+        <v>24872000</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1">
@@ -7749,65 +8039,80 @@
       </c>
       <c r="E22" s="43">
         <f>chi!E36</f>
-        <v>150000</v>
+        <v>3320000</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="181" t="s">
+      <c r="C23" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="182"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>16992000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="16" thickBot="1">
-      <c r="B26" s="175" t="s">
+        <v>28192000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B26" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
     </row>
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B27" s="177">
+      <c r="B27" s="180">
         <f>SUM(D11,-E23)</f>
-        <v>161567000</v>
-      </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
+        <v>170537000</v>
+      </c>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="182"/>
       <c r="O27" s="8"/>
     </row>
     <row r="28" spans="2:15">
+      <c r="J28">
+        <v>0</v>
+      </c>
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="2:15">
+      <c r="J29">
+        <v>0</v>
+      </c>
       <c r="O29" s="8"/>
     </row>
     <row r="30" spans="2:15">
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="2:15">
+      <c r="J31">
+        <v>0</v>
+      </c>
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="2:15">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15">
+    <row r="33" spans="10:15">
+      <c r="J33">
+        <v>0</v>
+      </c>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15">
+    <row r="34" spans="10:15">
+      <c r="J34">
+        <v>0</v>
+      </c>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15">
+    <row r="35" spans="10:15">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15">
+    <row r="36" spans="10:15">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -7828,35 +8133,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805A625-BAF6-47D2-B82C-BA12E06CE220}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="185" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
+      <c r="A1" s="188" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="176"/>
+      <c r="B2" s="179"/>
       <c r="D2" t="s">
         <v>59</v>
       </c>
@@ -7886,8 +8191,8 @@
         <v>57</v>
       </c>
       <c r="B5" s="47">
-        <f>chi!E36+nhập!E42</f>
-        <v>16992000</v>
+        <f>chi!E36+nhập!E48</f>
+        <v>28192000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>61</v>
@@ -7903,7 +8208,7 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>118777000</v>
+        <v>107577000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>62</v>
@@ -7914,32 +8219,33 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="183" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="184"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="186" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="187"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="47">
-        <v>22423000</v>
+        <f>B6</f>
+        <v>107577000</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="47">
         <v>0</v>
@@ -7947,42 +8253,43 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="97">
-        <v>94952702</v>
+        <v>142</v>
+      </c>
+      <c r="B11" s="150">
+        <v>71595706</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="47">
-        <v>30687006</v>
+        <f>E6</f>
+        <v>92142118</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="23"/>
       <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D12" s="47">
-        <v>89187956</v>
+        <v>94952702</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="47">
         <f>B10+B11</f>
-        <v>117375702</v>
+        <v>179172706</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="47">
         <f>D12+D11</f>
-        <v>119874962</v>
+        <v>187094820</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7996,6 +8303,9 @@
     </row>
     <row r="22" spans="2:4">
       <c r="C22" s="8"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8014,446 +8324,446 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF09C95-D193-4A28-AF37-76A74DD505F0}">
   <dimension ref="B1:AQ24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:AH16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.1640625" style="135" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="34" width="3.83203125" customWidth="1"/>
-    <col min="35" max="35" width="7.1640625" customWidth="1"/>
-    <col min="36" max="37" width="7.1640625" style="127" customWidth="1"/>
-    <col min="38" max="38" width="7.1640625" customWidth="1"/>
-    <col min="39" max="39" width="7.1640625" style="127" customWidth="1"/>
-    <col min="40" max="40" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="134" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="34" width="3.85546875" customWidth="1"/>
+    <col min="35" max="35" width="7.140625" customWidth="1"/>
+    <col min="36" max="37" width="7.140625" style="126" customWidth="1"/>
+    <col min="38" max="38" width="7.140625" customWidth="1"/>
+    <col min="39" max="39" width="7.140625" style="126" customWidth="1"/>
+    <col min="40" max="40" width="7.140625" customWidth="1"/>
     <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="127" customFormat="1">
-      <c r="B1" s="135"/>
+    <row r="1" spans="2:43" s="126" customFormat="1">
+      <c r="B1" s="134"/>
     </row>
     <row r="2" spans="2:43">
-      <c r="B2" s="135" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="136">
+      <c r="B2" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="135">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="127" customFormat="1">
-      <c r="B3" s="135"/>
-    </row>
-    <row r="4" spans="2:43" ht="47">
-      <c r="B4" s="192" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="192"/>
-      <c r="P4" s="192"/>
-      <c r="Q4" s="192"/>
-      <c r="R4" s="192"/>
-      <c r="S4" s="192"/>
-      <c r="T4" s="192"/>
-      <c r="U4" s="192"/>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192"/>
-      <c r="X4" s="192"/>
-    </row>
-    <row r="5" spans="2:43" s="127" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B5" s="147"/>
-      <c r="C5" s="146"/>
-    </row>
-    <row r="6" spans="2:43" ht="19">
-      <c r="B6" s="137"/>
-      <c r="C6" s="148">
+    <row r="3" spans="2:43" s="126" customFormat="1">
+      <c r="B3" s="134"/>
+    </row>
+    <row r="4" spans="2:43" ht="46.5">
+      <c r="B4" s="195" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+    </row>
+    <row r="5" spans="2:43" s="126" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B5" s="146"/>
+      <c r="C5" s="145"/>
+    </row>
+    <row r="6" spans="2:43" ht="18.75">
+      <c r="B6" s="136"/>
+      <c r="C6" s="147">
         <f>DATE($C$2,8,1)</f>
         <v>44044</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="127" customFormat="1">
-      <c r="B7" s="137"/>
-      <c r="C7" s="138"/>
-    </row>
-    <row r="8" spans="2:43" s="127" customFormat="1">
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
+    <row r="7" spans="2:43" s="126" customFormat="1">
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
+    </row>
+    <row r="8" spans="2:43" s="126" customFormat="1">
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
     </row>
     <row r="10" spans="2:43">
-      <c r="B10" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="193" t="s">
+      <c r="B10" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="194" t="s">
+      <c r="D10" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
-      <c r="N10" s="194"/>
-      <c r="O10" s="194"/>
-      <c r="P10" s="194"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="194"/>
-      <c r="S10" s="194"/>
-      <c r="T10" s="194"/>
-      <c r="U10" s="194"/>
-      <c r="V10" s="194"/>
-      <c r="W10" s="194"/>
-      <c r="X10" s="194"/>
-      <c r="Y10" s="194"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="194"/>
-      <c r="AC10" s="194"/>
-      <c r="AD10" s="194"/>
-      <c r="AE10" s="194"/>
-      <c r="AF10" s="194"/>
-      <c r="AG10" s="194"/>
-      <c r="AH10" s="194"/>
-      <c r="AI10" s="194" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ10" s="194"/>
-      <c r="AK10" s="194"/>
-      <c r="AL10" s="194"/>
-      <c r="AM10" s="194"/>
-      <c r="AN10" s="194"/>
-      <c r="AO10" s="134" t="s">
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="197"/>
+      <c r="Q10" s="197"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="197"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="197"/>
+      <c r="AH10" s="197"/>
+      <c r="AI10" s="197" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ10" s="197"/>
+      <c r="AK10" s="197"/>
+      <c r="AL10" s="197"/>
+      <c r="AM10" s="197"/>
+      <c r="AN10" s="197"/>
+      <c r="AO10" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="AP10" s="133"/>
-      <c r="AQ10" s="133"/>
+      <c r="AP10" s="132"/>
+      <c r="AQ10" s="132"/>
     </row>
     <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="139">
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="138">
         <f>C6</f>
         <v>44044</v>
       </c>
-      <c r="E11" s="139">
+      <c r="E11" s="138">
         <f>D11+1</f>
         <v>44045</v>
       </c>
-      <c r="F11" s="139">
+      <c r="F11" s="138">
         <f t="shared" ref="F11:AE11" si="0">E11+1</f>
         <v>44046</v>
       </c>
-      <c r="G11" s="139">
+      <c r="G11" s="138">
         <f t="shared" si="0"/>
         <v>44047</v>
       </c>
-      <c r="H11" s="139">
+      <c r="H11" s="138">
         <f t="shared" si="0"/>
         <v>44048</v>
       </c>
-      <c r="I11" s="139">
+      <c r="I11" s="138">
         <f t="shared" si="0"/>
         <v>44049</v>
       </c>
-      <c r="J11" s="139">
+      <c r="J11" s="138">
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="K11" s="139">
+      <c r="K11" s="138">
         <f t="shared" si="0"/>
         <v>44051</v>
       </c>
-      <c r="L11" s="139">
+      <c r="L11" s="138">
         <f t="shared" si="0"/>
         <v>44052</v>
       </c>
-      <c r="M11" s="139">
+      <c r="M11" s="138">
         <f t="shared" si="0"/>
         <v>44053</v>
       </c>
-      <c r="N11" s="139">
+      <c r="N11" s="138">
         <f t="shared" si="0"/>
         <v>44054</v>
       </c>
-      <c r="O11" s="139">
+      <c r="O11" s="138">
         <f t="shared" si="0"/>
         <v>44055</v>
       </c>
-      <c r="P11" s="139">
+      <c r="P11" s="138">
         <f t="shared" si="0"/>
         <v>44056</v>
       </c>
-      <c r="Q11" s="139">
+      <c r="Q11" s="138">
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="R11" s="139">
+      <c r="R11" s="138">
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="S11" s="139">
+      <c r="S11" s="138">
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="T11" s="139">
+      <c r="T11" s="138">
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="U11" s="139">
+      <c r="U11" s="138">
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="V11" s="139">
+      <c r="V11" s="138">
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="W11" s="139">
+      <c r="W11" s="138">
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="X11" s="139">
+      <c r="X11" s="138">
         <f t="shared" si="0"/>
         <v>44064</v>
       </c>
-      <c r="Y11" s="139">
+      <c r="Y11" s="138">
         <f t="shared" si="0"/>
         <v>44065</v>
       </c>
-      <c r="Z11" s="139">
+      <c r="Z11" s="138">
         <f t="shared" si="0"/>
         <v>44066</v>
       </c>
-      <c r="AA11" s="139">
+      <c r="AA11" s="138">
         <f t="shared" si="0"/>
         <v>44067</v>
       </c>
-      <c r="AB11" s="139">
+      <c r="AB11" s="138">
         <f t="shared" si="0"/>
         <v>44068</v>
       </c>
-      <c r="AC11" s="139">
+      <c r="AC11" s="138">
         <f t="shared" si="0"/>
         <v>44069</v>
       </c>
-      <c r="AD11" s="139">
+      <c r="AD11" s="138">
         <f t="shared" si="0"/>
         <v>44070</v>
       </c>
-      <c r="AE11" s="139">
+      <c r="AE11" s="138">
         <f t="shared" si="0"/>
         <v>44071</v>
       </c>
-      <c r="AF11" s="139">
+      <c r="AF11" s="138">
         <f>IF(DAY(AE11+1)=DAY(D11),””,AE11+1)</f>
         <v>44072</v>
       </c>
-      <c r="AG11" s="139">
+      <c r="AG11" s="138">
         <f>IF(AF11="","",IF(DAY(AF11+1)=DAY(D11),"",AF11+1))</f>
         <v>44073</v>
       </c>
-      <c r="AH11" s="139">
+      <c r="AH11" s="138">
         <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
         <v>44074</v>
       </c>
-      <c r="AI11" s="186" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ11" s="188" t="s">
+      <c r="AI11" s="189" t="s">
         <v>112</v>
       </c>
-      <c r="AK11" s="195" t="s">
+      <c r="AJ11" s="191" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK11" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL11" s="198" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM11" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="AL11" s="195" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM11" s="186" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN11" s="188" t="s">
+      <c r="AN11" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="AO11" s="190"/>
-    </row>
-    <row r="12" spans="2:43" s="140" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B12" s="193"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="141" t="str">
+      <c r="AO11" s="193"/>
+    </row>
+    <row r="12" spans="2:43" s="139" customFormat="1" ht="50.25" customHeight="1">
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="140" t="str">
         <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. bảy</v>
       </c>
-      <c r="E12" s="141" t="str">
+      <c r="E12" s="140" t="str">
         <f t="shared" ref="E12:AE12" si="1">CHOOSE(WEEKDAY(E11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="F12" s="141" t="str">
+      <c r="F12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="G12" s="141" t="str">
+      <c r="G12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="H12" s="141" t="str">
+      <c r="H12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="I12" s="141" t="str">
+      <c r="I12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="J12" s="141" t="str">
+      <c r="J12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="K12" s="141" t="str">
+      <c r="K12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="L12" s="141" t="str">
+      <c r="L12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="M12" s="141" t="str">
+      <c r="M12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="N12" s="141" t="str">
+      <c r="N12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="O12" s="141" t="str">
+      <c r="O12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="P12" s="141" t="str">
+      <c r="P12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="Q12" s="141" t="str">
+      <c r="Q12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="R12" s="141" t="str">
+      <c r="R12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="S12" s="141" t="str">
+      <c r="S12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="T12" s="141" t="str">
+      <c r="T12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="U12" s="141" t="str">
+      <c r="U12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="V12" s="141" t="str">
+      <c r="V12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="W12" s="141" t="str">
+      <c r="W12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="X12" s="141" t="str">
+      <c r="X12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="Y12" s="141" t="str">
+      <c r="Y12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="Z12" s="141" t="str">
+      <c r="Z12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="AA12" s="141" t="str">
+      <c r="AA12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="AB12" s="141" t="str">
+      <c r="AB12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="AC12" s="141" t="str">
+      <c r="AC12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="AD12" s="141" t="str">
+      <c r="AD12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="AE12" s="141" t="str">
+      <c r="AE12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="AF12" s="141" t="str">
+      <c r="AF12" s="140" t="str">
         <f t="shared" ref="AF12" si="2">CHOOSE(WEEKDAY(AF11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. bảy</v>
       </c>
-      <c r="AG12" s="141" t="str">
+      <c r="AG12" s="140" t="str">
         <f t="shared" ref="AG12" si="3">CHOOSE(WEEKDAY(AG11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="AH12" s="141" t="str">
+      <c r="AH12" s="140" t="str">
         <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. hai</v>
       </c>
-      <c r="AI12" s="187"/>
-      <c r="AJ12" s="189"/>
-      <c r="AK12" s="196"/>
-      <c r="AL12" s="196"/>
-      <c r="AM12" s="187"/>
-      <c r="AN12" s="189"/>
-      <c r="AO12" s="191"/>
+      <c r="AI12" s="190"/>
+      <c r="AJ12" s="192"/>
+      <c r="AK12" s="199"/>
+      <c r="AL12" s="199"/>
+      <c r="AM12" s="190"/>
+      <c r="AN12" s="192"/>
+      <c r="AO12" s="194"/>
     </row>
     <row r="13" spans="2:43">
-      <c r="B13" s="128">
+      <c r="B13" s="127">
         <v>1</v>
       </c>
-      <c r="C13" s="128" t="s">
-        <v>116</v>
+      <c r="C13" s="127" t="s">
+        <v>114</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
@@ -8465,232 +8775,224 @@
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z13" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI13" s="144">
+        <v>100</v>
+      </c>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="143">
         <f>COUNTIF(D13:AH13,D20)</f>
-        <v>22</v>
-      </c>
-      <c r="AJ13" s="144">
+        <v>15</v>
+      </c>
+      <c r="AJ13" s="143">
         <f>COUNTIF(D13:AH13,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="144">
+      <c r="AK13" s="143">
         <f>COUNTIF(D13:AH13,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="144">
+      <c r="AL13" s="143">
         <f>COUNTIF(D13:AH13,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="144">
+      <c r="AM13" s="143">
         <f>COUNTIF(D13:AH13,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="145">
+      <c r="AN13" s="144">
         <f>AI13+AJ13*0.5+AK13+AL13+AM13</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AO13" s="23"/>
     </row>
     <row r="14" spans="2:43">
-      <c r="B14" s="128">
+      <c r="B14" s="127">
         <v>2</v>
       </c>
-      <c r="C14" s="128" t="s">
-        <v>118</v>
+      <c r="C14" s="127" t="s">
+        <v>116</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
       <c r="T14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AD14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG14" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI14" s="144">
+        <v>100</v>
+      </c>
+      <c r="AI14" s="143">
         <f>COUNTIF(D14:AH14,D20)</f>
-        <v>31</v>
-      </c>
-      <c r="AJ14" s="144">
+        <v>25</v>
+      </c>
+      <c r="AJ14" s="143">
         <f>COUNTIF(D14:AH14,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="144">
+      <c r="AK14" s="143">
         <f>COUNTIF(D14:AH14,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="144">
+      <c r="AL14" s="143">
         <f>COUNTIF(D14:AH14,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="144">
+      <c r="AM14" s="143">
         <f>COUNTIF(D14:AH14,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="145">
+      <c r="AN14" s="144">
         <f>AI14+AJ14*0.5+AK14+AL14+AM14</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AO14" s="23"/>
     </row>
     <row r="15" spans="2:43">
-      <c r="B15" s="128">
+      <c r="B15" s="127">
         <v>3</v>
       </c>
-      <c r="C15" s="128" t="s">
-        <v>119</v>
+      <c r="C15" s="127" t="s">
+        <v>117</v>
       </c>
       <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="H15" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="L15" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+      <c r="N15" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="Q15" s="34">
+        <v>4</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
+      <c r="U15" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="V15" s="34"/>
       <c r="W15" s="34"/>
       <c r="X15" s="34"/>
       <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
+      <c r="Z15" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="AA15" s="34"/>
       <c r="AB15" s="34"/>
       <c r="AC15" s="34"/>
@@ -8699,98 +9001,116 @@
       <c r="AF15" s="34"/>
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
-      <c r="AI15" s="144">
+      <c r="AI15" s="143">
         <f>COUNTIF(D15:AH15,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="144">
+        <v>8</v>
+      </c>
+      <c r="AJ15" s="143">
         <f>COUNTIF(D15:AH15,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="144">
+      <c r="AK15" s="143">
         <f>COUNTIF(D15:AH15,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="144">
+      <c r="AL15" s="143">
         <f>COUNTIF(D15:AH15,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="144">
+      <c r="AM15" s="143">
         <f>COUNTIF(D15:AH15,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="145">
+      <c r="AN15" s="144">
         <f t="shared" ref="AN15:AN16" si="5">AI15+AJ15*0.5+AK15+AL15+AM15</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="127" customFormat="1">
-      <c r="B16" s="128">
+    <row r="16" spans="2:43" s="126" customFormat="1">
+      <c r="B16" s="127">
         <v>4</v>
       </c>
-      <c r="C16" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="34"/>
+      <c r="C16" s="127" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
+      <c r="M16" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
+      <c r="O16" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
+      <c r="S16" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
+      <c r="Y16" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
       <c r="AC16" s="34"/>
       <c r="AD16" s="34"/>
       <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="144">
+      <c r="AF16" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG16" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH16" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI16" s="143">
         <f>COUNTIF(D16:AH16,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="144">
+        <v>9</v>
+      </c>
+      <c r="AJ16" s="143">
         <f>COUNTIF(D16:AH16,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="144">
+      <c r="AK16" s="143">
         <f>COUNTIF(D16:AH16,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="144">
+      <c r="AL16" s="143">
         <f>COUNTIF(D16:AH16,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="144">
+      <c r="AM16" s="143">
         <f>COUNTIF(D16:AH16,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="145">
+      <c r="AN16" s="144">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO16" s="23"/>
     </row>
     <row r="17" spans="2:41">
-      <c r="B17" s="128"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="34" t="s">
         <v>34</v>
       </c>
@@ -8825,52 +9145,52 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
       <c r="AH17" s="34"/>
-      <c r="AI17" s="128"/>
-      <c r="AJ17" s="128"/>
-      <c r="AK17" s="128"/>
-      <c r="AL17" s="128"/>
-      <c r="AM17" s="128"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="127"/>
+      <c r="AM17" s="127"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
-    <row r="20" spans="2:41" ht="16">
-      <c r="C20" s="143" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="142" t="s">
+    <row r="20" spans="2:41">
+      <c r="C20" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="141" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:41">
+      <c r="C21" s="142" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="141" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:41">
+      <c r="C22" s="142" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="141" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:41" ht="16">
-      <c r="C21" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="142" t="s">
+    <row r="23" spans="2:41">
+      <c r="C23" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="141" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:41" ht="16">
-      <c r="C22" s="143" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="142" t="s">
+    <row r="24" spans="2:41">
+      <c r="C24" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="141" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:41" ht="16">
-      <c r="C23" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="142" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:41" ht="16">
-      <c r="C24" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="142" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -8888,14 +9208,25 @@
     <mergeCell ref="AK11:AK12"/>
     <mergeCell ref="AL11:AL12"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:AH17">
+  <conditionalFormatting sqref="D11:AH12 D17:AH17">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>IF(D$11="",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>IF(WEEKDAY(D$11)=7,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>IF(WEEKDAY(D$11)=1,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:AH16">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>IF(D$11="",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(WEEKDAY(D$11)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>IF(WEEKDAY(D$11)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
+++ b/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690C823-0BFE-410F-816F-E24793A1285F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D09ED4F-2604-42DF-9D6C-A9B71F7ED196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -1184,21 +1184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1210,6 +1195,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1221,6 +1209,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1229,6 +1220,15 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1780,111 +1780,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="36">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="153"/>
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="153"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="155" t="s">
+      <c r="A4" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="153" t="s">
+      <c r="D4" s="155"/>
+      <c r="E4" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="151" t="s">
+      <c r="F4" s="165"/>
+      <c r="G4" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="151"/>
-      <c r="I4" s="152" t="s">
+      <c r="H4" s="155"/>
+      <c r="I4" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="152"/>
-      <c r="K4" s="151" t="s">
+      <c r="J4" s="160"/>
+      <c r="K4" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="151"/>
-      <c r="M4" s="152" t="s">
+      <c r="L4" s="155"/>
+      <c r="M4" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="152"/>
-      <c r="O4" s="160" t="s">
+      <c r="N4" s="160"/>
+      <c r="O4" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="151" t="s">
+      <c r="P4" s="156"/>
+      <c r="Q4" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151" t="s">
+      <c r="R4" s="155"/>
+      <c r="S4" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151" t="s">
+      <c r="T4" s="155"/>
+      <c r="U4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151" t="s">
+      <c r="V4" s="155"/>
+      <c r="W4" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="161" t="s">
+      <c r="X4" s="155"/>
+      <c r="Y4" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="165" t="s">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="162" t="s">
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="159" t="s">
+      <c r="AD4" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="151" t="s">
+      <c r="AE4" s="155" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="151"/>
-      <c r="B5" s="155"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="166"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1963,9 +1963,9 @@
       <c r="AB5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="151"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="154"/>
+      <c r="AE5" s="155"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -5514,73 +5514,73 @@
       <c r="B38" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="164">
+      <c r="C38" s="161">
         <v>80</v>
       </c>
-      <c r="D38" s="164"/>
+      <c r="D38" s="161"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="156"/>
-      <c r="R38" s="156"/>
-      <c r="S38" s="156"/>
-      <c r="T38" s="156"/>
-      <c r="U38" s="156"/>
-      <c r="V38" s="156"/>
-      <c r="W38" s="156"/>
-      <c r="X38" s="156"/>
-      <c r="Y38" s="156"/>
-      <c r="Z38" s="156"/>
-      <c r="AA38" s="156"/>
-      <c r="AB38" s="156"/>
-      <c r="AC38" s="156"/>
-      <c r="AD38" s="156"/>
-      <c r="AE38" s="156"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="151"/>
+      <c r="V38" s="151"/>
+      <c r="W38" s="151"/>
+      <c r="X38" s="151"/>
+      <c r="Y38" s="151"/>
+      <c r="Z38" s="151"/>
+      <c r="AA38" s="151"/>
+      <c r="AB38" s="151"/>
+      <c r="AC38" s="151"/>
+      <c r="AD38" s="151"/>
+      <c r="AE38" s="151"/>
     </row>
     <row r="39" spans="1:35" s="11" customFormat="1">
       <c r="B39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="157">
+      <c r="C39" s="152">
         <v>179</v>
       </c>
-      <c r="D39" s="157"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="91"/>
       <c r="F39" s="91"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="156"/>
-      <c r="O39" s="156"/>
-      <c r="P39" s="156"/>
-      <c r="Q39" s="156"/>
-      <c r="R39" s="156"/>
-      <c r="S39" s="156"/>
-      <c r="T39" s="156"/>
-      <c r="U39" s="156"/>
-      <c r="V39" s="156"/>
-      <c r="W39" s="156"/>
-      <c r="X39" s="156"/>
-      <c r="Y39" s="156"/>
-      <c r="Z39" s="156"/>
-      <c r="AA39" s="156"/>
-      <c r="AB39" s="156"/>
-      <c r="AC39" s="156"/>
-      <c r="AD39" s="156"/>
-      <c r="AE39" s="156"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="151"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151"/>
+      <c r="S39" s="151"/>
+      <c r="T39" s="151"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="151"/>
+      <c r="W39" s="151"/>
+      <c r="X39" s="151"/>
+      <c r="Y39" s="151"/>
+      <c r="Z39" s="151"/>
+      <c r="AA39" s="151"/>
+      <c r="AB39" s="151"/>
+      <c r="AC39" s="151"/>
+      <c r="AD39" s="151"/>
+      <c r="AE39" s="151"/>
       <c r="AH39" s="11" t="s">
         <v>9</v>
       </c>
@@ -5599,6 +5599,13 @@
   </sheetData>
   <autoFilter ref="AE4:AE39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G39:AE39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AE2"/>
@@ -5615,13 +5622,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5640,7 +5640,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5691,11 +5691,11 @@
         <v>1453398</v>
       </c>
       <c r="D4" s="107">
-        <v>2610000</v>
+        <v>2365000</v>
       </c>
       <c r="E4" s="104">
         <f>SUM(D4,-C4)</f>
-        <v>1156602</v>
+        <v>911602</v>
       </c>
       <c r="F4" s="106"/>
     </row>
@@ -5729,11 +5729,11 @@
         <v>1734537</v>
       </c>
       <c r="D6" s="107">
-        <v>2365000</v>
+        <v>2610000</v>
       </c>
       <c r="E6" s="104">
         <f t="shared" si="0"/>
-        <v>630463</v>
+        <v>875463</v>
       </c>
       <c r="F6" s="106"/>
     </row>
@@ -5748,11 +5748,11 @@
         <v>966524</v>
       </c>
       <c r="D7" s="104">
-        <v>2649000</v>
+        <v>1849000</v>
       </c>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>1682476</v>
+        <v>882476</v>
       </c>
       <c r="F7" s="106"/>
     </row>
@@ -5767,11 +5767,11 @@
         <v>612091</v>
       </c>
       <c r="D8" s="104">
-        <v>1475000</v>
+        <v>975000</v>
       </c>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>862909</v>
+        <v>362909</v>
       </c>
       <c r="F8" s="61"/>
     </row>
@@ -5786,11 +5786,11 @@
         <v>2180782</v>
       </c>
       <c r="D9" s="104">
-        <v>5365000</v>
+        <v>3435000</v>
       </c>
       <c r="E9" s="104">
         <f t="shared" si="0"/>
-        <v>3184218</v>
+        <v>1254218</v>
       </c>
       <c r="F9" s="61"/>
     </row>
@@ -5805,11 +5805,11 @@
         <v>552234</v>
       </c>
       <c r="D10" s="104">
-        <v>1175000</v>
+        <v>745000</v>
       </c>
       <c r="E10" s="104">
         <f t="shared" si="0"/>
-        <v>622766</v>
+        <v>192766</v>
       </c>
       <c r="F10" s="61"/>
     </row>
@@ -5824,11 +5824,11 @@
         <v>789153</v>
       </c>
       <c r="D11" s="104">
-        <v>2120000</v>
+        <v>1120000</v>
       </c>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>1330847</v>
+        <v>330847</v>
       </c>
       <c r="F11" s="61"/>
     </row>
@@ -5843,11 +5843,11 @@
         <v>2398171</v>
       </c>
       <c r="D12" s="104">
-        <v>8070000</v>
+        <v>3670000</v>
       </c>
       <c r="E12" s="104">
         <f t="shared" si="0"/>
-        <v>5671829</v>
+        <v>1271829</v>
       </c>
       <c r="F12" s="61"/>
     </row>
@@ -5862,11 +5862,11 @@
         <v>1545392</v>
       </c>
       <c r="D13" s="104">
-        <v>4805000</v>
+        <v>2305000</v>
       </c>
       <c r="E13" s="104">
         <f t="shared" si="0"/>
-        <v>3259608</v>
+        <v>759608</v>
       </c>
       <c r="F13" s="61"/>
     </row>
@@ -5881,11 +5881,11 @@
         <v>1018647</v>
       </c>
       <c r="D14" s="104">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="E14" s="104">
         <f t="shared" si="0"/>
-        <v>1481353</v>
+        <v>481353</v>
       </c>
       <c r="F14" s="61"/>
     </row>
@@ -5900,11 +5900,11 @@
         <v>1786042</v>
       </c>
       <c r="D15" s="104">
-        <v>4685000</v>
+        <v>2785000</v>
       </c>
       <c r="E15" s="104">
         <f t="shared" si="0"/>
-        <v>2898958</v>
+        <v>998958</v>
       </c>
       <c r="F15" s="61"/>
     </row>
@@ -5919,11 +5919,11 @@
         <v>2663893</v>
       </c>
       <c r="D16" s="104">
-        <v>5685000</v>
+        <v>4085000</v>
       </c>
       <c r="E16" s="104">
         <f t="shared" si="0"/>
-        <v>3021107</v>
+        <v>1421107</v>
       </c>
       <c r="F16" s="61"/>
     </row>
@@ -5938,11 +5938,11 @@
         <v>1638483</v>
       </c>
       <c r="D17" s="104">
-        <v>5415000</v>
+        <v>3015000</v>
       </c>
       <c r="E17" s="104">
         <f t="shared" si="0"/>
-        <v>3776517</v>
+        <v>1376517</v>
       </c>
       <c r="F17" s="61"/>
     </row>
@@ -5957,11 +5957,11 @@
         <v>1695949</v>
       </c>
       <c r="D18" s="104">
-        <v>7645000</v>
+        <v>3845000</v>
       </c>
       <c r="E18" s="104">
         <f t="shared" si="0"/>
-        <v>5949051</v>
+        <v>2149051</v>
       </c>
       <c r="F18" s="61"/>
     </row>
@@ -5976,11 +5976,11 @@
         <v>2303202</v>
       </c>
       <c r="D19" s="104">
-        <v>9370000</v>
+        <v>4074000</v>
       </c>
       <c r="E19" s="104">
         <f t="shared" si="0"/>
-        <v>7066798</v>
+        <v>1770798</v>
       </c>
       <c r="F19" s="61"/>
     </row>
@@ -5995,11 +5995,11 @@
         <v>821729</v>
       </c>
       <c r="D20" s="104">
-        <v>3450000</v>
+        <v>2220000</v>
       </c>
       <c r="E20" s="104">
         <f t="shared" si="0"/>
-        <v>2628271</v>
+        <v>1398271</v>
       </c>
       <c r="F20" s="61"/>
     </row>
@@ -6014,11 +6014,11 @@
         <v>388915</v>
       </c>
       <c r="D21" s="104">
-        <v>665000</v>
+        <v>465000</v>
       </c>
       <c r="E21" s="104">
         <f t="shared" si="0"/>
-        <v>276085</v>
+        <v>76085</v>
       </c>
       <c r="F21" s="61"/>
     </row>
@@ -6033,11 +6033,11 @@
         <v>1925399</v>
       </c>
       <c r="D22" s="104">
-        <v>5797000</v>
+        <v>3597000</v>
       </c>
       <c r="E22" s="104">
         <f t="shared" si="0"/>
-        <v>3871601</v>
+        <v>1671601</v>
       </c>
       <c r="F22" s="61"/>
     </row>
@@ -6052,11 +6052,11 @@
         <v>654558</v>
       </c>
       <c r="D23" s="104">
-        <v>2714000</v>
+        <v>1114000</v>
       </c>
       <c r="E23" s="104">
         <f t="shared" si="0"/>
-        <v>2059442</v>
+        <v>459442</v>
       </c>
       <c r="F23" s="61"/>
     </row>
@@ -6071,11 +6071,11 @@
         <v>268800</v>
       </c>
       <c r="D24" s="104">
-        <v>1580000</v>
+        <v>380000</v>
       </c>
       <c r="E24" s="104">
         <f t="shared" si="0"/>
-        <v>1311200</v>
+        <v>111200</v>
       </c>
       <c r="F24" s="61"/>
     </row>
@@ -6090,11 +6090,11 @@
         <v>1744555</v>
       </c>
       <c r="D25" s="104">
-        <v>3240000</v>
+        <v>940000</v>
       </c>
       <c r="E25" s="104">
         <f t="shared" si="0"/>
-        <v>1495445</v>
+        <v>-804555</v>
       </c>
       <c r="F25" s="61"/>
     </row>
@@ -6109,11 +6109,11 @@
         <v>1551863</v>
       </c>
       <c r="D26" s="104">
-        <v>5570000</v>
+        <v>2160000</v>
       </c>
       <c r="E26" s="104">
         <f t="shared" si="0"/>
-        <v>4018137</v>
+        <v>608137</v>
       </c>
       <c r="F26" s="105"/>
     </row>
@@ -6128,11 +6128,11 @@
         <v>1524979</v>
       </c>
       <c r="D27" s="104">
-        <v>4415000</v>
+        <v>2515000</v>
       </c>
       <c r="E27" s="104">
         <f t="shared" si="0"/>
-        <v>2890021</v>
+        <v>990021</v>
       </c>
       <c r="F27" s="105"/>
     </row>
@@ -6147,11 +6147,11 @@
         <v>1343806</v>
       </c>
       <c r="D28" s="104">
-        <v>4704000</v>
+        <v>2104000</v>
       </c>
       <c r="E28" s="104">
         <f t="shared" si="0"/>
-        <v>3360194</v>
+        <v>760194</v>
       </c>
       <c r="F28" s="105"/>
     </row>
@@ -6166,11 +6166,11 @@
         <v>947764</v>
       </c>
       <c r="D29" s="104">
-        <v>3135000</v>
+        <v>1935000</v>
       </c>
       <c r="E29" s="104">
         <f t="shared" si="0"/>
-        <v>2187236</v>
+        <v>987236</v>
       </c>
       <c r="F29" s="22"/>
     </row>
@@ -6185,11 +6185,11 @@
         <v>404524</v>
       </c>
       <c r="D30" s="104">
-        <v>3065000</v>
+        <v>865000</v>
       </c>
       <c r="E30" s="104">
         <f t="shared" si="0"/>
-        <v>2660476</v>
+        <v>460476</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -6204,11 +6204,11 @@
         <v>1176061</v>
       </c>
       <c r="D31" s="104">
-        <v>3590000</v>
+        <v>1790000</v>
       </c>
       <c r="E31" s="104">
         <f t="shared" si="0"/>
-        <v>2413939</v>
+        <v>613939</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -6223,11 +6223,11 @@
         <v>1399667</v>
       </c>
       <c r="D32" s="104">
-        <v>6345000</v>
+        <v>2815000</v>
       </c>
       <c r="E32" s="104">
         <f t="shared" si="0"/>
-        <v>4945333</v>
+        <v>1415333</v>
       </c>
       <c r="F32" s="34"/>
     </row>
@@ -6242,11 +6242,11 @@
         <v>2701903</v>
       </c>
       <c r="D33" s="104">
-        <v>11690000</v>
+        <v>4550000</v>
       </c>
       <c r="E33" s="104">
         <f t="shared" si="0"/>
-        <v>8988097</v>
+        <v>1848097</v>
       </c>
       <c r="F33" s="34"/>
     </row>
@@ -6259,11 +6259,11 @@
         <v>1427680</v>
       </c>
       <c r="D34" s="104">
-        <v>6755000</v>
+        <v>3955000</v>
       </c>
       <c r="E34" s="104">
         <f t="shared" si="0"/>
-        <v>5327320</v>
+        <v>2527320</v>
       </c>
       <c r="F34" s="34"/>
     </row>
@@ -6280,11 +6280,11 @@
       </c>
       <c r="D35" s="43">
         <f>SUM(D4:D34)</f>
-        <v>135769000</v>
+        <v>72903000</v>
       </c>
       <c r="E35" s="43">
         <f>SUM(E4:E34)</f>
-        <v>92142118</v>
+        <v>29276118</v>
       </c>
       <c r="F35" s="23"/>
     </row>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E36)</f>
-        <v>107577000</v>
+        <v>44711000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D35</f>
-        <v>135769000</v>
+        <v>72903000</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>198729000</v>
+        <v>135863000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
@@ -8066,7 +8066,7 @@
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
       <c r="B27" s="180">
         <f>SUM(D11,-E23)</f>
-        <v>170537000</v>
+        <v>107671000</v>
       </c>
       <c r="C27" s="181"/>
       <c r="D27" s="181"/>
@@ -8135,7 +8135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805A625-BAF6-47D2-B82C-BA12E06CE220}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -8176,14 +8176,14 @@
       </c>
       <c r="B4" s="47">
         <f>E4</f>
-        <v>135769000</v>
+        <v>72903000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="47">
         <f>thuốc!D35</f>
-        <v>135769000</v>
+        <v>72903000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8208,14 +8208,14 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>107577000</v>
+        <v>44711000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="47">
         <f>E4-E5</f>
-        <v>92142118</v>
+        <v>29276118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="B10" s="47">
         <f>B6</f>
-        <v>107577000</v>
+        <v>44711000</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>68</v>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="D11" s="47">
         <f>E6</f>
-        <v>92142118</v>
+        <v>29276118</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8282,14 +8282,14 @@
       </c>
       <c r="B13" s="47">
         <f>B10+B11</f>
-        <v>179172706</v>
+        <v>116306706</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="47">
         <f>D12+D11</f>
-        <v>187094820</v>
+        <v>124228820</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8324,7 +8324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF09C95-D193-4A28-AF37-76A74DD505F0}">
   <dimension ref="B1:AQ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:AH16"/>
     </sheetView>
   </sheetViews>

--- a/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
+++ b/Báo cáo/tháng 8 - 2020/báo cáo bán hàng tháng 8-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D09ED4F-2604-42DF-9D6C-A9B71F7ED196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B6375-123E-40C6-9EB5-DC65EE607783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="4560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -486,7 +476,7 @@
     <numFmt numFmtId="169" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
     <numFmt numFmtId="170" formatCode="dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,9 +929,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1024,9 +1011,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1184,6 +1168,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1195,9 +1200,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,9 +1211,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,15 +1219,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1739,7 +1729,7 @@
       <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
@@ -1750,11 +1740,11 @@
     <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="51" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="50" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="51" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="50" customWidth="1"/>
     <col min="15" max="15" width="4.7109375" style="9" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
@@ -1779,173 +1769,173 @@
     <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="36">
-      <c r="B2" s="153" t="s">
+    <row r="2" spans="1:46" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="153"/>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="166" t="s">
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="155"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="151"/>
+      <c r="E4" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="155" t="s">
+      <c r="F4" s="154"/>
+      <c r="G4" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="160" t="s">
+      <c r="H4" s="151"/>
+      <c r="I4" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="160"/>
-      <c r="K4" s="155" t="s">
+      <c r="J4" s="152"/>
+      <c r="K4" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="155"/>
-      <c r="M4" s="160" t="s">
+      <c r="L4" s="151"/>
+      <c r="M4" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="160"/>
-      <c r="O4" s="156" t="s">
+      <c r="N4" s="152"/>
+      <c r="O4" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="155" t="s">
+      <c r="P4" s="160"/>
+      <c r="Q4" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155" t="s">
+      <c r="R4" s="151"/>
+      <c r="S4" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155" t="s">
+      <c r="T4" s="151"/>
+      <c r="U4" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155" t="s">
+      <c r="V4" s="151"/>
+      <c r="W4" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="157" t="s">
+      <c r="X4" s="151"/>
+      <c r="Y4" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="162" t="s">
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="158" t="s">
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="154" t="s">
+      <c r="AD4" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="155" t="s">
+      <c r="AE4" s="151" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="50" t="s">
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="151"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="128" t="s">
+      <c r="F5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="128" t="s">
+      <c r="I5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="119" t="s">
+      <c r="K5" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="128" t="s">
+      <c r="M5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="128" t="s">
+      <c r="N5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="54" t="s">
+      <c r="Q5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="R5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="56" t="s">
+      <c r="T5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="54" t="s">
+      <c r="U5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="V5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="54" t="s">
+      <c r="W5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="X5" s="13" t="s">
@@ -1957,15 +1947,15 @@
       <c r="Z5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" s="79" t="s">
+      <c r="AA5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="79" t="s">
+      <c r="AB5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="154"/>
-      <c r="AE5" s="155"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="151"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -1982,7 +1972,7 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1996,10 +1986,10 @@
         <f>PRODUCT(C6,200000)</f>
         <v>800000</v>
       </c>
-      <c r="E6" s="129">
-        <v>0</v>
-      </c>
-      <c r="F6" s="129">
+      <c r="E6" s="127">
+        <v>0</v>
+      </c>
+      <c r="F6" s="127">
         <f>PRODUCT(E6,100000)</f>
         <v>0</v>
       </c>
@@ -2010,24 +2000,24 @@
         <f>PRODUCT(G6,300000)</f>
         <v>1200000</v>
       </c>
-      <c r="I6" s="131">
-        <v>0</v>
-      </c>
-      <c r="J6" s="131">
+      <c r="I6" s="129">
+        <v>0</v>
+      </c>
+      <c r="J6" s="129">
         <f>PRODUCT(I6,150000)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="119">
+      <c r="K6" s="117">
         <v>0</v>
       </c>
       <c r="L6" s="40">
         <f>PRODUCT(K6,300000)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="131">
-        <v>0</v>
-      </c>
-      <c r="N6" s="131">
+      <c r="M6" s="129">
+        <v>0</v>
+      </c>
+      <c r="N6" s="129">
         <f>PRODUCT(M7,150000)</f>
         <v>0</v>
       </c>
@@ -2073,7 +2063,7 @@
         <f>PRODUCT(Y6,700000)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="79">
+      <c r="AA6" s="78">
         <v>0</v>
       </c>
       <c r="AB6" s="18">
@@ -2088,58 +2078,58 @@
         <f>SUM(D6,H6,AC6,F6,J6,L6,N6)</f>
         <v>3500000</v>
       </c>
-      <c r="AE6" s="64"/>
-    </row>
-    <row r="7" spans="1:46">
+      <c r="AE6" s="63"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <v>44045</v>
       </c>
-      <c r="C7" s="119">
+      <c r="C7" s="117">
         <v>5</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ref="D7:D36" si="0">PRODUCT(C7,200000)</f>
         <v>1000000</v>
       </c>
-      <c r="E7" s="129">
-        <v>0</v>
-      </c>
-      <c r="F7" s="129">
+      <c r="E7" s="127">
+        <v>0</v>
+      </c>
+      <c r="F7" s="127">
         <f t="shared" ref="F7:F36" si="1">PRODUCT(E7,100000)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="119">
+      <c r="G7" s="117">
         <v>4</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" ref="H7:H36" si="2">PRODUCT(G7,300000)</f>
         <v>1200000</v>
       </c>
-      <c r="I7" s="131">
-        <v>0</v>
-      </c>
-      <c r="J7" s="131">
+      <c r="I7" s="129">
+        <v>0</v>
+      </c>
+      <c r="J7" s="129">
         <f t="shared" ref="J7:J36" si="3">PRODUCT(I7,150000)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="119">
+      <c r="K7" s="117">
         <v>0</v>
       </c>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L36" si="4">PRODUCT(K7,300000)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="131">
-        <v>0</v>
-      </c>
-      <c r="N7" s="131">
+      <c r="M7" s="129">
+        <v>0</v>
+      </c>
+      <c r="N7" s="129">
         <f t="shared" ref="N7:N36" si="5">PRODUCT(M8,150000)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="120">
+      <c r="O7" s="118">
         <v>0</v>
       </c>
       <c r="P7" s="41">
@@ -2174,14 +2164,14 @@
         <f t="shared" ref="X7:X36" si="10">PRODUCT(W7,50000)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="100">
+      <c r="Y7" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="98">
         <f t="shared" ref="Z7:Z36" si="11">PRODUCT(Y7,700000)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="100">
+      <c r="AA7" s="98">
         <v>0</v>
       </c>
       <c r="AB7" s="18">
@@ -2196,58 +2186,58 @@
         <f t="shared" ref="AD7:AD36" si="14">SUM(D7,H7,AC7,F7,J7,L7,N7)</f>
         <v>3700000</v>
       </c>
-      <c r="AE7" s="77"/>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AE7" s="76"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <v>44046</v>
       </c>
-      <c r="C8" s="119">
+      <c r="C8" s="117">
         <v>7</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E8" s="129">
-        <v>0</v>
-      </c>
-      <c r="F8" s="129">
+      <c r="E8" s="127">
+        <v>0</v>
+      </c>
+      <c r="F8" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="119">
+      <c r="G8" s="117">
         <v>2</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I8" s="131">
-        <v>0</v>
-      </c>
-      <c r="J8" s="131">
+      <c r="I8" s="129">
+        <v>0</v>
+      </c>
+      <c r="J8" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="119">
+      <c r="K8" s="117">
         <v>0</v>
       </c>
       <c r="L8" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="131">
-        <v>0</v>
-      </c>
-      <c r="N8" s="131">
+      <c r="M8" s="129">
+        <v>0</v>
+      </c>
+      <c r="N8" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="120">
+      <c r="O8" s="118">
         <v>0</v>
       </c>
       <c r="P8" s="41">
@@ -2282,14 +2272,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="100">
+      <c r="Y8" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="100">
+      <c r="AA8" s="98">
         <v>0</v>
       </c>
       <c r="AB8" s="18">
@@ -2304,7 +2294,7 @@
         <f t="shared" si="14"/>
         <v>2600000</v>
       </c>
-      <c r="AE8" s="77"/>
+      <c r="AE8" s="76"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
@@ -2319,56 +2309,56 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
     </row>
-    <row r="9" spans="1:46" customFormat="1">
+    <row r="9" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>44047</v>
       </c>
-      <c r="C9" s="119">
+      <c r="C9" s="117">
         <v>4</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E9" s="129">
-        <v>0</v>
-      </c>
-      <c r="F9" s="129">
+      <c r="E9" s="127">
+        <v>0</v>
+      </c>
+      <c r="F9" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="117">
         <v>0</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="131">
-        <v>0</v>
-      </c>
-      <c r="J9" s="131">
+      <c r="I9" s="129">
+        <v>0</v>
+      </c>
+      <c r="J9" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="117">
         <v>0</v>
       </c>
       <c r="L9" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="131">
-        <v>0</v>
-      </c>
-      <c r="N9" s="131">
+      <c r="M9" s="129">
+        <v>0</v>
+      </c>
+      <c r="N9" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="118">
         <v>0</v>
       </c>
       <c r="P9" s="41">
@@ -2403,14 +2393,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="100">
+      <c r="Y9" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="100">
+      <c r="AA9" s="98">
         <v>0</v>
       </c>
       <c r="AB9" s="18">
@@ -2425,58 +2415,58 @@
         <f t="shared" si="14"/>
         <v>800000</v>
       </c>
-      <c r="AE9" s="77"/>
-    </row>
-    <row r="10" spans="1:46" customFormat="1">
+      <c r="AE9" s="76"/>
+    </row>
+    <row r="10" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>44048</v>
       </c>
-      <c r="C10" s="119">
+      <c r="C10" s="117">
         <v>1</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E10" s="129">
-        <v>0</v>
-      </c>
-      <c r="F10" s="129">
+      <c r="E10" s="127">
+        <v>0</v>
+      </c>
+      <c r="F10" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="119">
+      <c r="G10" s="117">
         <v>1</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I10" s="131">
-        <v>0</v>
-      </c>
-      <c r="J10" s="131">
+      <c r="I10" s="129">
+        <v>0</v>
+      </c>
+      <c r="J10" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="119">
+      <c r="K10" s="117">
         <v>0</v>
       </c>
       <c r="L10" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="131">
-        <v>0</v>
-      </c>
-      <c r="N10" s="131">
+      <c r="M10" s="129">
+        <v>0</v>
+      </c>
+      <c r="N10" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="120">
+      <c r="O10" s="118">
         <v>0</v>
       </c>
       <c r="P10" s="41">
@@ -2511,14 +2501,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="100">
+      <c r="Y10" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="100">
+      <c r="AA10" s="98">
         <v>0</v>
       </c>
       <c r="AB10" s="18">
@@ -2533,58 +2523,58 @@
         <f t="shared" si="14"/>
         <v>500000</v>
       </c>
-      <c r="AE10" s="77"/>
-    </row>
-    <row r="11" spans="1:46" customFormat="1">
+      <c r="AE10" s="76"/>
+    </row>
+    <row r="11" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <v>44049</v>
       </c>
-      <c r="C11" s="119">
+      <c r="C11" s="117">
         <v>5</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E11" s="129">
-        <v>0</v>
-      </c>
-      <c r="F11" s="129">
+      <c r="E11" s="127">
+        <v>0</v>
+      </c>
+      <c r="F11" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="119">
+      <c r="G11" s="117">
         <v>3</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I11" s="131">
-        <v>0</v>
-      </c>
-      <c r="J11" s="131">
+      <c r="I11" s="129">
+        <v>0</v>
+      </c>
+      <c r="J11" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="119">
+      <c r="K11" s="117">
         <v>1</v>
       </c>
       <c r="L11" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M11" s="131">
-        <v>0</v>
-      </c>
-      <c r="N11" s="131">
+      <c r="M11" s="129">
+        <v>0</v>
+      </c>
+      <c r="N11" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="120">
+      <c r="O11" s="118">
         <v>1</v>
       </c>
       <c r="P11" s="41">
@@ -2619,14 +2609,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="100">
+      <c r="Y11" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="100">
+      <c r="AA11" s="98">
         <v>0</v>
       </c>
       <c r="AB11" s="18">
@@ -2641,58 +2631,58 @@
         <f t="shared" si="14"/>
         <v>2230000</v>
       </c>
-      <c r="AE11" s="77"/>
-    </row>
-    <row r="12" spans="1:46" customFormat="1">
+      <c r="AE11" s="76"/>
+    </row>
+    <row r="12" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>44050</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="117">
         <v>3</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E12" s="129">
-        <v>0</v>
-      </c>
-      <c r="F12" s="129">
+      <c r="E12" s="127">
+        <v>0</v>
+      </c>
+      <c r="F12" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="117">
         <v>0</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="131">
-        <v>0</v>
-      </c>
-      <c r="J12" s="131">
+      <c r="I12" s="129">
+        <v>0</v>
+      </c>
+      <c r="J12" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="119">
+      <c r="K12" s="117">
         <v>0</v>
       </c>
       <c r="L12" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="131">
-        <v>0</v>
-      </c>
-      <c r="N12" s="131">
+      <c r="M12" s="129">
+        <v>0</v>
+      </c>
+      <c r="N12" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="120">
+      <c r="O12" s="118">
         <v>0</v>
       </c>
       <c r="P12" s="41">
@@ -2727,14 +2717,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="100">
+      <c r="Y12" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="100">
+      <c r="AA12" s="98">
         <v>0</v>
       </c>
       <c r="AB12" s="18">
@@ -2749,58 +2739,58 @@
         <f t="shared" si="14"/>
         <v>630000</v>
       </c>
-      <c r="AE12" s="77"/>
-    </row>
-    <row r="13" spans="1:46" customFormat="1">
+      <c r="AE12" s="76"/>
+    </row>
+    <row r="13" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>44051</v>
       </c>
-      <c r="C13" s="119">
+      <c r="C13" s="117">
         <v>2</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E13" s="129">
-        <v>0</v>
-      </c>
-      <c r="F13" s="129">
+      <c r="E13" s="127">
+        <v>0</v>
+      </c>
+      <c r="F13" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="119">
+      <c r="G13" s="117">
         <v>3</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I13" s="131">
-        <v>0</v>
-      </c>
-      <c r="J13" s="131">
+      <c r="I13" s="129">
+        <v>0</v>
+      </c>
+      <c r="J13" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="119">
+      <c r="K13" s="117">
         <v>0</v>
       </c>
       <c r="L13" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="131">
-        <v>0</v>
-      </c>
-      <c r="N13" s="131">
+      <c r="M13" s="129">
+        <v>0</v>
+      </c>
+      <c r="N13" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="120">
+      <c r="O13" s="118">
         <v>0</v>
       </c>
       <c r="P13" s="41">
@@ -2835,14 +2825,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="121">
+      <c r="Y13" s="119">
         <v>1</v>
       </c>
-      <c r="Z13" s="100">
+      <c r="Z13" s="98">
         <f t="shared" si="11"/>
         <v>700000</v>
       </c>
-      <c r="AA13" s="100">
+      <c r="AA13" s="98">
         <v>0</v>
       </c>
       <c r="AB13" s="18">
@@ -2857,58 +2847,58 @@
         <f t="shared" si="14"/>
         <v>4100000</v>
       </c>
-      <c r="AE13" s="77"/>
-    </row>
-    <row r="14" spans="1:46">
+      <c r="AE13" s="76"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <v>44052</v>
       </c>
-      <c r="C14" s="119">
+      <c r="C14" s="117">
         <v>2</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E14" s="129">
-        <v>0</v>
-      </c>
-      <c r="F14" s="129">
+      <c r="E14" s="127">
+        <v>0</v>
+      </c>
+      <c r="F14" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="119">
+      <c r="G14" s="117">
         <v>3</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I14" s="131">
-        <v>0</v>
-      </c>
-      <c r="J14" s="131">
+      <c r="I14" s="129">
+        <v>0</v>
+      </c>
+      <c r="J14" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="119">
+      <c r="K14" s="117">
         <v>1</v>
       </c>
       <c r="L14" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M14" s="131">
-        <v>0</v>
-      </c>
-      <c r="N14" s="131">
+      <c r="M14" s="129">
+        <v>0</v>
+      </c>
+      <c r="N14" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="120">
+      <c r="O14" s="118">
         <v>0</v>
       </c>
       <c r="P14" s="41">
@@ -2943,14 +2933,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="100">
+      <c r="Y14" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="100">
+      <c r="AA14" s="98">
         <v>0</v>
       </c>
       <c r="AB14" s="18">
@@ -2965,60 +2955,60 @@
         <f t="shared" si="14"/>
         <v>1600000</v>
       </c>
-      <c r="AE14" s="77"/>
+      <c r="AE14" s="76"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:46">
-      <c r="A15" s="81"/>
-      <c r="B15" s="57">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
+      <c r="B15" s="56">
         <v>44053</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="117">
         <v>5</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E15" s="129">
-        <v>0</v>
-      </c>
-      <c r="F15" s="129">
+      <c r="E15" s="127">
+        <v>0</v>
+      </c>
+      <c r="F15" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="119">
+      <c r="G15" s="117">
         <v>1</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I15" s="131">
-        <v>0</v>
-      </c>
-      <c r="J15" s="131">
+      <c r="I15" s="129">
+        <v>0</v>
+      </c>
+      <c r="J15" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="119">
+      <c r="K15" s="117">
         <v>0</v>
       </c>
       <c r="L15" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="131">
-        <v>0</v>
-      </c>
-      <c r="N15" s="131">
+      <c r="M15" s="129">
+        <v>0</v>
+      </c>
+      <c r="N15" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="120">
+      <c r="O15" s="118">
         <v>0</v>
       </c>
       <c r="P15" s="41">
@@ -3053,14 +3043,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="100">
+      <c r="Y15" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="100">
+      <c r="AA15" s="98">
         <v>0</v>
       </c>
       <c r="AB15" s="18">
@@ -3075,60 +3065,60 @@
         <f t="shared" si="14"/>
         <v>2500000</v>
       </c>
-      <c r="AE15" s="81"/>
+      <c r="AE15" s="80"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:46">
-      <c r="A16" s="81"/>
-      <c r="B16" s="57">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" s="80"/>
+      <c r="B16" s="56">
         <v>44054</v>
       </c>
-      <c r="C16" s="119">
+      <c r="C16" s="117">
         <v>5</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E16" s="129">
-        <v>0</v>
-      </c>
-      <c r="F16" s="129">
+      <c r="E16" s="127">
+        <v>0</v>
+      </c>
+      <c r="F16" s="127">
         <f>PRODUCT(E17,100000)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="119">
+      <c r="G16" s="117">
         <v>0</v>
       </c>
       <c r="H16" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="131">
-        <v>0</v>
-      </c>
-      <c r="J16" s="131">
+      <c r="I16" s="129">
+        <v>0</v>
+      </c>
+      <c r="J16" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K16" s="117">
         <v>0</v>
       </c>
       <c r="L16" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="131">
-        <v>0</v>
-      </c>
-      <c r="N16" s="131">
+      <c r="M16" s="129">
+        <v>0</v>
+      </c>
+      <c r="N16" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="120">
+      <c r="O16" s="118">
         <v>0</v>
       </c>
       <c r="P16" s="41">
@@ -3163,14 +3153,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="100">
+      <c r="Y16" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="100">
+      <c r="AA16" s="98">
         <v>0</v>
       </c>
       <c r="AB16" s="18">
@@ -3185,60 +3175,60 @@
         <f t="shared" si="14"/>
         <v>1000000</v>
       </c>
-      <c r="AE16" s="81"/>
+      <c r="AE16" s="80"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="81"/>
-      <c r="B17" s="57">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
+      <c r="B17" s="56">
         <v>44055</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="117">
         <v>5</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E17" s="129">
-        <v>0</v>
-      </c>
-      <c r="F17" s="129">
+      <c r="E17" s="127">
+        <v>0</v>
+      </c>
+      <c r="F17" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="119">
+      <c r="G17" s="117">
         <v>1</v>
       </c>
       <c r="H17" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I17" s="131">
-        <v>0</v>
-      </c>
-      <c r="J17" s="131">
+      <c r="I17" s="129">
+        <v>0</v>
+      </c>
+      <c r="J17" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="117">
         <v>1</v>
       </c>
       <c r="L17" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M17" s="131">
-        <v>0</v>
-      </c>
-      <c r="N17" s="131">
+      <c r="M17" s="129">
+        <v>0</v>
+      </c>
+      <c r="N17" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="118">
         <v>0</v>
       </c>
       <c r="P17" s="41">
@@ -3273,14 +3263,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="100">
+      <c r="Y17" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="100">
+      <c r="AA17" s="98">
         <v>0</v>
       </c>
       <c r="AB17" s="18">
@@ -3295,60 +3285,60 @@
         <f t="shared" si="14"/>
         <v>2200000</v>
       </c>
-      <c r="AE17" s="81"/>
+      <c r="AE17" s="80"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="81"/>
-      <c r="B18" s="57">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="80"/>
+      <c r="B18" s="56">
         <v>44056</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="117">
         <v>5</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E18" s="129">
-        <v>0</v>
-      </c>
-      <c r="F18" s="129">
+      <c r="E18" s="127">
+        <v>0</v>
+      </c>
+      <c r="F18" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="119">
+      <c r="G18" s="117">
         <v>1</v>
       </c>
       <c r="H18" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I18" s="131">
-        <v>0</v>
-      </c>
-      <c r="J18" s="131">
+      <c r="I18" s="129">
+        <v>0</v>
+      </c>
+      <c r="J18" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="117">
         <v>1</v>
       </c>
       <c r="L18" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M18" s="131">
-        <v>0</v>
-      </c>
-      <c r="N18" s="131">
+      <c r="M18" s="129">
+        <v>0</v>
+      </c>
+      <c r="N18" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="120">
+      <c r="O18" s="118">
         <v>0</v>
       </c>
       <c r="P18" s="41">
@@ -3383,14 +3373,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="100">
+      <c r="Y18" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="100">
+      <c r="AA18" s="98">
         <v>0</v>
       </c>
       <c r="AB18" s="18">
@@ -3405,60 +3395,60 @@
         <f t="shared" si="14"/>
         <v>1600000</v>
       </c>
-      <c r="AE18" s="81"/>
+      <c r="AE18" s="80"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="81"/>
-      <c r="B19" s="57">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
+      <c r="B19" s="56">
         <v>44057</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="117">
         <v>9</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
-      <c r="E19" s="129">
-        <v>0</v>
-      </c>
-      <c r="F19" s="129">
+      <c r="E19" s="127">
+        <v>0</v>
+      </c>
+      <c r="F19" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="119">
+      <c r="G19" s="117">
         <v>0</v>
       </c>
       <c r="H19" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="131">
-        <v>0</v>
-      </c>
-      <c r="J19" s="131">
+      <c r="I19" s="129">
+        <v>0</v>
+      </c>
+      <c r="J19" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="119">
+      <c r="K19" s="117">
         <v>2</v>
       </c>
       <c r="L19" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M19" s="131">
-        <v>0</v>
-      </c>
-      <c r="N19" s="131">
+      <c r="M19" s="129">
+        <v>0</v>
+      </c>
+      <c r="N19" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O19" s="120">
+      <c r="O19" s="118">
         <v>0</v>
       </c>
       <c r="P19" s="41">
@@ -3493,14 +3483,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="100">
+      <c r="Y19" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="100">
+      <c r="AA19" s="98">
         <v>0</v>
       </c>
       <c r="AB19" s="18">
@@ -3515,60 +3505,60 @@
         <f t="shared" si="14"/>
         <v>2400000</v>
       </c>
-      <c r="AE19" s="103"/>
+      <c r="AE19" s="101"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="81"/>
-      <c r="B20" s="57">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
+      <c r="B20" s="56">
         <v>44058</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="117">
         <v>4</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E20" s="129">
-        <v>0</v>
-      </c>
-      <c r="F20" s="129">
+      <c r="E20" s="127">
+        <v>0</v>
+      </c>
+      <c r="F20" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="119">
+      <c r="G20" s="117">
         <v>4</v>
       </c>
       <c r="H20" s="40">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I20" s="131">
-        <v>0</v>
-      </c>
-      <c r="J20" s="131">
+      <c r="I20" s="129">
+        <v>0</v>
+      </c>
+      <c r="J20" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K20" s="119">
+      <c r="K20" s="117">
         <v>0</v>
       </c>
       <c r="L20" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="131">
-        <v>0</v>
-      </c>
-      <c r="N20" s="131">
+      <c r="M20" s="129">
+        <v>0</v>
+      </c>
+      <c r="N20" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="120">
+      <c r="O20" s="118">
         <v>0</v>
       </c>
       <c r="P20" s="41">
@@ -3603,14 +3593,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="100">
+      <c r="Y20" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="100">
+      <c r="AA20" s="98">
         <v>0</v>
       </c>
       <c r="AB20" s="18">
@@ -3625,60 +3615,60 @@
         <f t="shared" si="14"/>
         <v>3800000</v>
       </c>
-      <c r="AE20" s="81"/>
+      <c r="AE20" s="80"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="81"/>
-      <c r="B21" s="57">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="56">
         <v>44059</v>
       </c>
-      <c r="C21" s="119">
+      <c r="C21" s="117">
         <v>7</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E21" s="129">
-        <v>0</v>
-      </c>
-      <c r="F21" s="129">
+      <c r="E21" s="127">
+        <v>0</v>
+      </c>
+      <c r="F21" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="119">
+      <c r="G21" s="117">
         <v>1</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I21" s="131">
-        <v>0</v>
-      </c>
-      <c r="J21" s="131">
+      <c r="I21" s="129">
+        <v>0</v>
+      </c>
+      <c r="J21" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="119">
+      <c r="K21" s="117">
         <v>2</v>
       </c>
       <c r="L21" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M21" s="131">
-        <v>0</v>
-      </c>
-      <c r="N21" s="131">
+      <c r="M21" s="129">
+        <v>0</v>
+      </c>
+      <c r="N21" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="120">
+      <c r="O21" s="118">
         <v>0</v>
       </c>
       <c r="P21" s="41">
@@ -3713,14 +3703,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="121">
+      <c r="Y21" s="119">
         <v>1</v>
       </c>
-      <c r="Z21" s="100">
+      <c r="Z21" s="98">
         <f t="shared" si="11"/>
         <v>700000</v>
       </c>
-      <c r="AA21" s="100">
+      <c r="AA21" s="98">
         <v>0</v>
       </c>
       <c r="AB21" s="18">
@@ -3735,60 +3725,60 @@
         <f t="shared" si="14"/>
         <v>4500000</v>
       </c>
-      <c r="AE21" s="81"/>
+      <c r="AE21" s="80"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="81"/>
-      <c r="B22" s="57">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="56">
         <v>44060</v>
       </c>
-      <c r="C22" s="119">
+      <c r="C22" s="117">
         <v>3</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E22" s="129">
-        <v>0</v>
-      </c>
-      <c r="F22" s="129">
+      <c r="E22" s="127">
+        <v>0</v>
+      </c>
+      <c r="F22" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="119">
+      <c r="G22" s="117">
         <v>2</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I22" s="131">
-        <v>0</v>
-      </c>
-      <c r="J22" s="131">
+      <c r="I22" s="129">
+        <v>0</v>
+      </c>
+      <c r="J22" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="119">
+      <c r="K22" s="117">
         <v>0</v>
       </c>
       <c r="L22" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="131">
-        <v>0</v>
-      </c>
-      <c r="N22" s="131">
+      <c r="M22" s="129">
+        <v>0</v>
+      </c>
+      <c r="N22" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O22" s="120">
+      <c r="O22" s="118">
         <v>1</v>
       </c>
       <c r="P22" s="41">
@@ -3823,14 +3813,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="121">
+      <c r="Y22" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="119">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="100">
+      <c r="AA22" s="98">
         <v>0</v>
       </c>
       <c r="AB22" s="18">
@@ -3845,60 +3835,60 @@
         <f t="shared" si="14"/>
         <v>1230000</v>
       </c>
-      <c r="AE22" s="81"/>
+      <c r="AE22" s="80"/>
       <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="81"/>
-      <c r="B23" s="57">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="56">
         <v>44061</v>
       </c>
-      <c r="C23" s="119">
+      <c r="C23" s="117">
         <v>1</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E23" s="129">
-        <v>0</v>
-      </c>
-      <c r="F23" s="129">
+      <c r="E23" s="127">
+        <v>0</v>
+      </c>
+      <c r="F23" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="119">
+      <c r="G23" s="117">
         <v>0</v>
       </c>
       <c r="H23" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="131">
-        <v>0</v>
-      </c>
-      <c r="J23" s="131">
+      <c r="I23" s="129">
+        <v>0</v>
+      </c>
+      <c r="J23" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="119">
+      <c r="K23" s="117">
         <v>0</v>
       </c>
       <c r="L23" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="131">
-        <v>0</v>
-      </c>
-      <c r="N23" s="131">
+      <c r="M23" s="129">
+        <v>0</v>
+      </c>
+      <c r="N23" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="120">
+      <c r="O23" s="118">
         <v>0</v>
       </c>
       <c r="P23" s="41">
@@ -3933,14 +3923,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="121">
+      <c r="Y23" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="119">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="100">
+      <c r="AA23" s="98">
         <v>0</v>
       </c>
       <c r="AB23" s="18">
@@ -3955,60 +3945,60 @@
         <f t="shared" si="14"/>
         <v>200000</v>
       </c>
-      <c r="AE23" s="81"/>
+      <c r="AE23" s="80"/>
       <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="81"/>
-      <c r="B24" s="57">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="56">
         <v>44062</v>
       </c>
-      <c r="C24" s="119">
+      <c r="C24" s="117">
         <v>5</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E24" s="129">
-        <v>0</v>
-      </c>
-      <c r="F24" s="129">
+      <c r="E24" s="127">
+        <v>0</v>
+      </c>
+      <c r="F24" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="119">
+      <c r="G24" s="117">
         <v>1</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I24" s="131">
-        <v>0</v>
-      </c>
-      <c r="J24" s="131">
+      <c r="I24" s="129">
+        <v>0</v>
+      </c>
+      <c r="J24" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K24" s="119">
+      <c r="K24" s="117">
         <v>1</v>
       </c>
       <c r="L24" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M24" s="131">
-        <v>0</v>
-      </c>
-      <c r="N24" s="131">
+      <c r="M24" s="129">
+        <v>0</v>
+      </c>
+      <c r="N24" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O24" s="120">
+      <c r="O24" s="118">
         <v>0</v>
       </c>
       <c r="P24" s="41">
@@ -4043,14 +4033,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="100">
+      <c r="Y24" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="100">
+      <c r="AA24" s="98">
         <v>0</v>
       </c>
       <c r="AB24" s="18">
@@ -4065,60 +4055,60 @@
         <f t="shared" si="14"/>
         <v>2200000</v>
       </c>
-      <c r="AE24" s="81"/>
+      <c r="AE24" s="80"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
     </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="81"/>
-      <c r="B25" s="57">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="56">
         <v>44063</v>
       </c>
-      <c r="C25" s="119">
+      <c r="C25" s="117">
         <v>5</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E25" s="129">
-        <v>0</v>
-      </c>
-      <c r="F25" s="129">
+      <c r="E25" s="127">
+        <v>0</v>
+      </c>
+      <c r="F25" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="119">
+      <c r="G25" s="117">
         <v>1</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I25" s="131">
-        <v>0</v>
-      </c>
-      <c r="J25" s="131">
+      <c r="I25" s="129">
+        <v>0</v>
+      </c>
+      <c r="J25" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="119">
+      <c r="K25" s="117">
         <v>1</v>
       </c>
       <c r="L25" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M25" s="131">
-        <v>0</v>
-      </c>
-      <c r="N25" s="131">
+      <c r="M25" s="129">
+        <v>0</v>
+      </c>
+      <c r="N25" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O25" s="120">
+      <c r="O25" s="118">
         <v>0</v>
       </c>
       <c r="P25" s="41">
@@ -4153,14 +4143,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="100">
+      <c r="Y25" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="100">
+      <c r="AA25" s="98">
         <v>0</v>
       </c>
       <c r="AB25" s="18">
@@ -4175,60 +4165,60 @@
         <f t="shared" si="14"/>
         <v>1600000</v>
       </c>
-      <c r="AE25" s="81"/>
+      <c r="AE25" s="80"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
     </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="81"/>
-      <c r="B26" s="57">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
+      <c r="B26" s="56">
         <v>44064</v>
       </c>
-      <c r="C26" s="119">
+      <c r="C26" s="117">
         <v>0</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="129">
-        <v>0</v>
-      </c>
-      <c r="F26" s="129">
+      <c r="E26" s="127">
+        <v>0</v>
+      </c>
+      <c r="F26" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="119">
+      <c r="G26" s="117">
         <v>1</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I26" s="131">
-        <v>0</v>
-      </c>
-      <c r="J26" s="131">
+      <c r="I26" s="129">
+        <v>0</v>
+      </c>
+      <c r="J26" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="119">
+      <c r="K26" s="117">
         <v>1</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M26" s="131">
-        <v>0</v>
-      </c>
-      <c r="N26" s="131">
+      <c r="M26" s="129">
+        <v>0</v>
+      </c>
+      <c r="N26" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="120">
+      <c r="O26" s="118">
         <v>0</v>
       </c>
       <c r="P26" s="41">
@@ -4263,14 +4253,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="100">
+      <c r="Y26" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="100">
+      <c r="AA26" s="98">
         <v>0</v>
       </c>
       <c r="AB26" s="18">
@@ -4285,60 +4275,60 @@
         <f t="shared" si="14"/>
         <v>1200000</v>
       </c>
-      <c r="AE26" s="81"/>
+      <c r="AE26" s="80"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="11"/>
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
     </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="81"/>
-      <c r="B27" s="57">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="56">
         <v>44065</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="117">
         <v>1</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E27" s="129">
-        <v>0</v>
-      </c>
-      <c r="F27" s="129">
+      <c r="E27" s="127">
+        <v>0</v>
+      </c>
+      <c r="F27" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="119">
+      <c r="G27" s="117">
         <v>3</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I27" s="131">
-        <v>0</v>
-      </c>
-      <c r="J27" s="131">
+      <c r="I27" s="129">
+        <v>0</v>
+      </c>
+      <c r="J27" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="119">
+      <c r="K27" s="117">
         <v>1</v>
       </c>
       <c r="L27" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M27" s="131">
-        <v>0</v>
-      </c>
-      <c r="N27" s="131">
+      <c r="M27" s="129">
+        <v>0</v>
+      </c>
+      <c r="N27" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O27" s="120">
+      <c r="O27" s="118">
         <v>0</v>
       </c>
       <c r="P27" s="41">
@@ -4373,14 +4363,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="100">
+      <c r="Y27" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="100">
+      <c r="AA27" s="98">
         <v>0</v>
       </c>
       <c r="AB27" s="18">
@@ -4395,60 +4385,60 @@
         <f t="shared" si="14"/>
         <v>2300000</v>
       </c>
-      <c r="AE27" s="115"/>
+      <c r="AE27" s="113"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="81"/>
-      <c r="B28" s="57">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
+      <c r="B28" s="56">
         <v>44066</v>
       </c>
-      <c r="C28" s="119">
+      <c r="C28" s="117">
         <v>4</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E28" s="129">
-        <v>0</v>
-      </c>
-      <c r="F28" s="129">
+      <c r="E28" s="127">
+        <v>0</v>
+      </c>
+      <c r="F28" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="119">
+      <c r="G28" s="117">
         <v>4</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I28" s="131">
-        <v>0</v>
-      </c>
-      <c r="J28" s="131">
+      <c r="I28" s="129">
+        <v>0</v>
+      </c>
+      <c r="J28" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K28" s="119">
+      <c r="K28" s="117">
         <v>0</v>
       </c>
       <c r="L28" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M28" s="131">
-        <v>0</v>
-      </c>
-      <c r="N28" s="131">
+      <c r="M28" s="129">
+        <v>0</v>
+      </c>
+      <c r="N28" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O28" s="120">
+      <c r="O28" s="118">
         <v>0</v>
       </c>
       <c r="P28" s="41">
@@ -4483,14 +4473,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="100">
+      <c r="Y28" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="100">
+      <c r="AA28" s="98">
         <v>0</v>
       </c>
       <c r="AB28" s="18">
@@ -4505,60 +4495,60 @@
         <f t="shared" si="14"/>
         <v>3500000</v>
       </c>
-      <c r="AE28" s="81"/>
+      <c r="AE28" s="80"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="11"/>
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="81"/>
-      <c r="B29" s="57">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="80"/>
+      <c r="B29" s="56">
         <v>44067</v>
       </c>
-      <c r="C29" s="119">
+      <c r="C29" s="117">
         <v>5</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E29" s="129">
-        <v>0</v>
-      </c>
-      <c r="F29" s="129">
+      <c r="E29" s="127">
+        <v>0</v>
+      </c>
+      <c r="F29" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="119">
+      <c r="G29" s="117">
         <v>1</v>
       </c>
       <c r="H29" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I29" s="131">
-        <v>0</v>
-      </c>
-      <c r="J29" s="131">
+      <c r="I29" s="129">
+        <v>0</v>
+      </c>
+      <c r="J29" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="119">
+      <c r="K29" s="117">
         <v>2</v>
       </c>
       <c r="L29" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M29" s="131">
-        <v>0</v>
-      </c>
-      <c r="N29" s="131">
+      <c r="M29" s="129">
+        <v>0</v>
+      </c>
+      <c r="N29" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O29" s="120">
+      <c r="O29" s="118">
         <v>0</v>
       </c>
       <c r="P29" s="41">
@@ -4593,14 +4583,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="100">
+      <c r="Y29" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="100">
+      <c r="AA29" s="98">
         <v>0</v>
       </c>
       <c r="AB29" s="18">
@@ -4615,60 +4605,60 @@
         <f t="shared" si="14"/>
         <v>1900000</v>
       </c>
-      <c r="AE29" s="81"/>
+      <c r="AE29" s="80"/>
       <c r="AF29" s="11"/>
       <c r="AG29" s="11"/>
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="81"/>
-      <c r="B30" s="57">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="80"/>
+      <c r="B30" s="56">
         <v>44068</v>
       </c>
-      <c r="C30" s="119">
+      <c r="C30" s="117">
         <v>4</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E30" s="129">
-        <v>0</v>
-      </c>
-      <c r="F30" s="129">
+      <c r="E30" s="127">
+        <v>0</v>
+      </c>
+      <c r="F30" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="119">
+      <c r="G30" s="117">
         <v>3</v>
       </c>
       <c r="H30" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I30" s="131">
-        <v>0</v>
-      </c>
-      <c r="J30" s="131">
+      <c r="I30" s="129">
+        <v>0</v>
+      </c>
+      <c r="J30" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="119">
+      <c r="K30" s="117">
         <v>1</v>
       </c>
       <c r="L30" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M30" s="131">
-        <v>0</v>
-      </c>
-      <c r="N30" s="131">
+      <c r="M30" s="129">
+        <v>0</v>
+      </c>
+      <c r="N30" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O30" s="120">
+      <c r="O30" s="118">
         <v>0</v>
       </c>
       <c r="P30" s="41">
@@ -4703,14 +4693,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="121">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="100">
+      <c r="Y30" s="119">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="100">
+      <c r="AA30" s="98">
         <v>0</v>
       </c>
       <c r="AB30" s="18">
@@ -4725,60 +4715,60 @@
         <f t="shared" si="14"/>
         <v>2600000</v>
       </c>
-      <c r="AE30" s="81"/>
+      <c r="AE30" s="80"/>
       <c r="AF30" s="11"/>
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="81"/>
-      <c r="B31" s="57">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="80"/>
+      <c r="B31" s="56">
         <v>44069</v>
       </c>
-      <c r="C31" s="119">
+      <c r="C31" s="117">
         <v>3</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E31" s="129">
-        <v>0</v>
-      </c>
-      <c r="F31" s="129">
+      <c r="E31" s="127">
+        <v>0</v>
+      </c>
+      <c r="F31" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="119">
+      <c r="G31" s="117">
         <v>0</v>
       </c>
       <c r="H31" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="131">
-        <v>0</v>
-      </c>
-      <c r="J31" s="131">
+      <c r="I31" s="129">
+        <v>0</v>
+      </c>
+      <c r="J31" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="119">
+      <c r="K31" s="117">
         <v>2</v>
       </c>
       <c r="L31" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M31" s="131">
-        <v>0</v>
-      </c>
-      <c r="N31" s="131">
+      <c r="M31" s="129">
+        <v>0</v>
+      </c>
+      <c r="N31" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O31" s="120">
+      <c r="O31" s="118">
         <v>0</v>
       </c>
       <c r="P31" s="41">
@@ -4813,14 +4803,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="100">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="100">
+      <c r="Y31" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="100">
+      <c r="AA31" s="98">
         <v>0</v>
       </c>
       <c r="AB31" s="18">
@@ -4835,60 +4825,60 @@
         <f t="shared" si="14"/>
         <v>1200000</v>
       </c>
-      <c r="AE31" s="81"/>
+      <c r="AE31" s="80"/>
       <c r="AF31" s="11"/>
       <c r="AG31" s="11"/>
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
     </row>
-    <row r="32" spans="1:35">
-      <c r="A32" s="81"/>
-      <c r="B32" s="57">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="80"/>
+      <c r="B32" s="56">
         <v>44070</v>
       </c>
-      <c r="C32" s="119">
+      <c r="C32" s="117">
         <v>2</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E32" s="129">
-        <v>0</v>
-      </c>
-      <c r="F32" s="129">
+      <c r="E32" s="127">
+        <v>0</v>
+      </c>
+      <c r="F32" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="119">
+      <c r="G32" s="117">
         <v>2</v>
       </c>
       <c r="H32" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I32" s="131">
-        <v>0</v>
-      </c>
-      <c r="J32" s="131">
+      <c r="I32" s="129">
+        <v>0</v>
+      </c>
+      <c r="J32" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="119">
+      <c r="K32" s="117">
         <v>1</v>
       </c>
       <c r="L32" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M32" s="131">
-        <v>0</v>
-      </c>
-      <c r="N32" s="131">
+      <c r="M32" s="129">
+        <v>0</v>
+      </c>
+      <c r="N32" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="120">
+      <c r="O32" s="118">
         <v>0</v>
       </c>
       <c r="P32" s="41">
@@ -4923,14 +4913,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="100">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="100">
+      <c r="Y32" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="100">
+      <c r="AA32" s="98">
         <v>0</v>
       </c>
       <c r="AB32" s="18">
@@ -4945,60 +4935,60 @@
         <f t="shared" si="14"/>
         <v>2500000</v>
       </c>
-      <c r="AE32" s="81"/>
+      <c r="AE32" s="80"/>
       <c r="AF32" s="11"/>
       <c r="AG32" s="11"/>
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
     </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="81"/>
-      <c r="B33" s="57">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
+      <c r="B33" s="56">
         <v>44071</v>
       </c>
-      <c r="C33" s="119">
+      <c r="C33" s="117">
         <v>6</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="E33" s="129">
-        <v>0</v>
-      </c>
-      <c r="F33" s="129">
+      <c r="E33" s="127">
+        <v>0</v>
+      </c>
+      <c r="F33" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33" s="119">
+      <c r="G33" s="117">
         <v>2</v>
       </c>
       <c r="H33" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I33" s="131">
-        <v>0</v>
-      </c>
-      <c r="J33" s="131">
+      <c r="I33" s="129">
+        <v>0</v>
+      </c>
+      <c r="J33" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="119">
+      <c r="K33" s="117">
         <v>0</v>
       </c>
       <c r="L33" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="131">
-        <v>0</v>
-      </c>
-      <c r="N33" s="131">
+      <c r="M33" s="129">
+        <v>0</v>
+      </c>
+      <c r="N33" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O33" s="120">
+      <c r="O33" s="118">
         <v>0</v>
       </c>
       <c r="P33" s="41">
@@ -5033,14 +5023,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="100">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="100">
+      <c r="Y33" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="100">
+      <c r="AA33" s="98">
         <v>0</v>
       </c>
       <c r="AB33" s="18">
@@ -5055,60 +5045,60 @@
         <f t="shared" si="14"/>
         <v>1800000</v>
       </c>
-      <c r="AE33" s="81"/>
+      <c r="AE33" s="80"/>
       <c r="AF33" s="11"/>
       <c r="AG33" s="11"/>
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="83"/>
-      <c r="B34" s="57">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="82"/>
+      <c r="B34" s="56">
         <v>44072</v>
       </c>
-      <c r="C34" s="119">
+      <c r="C34" s="117">
         <v>1</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E34" s="129">
-        <v>0</v>
-      </c>
-      <c r="F34" s="129">
+      <c r="E34" s="127">
+        <v>0</v>
+      </c>
+      <c r="F34" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="119">
+      <c r="G34" s="117">
         <v>3</v>
       </c>
       <c r="H34" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I34" s="131">
-        <v>0</v>
-      </c>
-      <c r="J34" s="131">
+      <c r="I34" s="129">
+        <v>0</v>
+      </c>
+      <c r="J34" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="119">
+      <c r="K34" s="117">
         <v>3</v>
       </c>
       <c r="L34" s="40">
         <f t="shared" si="4"/>
         <v>900000</v>
       </c>
-      <c r="M34" s="131">
-        <v>0</v>
-      </c>
-      <c r="N34" s="131">
+      <c r="M34" s="129">
+        <v>0</v>
+      </c>
+      <c r="N34" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O34" s="120">
+      <c r="O34" s="118">
         <v>1</v>
       </c>
       <c r="P34" s="41">
@@ -5143,14 +5133,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="100">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="100">
+      <c r="Y34" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="100">
+      <c r="AA34" s="98">
         <v>0</v>
       </c>
       <c r="AB34" s="18">
@@ -5165,60 +5155,60 @@
         <f t="shared" si="14"/>
         <v>3530000</v>
       </c>
-      <c r="AE34" s="83"/>
+      <c r="AE34" s="82"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="83"/>
-      <c r="B35" s="57">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="82"/>
+      <c r="B35" s="56">
         <v>44073</v>
       </c>
-      <c r="C35" s="119">
+      <c r="C35" s="117">
         <v>7</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E35" s="129">
-        <v>0</v>
-      </c>
-      <c r="F35" s="129">
+      <c r="E35" s="127">
+        <v>0</v>
+      </c>
+      <c r="F35" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="119">
+      <c r="G35" s="117">
         <v>10</v>
       </c>
       <c r="H35" s="40">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="I35" s="131">
-        <v>0</v>
-      </c>
-      <c r="J35" s="131">
+      <c r="I35" s="129">
+        <v>0</v>
+      </c>
+      <c r="J35" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="119">
+      <c r="K35" s="117">
         <v>1</v>
       </c>
       <c r="L35" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M35" s="131">
-        <v>0</v>
-      </c>
-      <c r="N35" s="131">
+      <c r="M35" s="129">
+        <v>0</v>
+      </c>
+      <c r="N35" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="120">
+      <c r="O35" s="118">
         <v>0</v>
       </c>
       <c r="P35" s="41">
@@ -5252,14 +5242,14 @@
       <c r="X35" s="12">
         <v>40000</v>
       </c>
-      <c r="Y35" s="100">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="100">
+      <c r="Y35" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="100">
+      <c r="AA35" s="98">
         <v>0</v>
       </c>
       <c r="AB35" s="18">
@@ -5274,60 +5264,60 @@
         <f t="shared" si="14"/>
         <v>7140000</v>
       </c>
-      <c r="AE35" s="83"/>
+      <c r="AE35" s="82"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="98"/>
-      <c r="B36" s="57">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="96"/>
+      <c r="B36" s="56">
         <v>44074</v>
       </c>
-      <c r="C36" s="119">
+      <c r="C36" s="117">
         <v>8</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="E36" s="129">
-        <v>0</v>
-      </c>
-      <c r="F36" s="129">
+      <c r="E36" s="127">
+        <v>0</v>
+      </c>
+      <c r="F36" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="119">
+      <c r="G36" s="117">
         <v>1</v>
       </c>
       <c r="H36" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I36" s="131">
-        <v>0</v>
-      </c>
-      <c r="J36" s="131">
+      <c r="I36" s="129">
+        <v>0</v>
+      </c>
+      <c r="J36" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="119">
+      <c r="K36" s="117">
         <v>1</v>
       </c>
       <c r="L36" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M36" s="131">
-        <v>0</v>
-      </c>
-      <c r="N36" s="131">
+      <c r="M36" s="129">
+        <v>0</v>
+      </c>
+      <c r="N36" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O36" s="99">
+      <c r="O36" s="97">
         <v>0</v>
       </c>
       <c r="P36" s="41">
@@ -5362,14 +5352,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="100">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="100">
+      <c r="Y36" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="98">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="100">
+      <c r="AA36" s="98">
         <v>0</v>
       </c>
       <c r="AB36" s="18">
@@ -5384,15 +5374,15 @@
         <f t="shared" si="14"/>
         <v>2800000</v>
       </c>
-      <c r="AE36" s="98"/>
+      <c r="AE36" s="96"/>
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="7">
@@ -5403,11 +5393,11 @@
         <f>SUM(D7:D36)</f>
         <v>24800000</v>
       </c>
-      <c r="E37" s="130">
+      <c r="E37" s="128">
         <f>SUM(E7:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="130">
+      <c r="F37" s="128">
         <f t="shared" ref="F37:Y37" si="15">SUM(F7:F36)</f>
         <v>0</v>
       </c>
@@ -5419,11 +5409,11 @@
         <f t="shared" si="15"/>
         <v>17400000</v>
       </c>
-      <c r="I37" s="130">
+      <c r="I37" s="128">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J37" s="130">
+      <c r="J37" s="128">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -5435,11 +5425,11 @@
         <f t="shared" si="16"/>
         <v>6900000</v>
       </c>
-      <c r="M37" s="130">
+      <c r="M37" s="128">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N37" s="130">
+      <c r="N37" s="128">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -5507,105 +5497,98 @@
         <f>SUM(AD7:AD36)</f>
         <v>69860000</v>
       </c>
-      <c r="AE37" s="64"/>
-    </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="53"/>
-      <c r="B38" s="59" t="s">
+      <c r="AE37" s="63"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="B38" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="161">
+      <c r="C38" s="164">
         <v>80</v>
       </c>
-      <c r="D38" s="161"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
-      <c r="AB38" s="151"/>
-      <c r="AC38" s="151"/>
-      <c r="AD38" s="151"/>
-      <c r="AE38" s="151"/>
-    </row>
-    <row r="39" spans="1:35" s="11" customFormat="1">
-      <c r="B39" s="58" t="s">
+      <c r="D38" s="164"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="156"/>
+      <c r="T38" s="156"/>
+      <c r="U38" s="156"/>
+      <c r="V38" s="156"/>
+      <c r="W38" s="156"/>
+      <c r="X38" s="156"/>
+      <c r="Y38" s="156"/>
+      <c r="Z38" s="156"/>
+      <c r="AA38" s="156"/>
+      <c r="AB38" s="156"/>
+      <c r="AC38" s="156"/>
+      <c r="AD38" s="156"/>
+      <c r="AE38" s="156"/>
+    </row>
+    <row r="39" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="152">
+      <c r="C39" s="157">
         <v>179</v>
       </c>
-      <c r="D39" s="152"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151"/>
-      <c r="S39" s="151"/>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="151"/>
-      <c r="AB39" s="151"/>
-      <c r="AC39" s="151"/>
-      <c r="AD39" s="151"/>
-      <c r="AE39" s="151"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="156"/>
+      <c r="S39" s="156"/>
+      <c r="T39" s="156"/>
+      <c r="U39" s="156"/>
+      <c r="V39" s="156"/>
+      <c r="W39" s="156"/>
+      <c r="X39" s="156"/>
+      <c r="Y39" s="156"/>
+      <c r="Z39" s="156"/>
+      <c r="AA39" s="156"/>
+      <c r="AB39" s="156"/>
+      <c r="AC39" s="156"/>
+      <c r="AD39" s="156"/>
+      <c r="AE39" s="156"/>
       <c r="AH39" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="52"/>
+      <c r="J40" s="51"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="52"/>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="N40" s="51"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AE42" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="AE4:AE39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G39:AE39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B2:AE2"/>
@@ -5622,6 +5605,13 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5643,14 +5633,14 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="167" t="s">
         <v>83</v>
       </c>
@@ -5660,7 +5650,7 @@
       <c r="E1" s="167"/>
       <c r="F1" s="167"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -5680,594 +5670,594 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>1</v>
       </c>
       <c r="B4" s="21">
         <v>44044</v>
       </c>
-      <c r="C4" s="107">
+      <c r="C4" s="105">
         <v>1453398</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="105">
         <v>2365000</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="102">
         <f>SUM(D4,-C4)</f>
         <v>911602</v>
       </c>
-      <c r="F4" s="106"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="104"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>2</v>
       </c>
       <c r="B5" s="21">
         <v>44045</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="105">
         <v>2006181</v>
       </c>
-      <c r="D5" s="107">
+      <c r="D5" s="105">
         <v>3120000</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="102">
         <f t="shared" ref="E5:E34" si="0">SUM(D5,-C5)</f>
         <v>1113819</v>
       </c>
-      <c r="F5" s="106"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="104"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>3</v>
       </c>
       <c r="B6" s="21">
         <v>44046</v>
       </c>
-      <c r="C6" s="107">
+      <c r="C6" s="105">
         <v>1734537</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="105">
         <v>2610000</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="102">
         <f t="shared" si="0"/>
         <v>875463</v>
       </c>
-      <c r="F6" s="106"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="104"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>4</v>
       </c>
       <c r="B7" s="21">
         <v>44047</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="102">
         <v>966524</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="102">
         <v>1849000</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E7" s="102">
         <f t="shared" si="0"/>
         <v>882476</v>
       </c>
-      <c r="F7" s="106"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="104"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>5</v>
       </c>
       <c r="B8" s="21">
         <v>44048</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="102">
         <v>612091</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="102">
         <v>975000</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="102">
         <f t="shared" si="0"/>
         <v>362909</v>
       </c>
-      <c r="F8" s="61"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="60"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>7</v>
       </c>
       <c r="B9" s="21">
         <v>44049</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="102">
         <v>2180782</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="102">
         <v>3435000</v>
       </c>
-      <c r="E9" s="104">
+      <c r="E9" s="102">
         <f t="shared" si="0"/>
         <v>1254218</v>
       </c>
-      <c r="F9" s="61"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="60"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>7</v>
       </c>
       <c r="B10" s="21">
         <v>44050</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="102">
         <v>552234</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="102">
         <v>745000</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="102">
         <f t="shared" si="0"/>
         <v>192766</v>
       </c>
-      <c r="F10" s="61"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="60"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>8</v>
       </c>
       <c r="B11" s="21">
         <v>44051</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="102">
         <v>789153</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="102">
         <v>1120000</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="102">
         <f t="shared" si="0"/>
         <v>330847</v>
       </c>
-      <c r="F11" s="61"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>9</v>
       </c>
       <c r="B12" s="21">
         <v>44052</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="102">
         <v>2398171</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="102">
         <v>3670000</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="102">
         <f t="shared" si="0"/>
         <v>1271829</v>
       </c>
-      <c r="F12" s="61"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>10</v>
       </c>
       <c r="B13" s="21">
         <v>44053</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="102">
         <v>1545392</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="102">
         <v>2305000</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="102">
         <f t="shared" si="0"/>
         <v>759608</v>
       </c>
-      <c r="F13" s="61"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="60"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>11</v>
       </c>
       <c r="B14" s="21">
         <v>44054</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="102">
         <v>1018647</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="102">
         <v>1500000</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="102">
         <f t="shared" si="0"/>
         <v>481353</v>
       </c>
-      <c r="F14" s="61"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>12</v>
       </c>
       <c r="B15" s="21">
         <v>44055</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="102">
         <v>1786042</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="102">
         <v>2785000</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="102">
         <f t="shared" si="0"/>
         <v>998958</v>
       </c>
-      <c r="F15" s="61"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>13</v>
       </c>
       <c r="B16" s="21">
         <v>44056</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="102">
         <v>2663893</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="102">
         <v>4085000</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="102">
         <f t="shared" si="0"/>
         <v>1421107</v>
       </c>
-      <c r="F16" s="61"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="60"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>14</v>
       </c>
       <c r="B17" s="21">
         <v>44057</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="102">
         <v>1638483</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="102">
         <v>3015000</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="102">
         <f t="shared" si="0"/>
         <v>1376517</v>
       </c>
-      <c r="F17" s="61"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="60"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>15</v>
       </c>
       <c r="B18" s="21">
         <v>44058</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="102">
         <v>1695949</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="102">
         <v>3845000</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="102">
         <f t="shared" si="0"/>
         <v>2149051</v>
       </c>
-      <c r="F18" s="61"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="60"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>17</v>
       </c>
       <c r="B19" s="21">
         <v>44059</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="102">
         <v>2303202</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="102">
         <v>4074000</v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="102">
         <f t="shared" si="0"/>
         <v>1770798</v>
       </c>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="60"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>17</v>
       </c>
       <c r="B20" s="21">
         <v>44060</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="102">
         <v>821729</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="102">
         <v>2220000</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="102">
         <f t="shared" si="0"/>
         <v>1398271</v>
       </c>
-      <c r="F20" s="61"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="60"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>18</v>
       </c>
       <c r="B21" s="21">
         <v>44061</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="102">
         <v>388915</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="102">
         <v>465000</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="102">
         <f t="shared" si="0"/>
         <v>76085</v>
       </c>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>19</v>
       </c>
       <c r="B22" s="21">
         <v>44062</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="102">
         <v>1925399</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="102">
         <v>3597000</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="102">
         <f t="shared" si="0"/>
         <v>1671601</v>
       </c>
-      <c r="F22" s="61"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="60"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>20</v>
       </c>
       <c r="B23" s="21">
         <v>44063</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="102">
         <v>654558</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="102">
         <v>1114000</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E23" s="102">
         <f t="shared" si="0"/>
         <v>459442</v>
       </c>
-      <c r="F23" s="61"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="60"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>21</v>
       </c>
       <c r="B24" s="21">
         <v>44064</v>
       </c>
-      <c r="C24" s="104">
+      <c r="C24" s="102">
         <v>268800</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="102">
         <v>380000</v>
       </c>
-      <c r="E24" s="104">
+      <c r="E24" s="102">
         <f t="shared" si="0"/>
         <v>111200</v>
       </c>
-      <c r="F24" s="61"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="60"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>22</v>
       </c>
       <c r="B25" s="21">
         <v>44065</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="102">
         <v>1744555</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="102">
         <v>940000</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="102">
         <f t="shared" si="0"/>
         <v>-804555</v>
       </c>
-      <c r="F25" s="61"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="60"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>23</v>
       </c>
       <c r="B26" s="21">
         <v>44066</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="102">
         <v>1551863</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="102">
         <v>2160000</v>
       </c>
-      <c r="E26" s="104">
+      <c r="E26" s="102">
         <f t="shared" si="0"/>
         <v>608137</v>
       </c>
-      <c r="F26" s="105"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="103"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>24</v>
       </c>
       <c r="B27" s="21">
         <v>44067</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="102">
         <v>1524979</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="102">
         <v>2515000</v>
       </c>
-      <c r="E27" s="104">
+      <c r="E27" s="102">
         <f t="shared" si="0"/>
         <v>990021</v>
       </c>
-      <c r="F27" s="105"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="103"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>25</v>
       </c>
       <c r="B28" s="21">
         <v>44068</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="102">
         <v>1343806</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="102">
         <v>2104000</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="102">
         <f t="shared" si="0"/>
         <v>760194</v>
       </c>
-      <c r="F28" s="105"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="103"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>27</v>
       </c>
       <c r="B29" s="21">
         <v>44069</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="102">
         <v>947764</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="102">
         <v>1935000</v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="102">
         <f t="shared" si="0"/>
         <v>987236</v>
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>27</v>
       </c>
       <c r="B30" s="21">
         <v>44070</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="102">
         <v>404524</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="102">
         <v>865000</v>
       </c>
-      <c r="E30" s="104">
+      <c r="E30" s="102">
         <f t="shared" si="0"/>
         <v>460476</v>
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>28</v>
       </c>
       <c r="B31" s="21">
         <v>44071</v>
       </c>
-      <c r="C31" s="104">
+      <c r="C31" s="102">
         <v>1176061</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="102">
         <v>1790000</v>
       </c>
-      <c r="E31" s="104">
+      <c r="E31" s="102">
         <f t="shared" si="0"/>
         <v>613939</v>
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="84" customFormat="1">
+    <row r="32" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>29</v>
       </c>
       <c r="B32" s="21">
         <v>44072</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="102">
         <v>1399667</v>
       </c>
-      <c r="D32" s="104">
+      <c r="D32" s="102">
         <v>2815000</v>
       </c>
-      <c r="E32" s="104">
+      <c r="E32" s="102">
         <f t="shared" si="0"/>
         <v>1415333</v>
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="84" customFormat="1">
+    <row r="33" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>30</v>
       </c>
       <c r="B33" s="21">
         <v>44073</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="102">
         <v>2701903</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="102">
         <v>4550000</v>
       </c>
-      <c r="E33" s="104">
+      <c r="E33" s="102">
         <f t="shared" si="0"/>
         <v>1848097</v>
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="114" customFormat="1">
+    <row r="34" spans="1:6" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
       <c r="B34" s="21">
         <v>44074</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="102">
         <v>1427680</v>
       </c>
-      <c r="D34" s="104">
+      <c r="D34" s="102">
         <v>3955000</v>
       </c>
-      <c r="E34" s="104">
+      <c r="E34" s="102">
         <f t="shared" si="0"/>
         <v>2527320</v>
       </c>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>32</v>
       </c>
@@ -6305,25 +6295,25 @@
   </sheetPr>
   <dimension ref="A2:G49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="75" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="111" customWidth="1"/>
-    <col min="4" max="4" width="18" style="112" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="68" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="74" customWidth="1"/>
-    <col min="7" max="7" width="30" style="70" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="109" customWidth="1"/>
+    <col min="4" max="4" width="18" style="110" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="73" customWidth="1"/>
+    <col min="7" max="7" width="30" style="69" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="80" customFormat="1" ht="31.5">
+    <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="168" t="s">
         <v>84</v>
       </c>
@@ -6334,609 +6324,609 @@
       <c r="F2" s="168"/>
       <c r="G2" s="168"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="25"/>
-      <c r="C3" s="110"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="C3" s="108"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="113" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="114" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="66" customFormat="1">
-      <c r="A5" s="124"/>
-      <c r="B5" s="123">
+    <row r="5" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="122"/>
+      <c r="B5" s="121">
         <v>44044</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="124"/>
-    </row>
-    <row r="6" spans="1:7" s="97" customFormat="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="123">
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="122"/>
+    </row>
+    <row r="6" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122"/>
+      <c r="B6" s="121">
         <v>44045</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="124"/>
-    </row>
-    <row r="7" spans="1:7" s="97" customFormat="1">
-      <c r="A7" s="124"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="122"/>
+    </row>
+    <row r="7" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
       <c r="B7" s="169">
         <v>44046</v>
       </c>
-      <c r="C7" s="124">
+      <c r="C7" s="122">
         <v>1</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E7" s="106">
         <v>700000</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="124"/>
-    </row>
-    <row r="8" spans="1:7" s="122" customFormat="1">
-      <c r="A8" s="124"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="122"/>
+    </row>
+    <row r="8" spans="1:7" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="122"/>
       <c r="B8" s="170"/>
-      <c r="C8" s="124">
+      <c r="C8" s="122">
         <v>2</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="106">
         <v>1820000</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="124"/>
-    </row>
-    <row r="9" spans="1:7" s="122" customFormat="1">
-      <c r="A9" s="124"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="122"/>
+    </row>
+    <row r="9" spans="1:7" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="122"/>
       <c r="B9" s="170"/>
-      <c r="C9" s="124">
+      <c r="C9" s="122">
         <v>3</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="106">
         <v>870000</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="124"/>
-    </row>
-    <row r="10" spans="1:7" s="122" customFormat="1">
-      <c r="A10" s="124"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="122"/>
+    </row>
+    <row r="10" spans="1:7" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="122"/>
       <c r="B10" s="170"/>
-      <c r="C10" s="124">
+      <c r="C10" s="122">
         <v>4</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="106">
         <v>310000</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="124"/>
-    </row>
-    <row r="11" spans="1:7" s="122" customFormat="1">
-      <c r="A11" s="124"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="122"/>
+    </row>
+    <row r="11" spans="1:7" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="122"/>
       <c r="B11" s="170"/>
-      <c r="C11" s="124">
+      <c r="C11" s="122">
         <v>5</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="106">
         <v>190000</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="124"/>
-    </row>
-    <row r="12" spans="1:7" s="97" customFormat="1" hidden="1">
-      <c r="A12" s="124"/>
-      <c r="B12" s="123">
+      <c r="F11" s="106"/>
+      <c r="G11" s="122"/>
+    </row>
+    <row r="12" spans="1:7" s="95" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="122"/>
+      <c r="B12" s="121">
         <v>44047</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="124"/>
-    </row>
-    <row r="13" spans="1:7" s="97" customFormat="1" hidden="1">
-      <c r="A13" s="124"/>
-      <c r="B13" s="123">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="122"/>
+    </row>
+    <row r="13" spans="1:7" s="95" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="122"/>
+      <c r="B13" s="121">
         <v>44048</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="124"/>
-    </row>
-    <row r="14" spans="1:7" s="97" customFormat="1" hidden="1">
-      <c r="A14" s="124"/>
-      <c r="B14" s="123">
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="122"/>
+    </row>
+    <row r="14" spans="1:7" s="95" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="122"/>
+      <c r="B14" s="121">
         <v>44049</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="124"/>
-    </row>
-    <row r="15" spans="1:7" s="126" customFormat="1">
-      <c r="A15" s="124"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="122"/>
+    </row>
+    <row r="15" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="122"/>
       <c r="B15" s="169">
         <v>44050</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="122">
         <v>1</v>
       </c>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="106">
         <v>530000</v>
       </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="124"/>
-    </row>
-    <row r="16" spans="1:7" s="66" customFormat="1">
-      <c r="A16" s="124"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="122"/>
+    </row>
+    <row r="16" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="122"/>
       <c r="B16" s="171"/>
-      <c r="C16" s="124">
+      <c r="C16" s="122">
         <v>2</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="106">
         <v>772000</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="124"/>
-    </row>
-    <row r="17" spans="1:7" s="89" customFormat="1" hidden="1">
-      <c r="A17" s="124"/>
-      <c r="B17" s="123">
+      <c r="F16" s="106"/>
+      <c r="G16" s="122"/>
+    </row>
+    <row r="17" spans="1:7" s="87" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="122"/>
+      <c r="B17" s="121">
         <v>44051</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="124"/>
-    </row>
-    <row r="18" spans="1:7" s="69" customFormat="1" hidden="1">
-      <c r="A18" s="124"/>
-      <c r="B18" s="123">
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="122"/>
+    </row>
+    <row r="18" spans="1:7" s="68" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="122"/>
+      <c r="B18" s="121">
         <v>44052</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="124"/>
-    </row>
-    <row r="19" spans="1:7" s="97" customFormat="1" hidden="1">
-      <c r="A19" s="124"/>
-      <c r="B19" s="123">
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="122"/>
+    </row>
+    <row r="19" spans="1:7" s="95" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="122"/>
+      <c r="B19" s="121">
         <v>44053</v>
       </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="124"/>
-    </row>
-    <row r="20" spans="1:7" s="97" customFormat="1" hidden="1">
-      <c r="A20" s="124"/>
-      <c r="B20" s="123">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="122"/>
+    </row>
+    <row r="20" spans="1:7" s="95" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="122"/>
+      <c r="B20" s="121">
         <v>44054</v>
       </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="124"/>
-    </row>
-    <row r="21" spans="1:7" s="102" customFormat="1" hidden="1">
-      <c r="A21" s="124"/>
-      <c r="B21" s="123">
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="122"/>
+    </row>
+    <row r="21" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="122"/>
+      <c r="B21" s="121">
         <v>44055</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="124"/>
-    </row>
-    <row r="22" spans="1:7" s="97" customFormat="1" hidden="1">
-      <c r="A22" s="124"/>
-      <c r="B22" s="123">
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="122"/>
+    </row>
+    <row r="22" spans="1:7" s="95" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="122"/>
+      <c r="B22" s="121">
         <v>44056</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="124"/>
-    </row>
-    <row r="23" spans="1:7" s="87" customFormat="1" hidden="1">
-      <c r="A23" s="124"/>
-      <c r="B23" s="123">
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="122"/>
+    </row>
+    <row r="23" spans="1:7" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="122"/>
+      <c r="B23" s="121">
         <v>44057</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="124"/>
-    </row>
-    <row r="24" spans="1:7" s="102" customFormat="1" hidden="1">
-      <c r="A24" s="124"/>
-      <c r="B24" s="123">
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="122"/>
+    </row>
+    <row r="24" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="122"/>
+      <c r="B24" s="121">
         <v>44058</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="124"/>
-    </row>
-    <row r="25" spans="1:7" s="102" customFormat="1" hidden="1">
-      <c r="A25" s="124"/>
-      <c r="B25" s="123">
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="122"/>
+    </row>
+    <row r="25" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="122"/>
+      <c r="B25" s="121">
         <v>44059</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="124"/>
-    </row>
-    <row r="26" spans="1:7" s="102" customFormat="1">
-      <c r="A26" s="124"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="122"/>
+    </row>
+    <row r="26" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="122"/>
       <c r="B26" s="169">
         <v>44060</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="122">
         <v>1</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="106">
         <v>5825000</v>
       </c>
-      <c r="F26" s="108"/>
-      <c r="G26" s="124" t="s">
+      <c r="F26" s="106"/>
+      <c r="G26" s="122" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="126" customFormat="1">
-      <c r="A27" s="124"/>
+    <row r="27" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="122"/>
       <c r="B27" s="171"/>
-      <c r="C27" s="124">
+      <c r="C27" s="122">
         <v>2</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="108">
+      <c r="E27" s="106">
         <v>5825000</v>
       </c>
-      <c r="F27" s="108"/>
-      <c r="G27" s="124"/>
-    </row>
-    <row r="28" spans="1:7" s="102" customFormat="1" hidden="1">
-      <c r="A28" s="124"/>
-      <c r="B28" s="123">
+      <c r="F27" s="106"/>
+      <c r="G27" s="122"/>
+    </row>
+    <row r="28" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="122"/>
+      <c r="B28" s="121">
         <v>44061</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="124"/>
-    </row>
-    <row r="29" spans="1:7" s="149" customFormat="1">
-      <c r="A29" s="124"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="122"/>
+    </row>
+    <row r="29" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="122"/>
       <c r="B29" s="169">
         <v>44062</v>
       </c>
-      <c r="C29" s="124">
+      <c r="C29" s="122">
         <v>1</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D29" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="108">
+      <c r="E29" s="106">
         <v>903000</v>
       </c>
-      <c r="F29" s="108"/>
-      <c r="G29" s="124"/>
-    </row>
-    <row r="30" spans="1:7" s="149" customFormat="1">
-      <c r="A30" s="124"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="122"/>
+    </row>
+    <row r="30" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="122"/>
       <c r="B30" s="170"/>
-      <c r="C30" s="124">
+      <c r="C30" s="122">
         <v>2</v>
       </c>
-      <c r="D30" s="124" t="s">
+      <c r="D30" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="108">
+      <c r="E30" s="106">
         <v>700000</v>
       </c>
-      <c r="F30" s="108"/>
-      <c r="G30" s="124"/>
-    </row>
-    <row r="31" spans="1:7" s="149" customFormat="1">
-      <c r="A31" s="124"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="122"/>
+    </row>
+    <row r="31" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="122"/>
       <c r="B31" s="170"/>
-      <c r="C31" s="124">
+      <c r="C31" s="122">
         <v>3</v>
       </c>
-      <c r="D31" s="124" t="s">
+      <c r="D31" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="108">
+      <c r="E31" s="106">
         <v>350000</v>
       </c>
-      <c r="F31" s="108"/>
-      <c r="G31" s="124"/>
-    </row>
-    <row r="32" spans="1:7" s="149" customFormat="1">
-      <c r="A32" s="124"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="122"/>
+    </row>
+    <row r="32" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="122"/>
       <c r="B32" s="170"/>
-      <c r="C32" s="124">
+      <c r="C32" s="122">
         <v>4</v>
       </c>
-      <c r="D32" s="124" t="s">
+      <c r="D32" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="108">
+      <c r="E32" s="106">
         <v>2100000</v>
       </c>
-      <c r="F32" s="108"/>
-      <c r="G32" s="124"/>
-    </row>
-    <row r="33" spans="1:7" s="149" customFormat="1">
-      <c r="A33" s="124"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="122"/>
+    </row>
+    <row r="33" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="122"/>
       <c r="B33" s="170"/>
-      <c r="C33" s="124">
+      <c r="C33" s="122">
         <v>5</v>
       </c>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="108">
+      <c r="E33" s="106">
         <v>410000</v>
       </c>
-      <c r="F33" s="108"/>
-      <c r="G33" s="124"/>
-    </row>
-    <row r="34" spans="1:7" s="149" customFormat="1">
-      <c r="A34" s="124"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="122"/>
+    </row>
+    <row r="34" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="122"/>
       <c r="B34" s="170"/>
-      <c r="C34" s="124">
+      <c r="C34" s="122">
         <v>6</v>
       </c>
-      <c r="D34" s="124" t="s">
+      <c r="D34" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="108">
+      <c r="E34" s="106">
         <v>207000</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="124"/>
-    </row>
-    <row r="35" spans="1:7" s="149" customFormat="1">
-      <c r="A35" s="124"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="122"/>
+    </row>
+    <row r="35" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="122"/>
       <c r="B35" s="170"/>
-      <c r="C35" s="124">
+      <c r="C35" s="122">
         <v>7</v>
       </c>
-      <c r="D35" s="124" t="s">
+      <c r="D35" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="108">
+      <c r="E35" s="106">
         <v>560000</v>
       </c>
-      <c r="F35" s="108"/>
-      <c r="G35" s="124"/>
-    </row>
-    <row r="36" spans="1:7" s="102" customFormat="1" hidden="1">
-      <c r="A36" s="124"/>
-      <c r="B36" s="123">
+      <c r="F35" s="106"/>
+      <c r="G35" s="122"/>
+    </row>
+    <row r="36" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="122"/>
+      <c r="B36" s="121">
         <v>44063</v>
       </c>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="124"/>
-    </row>
-    <row r="37" spans="1:7" s="73" customFormat="1" hidden="1">
-      <c r="A37" s="124"/>
-      <c r="B37" s="123">
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="122"/>
+    </row>
+    <row r="37" spans="1:7" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="122"/>
+      <c r="B37" s="121">
         <v>44064</v>
       </c>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="124"/>
-    </row>
-    <row r="38" spans="1:7" s="102" customFormat="1" hidden="1">
-      <c r="A38" s="124"/>
-      <c r="B38" s="123">
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="122"/>
+    </row>
+    <row r="38" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="122"/>
+      <c r="B38" s="121">
         <v>44065</v>
       </c>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="124"/>
-    </row>
-    <row r="39" spans="1:7" s="102" customFormat="1" hidden="1">
-      <c r="A39" s="124"/>
-      <c r="B39" s="123">
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="122"/>
+    </row>
+    <row r="39" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="122"/>
+      <c r="B39" s="121">
         <v>44066</v>
       </c>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="124"/>
-    </row>
-    <row r="40" spans="1:7" s="102" customFormat="1" hidden="1">
-      <c r="A40" s="124"/>
-      <c r="B40" s="123">
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="122"/>
+    </row>
+    <row r="40" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="122"/>
+      <c r="B40" s="121">
         <v>44067</v>
       </c>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="124"/>
-    </row>
-    <row r="41" spans="1:7" s="73" customFormat="1" hidden="1">
-      <c r="A41" s="124"/>
-      <c r="B41" s="123">
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="122"/>
+    </row>
+    <row r="41" spans="1:7" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="122"/>
+      <c r="B41" s="121">
         <v>44068</v>
       </c>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="124"/>
-    </row>
-    <row r="42" spans="1:7" s="102" customFormat="1" hidden="1">
-      <c r="A42" s="124"/>
-      <c r="B42" s="123">
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="122"/>
+    </row>
+    <row r="42" spans="1:7" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="122"/>
+      <c r="B42" s="121">
         <v>44069</v>
       </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="124"/>
-    </row>
-    <row r="43" spans="1:7" hidden="1">
-      <c r="A43" s="124"/>
-      <c r="B43" s="123">
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="122"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="122"/>
+      <c r="B43" s="121">
         <v>44070</v>
       </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="124"/>
-    </row>
-    <row r="44" spans="1:7" s="102" customFormat="1">
-      <c r="A44" s="124"/>
-      <c r="B44" s="123">
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="122"/>
+    </row>
+    <row r="44" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="122"/>
+      <c r="B44" s="121">
         <v>44071</v>
       </c>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124" t="s">
+      <c r="C44" s="122"/>
+      <c r="D44" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="108">
+      <c r="E44" s="106">
         <v>2800000</v>
       </c>
-      <c r="F44" s="108"/>
-      <c r="G44" s="124"/>
-    </row>
-    <row r="45" spans="1:7" s="102" customFormat="1">
-      <c r="A45" s="124"/>
-      <c r="B45" s="123">
+      <c r="F44" s="106"/>
+      <c r="G44" s="122"/>
+    </row>
+    <row r="45" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="122"/>
+      <c r="B45" s="121">
         <v>44072</v>
       </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="124"/>
-    </row>
-    <row r="46" spans="1:7" s="102" customFormat="1">
-      <c r="A46" s="124"/>
-      <c r="B46" s="123">
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="122"/>
+    </row>
+    <row r="46" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="122"/>
+      <c r="B46" s="121">
         <v>44073</v>
       </c>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="124"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="124"/>
-      <c r="B47" s="123">
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="122"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="122"/>
+      <c r="B47" s="121">
         <v>44074</v>
       </c>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="124"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="122"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>35</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="86">
+      <c r="C48" s="116"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="84">
         <f>SUM(E5:E47)</f>
         <v>24872000</v>
       </c>
-      <c r="F48" s="86">
+      <c r="F48" s="84">
         <f>SUM(F5:F47)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="71"/>
-    </row>
-    <row r="49" spans="1:7" s="82" customFormat="1">
-      <c r="A49" s="76"/>
+      <c r="G48" s="70"/>
+    </row>
+    <row r="49" spans="1:7" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="75"/>
       <c r="B49" s="20"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="70"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6963,17 +6953,17 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="96"/>
+    <col min="2" max="2" width="9.140625" style="94"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="172" t="s">
         <v>85</v>
       </c>
@@ -6983,11 +6973,11 @@
       <c r="E2" s="172"/>
       <c r="F2" s="172"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="93" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -7003,11 +6993,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="93">
         <v>44044</v>
       </c>
       <c r="C5" s="26"/>
@@ -7015,11 +7005,11 @@
       <c r="E5" s="42"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>8</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="93">
         <v>44045</v>
       </c>
       <c r="C6" s="34"/>
@@ -7027,11 +7017,11 @@
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>9</v>
       </c>
-      <c r="B7" s="95">
+      <c r="B7" s="93">
         <v>44046</v>
       </c>
       <c r="C7" s="34" t="s">
@@ -7045,11 +7035,11 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" s="75" customFormat="1">
+    <row r="8" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>10</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="93">
         <v>44047</v>
       </c>
       <c r="C8" s="34"/>
@@ -7057,11 +7047,11 @@
       <c r="E8" s="42"/>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>11</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="93">
         <v>44048</v>
       </c>
       <c r="C9" s="34"/>
@@ -7069,11 +7059,11 @@
       <c r="E9" s="42"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>12</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="93">
         <v>44049</v>
       </c>
       <c r="C10" s="34"/>
@@ -7081,11 +7071,11 @@
       <c r="E10" s="42"/>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>13</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="93">
         <v>44050</v>
       </c>
       <c r="C11" s="34"/>
@@ -7093,11 +7083,11 @@
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>14</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="93">
         <v>44051</v>
       </c>
       <c r="C12" s="34"/>
@@ -7105,11 +7095,11 @@
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>15</v>
       </c>
-      <c r="B13" s="95">
+      <c r="B13" s="93">
         <v>44052</v>
       </c>
       <c r="C13" s="34"/>
@@ -7117,11 +7107,11 @@
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" s="67" customFormat="1">
+    <row r="14" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>17</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="93">
         <v>44053</v>
       </c>
       <c r="C14" s="34"/>
@@ -7129,11 +7119,11 @@
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>17</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="93">
         <v>44054</v>
       </c>
       <c r="C15" s="34"/>
@@ -7141,11 +7131,11 @@
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>18</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="93">
         <v>44055</v>
       </c>
       <c r="C16" s="34"/>
@@ -7153,11 +7143,11 @@
       <c r="E16" s="42"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>19</v>
       </c>
-      <c r="B17" s="95">
+      <c r="B17" s="93">
         <v>44056</v>
       </c>
       <c r="C17" s="34"/>
@@ -7165,11 +7155,11 @@
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>20</v>
       </c>
-      <c r="B18" s="95">
+      <c r="B18" s="93">
         <v>44057</v>
       </c>
       <c r="C18" s="34"/>
@@ -7177,11 +7167,11 @@
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>21</v>
       </c>
-      <c r="B19" s="95">
+      <c r="B19" s="93">
         <v>44058</v>
       </c>
       <c r="C19" s="34"/>
@@ -7189,11 +7179,11 @@
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>22</v>
       </c>
-      <c r="B20" s="95">
+      <c r="B20" s="93">
         <v>44059</v>
       </c>
       <c r="C20" s="34"/>
@@ -7201,11 +7191,11 @@
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>23</v>
       </c>
-      <c r="B21" s="95">
+      <c r="B21" s="93">
         <v>44060</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -7217,11 +7207,11 @@
       </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>24</v>
       </c>
-      <c r="B22" s="95">
+      <c r="B22" s="93">
         <v>44061</v>
       </c>
       <c r="C22" s="34"/>
@@ -7229,11 +7219,11 @@
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" s="82" customFormat="1">
+    <row r="23" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>25</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="93">
         <v>44062</v>
       </c>
       <c r="C23" s="34"/>
@@ -7241,11 +7231,11 @@
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" s="82" customFormat="1">
+    <row r="24" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>27</v>
       </c>
-      <c r="B24" s="95">
+      <c r="B24" s="93">
         <v>44063</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -7257,11 +7247,11 @@
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>27</v>
       </c>
-      <c r="B25" s="95">
+      <c r="B25" s="93">
         <v>44064</v>
       </c>
       <c r="C25" s="34"/>
@@ -7269,11 +7259,11 @@
       <c r="E25" s="42"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" s="65" customFormat="1">
+    <row r="26" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>28</v>
       </c>
-      <c r="B26" s="95">
+      <c r="B26" s="93">
         <v>44065</v>
       </c>
       <c r="C26" s="34"/>
@@ -7281,11 +7271,11 @@
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" s="65" customFormat="1">
+    <row r="27" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>29</v>
       </c>
-      <c r="B27" s="95">
+      <c r="B27" s="93">
         <v>44066</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -7297,11 +7287,11 @@
       </c>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="117" customFormat="1">
+    <row r="28" spans="1:6" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>30</v>
       </c>
-      <c r="B28" s="95">
+      <c r="B28" s="93">
         <v>44067</v>
       </c>
       <c r="C28" s="34"/>
@@ -7309,11 +7299,11 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="117" customFormat="1">
+    <row r="29" spans="1:6" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>31</v>
       </c>
-      <c r="B29" s="95">
+      <c r="B29" s="93">
         <v>44068</v>
       </c>
       <c r="C29" s="34" t="s">
@@ -7325,11 +7315,11 @@
       </c>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="117" customFormat="1">
+    <row r="30" spans="1:6" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>32</v>
       </c>
-      <c r="B30" s="95">
+      <c r="B30" s="93">
         <v>44069</v>
       </c>
       <c r="C30" s="34"/>
@@ -7337,11 +7327,11 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="117" customFormat="1">
+    <row r="31" spans="1:6" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>33</v>
       </c>
-      <c r="B31" s="95">
+      <c r="B31" s="93">
         <v>44070</v>
       </c>
       <c r="C31" s="34"/>
@@ -7349,11 +7339,11 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="117" customFormat="1">
+    <row r="32" spans="1:6" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>34</v>
       </c>
-      <c r="B32" s="95">
+      <c r="B32" s="93">
         <v>44071</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -7365,11 +7355,11 @@
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="117" customFormat="1">
+    <row r="33" spans="1:6" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>35</v>
       </c>
-      <c r="B33" s="95">
+      <c r="B33" s="93">
         <v>44072</v>
       </c>
       <c r="C33" s="34"/>
@@ -7377,11 +7367,11 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="117" customFormat="1">
+    <row r="34" spans="1:6" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>36</v>
       </c>
-      <c r="B34" s="95">
+      <c r="B34" s="93">
         <v>44073</v>
       </c>
       <c r="C34" s="34"/>
@@ -7389,11 +7379,11 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" s="117" customFormat="1">
+    <row r="35" spans="1:6" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>37</v>
       </c>
-      <c r="B35" s="95">
+      <c r="B35" s="93">
         <v>44074</v>
       </c>
       <c r="C35" s="34"/>
@@ -7401,11 +7391,11 @@
       <c r="E35" s="42"/>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>32</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="26" t="s">
         <v>8</v>
       </c>
@@ -7434,10 +7424,10 @@
   <dimension ref="A2:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A3" sqref="A3:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
@@ -7447,7 +7437,7 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="20.25">
+    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="173" t="s">
         <v>86</v>
       </c>
@@ -7455,11 +7445,11 @@
       <c r="D2" s="174"/>
       <c r="E2" s="174"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="150" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -7468,327 +7458,327 @@
       <c r="D3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="92" customFormat="1">
+    <row r="4" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="94">
+      <c r="B4" s="92">
         <v>44018</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="77">
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="148" customFormat="1">
+    <row r="5" spans="1:5" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="77">
         <v>780000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="148" customFormat="1">
+    <row r="6" spans="1:5" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="94">
+      <c r="B6" s="92">
         <v>43897</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="99" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="34"/>
-      <c r="E6" s="78">
+      <c r="E6" s="77">
         <v>16950000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="148" customFormat="1">
+    <row r="7" spans="1:5" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="94">
+      <c r="B7" s="92">
         <v>43928</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="99" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="34"/>
-      <c r="E7" s="78">
+      <c r="E7" s="77">
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="148" customFormat="1">
+    <row r="8" spans="1:5" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="99" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="34"/>
-      <c r="E8" s="78">
+      <c r="E8" s="77">
         <v>774000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="149" customFormat="1">
+    <row r="9" spans="1:5" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="99" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="34"/>
-      <c r="E9" s="78">
+      <c r="E9" s="77">
         <v>1500000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="149" customFormat="1">
+    <row r="10" spans="1:5" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="94">
+      <c r="B10" s="92">
         <v>43838</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="99" t="s">
         <v>136</v>
       </c>
       <c r="D10" s="34"/>
-      <c r="E10" s="78">
+      <c r="E10" s="77">
         <v>630000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="149" customFormat="1">
+    <row r="11" spans="1:5" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="99" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="77">
         <v>1500000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="149" customFormat="1">
+    <row r="12" spans="1:5" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="99" t="s">
         <v>139</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="78">
+      <c r="E12" s="77">
         <v>550000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="149" customFormat="1">
+    <row r="13" spans="1:5" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="177"/>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="99" t="s">
         <v>140</v>
       </c>
       <c r="D13" s="34"/>
-      <c r="E13" s="78">
+      <c r="E13" s="77">
         <v>1375000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="69" customFormat="1">
+    <row r="14" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="175" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="175"/>
       <c r="D14" s="175"/>
-      <c r="E14" s="48">
+      <c r="E14" s="47">
         <f>SUM(E4:E13)</f>
         <v>31559000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-    </row>
-    <row r="17" spans="2:22" ht="12" customHeight="1">
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-    </row>
-    <row r="18" spans="2:22">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="2:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="2:22">
+      <c r="F18" s="61"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" spans="2:22">
+      <c r="F19" s="61"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="2:22">
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-    </row>
-    <row r="26" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="2:22">
+      <c r="K26" s="61"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="62"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-    </row>
-    <row r="28" spans="2:22">
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="61"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="K28" s="62"/>
-    </row>
-    <row r="29" spans="2:22">
+      <c r="K28" s="61"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="K29" s="62"/>
-    </row>
-    <row r="30" spans="2:22">
+      <c r="K29" s="61"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" s="8"/>
-      <c r="K30" s="62"/>
-    </row>
-    <row r="31" spans="2:22">
+      <c r="K30" s="61"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="K31" s="62"/>
-    </row>
-    <row r="32" spans="2:22">
+      <c r="K31" s="61"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-    </row>
-    <row r="34" spans="2:19">
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-    </row>
-    <row r="35" spans="2:19">
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-    </row>
-    <row r="36" spans="2:19">
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-    </row>
-    <row r="37" spans="2:19">
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7814,7 +7804,7 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -7826,7 +7816,7 @@
     <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5">
+    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="172" t="s">
         <v>82</v>
       </c>
@@ -7837,18 +7827,18 @@
       <c r="G2" s="172"/>
       <c r="H2" s="172"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="178" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="178"/>
       <c r="D5" s="178"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -7859,7 +7849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -7873,12 +7863,12 @@
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <f>SUM(D8,D9)</f>
         <v>62960000</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -7893,12 +7883,12 @@
       <c r="G9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="46">
         <f>SUM(D10,-E21,-chi!E36)</f>
         <v>44711000</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -7912,12 +7902,12 @@
       <c r="G10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <f>nợ!E14+nhập!F48</f>
         <v>31559000</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -7929,13 +7919,13 @@
         <v>135863000</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="179" t="s">
         <v>28</v>
       </c>
@@ -7943,8 +7933,8 @@
       <c r="D13" s="179"/>
       <c r="E13" s="179"/>
     </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
-    <row r="16" spans="2:8">
+    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -7958,7 +7948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="38">
         <v>1</v>
       </c>
@@ -7975,7 +7965,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="38">
         <v>2</v>
       </c>
@@ -7987,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="38">
         <v>4</v>
       </c>
@@ -7999,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="38">
         <v>5</v>
       </c>
@@ -8012,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -8022,12 +8012,12 @@
       <c r="D21" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="48">
         <f>nhập!E48</f>
         <v>24872000</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -8042,7 +8032,7 @@
         <v>3320000</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>8</v>
       </c>
@@ -8055,7 +8045,7 @@
         <v>28192000</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="178" t="s">
         <v>42</v>
       </c>
@@ -8063,7 +8053,7 @@
       <c r="D26" s="178"/>
       <c r="E26" s="178"/>
     </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="180">
         <f>SUM(D11,-E23)</f>
         <v>107671000</v>
@@ -8073,46 +8063,46 @@
       <c r="E27" s="182"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>0</v>
       </c>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>0</v>
       </c>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J31">
         <v>0</v>
       </c>
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="10:15">
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J33">
         <v>0</v>
       </c>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="10:15">
+    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J34">
         <v>0</v>
       </c>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="10:15">
+    <row r="35" spans="10:15" x14ac:dyDescent="0.25">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="10:15">
+    <row r="36" spans="10:15" x14ac:dyDescent="0.25">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -8135,11 +8125,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805A625-BAF6-47D2-B82C-BA12E06CE220}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -8148,7 +8138,7 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="188" t="s">
         <v>143</v>
       </c>
@@ -8157,7 +8147,7 @@
       <c r="D1" s="188"/>
       <c r="E1" s="188"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="179" t="s">
         <v>55</v>
       </c>
@@ -8166,59 +8156,59 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="92" customFormat="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="3" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <f>E4</f>
         <v>72903000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <f>thuốc!D35</f>
         <v>72903000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <f>chi!E36+nhập!E48</f>
         <v>28192000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <f>thuốc!C35</f>
         <v>43626882</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <f>B4-B5</f>
         <v>44711000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <f>E4-E5</f>
         <v>29276118</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="179" t="s">
         <v>63</v>
       </c>
@@ -8226,7 +8216,7 @@
       <c r="C8" s="179"/>
       <c r="D8" s="179"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="186" t="s">
         <v>64</v>
       </c>
@@ -8236,75 +8226,75 @@
       </c>
       <c r="D9" s="187"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <f>B6</f>
         <v>44711000</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="150">
+      <c r="B11" s="148">
         <v>71595706</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <f>E6</f>
         <v>29276118</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
-      <c r="B12" s="47"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="46">
         <v>94952702</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <f>B10+B11</f>
         <v>116306706</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <f>D12+D11</f>
         <v>124228820</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
     </row>
   </sheetData>
@@ -8328,34 +8318,34 @@
       <selection activeCell="D13" sqref="D13:AH16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.140625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="132" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="34" width="3.85546875" customWidth="1"/>
     <col min="35" max="35" width="7.140625" customWidth="1"/>
-    <col min="36" max="37" width="7.140625" style="126" customWidth="1"/>
+    <col min="36" max="37" width="7.140625" style="124" customWidth="1"/>
     <col min="38" max="38" width="7.140625" customWidth="1"/>
-    <col min="39" max="39" width="7.140625" style="126" customWidth="1"/>
+    <col min="39" max="39" width="7.140625" style="124" customWidth="1"/>
     <col min="40" max="40" width="7.140625" customWidth="1"/>
     <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="126" customFormat="1">
-      <c r="B1" s="134"/>
-    </row>
-    <row r="2" spans="2:43">
-      <c r="B2" s="134" t="s">
+    <row r="1" spans="2:43" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="132"/>
+    </row>
+    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B2" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="135">
+      <c r="C2" s="133">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="126" customFormat="1">
-      <c r="B3" s="134"/>
-    </row>
-    <row r="4" spans="2:43" ht="46.5">
+    <row r="3" spans="2:43" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="132"/>
+    </row>
+    <row r="4" spans="2:43" ht="46.5" x14ac:dyDescent="0.25">
       <c r="B4" s="195" t="s">
         <v>115</v>
       </c>
@@ -8382,26 +8372,26 @@
       <c r="W4" s="195"/>
       <c r="X4" s="195"/>
     </row>
-    <row r="5" spans="2:43" s="126" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B5" s="146"/>
-      <c r="C5" s="145"/>
-    </row>
-    <row r="6" spans="2:43" ht="18.75">
-      <c r="B6" s="136"/>
-      <c r="C6" s="147">
+    <row r="5" spans="2:43" s="124" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B5" s="144"/>
+      <c r="C5" s="143"/>
+    </row>
+    <row r="6" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="134"/>
+      <c r="C6" s="145">
         <f>DATE($C$2,8,1)</f>
         <v>44044</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="126" customFormat="1">
-      <c r="B7" s="136"/>
-      <c r="C7" s="137"/>
-    </row>
-    <row r="8" spans="2:43" s="126" customFormat="1">
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-    </row>
-    <row r="10" spans="2:43">
+    <row r="7" spans="2:43" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+    </row>
+    <row r="8" spans="2:43" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B10" s="196" t="s">
         <v>0</v>
       </c>
@@ -8449,136 +8439,136 @@
       <c r="AL10" s="197"/>
       <c r="AM10" s="197"/>
       <c r="AN10" s="197"/>
-      <c r="AO10" s="133" t="s">
+      <c r="AO10" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="AP10" s="132"/>
-      <c r="AQ10" s="132"/>
-    </row>
-    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="AP10" s="130"/>
+      <c r="AQ10" s="130"/>
+    </row>
+    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="196"/>
       <c r="C11" s="196"/>
-      <c r="D11" s="138">
+      <c r="D11" s="136">
         <f>C6</f>
         <v>44044</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E11" s="136">
         <f>D11+1</f>
         <v>44045</v>
       </c>
-      <c r="F11" s="138">
+      <c r="F11" s="136">
         <f t="shared" ref="F11:AE11" si="0">E11+1</f>
         <v>44046</v>
       </c>
-      <c r="G11" s="138">
+      <c r="G11" s="136">
         <f t="shared" si="0"/>
         <v>44047</v>
       </c>
-      <c r="H11" s="138">
+      <c r="H11" s="136">
         <f t="shared" si="0"/>
         <v>44048</v>
       </c>
-      <c r="I11" s="138">
+      <c r="I11" s="136">
         <f t="shared" si="0"/>
         <v>44049</v>
       </c>
-      <c r="J11" s="138">
+      <c r="J11" s="136">
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <f t="shared" si="0"/>
         <v>44051</v>
       </c>
-      <c r="L11" s="138">
+      <c r="L11" s="136">
         <f t="shared" si="0"/>
         <v>44052</v>
       </c>
-      <c r="M11" s="138">
+      <c r="M11" s="136">
         <f t="shared" si="0"/>
         <v>44053</v>
       </c>
-      <c r="N11" s="138">
+      <c r="N11" s="136">
         <f t="shared" si="0"/>
         <v>44054</v>
       </c>
-      <c r="O11" s="138">
+      <c r="O11" s="136">
         <f t="shared" si="0"/>
         <v>44055</v>
       </c>
-      <c r="P11" s="138">
+      <c r="P11" s="136">
         <f t="shared" si="0"/>
         <v>44056</v>
       </c>
-      <c r="Q11" s="138">
+      <c r="Q11" s="136">
         <f t="shared" si="0"/>
         <v>44057</v>
       </c>
-      <c r="R11" s="138">
+      <c r="R11" s="136">
         <f t="shared" si="0"/>
         <v>44058</v>
       </c>
-      <c r="S11" s="138">
+      <c r="S11" s="136">
         <f t="shared" si="0"/>
         <v>44059</v>
       </c>
-      <c r="T11" s="138">
+      <c r="T11" s="136">
         <f t="shared" si="0"/>
         <v>44060</v>
       </c>
-      <c r="U11" s="138">
+      <c r="U11" s="136">
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="V11" s="138">
+      <c r="V11" s="136">
         <f t="shared" si="0"/>
         <v>44062</v>
       </c>
-      <c r="W11" s="138">
+      <c r="W11" s="136">
         <f t="shared" si="0"/>
         <v>44063</v>
       </c>
-      <c r="X11" s="138">
+      <c r="X11" s="136">
         <f t="shared" si="0"/>
         <v>44064</v>
       </c>
-      <c r="Y11" s="138">
+      <c r="Y11" s="136">
         <f t="shared" si="0"/>
         <v>44065</v>
       </c>
-      <c r="Z11" s="138">
+      <c r="Z11" s="136">
         <f t="shared" si="0"/>
         <v>44066</v>
       </c>
-      <c r="AA11" s="138">
+      <c r="AA11" s="136">
         <f t="shared" si="0"/>
         <v>44067</v>
       </c>
-      <c r="AB11" s="138">
+      <c r="AB11" s="136">
         <f t="shared" si="0"/>
         <v>44068</v>
       </c>
-      <c r="AC11" s="138">
+      <c r="AC11" s="136">
         <f t="shared" si="0"/>
         <v>44069</v>
       </c>
-      <c r="AD11" s="138">
+      <c r="AD11" s="136">
         <f t="shared" si="0"/>
         <v>44070</v>
       </c>
-      <c r="AE11" s="138">
+      <c r="AE11" s="136">
         <f t="shared" si="0"/>
         <v>44071</v>
       </c>
-      <c r="AF11" s="138">
+      <c r="AF11" s="136">
         <f>IF(DAY(AE11+1)=DAY(D11),””,AE11+1)</f>
         <v>44072</v>
       </c>
-      <c r="AG11" s="138">
+      <c r="AG11" s="136">
         <f>IF(AF11="","",IF(DAY(AF11+1)=DAY(D11),"",AF11+1))</f>
         <v>44073</v>
       </c>
-      <c r="AH11" s="138">
+      <c r="AH11" s="136">
         <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
         <v>44074</v>
       </c>
@@ -8602,130 +8592,130 @@
       </c>
       <c r="AO11" s="193"/>
     </row>
-    <row r="12" spans="2:43" s="139" customFormat="1" ht="50.25" customHeight="1">
+    <row r="12" spans="2:43" s="137" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="196"/>
       <c r="C12" s="196"/>
-      <c r="D12" s="140" t="str">
+      <c r="D12" s="138" t="str">
         <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. bảy</v>
       </c>
-      <c r="E12" s="140" t="str">
+      <c r="E12" s="138" t="str">
         <f t="shared" ref="E12:AE12" si="1">CHOOSE(WEEKDAY(E11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="F12" s="140" t="str">
+      <c r="F12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="G12" s="140" t="str">
+      <c r="G12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="H12" s="140" t="str">
+      <c r="H12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="I12" s="140" t="str">
+      <c r="I12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="J12" s="140" t="str">
+      <c r="J12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="K12" s="140" t="str">
+      <c r="K12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="L12" s="140" t="str">
+      <c r="L12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="M12" s="140" t="str">
+      <c r="M12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="N12" s="140" t="str">
+      <c r="N12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="O12" s="140" t="str">
+      <c r="O12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="P12" s="140" t="str">
+      <c r="P12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="Q12" s="140" t="str">
+      <c r="Q12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="R12" s="140" t="str">
+      <c r="R12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="S12" s="140" t="str">
+      <c r="S12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="T12" s="140" t="str">
+      <c r="T12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="U12" s="140" t="str">
+      <c r="U12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="V12" s="140" t="str">
+      <c r="V12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="W12" s="140" t="str">
+      <c r="W12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="X12" s="140" t="str">
+      <c r="X12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="Y12" s="140" t="str">
+      <c r="Y12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="Z12" s="140" t="str">
+      <c r="Z12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="AA12" s="140" t="str">
+      <c r="AA12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="AB12" s="140" t="str">
+      <c r="AB12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="AC12" s="140" t="str">
+      <c r="AC12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="AD12" s="140" t="str">
+      <c r="AD12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="AE12" s="140" t="str">
+      <c r="AE12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="AF12" s="140" t="str">
+      <c r="AF12" s="138" t="str">
         <f t="shared" ref="AF12" si="2">CHOOSE(WEEKDAY(AF11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. bảy</v>
       </c>
-      <c r="AG12" s="140" t="str">
+      <c r="AG12" s="138" t="str">
         <f t="shared" ref="AG12" si="3">CHOOSE(WEEKDAY(AG11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>Chủ nhật</v>
       </c>
-      <c r="AH12" s="140" t="str">
+      <c r="AH12" s="138" t="str">
         <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. hai</v>
       </c>
@@ -8737,11 +8727,11 @@
       <c r="AN12" s="192"/>
       <c r="AO12" s="194"/>
     </row>
-    <row r="13" spans="2:43">
-      <c r="B13" s="127">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B13" s="125">
         <v>1</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="125" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="34" t="s">
@@ -8805,37 +8795,37 @@
       <c r="AF13" s="34"/>
       <c r="AG13" s="34"/>
       <c r="AH13" s="34"/>
-      <c r="AI13" s="143">
+      <c r="AI13" s="141">
         <f>COUNTIF(D13:AH13,D20)</f>
         <v>15</v>
       </c>
-      <c r="AJ13" s="143">
+      <c r="AJ13" s="141">
         <f>COUNTIF(D13:AH13,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="143">
+      <c r="AK13" s="141">
         <f>COUNTIF(D13:AH13,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="143">
+      <c r="AL13" s="141">
         <f>COUNTIF(D13:AH13,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="143">
+      <c r="AM13" s="141">
         <f>COUNTIF(D13:AH13,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="144">
+      <c r="AN13" s="142">
         <f>AI13+AJ13*0.5+AK13+AL13+AM13</f>
         <v>15</v>
       </c>
       <c r="AO13" s="23"/>
     </row>
-    <row r="14" spans="2:43">
-      <c r="B14" s="127">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B14" s="125">
         <v>2</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="125" t="s">
         <v>116</v>
       </c>
       <c r="D14" s="34" t="s">
@@ -8919,37 +8909,37 @@
       <c r="AH14" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AI14" s="143">
+      <c r="AI14" s="141">
         <f>COUNTIF(D14:AH14,D20)</f>
         <v>25</v>
       </c>
-      <c r="AJ14" s="143">
+      <c r="AJ14" s="141">
         <f>COUNTIF(D14:AH14,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="143">
+      <c r="AK14" s="141">
         <f>COUNTIF(D14:AH14,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="143">
+      <c r="AL14" s="141">
         <f>COUNTIF(D14:AH14,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="143">
+      <c r="AM14" s="141">
         <f>COUNTIF(D14:AH14,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="144">
+      <c r="AN14" s="142">
         <f>AI14+AJ14*0.5+AK14+AL14+AM14</f>
         <v>25</v>
       </c>
       <c r="AO14" s="23"/>
     </row>
-    <row r="15" spans="2:43">
-      <c r="B15" s="127">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B15" s="125">
         <v>3</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="125" t="s">
         <v>117</v>
       </c>
       <c r="D15" s="34"/>
@@ -9001,37 +8991,37 @@
       <c r="AF15" s="34"/>
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
-      <c r="AI15" s="143">
+      <c r="AI15" s="141">
         <f>COUNTIF(D15:AH15,D20)</f>
         <v>8</v>
       </c>
-      <c r="AJ15" s="143">
+      <c r="AJ15" s="141">
         <f>COUNTIF(D15:AH15,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="143">
+      <c r="AK15" s="141">
         <f>COUNTIF(D15:AH15,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="143">
+      <c r="AL15" s="141">
         <f>COUNTIF(D15:AH15,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="143">
+      <c r="AM15" s="141">
         <f>COUNTIF(D15:AH15,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="144">
+      <c r="AN15" s="142">
         <f t="shared" ref="AN15:AN16" si="5">AI15+AJ15*0.5+AK15+AL15+AM15</f>
         <v>8</v>
       </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="126" customFormat="1">
-      <c r="B16" s="127">
+    <row r="16" spans="2:43" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="125">
         <v>4</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="125" t="s">
         <v>118</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -9083,34 +9073,34 @@
       <c r="AH16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AI16" s="143">
+      <c r="AI16" s="141">
         <f>COUNTIF(D16:AH16,D20)</f>
         <v>9</v>
       </c>
-      <c r="AJ16" s="143">
+      <c r="AJ16" s="141">
         <f>COUNTIF(D16:AH16,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="143">
+      <c r="AK16" s="141">
         <f>COUNTIF(D16:AH16,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="143">
+      <c r="AL16" s="141">
         <f>COUNTIF(D16:AH16,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="143">
+      <c r="AM16" s="141">
         <f>COUNTIF(D16:AH16,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="144">
+      <c r="AN16" s="142">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AO16" s="23"/>
     </row>
-    <row r="17" spans="2:41">
-      <c r="B17" s="127"/>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B17" s="125"/>
       <c r="C17" s="34" t="s">
         <v>34</v>
       </c>
@@ -9145,51 +9135,51 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
       <c r="AH17" s="34"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="127"/>
-      <c r="AK17" s="127"/>
-      <c r="AL17" s="127"/>
-      <c r="AM17" s="127"/>
+      <c r="AI17" s="125"/>
+      <c r="AJ17" s="125"/>
+      <c r="AK17" s="125"/>
+      <c r="AL17" s="125"/>
+      <c r="AM17" s="125"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
-    <row r="20" spans="2:41">
-      <c r="C20" s="142" t="s">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C20" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="141" t="s">
+      <c r="D20" s="139" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:41">
-      <c r="C21" s="142" t="s">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C21" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="139" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:41">
-      <c r="C22" s="142" t="s">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C22" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="139" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:41">
-      <c r="C23" s="142" t="s">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C23" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="139" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:41">
-      <c r="C24" s="142" t="s">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C24" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="139" t="s">
         <v>104</v>
       </c>
     </row>
